--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1635">
   <si>
     <t>astam</t>
   </si>
@@ -4616,6 +4616,309 @@
   </si>
   <si>
     <t>SYS_PID</t>
+  </si>
+  <si>
+    <t>wisnu.andra</t>
+  </si>
+  <si>
+    <t>khamim</t>
+  </si>
+  <si>
+    <t>slametr</t>
+  </si>
+  <si>
+    <t>adythiaa</t>
+  </si>
+  <si>
+    <t>aguss</t>
+  </si>
+  <si>
+    <t>rafi.artman</t>
+  </si>
+  <si>
+    <t>azisp</t>
+  </si>
+  <si>
+    <t>heryanto</t>
+  </si>
+  <si>
+    <t>imran</t>
+  </si>
+  <si>
+    <t>riza</t>
+  </si>
+  <si>
+    <t>ronny.anindika</t>
+  </si>
+  <si>
+    <t>wawan.kusworo</t>
+  </si>
+  <si>
+    <t>agus.budi</t>
+  </si>
+  <si>
+    <t>samta.harahap</t>
+  </si>
+  <si>
+    <t>fuzi.mafrozi</t>
+  </si>
+  <si>
+    <t>novizan</t>
+  </si>
+  <si>
+    <t>yusuf.fathurahman</t>
+  </si>
+  <si>
+    <t>muhammad.sholikhun</t>
+  </si>
+  <si>
+    <t>vingky</t>
+  </si>
+  <si>
+    <t>admin.q180</t>
+  </si>
+  <si>
+    <t>restu.dwi</t>
+  </si>
+  <si>
+    <t>nikkon.septian</t>
+  </si>
+  <si>
+    <t>dian.setiawan</t>
+  </si>
+  <si>
+    <t>muhammad.syarifudin</t>
+  </si>
+  <si>
+    <t>oqi.suhaqi</t>
+  </si>
+  <si>
+    <t>Idris.affandi</t>
+  </si>
+  <si>
+    <t>wardah</t>
+  </si>
+  <si>
+    <t>indra.wijaya</t>
+  </si>
+  <si>
+    <t>nadiah.rizkiah</t>
+  </si>
+  <si>
+    <t>istikaro.fauziah</t>
+  </si>
+  <si>
+    <t>bagus.isdiantara</t>
+  </si>
+  <si>
+    <t>cahyana</t>
+  </si>
+  <si>
+    <t>ahmad.yunadi</t>
+  </si>
+  <si>
+    <t>muhammad.lukbani</t>
+  </si>
+  <si>
+    <t>wahyu.teluk</t>
+  </si>
+  <si>
+    <t>denny.achmad</t>
+  </si>
+  <si>
+    <t>irma.maulidawati</t>
+  </si>
+  <si>
+    <t>wulanraniasih</t>
+  </si>
+  <si>
+    <t>procurement.admin</t>
+  </si>
+  <si>
+    <t>ahmad.choerul</t>
+  </si>
+  <si>
+    <t>ferdian.kriswantoro</t>
+  </si>
+  <si>
+    <t>zeinurani</t>
+  </si>
+  <si>
+    <t>yogi.perbangkara</t>
+  </si>
+  <si>
+    <t>teluknaga</t>
+  </si>
+  <si>
+    <t>rizal.amri</t>
+  </si>
+  <si>
+    <t>gilang.setiawan</t>
+  </si>
+  <si>
+    <t>fabrian.danang</t>
+  </si>
+  <si>
+    <t>asep.mulyana</t>
+  </si>
+  <si>
+    <t>dede.hartanto</t>
+  </si>
+  <si>
+    <t>yogo</t>
+  </si>
+  <si>
+    <t>suparji</t>
+  </si>
+  <si>
+    <t>User_Slametr</t>
+  </si>
+  <si>
+    <t>User_Adythiaa</t>
+  </si>
+  <si>
+    <t>User_Aguss</t>
+  </si>
+  <si>
+    <t>User_RafiArtman</t>
+  </si>
+  <si>
+    <t>User_Azisp</t>
+  </si>
+  <si>
+    <t>User_Heryanto</t>
+  </si>
+  <si>
+    <t>User_Imran</t>
+  </si>
+  <si>
+    <t>User_Riza</t>
+  </si>
+  <si>
+    <t>User_RonnyAnindika</t>
+  </si>
+  <si>
+    <t>User_WawanKusworo</t>
+  </si>
+  <si>
+    <t>User_AgusBudi</t>
+  </si>
+  <si>
+    <t>User_SamtaHarahap</t>
+  </si>
+  <si>
+    <t>User_FuziMafrozi</t>
+  </si>
+  <si>
+    <t>User_Novizan</t>
+  </si>
+  <si>
+    <t>User_YusufFathurahman</t>
+  </si>
+  <si>
+    <t>User_MuhammadSholikhun</t>
+  </si>
+  <si>
+    <t>User_Vingky</t>
+  </si>
+  <si>
+    <t>User_AdminQ180</t>
+  </si>
+  <si>
+    <t>User_RestuDwi</t>
+  </si>
+  <si>
+    <t>User_NikkonSeptian</t>
+  </si>
+  <si>
+    <t>User_DianSetiawan</t>
+  </si>
+  <si>
+    <t>User_MuhammadSyarifudin</t>
+  </si>
+  <si>
+    <t>User_OqiSuhaqi</t>
+  </si>
+  <si>
+    <t>User_Wardah</t>
+  </si>
+  <si>
+    <t>User_IndraWijaya</t>
+  </si>
+  <si>
+    <t>User_NadiahRizkiah</t>
+  </si>
+  <si>
+    <t>User_IstikaroFauziah</t>
+  </si>
+  <si>
+    <t>User_BagusIsdiantara</t>
+  </si>
+  <si>
+    <t>User_Cahyana</t>
+  </si>
+  <si>
+    <t>User_AhmadYunadi</t>
+  </si>
+  <si>
+    <t>User_MuhammadLukbani</t>
+  </si>
+  <si>
+    <t>User_WahyuTeluk</t>
+  </si>
+  <si>
+    <t>User_DennyAchmad</t>
+  </si>
+  <si>
+    <t>User_IrmaMaulidawati</t>
+  </si>
+  <si>
+    <t>User_Wulanraniasih</t>
+  </si>
+  <si>
+    <t>User_ProcurementAdmin</t>
+  </si>
+  <si>
+    <t>User_AhmadChoerul</t>
+  </si>
+  <si>
+    <t>User_FerdianKriswantoro</t>
+  </si>
+  <si>
+    <t>User_Zeinurani</t>
+  </si>
+  <si>
+    <t>User_YogiPerbangkara</t>
+  </si>
+  <si>
+    <t>User_Teluknaga</t>
+  </si>
+  <si>
+    <t>User_RizalAmri</t>
+  </si>
+  <si>
+    <t>User_GilangSetiawan</t>
+  </si>
+  <si>
+    <t>User_FabrianDanang</t>
+  </si>
+  <si>
+    <t>User_AsepMulyana</t>
+  </si>
+  <si>
+    <t>User_DedeHartanto</t>
+  </si>
+  <si>
+    <t>User_Yogo</t>
+  </si>
+  <si>
+    <t>User_Suparji</t>
+  </si>
+  <si>
+    <t>Wisnu Andra</t>
+  </si>
+  <si>
+    <t>Khamim</t>
   </si>
 </sst>
 </file>
@@ -4995,10 +5298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E525"/>
+  <dimension ref="B1:E576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5011,14 +5314,12 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E1" s="3" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5029,7 +5330,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5040,7 +5341,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5051,7 +5352,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="5" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5062,7 +5363,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5073,7 +5374,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -5084,7 +5385,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -5095,7 +5396,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -5106,7 +5407,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -5117,7 +5418,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -5128,7 +5429,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,7 +5440,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -5150,7 +5451,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5161,7 +5462,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5172,7 +5473,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5183,7 +5484,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -5194,7 +5495,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -5205,7 +5506,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
@@ -5216,7 +5517,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
@@ -5227,7 +5528,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
@@ -5238,7 +5539,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
@@ -5249,7 +5550,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
@@ -5260,7 +5561,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
@@ -5271,7 +5572,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
@@ -5282,7 +5583,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
@@ -5293,7 +5594,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
@@ -5304,7 +5605,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
@@ -5315,7 +5616,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
@@ -5326,7 +5627,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -5337,7 +5638,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
@@ -5348,7 +5649,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
@@ -5359,7 +5660,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
@@ -5370,7 +5671,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>64</v>
       </c>
@@ -5381,7 +5682,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="35" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,7 +5693,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="36" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
@@ -5403,7 +5704,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
@@ -5414,7 +5715,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="38" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
@@ -5425,7 +5726,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
@@ -5436,7 +5737,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="40" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
@@ -5447,7 +5748,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
@@ -5458,7 +5759,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
@@ -5469,7 +5770,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
@@ -5480,7 +5781,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
@@ -5491,7 +5792,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
@@ -5502,7 +5803,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
@@ -5513,7 +5814,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="47" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
@@ -5524,7 +5825,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="48" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
@@ -5535,7 +5836,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="49" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
@@ -5546,7 +5847,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="50" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>96</v>
       </c>
@@ -5557,7 +5858,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="51" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>98</v>
       </c>
@@ -5568,7 +5869,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="52" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
@@ -5579,7 +5880,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="53" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>102</v>
       </c>
@@ -5590,7 +5891,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="54" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
@@ -5601,7 +5902,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="55" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>106</v>
       </c>
@@ -5612,7 +5913,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="56" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
@@ -5623,7 +5924,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="57" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>110</v>
       </c>
@@ -5634,7 +5935,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="58" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>112</v>
       </c>
@@ -5645,7 +5946,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="59" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
@@ -5656,7 +5957,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="60" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
@@ -5667,7 +5968,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="61" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
@@ -5678,7 +5979,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="62" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>120</v>
       </c>
@@ -5689,7 +5990,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="63" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
@@ -5700,7 +6001,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>124</v>
       </c>
@@ -5711,7 +6012,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>126</v>
       </c>
@@ -5722,7 +6023,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="66" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>128</v>
       </c>
@@ -5733,7 +6034,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="67" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>130</v>
       </c>
@@ -5744,7 +6045,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="68" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
@@ -5755,7 +6056,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="69" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>134</v>
       </c>
@@ -5766,7 +6067,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="70" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>136</v>
       </c>
@@ -5777,7 +6078,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="71" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>138</v>
       </c>
@@ -5788,7 +6089,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>140</v>
       </c>
@@ -5799,7 +6100,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="73" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>142</v>
       </c>
@@ -5810,7 +6111,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="74" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>144</v>
       </c>
@@ -5821,7 +6122,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="75" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>146</v>
       </c>
@@ -5832,7 +6133,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="76" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>148</v>
       </c>
@@ -5843,7 +6144,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="77" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>150</v>
       </c>
@@ -5854,7 +6155,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="78" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>152</v>
       </c>
@@ -5865,7 +6166,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="79" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>154</v>
       </c>
@@ -5876,7 +6177,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="80" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>156</v>
       </c>
@@ -5887,7 +6188,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="81" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>158</v>
       </c>
@@ -5898,7 +6199,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="82" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>159</v>
       </c>
@@ -5909,7 +6210,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="83" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>161</v>
       </c>
@@ -5920,7 +6221,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="84" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>163</v>
       </c>
@@ -5931,7 +6232,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="85" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>165</v>
       </c>
@@ -5942,7 +6243,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="86" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>167</v>
       </c>
@@ -5953,7 +6254,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="87" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>169</v>
       </c>
@@ -5964,7 +6265,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="88" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>171</v>
       </c>
@@ -5975,7 +6276,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="89" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>173</v>
       </c>
@@ -5986,7 +6287,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="90" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>175</v>
       </c>
@@ -5997,7 +6298,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="91" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>177</v>
       </c>
@@ -6008,7 +6309,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="92" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>179</v>
       </c>
@@ -6019,7 +6320,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="93" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>181</v>
       </c>
@@ -6030,7 +6331,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="94" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>183</v>
       </c>
@@ -6041,7 +6342,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="95" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>185</v>
       </c>
@@ -6052,7 +6353,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="96" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>187</v>
       </c>
@@ -6063,7 +6364,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="97" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>189</v>
       </c>
@@ -6074,7 +6375,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="98" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>191</v>
       </c>
@@ -6085,7 +6386,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="99" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>193</v>
       </c>
@@ -6096,7 +6397,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="100" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>195</v>
       </c>
@@ -6107,7 +6408,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="101" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>196</v>
       </c>
@@ -6118,7 +6419,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="102" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>198</v>
       </c>
@@ -6129,7 +6430,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="103" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>200</v>
       </c>
@@ -6140,7 +6441,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="104" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>202</v>
       </c>
@@ -6151,7 +6452,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="105" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>204</v>
       </c>
@@ -6162,7 +6463,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="106" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>206</v>
       </c>
@@ -6173,7 +6474,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="107" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>208</v>
       </c>
@@ -6184,7 +6485,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="108" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>210</v>
       </c>
@@ -6195,7 +6496,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="109" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>212</v>
       </c>
@@ -6206,7 +6507,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="110" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>214</v>
       </c>
@@ -6217,7 +6518,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="111" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>216</v>
       </c>
@@ -6228,7 +6529,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="112" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>218</v>
       </c>
@@ -6239,7 +6540,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="113" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>220</v>
       </c>
@@ -6250,7 +6551,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="114" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>222</v>
       </c>
@@ -6261,7 +6562,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="115" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>224</v>
       </c>
@@ -6272,7 +6573,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="116" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>226</v>
       </c>
@@ -6283,7 +6584,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="117" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>228</v>
       </c>
@@ -6294,7 +6595,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="118" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>230</v>
       </c>
@@ -6305,7 +6606,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="119" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>232</v>
       </c>
@@ -6316,7 +6617,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="120" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>234</v>
       </c>
@@ -6327,7 +6628,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="121" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
         <v>236</v>
       </c>
@@ -6338,7 +6639,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="122" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
         <v>238</v>
       </c>
@@ -6349,7 +6650,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="123" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
         <v>240</v>
       </c>
@@ -6360,7 +6661,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="124" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
         <v>242</v>
       </c>
@@ -6371,7 +6672,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="125" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
         <v>244</v>
       </c>
@@ -6382,7 +6683,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="126" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>246</v>
       </c>
@@ -6393,7 +6694,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="127" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
         <v>248</v>
       </c>
@@ -6404,7 +6705,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="128" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>250</v>
       </c>
@@ -6415,7 +6716,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="129" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>252</v>
       </c>
@@ -6426,7 +6727,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="130" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>254</v>
       </c>
@@ -6437,7 +6738,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="131" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
         <v>256</v>
       </c>
@@ -6448,7 +6749,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="132" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
         <v>258</v>
       </c>
@@ -6459,7 +6760,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="133" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
         <v>260</v>
       </c>
@@ -6470,7 +6771,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="134" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
         <v>262</v>
       </c>
@@ -6481,7 +6782,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="135" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>264</v>
       </c>
@@ -6492,7 +6793,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="136" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
         <v>266</v>
       </c>
@@ -6503,7 +6804,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="137" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
         <v>268</v>
       </c>
@@ -6514,7 +6815,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="138" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
         <v>269</v>
       </c>
@@ -6525,7 +6826,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="139" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
         <v>271</v>
       </c>
@@ -6536,7 +6837,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="140" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
         <v>273</v>
       </c>
@@ -6547,7 +6848,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="141" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
         <v>275</v>
       </c>
@@ -6558,7 +6859,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="142" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
         <v>277</v>
       </c>
@@ -6569,7 +6870,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="143" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
         <v>279</v>
       </c>
@@ -6580,7 +6881,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="144" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
         <v>281</v>
       </c>
@@ -6591,7 +6892,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="145" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>283</v>
       </c>
@@ -6602,7 +6903,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="146" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>285</v>
       </c>
@@ -6613,25 +6914,23 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="147" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="1"/>
       <c r="E147" s="4" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="148" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C148" s="1"/>
       <c r="E148" s="4" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="149" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
         <v>289</v>
       </c>
@@ -6642,7 +6941,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="150" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
         <v>291</v>
       </c>
@@ -6653,16 +6952,15 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="151" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C151" s="1"/>
       <c r="E151" s="4" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="152" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>294</v>
       </c>
@@ -6673,7 +6971,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="153" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
         <v>296</v>
       </c>
@@ -6684,7 +6982,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
         <v>298</v>
       </c>
@@ -6695,7 +6993,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="155" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
         <v>300</v>
       </c>
@@ -6706,7 +7004,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="156" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
         <v>302</v>
       </c>
@@ -6717,7 +7015,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="157" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
         <v>304</v>
       </c>
@@ -6728,7 +7026,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="158" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
         <v>306</v>
       </c>
@@ -6739,16 +7037,15 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="159" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C159" s="1"/>
       <c r="E159" s="4" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="160" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>309</v>
       </c>
@@ -6759,7 +7056,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="161" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>311</v>
       </c>
@@ -6770,7 +7067,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="162" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>313</v>
       </c>
@@ -6781,7 +7078,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="163" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
         <v>315</v>
       </c>
@@ -6792,7 +7089,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="164" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
         <v>317</v>
       </c>
@@ -6803,61 +7100,55 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="165" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C165" s="1"/>
       <c r="E165" s="4" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="166" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C166" s="1"/>
       <c r="E166" s="4" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="167" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C167" s="1"/>
       <c r="E167" s="4" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="168" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C168" s="1"/>
       <c r="E168" s="4" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="169" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C169" s="1"/>
       <c r="E169" s="4" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="170" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C170" s="1"/>
       <c r="E170" s="4" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="171" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
         <v>325</v>
       </c>
@@ -6868,7 +7159,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="172" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
         <v>327</v>
       </c>
@@ -6879,7 +7170,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="173" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
         <v>329</v>
       </c>
@@ -6890,7 +7181,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="174" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
         <v>331</v>
       </c>
@@ -6901,7 +7192,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="175" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
         <v>333</v>
       </c>
@@ -6912,7 +7203,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="176" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
         <v>335</v>
       </c>
@@ -6923,7 +7214,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="177" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
         <v>337</v>
       </c>
@@ -6934,7 +7225,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="178" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
         <v>338</v>
       </c>
@@ -6945,7 +7236,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="179" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
         <v>340</v>
       </c>
@@ -6956,7 +7247,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="180" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
         <v>342</v>
       </c>
@@ -6967,7 +7258,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="181" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
         <v>344</v>
       </c>
@@ -6978,7 +7269,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
         <v>346</v>
       </c>
@@ -6989,7 +7280,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="183" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
         <v>348</v>
       </c>
@@ -7000,7 +7291,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="184" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
         <v>350</v>
       </c>
@@ -7011,7 +7302,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="185" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
         <v>352</v>
       </c>
@@ -7022,7 +7313,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="186" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
         <v>354</v>
       </c>
@@ -7033,7 +7324,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="187" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
         <v>356</v>
       </c>
@@ -7044,7 +7335,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="188" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
         <v>358</v>
       </c>
@@ -7055,7 +7346,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="189" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
         <v>360</v>
       </c>
@@ -7066,7 +7357,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="190" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
         <v>361</v>
       </c>
@@ -7077,7 +7368,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="191" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
         <v>363</v>
       </c>
@@ -7088,7 +7379,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="192" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
         <v>365</v>
       </c>
@@ -7099,7 +7390,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="193" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
         <v>367</v>
       </c>
@@ -7110,7 +7401,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="194" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
         <v>369</v>
       </c>
@@ -7121,7 +7412,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="195" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
         <v>371</v>
       </c>
@@ -7132,7 +7423,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="196" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
         <v>373</v>
       </c>
@@ -7143,7 +7434,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="197" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
         <v>375</v>
       </c>
@@ -7154,7 +7445,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="198" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
         <v>377</v>
       </c>
@@ -7165,7 +7456,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="199" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
         <v>379</v>
       </c>
@@ -7176,7 +7467,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="200" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
         <v>381</v>
       </c>
@@ -7187,7 +7478,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="201" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
         <v>383</v>
       </c>
@@ -7198,7 +7489,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="202" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
         <v>385</v>
       </c>
@@ -7209,7 +7500,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="203" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
         <v>387</v>
       </c>
@@ -7220,7 +7511,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="204" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
         <v>389</v>
       </c>
@@ -7231,7 +7522,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="205" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
         <v>391</v>
       </c>
@@ -7242,7 +7533,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="206" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="s">
         <v>393</v>
       </c>
@@ -7253,7 +7544,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="207" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
         <v>395</v>
       </c>
@@ -7264,7 +7555,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="208" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="s">
         <v>397</v>
       </c>
@@ -7275,7 +7566,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="209" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="s">
         <v>399</v>
       </c>
@@ -7286,7 +7577,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="210" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
         <v>401</v>
       </c>
@@ -7297,7 +7588,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="211" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
         <v>403</v>
       </c>
@@ -7308,7 +7599,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="212" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
         <v>405</v>
       </c>
@@ -7319,7 +7610,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="213" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="s">
         <v>407</v>
       </c>
@@ -7330,7 +7621,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="214" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" s="1" t="s">
         <v>409</v>
       </c>
@@ -7341,7 +7632,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="215" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
         <v>411</v>
       </c>
@@ -7352,7 +7643,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="216" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
         <v>413</v>
       </c>
@@ -7363,7 +7654,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="217" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" s="1" t="s">
         <v>415</v>
       </c>
@@ -7374,7 +7665,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="218" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="1" t="s">
         <v>417</v>
       </c>
@@ -7385,7 +7676,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="219" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B219" s="1" t="s">
         <v>418</v>
       </c>
@@ -7396,7 +7687,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="220" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220" s="1" t="s">
         <v>420</v>
       </c>
@@ -7407,7 +7698,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="221" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221" s="1" t="s">
         <v>422</v>
       </c>
@@ -7418,7 +7709,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="222" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="s">
         <v>424</v>
       </c>
@@ -7429,7 +7720,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="223" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223" s="1" t="s">
         <v>426</v>
       </c>
@@ -7440,7 +7731,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="224" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B224" s="1" t="s">
         <v>428</v>
       </c>
@@ -7451,7 +7742,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="225" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="s">
         <v>430</v>
       </c>
@@ -7462,7 +7753,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="226" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="s">
         <v>431</v>
       </c>
@@ -7473,7 +7764,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="227" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
         <v>433</v>
       </c>
@@ -7484,7 +7775,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="228" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
         <v>435</v>
       </c>
@@ -7495,7 +7786,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="229" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
         <v>437</v>
       </c>
@@ -7506,7 +7797,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="230" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
         <v>439</v>
       </c>
@@ -7517,7 +7808,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="231" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
         <v>441</v>
       </c>
@@ -7528,7 +7819,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="232" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
         <v>442</v>
       </c>
@@ -7539,7 +7830,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="233" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
         <v>443</v>
       </c>
@@ -7550,7 +7841,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="234" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
         <v>445</v>
       </c>
@@ -7561,7 +7852,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="235" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B235" s="1" t="s">
         <v>447</v>
       </c>
@@ -7572,7 +7863,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="236" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="s">
         <v>449</v>
       </c>
@@ -7583,7 +7874,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="237" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B237" s="1" t="s">
         <v>450</v>
       </c>
@@ -7594,7 +7885,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="238" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B238" s="1" t="s">
         <v>452</v>
       </c>
@@ -7605,7 +7896,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="239" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B239" s="1" t="s">
         <v>454</v>
       </c>
@@ -7616,7 +7907,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="240" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="s">
         <v>456</v>
       </c>
@@ -7627,7 +7918,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="241" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B241" s="1" t="s">
         <v>458</v>
       </c>
@@ -7638,7 +7929,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="242" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
         <v>460</v>
       </c>
@@ -7649,7 +7940,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="243" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
         <v>462</v>
       </c>
@@ -7660,7 +7951,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="244" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
         <v>463</v>
       </c>
@@ -7671,7 +7962,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="245" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="s">
         <v>464</v>
       </c>
@@ -7682,7 +7973,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="246" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
         <v>466</v>
       </c>
@@ -7693,7 +7984,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="247" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
         <v>468</v>
       </c>
@@ -7704,7 +7995,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="248" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
         <v>470</v>
       </c>
@@ -7715,7 +8006,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="249" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
         <v>472</v>
       </c>
@@ -7726,7 +8017,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="250" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
         <v>474</v>
       </c>
@@ -7737,7 +8028,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="251" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
         <v>476</v>
       </c>
@@ -7748,7 +8039,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="252" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
         <v>478</v>
       </c>
@@ -7759,7 +8050,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="253" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="s">
         <v>479</v>
       </c>
@@ -7770,7 +8061,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="254" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B254" s="1" t="s">
         <v>480</v>
       </c>
@@ -7781,7 +8072,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="255" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B255" s="1" t="s">
         <v>481</v>
       </c>
@@ -7792,7 +8083,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="256" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
         <v>482</v>
       </c>
@@ -7803,7 +8094,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="257" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B257" s="1" t="s">
         <v>484</v>
       </c>
@@ -7814,7 +8105,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="258" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="s">
         <v>485</v>
       </c>
@@ -7825,7 +8116,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="259" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
         <v>486</v>
       </c>
@@ -7836,7 +8127,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="260" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B260" s="1" t="s">
         <v>488</v>
       </c>
@@ -7847,7 +8138,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="261" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B261" s="1" t="s">
         <v>490</v>
       </c>
@@ -7858,16 +8149,15 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="262" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C262" s="1"/>
       <c r="E262" s="4" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="263" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B263" s="1" t="s">
         <v>493</v>
       </c>
@@ -7878,7 +8168,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="264" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="s">
         <v>495</v>
       </c>
@@ -7889,7 +8179,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="265" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B265" s="1" t="s">
         <v>497</v>
       </c>
@@ -7900,7 +8190,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="266" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="s">
         <v>499</v>
       </c>
@@ -7911,7 +8201,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="267" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B267" s="1" t="s">
         <v>501</v>
       </c>
@@ -7922,7 +8212,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="268" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B268" s="1" t="s">
         <v>503</v>
       </c>
@@ -7933,7 +8223,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="269" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B269" s="1" t="s">
         <v>505</v>
       </c>
@@ -7944,7 +8234,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="270" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B270" s="1" t="s">
         <v>507</v>
       </c>
@@ -7955,7 +8245,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="271" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B271" s="1" t="s">
         <v>509</v>
       </c>
@@ -7966,7 +8256,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="272" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="s">
         <v>511</v>
       </c>
@@ -7977,7 +8267,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="273" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B273" s="1" t="s">
         <v>513</v>
       </c>
@@ -7988,7 +8278,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="274" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
         <v>515</v>
       </c>
@@ -7999,7 +8289,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="275" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B275" s="1" t="s">
         <v>517</v>
       </c>
@@ -8010,7 +8300,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="276" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="s">
         <v>519</v>
       </c>
@@ -8021,7 +8311,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="277" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B277" s="1" t="s">
         <v>521</v>
       </c>
@@ -8032,7 +8322,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="278" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B278" s="1" t="s">
         <v>523</v>
       </c>
@@ -8043,7 +8333,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="279" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="s">
         <v>525</v>
       </c>
@@ -8054,7 +8344,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="280" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B280" s="1" t="s">
         <v>527</v>
       </c>
@@ -8065,7 +8355,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="281" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B281" s="1" t="s">
         <v>529</v>
       </c>
@@ -8076,7 +8366,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="282" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="s">
         <v>531</v>
       </c>
@@ -8087,7 +8377,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="283" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B283" s="1" t="s">
         <v>533</v>
       </c>
@@ -8098,7 +8388,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="284" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B284" s="5" t="s">
         <v>535</v>
       </c>
@@ -8109,7 +8399,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="285" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B285" s="1" t="s">
         <v>537</v>
       </c>
@@ -8120,7 +8410,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="286" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B286" s="1" t="s">
         <v>539</v>
       </c>
@@ -8131,7 +8421,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="287" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B287" s="1" t="s">
         <v>541</v>
       </c>
@@ -8142,7 +8432,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="288" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B288" s="1" t="s">
         <v>543</v>
       </c>
@@ -8153,7 +8443,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="289" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B289" s="1" t="s">
         <v>545</v>
       </c>
@@ -8164,7 +8454,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="290" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B290" s="1" t="s">
         <v>547</v>
       </c>
@@ -8175,7 +8465,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="291" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B291" s="1" t="s">
         <v>548</v>
       </c>
@@ -8186,7 +8476,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="292" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B292" s="1" t="s">
         <v>550</v>
       </c>
@@ -8197,7 +8487,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="293" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B293" s="1" t="s">
         <v>552</v>
       </c>
@@ -8208,7 +8498,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="294" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B294" s="1" t="s">
         <v>554</v>
       </c>
@@ -8219,7 +8509,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="295" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B295" s="1" t="s">
         <v>556</v>
       </c>
@@ -8230,7 +8520,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="296" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B296" s="1" t="s">
         <v>558</v>
       </c>
@@ -8241,7 +8531,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="297" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B297" s="1" t="s">
         <v>560</v>
       </c>
@@ -8252,7 +8542,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="298" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B298" s="1" t="s">
         <v>562</v>
       </c>
@@ -8263,7 +8553,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="299" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B299" s="1" t="s">
         <v>564</v>
       </c>
@@ -8274,7 +8564,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="300" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B300" s="1" t="s">
         <v>566</v>
       </c>
@@ -8285,7 +8575,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="301" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B301" s="1" t="s">
         <v>568</v>
       </c>
@@ -8296,7 +8586,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="302" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B302" s="1" t="s">
         <v>570</v>
       </c>
@@ -8307,7 +8597,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="303" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B303" s="1" t="s">
         <v>572</v>
       </c>
@@ -8318,7 +8608,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="304" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B304" s="1" t="s">
         <v>574</v>
       </c>
@@ -8329,7 +8619,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="305" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B305" s="1" t="s">
         <v>576</v>
       </c>
@@ -8340,7 +8630,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="306" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B306" s="1" t="s">
         <v>578</v>
       </c>
@@ -8351,7 +8641,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="307" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B307" s="1" t="s">
         <v>580</v>
       </c>
@@ -8362,7 +8652,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="308" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="s">
         <v>582</v>
       </c>
@@ -8373,7 +8663,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="309" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B309" s="1" t="s">
         <v>584</v>
       </c>
@@ -8384,7 +8674,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="310" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="s">
         <v>585</v>
       </c>
@@ -8395,7 +8685,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="311" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B311" s="1" t="s">
         <v>587</v>
       </c>
@@ -8406,7 +8696,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="312" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B312" s="1" t="s">
         <v>589</v>
       </c>
@@ -8417,7 +8707,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="313" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B313" s="1" t="s">
         <v>591</v>
       </c>
@@ -8428,7 +8718,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="314" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B314" s="1" t="s">
         <v>593</v>
       </c>
@@ -8439,7 +8729,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="315" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B315" s="1" t="s">
         <v>595</v>
       </c>
@@ -8450,7 +8740,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="316" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B316" s="1" t="s">
         <v>597</v>
       </c>
@@ -8461,7 +8751,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="317" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B317" s="1" t="s">
         <v>599</v>
       </c>
@@ -8472,7 +8762,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="318" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B318" s="1" t="s">
         <v>601</v>
       </c>
@@ -8483,7 +8773,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="319" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B319" s="1" t="s">
         <v>603</v>
       </c>
@@ -8494,7 +8784,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="320" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B320" s="1" t="s">
         <v>605</v>
       </c>
@@ -8505,7 +8795,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="321" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B321" s="1" t="s">
         <v>607</v>
       </c>
@@ -8516,7 +8806,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="322" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B322" s="1" t="s">
         <v>609</v>
       </c>
@@ -8527,7 +8817,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="323" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B323" s="1" t="s">
         <v>611</v>
       </c>
@@ -8538,7 +8828,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="324" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B324" s="1" t="s">
         <v>613</v>
       </c>
@@ -8549,7 +8839,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="325" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B325" s="1" t="s">
         <v>615</v>
       </c>
@@ -8560,7 +8850,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="326" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B326" s="1" t="s">
         <v>617</v>
       </c>
@@ -8571,7 +8861,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="327" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B327" s="1" t="s">
         <v>619</v>
       </c>
@@ -8582,7 +8872,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="328" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B328" s="1" t="s">
         <v>621</v>
       </c>
@@ -8593,7 +8883,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="329" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B329" s="1" t="s">
         <v>623</v>
       </c>
@@ -8604,7 +8894,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="330" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B330" s="1" t="s">
         <v>625</v>
       </c>
@@ -8615,7 +8905,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="331" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B331" s="1" t="s">
         <v>627</v>
       </c>
@@ -8626,7 +8916,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="332" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B332" s="1" t="s">
         <v>629</v>
       </c>
@@ -8637,7 +8927,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="333" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B333" s="1" t="s">
         <v>631</v>
       </c>
@@ -8648,7 +8938,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="334" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B334" s="1" t="s">
         <v>633</v>
       </c>
@@ -8659,7 +8949,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="335" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B335" s="1" t="s">
         <v>635</v>
       </c>
@@ -8670,7 +8960,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="336" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B336" s="1" t="s">
         <v>637</v>
       </c>
@@ -8681,7 +8971,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="337" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B337" s="1" t="s">
         <v>639</v>
       </c>
@@ -8692,7 +8982,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="338" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B338" s="1" t="s">
         <v>641</v>
       </c>
@@ -8703,7 +8993,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="339" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B339" s="1" t="s">
         <v>643</v>
       </c>
@@ -8714,7 +9004,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="340" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B340" s="1" t="s">
         <v>645</v>
       </c>
@@ -8725,7 +9015,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="341" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B341" s="1" t="s">
         <v>647</v>
       </c>
@@ -8736,7 +9026,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="342" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B342" s="1" t="s">
         <v>649</v>
       </c>
@@ -8747,7 +9037,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="343" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B343" s="1" t="s">
         <v>651</v>
       </c>
@@ -8758,7 +9048,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="344" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B344" s="1" t="s">
         <v>653</v>
       </c>
@@ -8769,7 +9059,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="345" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B345" s="1" t="s">
         <v>655</v>
       </c>
@@ -8780,7 +9070,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="346" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B346" s="1" t="s">
         <v>657</v>
       </c>
@@ -8791,7 +9081,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="347" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B347" s="1" t="s">
         <v>659</v>
       </c>
@@ -8802,7 +9092,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="348" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B348" s="1" t="s">
         <v>661</v>
       </c>
@@ -8813,7 +9103,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="349" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B349" s="1" t="s">
         <v>663</v>
       </c>
@@ -8824,7 +9114,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="350" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B350" s="1" t="s">
         <v>665</v>
       </c>
@@ -8835,7 +9125,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="351" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B351" s="1" t="s">
         <v>667</v>
       </c>
@@ -8846,7 +9136,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="352" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B352" s="1" t="s">
         <v>669</v>
       </c>
@@ -8857,7 +9147,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="353" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B353" s="1" t="s">
         <v>671</v>
       </c>
@@ -8868,7 +9158,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="354" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B354" s="1" t="s">
         <v>673</v>
       </c>
@@ -8879,7 +9169,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="355" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B355" s="1" t="s">
         <v>675</v>
       </c>
@@ -8890,7 +9180,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="356" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B356" s="1" t="s">
         <v>677</v>
       </c>
@@ -8901,7 +9191,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="357" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B357" s="1" t="s">
         <v>679</v>
       </c>
@@ -8912,7 +9202,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="358" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B358" s="1" t="s">
         <v>681</v>
       </c>
@@ -8923,7 +9213,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="359" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B359" s="1" t="s">
         <v>683</v>
       </c>
@@ -8934,7 +9224,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="360" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B360" s="1" t="s">
         <v>685</v>
       </c>
@@ -8945,7 +9235,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="361" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B361" s="1" t="s">
         <v>687</v>
       </c>
@@ -8956,7 +9246,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="362" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B362" s="1" t="s">
         <v>689</v>
       </c>
@@ -8967,7 +9257,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="363" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B363" s="1" t="s">
         <v>691</v>
       </c>
@@ -8978,7 +9268,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="364" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B364" s="1" t="s">
         <v>693</v>
       </c>
@@ -8989,7 +9279,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="365" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B365" s="1" t="s">
         <v>695</v>
       </c>
@@ -9000,7 +9290,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="366" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B366" s="1" t="s">
         <v>697</v>
       </c>
@@ -9011,7 +9301,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="367" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B367" s="1" t="s">
         <v>699</v>
       </c>
@@ -9022,7 +9312,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="368" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B368" s="1" t="s">
         <v>701</v>
       </c>
@@ -9033,7 +9323,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="369" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B369" s="1" t="s">
         <v>703</v>
       </c>
@@ -9044,7 +9334,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="370" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B370" s="1" t="s">
         <v>705</v>
       </c>
@@ -9055,7 +9345,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="371" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B371" s="1" t="s">
         <v>707</v>
       </c>
@@ -9066,7 +9356,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="372" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B372" s="1" t="s">
         <v>709</v>
       </c>
@@ -9077,7 +9367,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="373" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B373" s="1" t="s">
         <v>711</v>
       </c>
@@ -9088,7 +9378,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="374" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B374" s="1" t="s">
         <v>713</v>
       </c>
@@ -9099,7 +9389,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="375" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B375" s="1" t="s">
         <v>715</v>
       </c>
@@ -9110,7 +9400,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="376" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B376" s="1" t="s">
         <v>717</v>
       </c>
@@ -9121,7 +9411,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="377" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B377" s="1" t="s">
         <v>719</v>
       </c>
@@ -9132,7 +9422,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="378" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B378" s="1" t="s">
         <v>721</v>
       </c>
@@ -9143,7 +9433,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="379" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B379" s="1" t="s">
         <v>723</v>
       </c>
@@ -9154,7 +9444,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="380" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B380" s="1" t="s">
         <v>725</v>
       </c>
@@ -9165,7 +9455,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="381" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B381" s="1" t="s">
         <v>727</v>
       </c>
@@ -9176,7 +9466,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="382" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B382" s="1" t="s">
         <v>729</v>
       </c>
@@ -9187,7 +9477,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="383" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="s">
         <v>731</v>
       </c>
@@ -9198,7 +9488,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="384" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B384" s="1" t="s">
         <v>733</v>
       </c>
@@ -9209,7 +9499,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="385" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B385" s="1" t="s">
         <v>735</v>
       </c>
@@ -9220,7 +9510,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="386" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B386" s="1" t="s">
         <v>737</v>
       </c>
@@ -9231,7 +9521,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="387" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B387" s="1" t="s">
         <v>739</v>
       </c>
@@ -9242,7 +9532,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="388" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B388" s="1" t="s">
         <v>741</v>
       </c>
@@ -9253,7 +9543,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="389" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B389" s="1" t="s">
         <v>743</v>
       </c>
@@ -9264,7 +9554,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="390" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B390" s="1" t="s">
         <v>745</v>
       </c>
@@ -9275,7 +9565,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="391" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B391" s="1" t="s">
         <v>747</v>
       </c>
@@ -9286,7 +9576,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="392" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B392" s="1" t="s">
         <v>749</v>
       </c>
@@ -9297,7 +9587,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="393" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B393" s="1" t="s">
         <v>751</v>
       </c>
@@ -9308,7 +9598,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="394" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B394" s="1" t="s">
         <v>753</v>
       </c>
@@ -9319,7 +9609,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="395" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B395" s="1" t="s">
         <v>755</v>
       </c>
@@ -9330,7 +9620,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="396" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B396" s="1" t="s">
         <v>757</v>
       </c>
@@ -9341,7 +9631,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="397" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B397" s="1" t="s">
         <v>759</v>
       </c>
@@ -9352,7 +9642,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="398" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B398" s="1" t="s">
         <v>761</v>
       </c>
@@ -9363,7 +9653,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="399" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B399" s="1" t="s">
         <v>763</v>
       </c>
@@ -9374,7 +9664,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="400" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B400" s="1" t="s">
         <v>765</v>
       </c>
@@ -9385,7 +9675,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="401" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B401" s="1" t="s">
         <v>767</v>
       </c>
@@ -9396,7 +9686,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="402" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B402" s="1" t="s">
         <v>769</v>
       </c>
@@ -9407,7 +9697,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="403" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B403" s="1" t="s">
         <v>771</v>
       </c>
@@ -9418,7 +9708,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="404" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B404" s="1" t="s">
         <v>773</v>
       </c>
@@ -9429,7 +9719,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="405" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B405" s="1" t="s">
         <v>775</v>
       </c>
@@ -9440,7 +9730,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="406" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B406" s="1" t="s">
         <v>777</v>
       </c>
@@ -9451,7 +9741,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="407" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B407" s="1" t="s">
         <v>779</v>
       </c>
@@ -9462,7 +9752,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="408" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B408" s="1" t="s">
         <v>781</v>
       </c>
@@ -9473,7 +9763,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="409" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B409" s="1" t="s">
         <v>783</v>
       </c>
@@ -9484,7 +9774,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="410" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B410" s="1" t="s">
         <v>785</v>
       </c>
@@ -9495,7 +9785,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="411" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B411" s="1" t="s">
         <v>787</v>
       </c>
@@ -9506,7 +9796,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="412" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B412" s="1" t="s">
         <v>789</v>
       </c>
@@ -9517,7 +9807,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="413" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B413" s="1" t="s">
         <v>791</v>
       </c>
@@ -9528,7 +9818,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="414" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B414" s="1" t="s">
         <v>793</v>
       </c>
@@ -9539,7 +9829,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="415" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B415" s="1" t="s">
         <v>795</v>
       </c>
@@ -9550,7 +9840,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="416" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="s">
         <v>797</v>
       </c>
@@ -9561,7 +9851,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="417" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B417" s="1" t="s">
         <v>799</v>
       </c>
@@ -9572,7 +9862,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="418" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B418" s="1" t="s">
         <v>801</v>
       </c>
@@ -9583,7 +9873,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="419" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B419" s="1" t="s">
         <v>803</v>
       </c>
@@ -9594,7 +9884,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="420" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B420" s="1" t="s">
         <v>805</v>
       </c>
@@ -9605,7 +9895,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="421" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B421" s="1" t="s">
         <v>807</v>
       </c>
@@ -9616,7 +9906,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="422" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B422" s="1" t="s">
         <v>809</v>
       </c>
@@ -9627,7 +9917,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="423" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B423" s="1" t="s">
         <v>811</v>
       </c>
@@ -9638,7 +9928,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="424" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B424" s="1" t="s">
         <v>813</v>
       </c>
@@ -9649,7 +9939,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="425" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B425" s="1" t="s">
         <v>815</v>
       </c>
@@ -9660,7 +9950,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="426" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B426" s="1" t="s">
         <v>817</v>
       </c>
@@ -9671,7 +9961,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="427" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B427" s="1" t="s">
         <v>819</v>
       </c>
@@ -9682,7 +9972,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="428" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B428" s="1" t="s">
         <v>821</v>
       </c>
@@ -9693,7 +9983,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="429" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B429" s="1" t="s">
         <v>823</v>
       </c>
@@ -9704,7 +9994,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="430" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B430" s="1" t="s">
         <v>825</v>
       </c>
@@ -9715,7 +10005,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="431" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B431" s="1" t="s">
         <v>827</v>
       </c>
@@ -9726,7 +10016,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="432" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B432" s="1" t="s">
         <v>829</v>
       </c>
@@ -9737,7 +10027,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="433" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B433" s="1" t="s">
         <v>831</v>
       </c>
@@ -9748,7 +10038,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="434" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B434" s="1" t="s">
         <v>833</v>
       </c>
@@ -9759,7 +10049,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="435" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="s">
         <v>835</v>
       </c>
@@ -9770,7 +10060,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="436" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B436" s="1" t="s">
         <v>837</v>
       </c>
@@ -9781,7 +10071,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="437" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B437" s="1" t="s">
         <v>838</v>
       </c>
@@ -9792,7 +10082,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="438" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B438" s="1" t="s">
         <v>840</v>
       </c>
@@ -9803,7 +10093,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="439" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B439" s="1" t="s">
         <v>842</v>
       </c>
@@ -9814,7 +10104,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="440" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B440" s="1" t="s">
         <v>844</v>
       </c>
@@ -9825,7 +10115,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="441" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B441" s="1" t="s">
         <v>846</v>
       </c>
@@ -9836,7 +10126,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="442" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B442" s="1" t="s">
         <v>848</v>
       </c>
@@ -9847,7 +10137,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="443" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B443" s="1" t="s">
         <v>849</v>
       </c>
@@ -9858,7 +10148,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="444" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B444" s="1" t="s">
         <v>850</v>
       </c>
@@ -9869,7 +10159,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="445" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B445" s="1" t="s">
         <v>852</v>
       </c>
@@ -9880,7 +10170,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="446" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B446" s="1" t="s">
         <v>853</v>
       </c>
@@ -9891,7 +10181,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="447" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="s">
         <v>855</v>
       </c>
@@ -9902,7 +10192,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="448" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B448" s="1" t="s">
         <v>857</v>
       </c>
@@ -9913,7 +10203,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="449" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B449" s="1" t="s">
         <v>859</v>
       </c>
@@ -9924,7 +10214,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="450" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B450" s="1" t="s">
         <v>861</v>
       </c>
@@ -9935,7 +10225,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="451" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B451" s="1" t="s">
         <v>863</v>
       </c>
@@ -9946,7 +10236,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="452" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B452" s="1" t="s">
         <v>865</v>
       </c>
@@ -9957,7 +10247,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="453" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B453" s="1" t="s">
         <v>867</v>
       </c>
@@ -9968,7 +10258,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="454" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B454" s="1" t="s">
         <v>869</v>
       </c>
@@ -9979,7 +10269,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="455" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B455" s="1" t="s">
         <v>871</v>
       </c>
@@ -9990,7 +10280,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="456" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B456" s="1" t="s">
         <v>873</v>
       </c>
@@ -10001,7 +10291,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="457" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B457" s="1" t="s">
         <v>875</v>
       </c>
@@ -10012,7 +10302,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="458" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B458" s="1" t="s">
         <v>877</v>
       </c>
@@ -10023,7 +10313,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="459" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B459" s="1" t="s">
         <v>879</v>
       </c>
@@ -10034,7 +10324,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="460" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B460" s="1" t="s">
         <v>881</v>
       </c>
@@ -10045,7 +10335,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="461" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B461" s="1" t="s">
         <v>883</v>
       </c>
@@ -10056,7 +10346,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="462" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B462" s="1" t="s">
         <v>885</v>
       </c>
@@ -10067,7 +10357,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="463" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B463" s="1" t="s">
         <v>887</v>
       </c>
@@ -10078,7 +10368,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="464" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B464" s="1" t="s">
         <v>889</v>
       </c>
@@ -10089,7 +10379,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="465" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B465" s="1" t="s">
         <v>891</v>
       </c>
@@ -10100,7 +10390,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="466" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B466" s="1" t="s">
         <v>893</v>
       </c>
@@ -10111,7 +10401,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="467" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B467" s="1" t="s">
         <v>895</v>
       </c>
@@ -10122,7 +10412,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="468" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B468" s="1" t="s">
         <v>897</v>
       </c>
@@ -10133,7 +10423,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="469" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B469" s="1" t="s">
         <v>899</v>
       </c>
@@ -10144,7 +10434,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="470" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B470" s="1" t="s">
         <v>901</v>
       </c>
@@ -10155,7 +10445,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="471" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B471" s="1" t="s">
         <v>903</v>
       </c>
@@ -10166,7 +10456,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="472" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B472" s="1" t="s">
         <v>905</v>
       </c>
@@ -10177,7 +10467,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="473" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B473" s="1" t="s">
         <v>907</v>
       </c>
@@ -10188,7 +10478,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="474" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B474" s="1" t="s">
         <v>909</v>
       </c>
@@ -10199,7 +10489,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="475" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B475" s="1" t="s">
         <v>911</v>
       </c>
@@ -10210,7 +10500,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="476" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B476" s="1" t="s">
         <v>913</v>
       </c>
@@ -10221,7 +10511,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="477" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B477" s="1" t="s">
         <v>915</v>
       </c>
@@ -10232,7 +10522,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="478" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B478" s="1" t="s">
         <v>917</v>
       </c>
@@ -10243,7 +10533,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="479" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B479" s="1" t="s">
         <v>919</v>
       </c>
@@ -10254,7 +10544,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="480" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B480" s="1" t="s">
         <v>921</v>
       </c>
@@ -10265,7 +10555,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="481" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B481" s="1" t="s">
         <v>923</v>
       </c>
@@ -10276,7 +10566,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="482" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B482" s="1" t="s">
         <v>925</v>
       </c>
@@ -10287,7 +10577,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="483" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B483" s="1" t="s">
         <v>927</v>
       </c>
@@ -10298,7 +10588,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="484" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B484" s="1" t="s">
         <v>929</v>
       </c>
@@ -10309,7 +10599,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="485" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B485" s="1" t="s">
         <v>931</v>
       </c>
@@ -10320,7 +10610,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="486" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B486" s="1" t="s">
         <v>933</v>
       </c>
@@ -10331,7 +10621,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="487" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B487" s="1" t="s">
         <v>935</v>
       </c>
@@ -10342,7 +10632,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="488" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B488" s="1" t="s">
         <v>937</v>
       </c>
@@ -10353,7 +10643,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="489" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B489" s="1" t="s">
         <v>939</v>
       </c>
@@ -10364,7 +10654,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="490" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B490" s="1" t="s">
         <v>941</v>
       </c>
@@ -10375,7 +10665,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="491" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B491" s="1" t="s">
         <v>942</v>
       </c>
@@ -10386,7 +10676,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="492" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B492" s="1" t="s">
         <v>944</v>
       </c>
@@ -10397,7 +10687,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="493" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B493" s="1" t="s">
         <v>946</v>
       </c>
@@ -10408,7 +10698,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="494" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B494" s="1" t="s">
         <v>948</v>
       </c>
@@ -10419,7 +10709,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="495" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B495" s="1" t="s">
         <v>950</v>
       </c>
@@ -10430,7 +10720,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="496" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B496" s="1" t="s">
         <v>952</v>
       </c>
@@ -10441,7 +10731,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="497" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B497" s="1" t="s">
         <v>954</v>
       </c>
@@ -10452,7 +10742,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="498" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B498" s="1" t="s">
         <v>956</v>
       </c>
@@ -10463,7 +10753,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="499" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="s">
         <v>958</v>
       </c>
@@ -10474,7 +10764,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="500" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B500" s="1" t="s">
         <v>960</v>
       </c>
@@ -10485,7 +10775,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="501" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B501" s="1" t="s">
         <v>961</v>
       </c>
@@ -10496,7 +10786,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="502" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B502" s="1" t="s">
         <v>962</v>
       </c>
@@ -10507,7 +10797,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="503" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B503" s="1" t="s">
         <v>964</v>
       </c>
@@ -10518,7 +10808,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="504" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B504" s="1" t="s">
         <v>966</v>
       </c>
@@ -10529,7 +10819,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="505" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B505" s="1" t="s">
         <v>968</v>
       </c>
@@ -10540,7 +10830,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="506" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B506" s="1" t="s">
         <v>970</v>
       </c>
@@ -10551,7 +10841,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="507" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B507" s="1" t="s">
         <v>972</v>
       </c>
@@ -10562,7 +10852,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="508" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="s">
         <v>974</v>
       </c>
@@ -10573,7 +10863,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="509" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B509" s="1" t="s">
         <v>975</v>
       </c>
@@ -10584,7 +10874,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="510" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B510" s="1" t="s">
         <v>977</v>
       </c>
@@ -10595,7 +10885,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="511" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B511" s="1" t="s">
         <v>979</v>
       </c>
@@ -10606,7 +10896,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="512" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="s">
         <v>981</v>
       </c>
@@ -10617,7 +10907,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="513" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B513" s="1" t="s">
         <v>983</v>
       </c>
@@ -10628,7 +10918,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="514" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B514" s="1" t="s">
         <v>985</v>
       </c>
@@ -10639,7 +10929,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="515" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B515" s="1" t="s">
         <v>987</v>
       </c>
@@ -10650,7 +10940,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="516" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B516" s="1" t="s">
         <v>989</v>
       </c>
@@ -10661,7 +10951,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="517" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B517" s="1" t="s">
         <v>991</v>
       </c>
@@ -10672,7 +10962,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="518" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B518" s="1" t="s">
         <v>993</v>
       </c>
@@ -10683,7 +10973,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="519" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B519" s="1" t="s">
         <v>995</v>
       </c>
@@ -10694,7 +10984,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="520" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="s">
         <v>997</v>
       </c>
@@ -10705,7 +10995,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="521" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B521" s="1" t="s">
         <v>999</v>
       </c>
@@ -10716,7 +11006,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="522" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B522" s="1" t="s">
         <v>1001</v>
       </c>
@@ -10727,7 +11017,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="523" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
         <v>1003</v>
       </c>
@@ -10738,7 +11028,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="524" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B524" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10749,7 +11039,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="525" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B525" s="1" t="s">
         <v>1007</v>
       </c>
@@ -10758,13 +11048,571 @@
       </c>
       <c r="E525" s="4" t="s">
         <v>1532</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B526" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E526" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B527" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E527" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B528" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E528" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B529" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E529" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="530" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B530" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E530" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="531" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B531" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E531" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B532" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E532" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="533" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B533" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E533" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B534" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E534" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B535" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E535" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B536" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E536" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B537" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E537" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B538" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E538" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B539" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E539" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B540" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E540" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="541" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B541" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E541" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="542" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B542" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E542" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="543" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B543" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E543" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="544" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B544" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E544" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="545" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B545" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E545" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="546" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B546" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E546" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="547" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B547" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E547" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="548" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B548" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E548" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="549" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B549" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E549" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="550" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B550" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E550" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="551" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B551" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E551" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="552" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B552" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E552" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="553" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B553" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E553" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="554" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B554" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E554" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="555" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B555" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E555" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="556" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B556" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="557" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B557" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E557" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="558" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B558" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E558" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="559" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B559" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="560" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B560" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E560" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="561" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B561" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E561" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="562" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B562" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="563" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B563" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="564" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B564" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E564" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="565" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B565" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="566" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B566" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E566" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="567" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B567" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E567" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="568" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B568" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E568" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="569" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B569" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E569" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="570" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B570" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E570" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B571" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E571" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="572" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B572" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E572" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="573" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B573" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E573" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="574" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B574" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="575" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B575" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E575" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="576" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B576" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E576" s="4" t="s">
+        <v>1531</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E525" numberStoredAsText="1"/>
+    <ignoredError sqref="E2:E525 E526:E576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1164">
   <si>
     <t>astam</t>
   </si>
@@ -3043,1578 +3043,6 @@
     <t>Sufie Amalia</t>
   </si>
   <si>
-    <t>47000000000001</t>
-  </si>
-  <si>
-    <t>47000000000002</t>
-  </si>
-  <si>
-    <t>47000000000003</t>
-  </si>
-  <si>
-    <t>47000000000004</t>
-  </si>
-  <si>
-    <t>47000000000005</t>
-  </si>
-  <si>
-    <t>47000000000006</t>
-  </si>
-  <si>
-    <t>47000000000007</t>
-  </si>
-  <si>
-    <t>47000000000008</t>
-  </si>
-  <si>
-    <t>47000000000009</t>
-  </si>
-  <si>
-    <t>47000000000010</t>
-  </si>
-  <si>
-    <t>47000000000011</t>
-  </si>
-  <si>
-    <t>47000000000012</t>
-  </si>
-  <si>
-    <t>47000000000013</t>
-  </si>
-  <si>
-    <t>47000000000014</t>
-  </si>
-  <si>
-    <t>47000000000015</t>
-  </si>
-  <si>
-    <t>47000000000016</t>
-  </si>
-  <si>
-    <t>47000000000017</t>
-  </si>
-  <si>
-    <t>47000000000018</t>
-  </si>
-  <si>
-    <t>47000000000019</t>
-  </si>
-  <si>
-    <t>47000000000020</t>
-  </si>
-  <si>
-    <t>47000000000021</t>
-  </si>
-  <si>
-    <t>47000000000022</t>
-  </si>
-  <si>
-    <t>47000000000023</t>
-  </si>
-  <si>
-    <t>47000000000024</t>
-  </si>
-  <si>
-    <t>47000000000025</t>
-  </si>
-  <si>
-    <t>47000000000026</t>
-  </si>
-  <si>
-    <t>47000000000027</t>
-  </si>
-  <si>
-    <t>47000000000028</t>
-  </si>
-  <si>
-    <t>47000000000029</t>
-  </si>
-  <si>
-    <t>47000000000030</t>
-  </si>
-  <si>
-    <t>47000000000031</t>
-  </si>
-  <si>
-    <t>47000000000032</t>
-  </si>
-  <si>
-    <t>47000000000033</t>
-  </si>
-  <si>
-    <t>47000000000034</t>
-  </si>
-  <si>
-    <t>47000000000035</t>
-  </si>
-  <si>
-    <t>47000000000036</t>
-  </si>
-  <si>
-    <t>47000000000037</t>
-  </si>
-  <si>
-    <t>47000000000038</t>
-  </si>
-  <si>
-    <t>47000000000039</t>
-  </si>
-  <si>
-    <t>47000000000040</t>
-  </si>
-  <si>
-    <t>47000000000041</t>
-  </si>
-  <si>
-    <t>47000000000042</t>
-  </si>
-  <si>
-    <t>47000000000043</t>
-  </si>
-  <si>
-    <t>47000000000044</t>
-  </si>
-  <si>
-    <t>47000000000045</t>
-  </si>
-  <si>
-    <t>47000000000046</t>
-  </si>
-  <si>
-    <t>47000000000047</t>
-  </si>
-  <si>
-    <t>47000000000048</t>
-  </si>
-  <si>
-    <t>47000000000049</t>
-  </si>
-  <si>
-    <t>47000000000050</t>
-  </si>
-  <si>
-    <t>47000000000051</t>
-  </si>
-  <si>
-    <t>47000000000052</t>
-  </si>
-  <si>
-    <t>47000000000053</t>
-  </si>
-  <si>
-    <t>47000000000054</t>
-  </si>
-  <si>
-    <t>47000000000055</t>
-  </si>
-  <si>
-    <t>47000000000056</t>
-  </si>
-  <si>
-    <t>47000000000057</t>
-  </si>
-  <si>
-    <t>47000000000058</t>
-  </si>
-  <si>
-    <t>47000000000059</t>
-  </si>
-  <si>
-    <t>47000000000060</t>
-  </si>
-  <si>
-    <t>47000000000061</t>
-  </si>
-  <si>
-    <t>47000000000062</t>
-  </si>
-  <si>
-    <t>47000000000063</t>
-  </si>
-  <si>
-    <t>47000000000064</t>
-  </si>
-  <si>
-    <t>47000000000065</t>
-  </si>
-  <si>
-    <t>47000000000066</t>
-  </si>
-  <si>
-    <t>47000000000067</t>
-  </si>
-  <si>
-    <t>47000000000068</t>
-  </si>
-  <si>
-    <t>47000000000069</t>
-  </si>
-  <si>
-    <t>47000000000070</t>
-  </si>
-  <si>
-    <t>47000000000071</t>
-  </si>
-  <si>
-    <t>47000000000072</t>
-  </si>
-  <si>
-    <t>47000000000073</t>
-  </si>
-  <si>
-    <t>47000000000074</t>
-  </si>
-  <si>
-    <t>47000000000075</t>
-  </si>
-  <si>
-    <t>47000000000076</t>
-  </si>
-  <si>
-    <t>47000000000077</t>
-  </si>
-  <si>
-    <t>47000000000078</t>
-  </si>
-  <si>
-    <t>47000000000079</t>
-  </si>
-  <si>
-    <t>47000000000080</t>
-  </si>
-  <si>
-    <t>47000000000081</t>
-  </si>
-  <si>
-    <t>47000000000082</t>
-  </si>
-  <si>
-    <t>47000000000083</t>
-  </si>
-  <si>
-    <t>47000000000084</t>
-  </si>
-  <si>
-    <t>47000000000085</t>
-  </si>
-  <si>
-    <t>47000000000086</t>
-  </si>
-  <si>
-    <t>47000000000087</t>
-  </si>
-  <si>
-    <t>47000000000088</t>
-  </si>
-  <si>
-    <t>47000000000089</t>
-  </si>
-  <si>
-    <t>47000000000090</t>
-  </si>
-  <si>
-    <t>47000000000091</t>
-  </si>
-  <si>
-    <t>47000000000092</t>
-  </si>
-  <si>
-    <t>47000000000093</t>
-  </si>
-  <si>
-    <t>47000000000094</t>
-  </si>
-  <si>
-    <t>47000000000095</t>
-  </si>
-  <si>
-    <t>47000000000096</t>
-  </si>
-  <si>
-    <t>47000000000097</t>
-  </si>
-  <si>
-    <t>47000000000098</t>
-  </si>
-  <si>
-    <t>47000000000099</t>
-  </si>
-  <si>
-    <t>47000000000100</t>
-  </si>
-  <si>
-    <t>47000000000101</t>
-  </si>
-  <si>
-    <t>47000000000102</t>
-  </si>
-  <si>
-    <t>47000000000103</t>
-  </si>
-  <si>
-    <t>47000000000104</t>
-  </si>
-  <si>
-    <t>47000000000105</t>
-  </si>
-  <si>
-    <t>47000000000106</t>
-  </si>
-  <si>
-    <t>47000000000107</t>
-  </si>
-  <si>
-    <t>47000000000108</t>
-  </si>
-  <si>
-    <t>47000000000109</t>
-  </si>
-  <si>
-    <t>47000000000110</t>
-  </si>
-  <si>
-    <t>47000000000111</t>
-  </si>
-  <si>
-    <t>47000000000112</t>
-  </si>
-  <si>
-    <t>47000000000113</t>
-  </si>
-  <si>
-    <t>47000000000114</t>
-  </si>
-  <si>
-    <t>47000000000115</t>
-  </si>
-  <si>
-    <t>47000000000116</t>
-  </si>
-  <si>
-    <t>47000000000117</t>
-  </si>
-  <si>
-    <t>47000000000118</t>
-  </si>
-  <si>
-    <t>47000000000119</t>
-  </si>
-  <si>
-    <t>47000000000120</t>
-  </si>
-  <si>
-    <t>47000000000121</t>
-  </si>
-  <si>
-    <t>47000000000122</t>
-  </si>
-  <si>
-    <t>47000000000123</t>
-  </si>
-  <si>
-    <t>47000000000124</t>
-  </si>
-  <si>
-    <t>47000000000125</t>
-  </si>
-  <si>
-    <t>47000000000126</t>
-  </si>
-  <si>
-    <t>47000000000127</t>
-  </si>
-  <si>
-    <t>47000000000128</t>
-  </si>
-  <si>
-    <t>47000000000129</t>
-  </si>
-  <si>
-    <t>47000000000130</t>
-  </si>
-  <si>
-    <t>47000000000131</t>
-  </si>
-  <si>
-    <t>47000000000132</t>
-  </si>
-  <si>
-    <t>47000000000133</t>
-  </si>
-  <si>
-    <t>47000000000134</t>
-  </si>
-  <si>
-    <t>47000000000135</t>
-  </si>
-  <si>
-    <t>47000000000136</t>
-  </si>
-  <si>
-    <t>47000000000137</t>
-  </si>
-  <si>
-    <t>47000000000138</t>
-  </si>
-  <si>
-    <t>47000000000139</t>
-  </si>
-  <si>
-    <t>47000000000140</t>
-  </si>
-  <si>
-    <t>47000000000141</t>
-  </si>
-  <si>
-    <t>47000000000142</t>
-  </si>
-  <si>
-    <t>47000000000143</t>
-  </si>
-  <si>
-    <t>47000000000144</t>
-  </si>
-  <si>
-    <t>47000000000145</t>
-  </si>
-  <si>
-    <t>47000000000146</t>
-  </si>
-  <si>
-    <t>47000000000147</t>
-  </si>
-  <si>
-    <t>47000000000148</t>
-  </si>
-  <si>
-    <t>47000000000149</t>
-  </si>
-  <si>
-    <t>47000000000150</t>
-  </si>
-  <si>
-    <t>47000000000151</t>
-  </si>
-  <si>
-    <t>47000000000152</t>
-  </si>
-  <si>
-    <t>47000000000153</t>
-  </si>
-  <si>
-    <t>47000000000154</t>
-  </si>
-  <si>
-    <t>47000000000155</t>
-  </si>
-  <si>
-    <t>47000000000156</t>
-  </si>
-  <si>
-    <t>47000000000157</t>
-  </si>
-  <si>
-    <t>47000000000158</t>
-  </si>
-  <si>
-    <t>47000000000159</t>
-  </si>
-  <si>
-    <t>47000000000160</t>
-  </si>
-  <si>
-    <t>47000000000161</t>
-  </si>
-  <si>
-    <t>47000000000162</t>
-  </si>
-  <si>
-    <t>47000000000163</t>
-  </si>
-  <si>
-    <t>47000000000164</t>
-  </si>
-  <si>
-    <t>47000000000165</t>
-  </si>
-  <si>
-    <t>47000000000166</t>
-  </si>
-  <si>
-    <t>47000000000167</t>
-  </si>
-  <si>
-    <t>47000000000168</t>
-  </si>
-  <si>
-    <t>47000000000169</t>
-  </si>
-  <si>
-    <t>47000000000170</t>
-  </si>
-  <si>
-    <t>47000000000171</t>
-  </si>
-  <si>
-    <t>47000000000172</t>
-  </si>
-  <si>
-    <t>47000000000173</t>
-  </si>
-  <si>
-    <t>47000000000174</t>
-  </si>
-  <si>
-    <t>47000000000175</t>
-  </si>
-  <si>
-    <t>47000000000176</t>
-  </si>
-  <si>
-    <t>47000000000177</t>
-  </si>
-  <si>
-    <t>47000000000178</t>
-  </si>
-  <si>
-    <t>47000000000179</t>
-  </si>
-  <si>
-    <t>47000000000180</t>
-  </si>
-  <si>
-    <t>47000000000181</t>
-  </si>
-  <si>
-    <t>47000000000182</t>
-  </si>
-  <si>
-    <t>47000000000183</t>
-  </si>
-  <si>
-    <t>47000000000184</t>
-  </si>
-  <si>
-    <t>47000000000185</t>
-  </si>
-  <si>
-    <t>47000000000186</t>
-  </si>
-  <si>
-    <t>47000000000187</t>
-  </si>
-  <si>
-    <t>47000000000188</t>
-  </si>
-  <si>
-    <t>47000000000189</t>
-  </si>
-  <si>
-    <t>47000000000190</t>
-  </si>
-  <si>
-    <t>47000000000191</t>
-  </si>
-  <si>
-    <t>47000000000192</t>
-  </si>
-  <si>
-    <t>47000000000193</t>
-  </si>
-  <si>
-    <t>47000000000194</t>
-  </si>
-  <si>
-    <t>47000000000195</t>
-  </si>
-  <si>
-    <t>47000000000196</t>
-  </si>
-  <si>
-    <t>47000000000197</t>
-  </si>
-  <si>
-    <t>47000000000198</t>
-  </si>
-  <si>
-    <t>47000000000199</t>
-  </si>
-  <si>
-    <t>47000000000200</t>
-  </si>
-  <si>
-    <t>47000000000201</t>
-  </si>
-  <si>
-    <t>47000000000202</t>
-  </si>
-  <si>
-    <t>47000000000203</t>
-  </si>
-  <si>
-    <t>47000000000204</t>
-  </si>
-  <si>
-    <t>47000000000205</t>
-  </si>
-  <si>
-    <t>47000000000206</t>
-  </si>
-  <si>
-    <t>47000000000207</t>
-  </si>
-  <si>
-    <t>47000000000208</t>
-  </si>
-  <si>
-    <t>47000000000209</t>
-  </si>
-  <si>
-    <t>47000000000210</t>
-  </si>
-  <si>
-    <t>47000000000211</t>
-  </si>
-  <si>
-    <t>47000000000212</t>
-  </si>
-  <si>
-    <t>47000000000213</t>
-  </si>
-  <si>
-    <t>47000000000214</t>
-  </si>
-  <si>
-    <t>47000000000215</t>
-  </si>
-  <si>
-    <t>47000000000216</t>
-  </si>
-  <si>
-    <t>47000000000217</t>
-  </si>
-  <si>
-    <t>47000000000218</t>
-  </si>
-  <si>
-    <t>47000000000219</t>
-  </si>
-  <si>
-    <t>47000000000220</t>
-  </si>
-  <si>
-    <t>47000000000221</t>
-  </si>
-  <si>
-    <t>47000000000222</t>
-  </si>
-  <si>
-    <t>47000000000223</t>
-  </si>
-  <si>
-    <t>47000000000224</t>
-  </si>
-  <si>
-    <t>47000000000225</t>
-  </si>
-  <si>
-    <t>47000000000226</t>
-  </si>
-  <si>
-    <t>47000000000227</t>
-  </si>
-  <si>
-    <t>47000000000228</t>
-  </si>
-  <si>
-    <t>47000000000229</t>
-  </si>
-  <si>
-    <t>47000000000230</t>
-  </si>
-  <si>
-    <t>47000000000231</t>
-  </si>
-  <si>
-    <t>47000000000232</t>
-  </si>
-  <si>
-    <t>47000000000233</t>
-  </si>
-  <si>
-    <t>47000000000234</t>
-  </si>
-  <si>
-    <t>47000000000235</t>
-  </si>
-  <si>
-    <t>47000000000236</t>
-  </si>
-  <si>
-    <t>47000000000237</t>
-  </si>
-  <si>
-    <t>47000000000238</t>
-  </si>
-  <si>
-    <t>47000000000239</t>
-  </si>
-  <si>
-    <t>47000000000240</t>
-  </si>
-  <si>
-    <t>47000000000241</t>
-  </si>
-  <si>
-    <t>47000000000242</t>
-  </si>
-  <si>
-    <t>47000000000243</t>
-  </si>
-  <si>
-    <t>47000000000244</t>
-  </si>
-  <si>
-    <t>47000000000245</t>
-  </si>
-  <si>
-    <t>47000000000246</t>
-  </si>
-  <si>
-    <t>47000000000247</t>
-  </si>
-  <si>
-    <t>47000000000248</t>
-  </si>
-  <si>
-    <t>47000000000249</t>
-  </si>
-  <si>
-    <t>47000000000250</t>
-  </si>
-  <si>
-    <t>47000000000251</t>
-  </si>
-  <si>
-    <t>47000000000252</t>
-  </si>
-  <si>
-    <t>47000000000253</t>
-  </si>
-  <si>
-    <t>47000000000254</t>
-  </si>
-  <si>
-    <t>47000000000255</t>
-  </si>
-  <si>
-    <t>47000000000256</t>
-  </si>
-  <si>
-    <t>47000000000257</t>
-  </si>
-  <si>
-    <t>47000000000258</t>
-  </si>
-  <si>
-    <t>47000000000259</t>
-  </si>
-  <si>
-    <t>47000000000260</t>
-  </si>
-  <si>
-    <t>47000000000261</t>
-  </si>
-  <si>
-    <t>47000000000262</t>
-  </si>
-  <si>
-    <t>47000000000263</t>
-  </si>
-  <si>
-    <t>47000000000264</t>
-  </si>
-  <si>
-    <t>47000000000265</t>
-  </si>
-  <si>
-    <t>47000000000266</t>
-  </si>
-  <si>
-    <t>47000000000267</t>
-  </si>
-  <si>
-    <t>47000000000268</t>
-  </si>
-  <si>
-    <t>47000000000269</t>
-  </si>
-  <si>
-    <t>47000000000270</t>
-  </si>
-  <si>
-    <t>47000000000271</t>
-  </si>
-  <si>
-    <t>47000000000272</t>
-  </si>
-  <si>
-    <t>47000000000273</t>
-  </si>
-  <si>
-    <t>47000000000274</t>
-  </si>
-  <si>
-    <t>47000000000275</t>
-  </si>
-  <si>
-    <t>47000000000276</t>
-  </si>
-  <si>
-    <t>47000000000277</t>
-  </si>
-  <si>
-    <t>47000000000278</t>
-  </si>
-  <si>
-    <t>47000000000279</t>
-  </si>
-  <si>
-    <t>47000000000280</t>
-  </si>
-  <si>
-    <t>47000000000281</t>
-  </si>
-  <si>
-    <t>47000000000282</t>
-  </si>
-  <si>
-    <t>47000000000283</t>
-  </si>
-  <si>
-    <t>47000000000284</t>
-  </si>
-  <si>
-    <t>47000000000285</t>
-  </si>
-  <si>
-    <t>47000000000286</t>
-  </si>
-  <si>
-    <t>47000000000287</t>
-  </si>
-  <si>
-    <t>47000000000288</t>
-  </si>
-  <si>
-    <t>47000000000289</t>
-  </si>
-  <si>
-    <t>47000000000290</t>
-  </si>
-  <si>
-    <t>47000000000291</t>
-  </si>
-  <si>
-    <t>47000000000292</t>
-  </si>
-  <si>
-    <t>47000000000293</t>
-  </si>
-  <si>
-    <t>47000000000294</t>
-  </si>
-  <si>
-    <t>47000000000295</t>
-  </si>
-  <si>
-    <t>47000000000296</t>
-  </si>
-  <si>
-    <t>47000000000297</t>
-  </si>
-  <si>
-    <t>47000000000298</t>
-  </si>
-  <si>
-    <t>47000000000299</t>
-  </si>
-  <si>
-    <t>47000000000300</t>
-  </si>
-  <si>
-    <t>47000000000301</t>
-  </si>
-  <si>
-    <t>47000000000302</t>
-  </si>
-  <si>
-    <t>47000000000303</t>
-  </si>
-  <si>
-    <t>47000000000304</t>
-  </si>
-  <si>
-    <t>47000000000305</t>
-  </si>
-  <si>
-    <t>47000000000306</t>
-  </si>
-  <si>
-    <t>47000000000307</t>
-  </si>
-  <si>
-    <t>47000000000308</t>
-  </si>
-  <si>
-    <t>47000000000309</t>
-  </si>
-  <si>
-    <t>47000000000310</t>
-  </si>
-  <si>
-    <t>47000000000311</t>
-  </si>
-  <si>
-    <t>47000000000312</t>
-  </si>
-  <si>
-    <t>47000000000313</t>
-  </si>
-  <si>
-    <t>47000000000314</t>
-  </si>
-  <si>
-    <t>47000000000315</t>
-  </si>
-  <si>
-    <t>47000000000316</t>
-  </si>
-  <si>
-    <t>47000000000317</t>
-  </si>
-  <si>
-    <t>47000000000318</t>
-  </si>
-  <si>
-    <t>47000000000319</t>
-  </si>
-  <si>
-    <t>47000000000320</t>
-  </si>
-  <si>
-    <t>47000000000321</t>
-  </si>
-  <si>
-    <t>47000000000322</t>
-  </si>
-  <si>
-    <t>47000000000323</t>
-  </si>
-  <si>
-    <t>47000000000324</t>
-  </si>
-  <si>
-    <t>47000000000325</t>
-  </si>
-  <si>
-    <t>47000000000326</t>
-  </si>
-  <si>
-    <t>47000000000327</t>
-  </si>
-  <si>
-    <t>47000000000328</t>
-  </si>
-  <si>
-    <t>47000000000329</t>
-  </si>
-  <si>
-    <t>47000000000330</t>
-  </si>
-  <si>
-    <t>47000000000331</t>
-  </si>
-  <si>
-    <t>47000000000332</t>
-  </si>
-  <si>
-    <t>47000000000333</t>
-  </si>
-  <si>
-    <t>47000000000334</t>
-  </si>
-  <si>
-    <t>47000000000335</t>
-  </si>
-  <si>
-    <t>47000000000336</t>
-  </si>
-  <si>
-    <t>47000000000337</t>
-  </si>
-  <si>
-    <t>47000000000338</t>
-  </si>
-  <si>
-    <t>47000000000339</t>
-  </si>
-  <si>
-    <t>47000000000340</t>
-  </si>
-  <si>
-    <t>47000000000341</t>
-  </si>
-  <si>
-    <t>47000000000342</t>
-  </si>
-  <si>
-    <t>47000000000343</t>
-  </si>
-  <si>
-    <t>47000000000344</t>
-  </si>
-  <si>
-    <t>47000000000345</t>
-  </si>
-  <si>
-    <t>47000000000346</t>
-  </si>
-  <si>
-    <t>47000000000347</t>
-  </si>
-  <si>
-    <t>47000000000348</t>
-  </si>
-  <si>
-    <t>47000000000349</t>
-  </si>
-  <si>
-    <t>47000000000350</t>
-  </si>
-  <si>
-    <t>47000000000351</t>
-  </si>
-  <si>
-    <t>47000000000352</t>
-  </si>
-  <si>
-    <t>47000000000353</t>
-  </si>
-  <si>
-    <t>47000000000354</t>
-  </si>
-  <si>
-    <t>47000000000355</t>
-  </si>
-  <si>
-    <t>47000000000356</t>
-  </si>
-  <si>
-    <t>47000000000357</t>
-  </si>
-  <si>
-    <t>47000000000358</t>
-  </si>
-  <si>
-    <t>47000000000359</t>
-  </si>
-  <si>
-    <t>47000000000360</t>
-  </si>
-  <si>
-    <t>47000000000361</t>
-  </si>
-  <si>
-    <t>47000000000362</t>
-  </si>
-  <si>
-    <t>47000000000363</t>
-  </si>
-  <si>
-    <t>47000000000364</t>
-  </si>
-  <si>
-    <t>47000000000365</t>
-  </si>
-  <si>
-    <t>47000000000366</t>
-  </si>
-  <si>
-    <t>47000000000367</t>
-  </si>
-  <si>
-    <t>47000000000368</t>
-  </si>
-  <si>
-    <t>47000000000369</t>
-  </si>
-  <si>
-    <t>47000000000370</t>
-  </si>
-  <si>
-    <t>47000000000371</t>
-  </si>
-  <si>
-    <t>47000000000372</t>
-  </si>
-  <si>
-    <t>47000000000373</t>
-  </si>
-  <si>
-    <t>47000000000374</t>
-  </si>
-  <si>
-    <t>47000000000375</t>
-  </si>
-  <si>
-    <t>47000000000376</t>
-  </si>
-  <si>
-    <t>47000000000377</t>
-  </si>
-  <si>
-    <t>47000000000378</t>
-  </si>
-  <si>
-    <t>47000000000379</t>
-  </si>
-  <si>
-    <t>47000000000380</t>
-  </si>
-  <si>
-    <t>47000000000381</t>
-  </si>
-  <si>
-    <t>47000000000382</t>
-  </si>
-  <si>
-    <t>47000000000383</t>
-  </si>
-  <si>
-    <t>47000000000384</t>
-  </si>
-  <si>
-    <t>47000000000385</t>
-  </si>
-  <si>
-    <t>47000000000386</t>
-  </si>
-  <si>
-    <t>47000000000387</t>
-  </si>
-  <si>
-    <t>47000000000388</t>
-  </si>
-  <si>
-    <t>47000000000389</t>
-  </si>
-  <si>
-    <t>47000000000390</t>
-  </si>
-  <si>
-    <t>47000000000391</t>
-  </si>
-  <si>
-    <t>47000000000392</t>
-  </si>
-  <si>
-    <t>47000000000393</t>
-  </si>
-  <si>
-    <t>47000000000394</t>
-  </si>
-  <si>
-    <t>47000000000395</t>
-  </si>
-  <si>
-    <t>47000000000396</t>
-  </si>
-  <si>
-    <t>47000000000397</t>
-  </si>
-  <si>
-    <t>47000000000398</t>
-  </si>
-  <si>
-    <t>47000000000399</t>
-  </si>
-  <si>
-    <t>47000000000400</t>
-  </si>
-  <si>
-    <t>47000000000401</t>
-  </si>
-  <si>
-    <t>47000000000402</t>
-  </si>
-  <si>
-    <t>47000000000403</t>
-  </si>
-  <si>
-    <t>47000000000404</t>
-  </si>
-  <si>
-    <t>47000000000405</t>
-  </si>
-  <si>
-    <t>47000000000406</t>
-  </si>
-  <si>
-    <t>47000000000407</t>
-  </si>
-  <si>
-    <t>47000000000408</t>
-  </si>
-  <si>
-    <t>47000000000409</t>
-  </si>
-  <si>
-    <t>47000000000410</t>
-  </si>
-  <si>
-    <t>47000000000411</t>
-  </si>
-  <si>
-    <t>47000000000412</t>
-  </si>
-  <si>
-    <t>47000000000413</t>
-  </si>
-  <si>
-    <t>47000000000414</t>
-  </si>
-  <si>
-    <t>47000000000415</t>
-  </si>
-  <si>
-    <t>47000000000416</t>
-  </si>
-  <si>
-    <t>47000000000417</t>
-  </si>
-  <si>
-    <t>47000000000418</t>
-  </si>
-  <si>
-    <t>47000000000419</t>
-  </si>
-  <si>
-    <t>47000000000420</t>
-  </si>
-  <si>
-    <t>47000000000421</t>
-  </si>
-  <si>
-    <t>47000000000422</t>
-  </si>
-  <si>
-    <t>47000000000423</t>
-  </si>
-  <si>
-    <t>47000000000424</t>
-  </si>
-  <si>
-    <t>47000000000425</t>
-  </si>
-  <si>
-    <t>47000000000426</t>
-  </si>
-  <si>
-    <t>47000000000427</t>
-  </si>
-  <si>
-    <t>47000000000428</t>
-  </si>
-  <si>
-    <t>47000000000429</t>
-  </si>
-  <si>
-    <t>47000000000430</t>
-  </si>
-  <si>
-    <t>47000000000431</t>
-  </si>
-  <si>
-    <t>47000000000432</t>
-  </si>
-  <si>
-    <t>47000000000433</t>
-  </si>
-  <si>
-    <t>47000000000434</t>
-  </si>
-  <si>
-    <t>47000000000435</t>
-  </si>
-  <si>
-    <t>47000000000436</t>
-  </si>
-  <si>
-    <t>47000000000437</t>
-  </si>
-  <si>
-    <t>47000000000438</t>
-  </si>
-  <si>
-    <t>47000000000439</t>
-  </si>
-  <si>
-    <t>47000000000440</t>
-  </si>
-  <si>
-    <t>47000000000441</t>
-  </si>
-  <si>
-    <t>47000000000442</t>
-  </si>
-  <si>
-    <t>47000000000443</t>
-  </si>
-  <si>
-    <t>47000000000444</t>
-  </si>
-  <si>
-    <t>47000000000445</t>
-  </si>
-  <si>
-    <t>47000000000446</t>
-  </si>
-  <si>
-    <t>47000000000447</t>
-  </si>
-  <si>
-    <t>47000000000448</t>
-  </si>
-  <si>
-    <t>47000000000449</t>
-  </si>
-  <si>
-    <t>47000000000450</t>
-  </si>
-  <si>
-    <t>47000000000451</t>
-  </si>
-  <si>
-    <t>47000000000452</t>
-  </si>
-  <si>
-    <t>47000000000453</t>
-  </si>
-  <si>
-    <t>47000000000454</t>
-  </si>
-  <si>
-    <t>47000000000455</t>
-  </si>
-  <si>
-    <t>47000000000456</t>
-  </si>
-  <si>
-    <t>47000000000457</t>
-  </si>
-  <si>
-    <t>47000000000458</t>
-  </si>
-  <si>
-    <t>47000000000459</t>
-  </si>
-  <si>
-    <t>47000000000460</t>
-  </si>
-  <si>
-    <t>47000000000461</t>
-  </si>
-  <si>
-    <t>47000000000462</t>
-  </si>
-  <si>
-    <t>47000000000463</t>
-  </si>
-  <si>
-    <t>47000000000464</t>
-  </si>
-  <si>
-    <t>47000000000465</t>
-  </si>
-  <si>
-    <t>47000000000466</t>
-  </si>
-  <si>
-    <t>47000000000467</t>
-  </si>
-  <si>
-    <t>47000000000468</t>
-  </si>
-  <si>
-    <t>47000000000469</t>
-  </si>
-  <si>
-    <t>47000000000470</t>
-  </si>
-  <si>
-    <t>47000000000471</t>
-  </si>
-  <si>
-    <t>47000000000472</t>
-  </si>
-  <si>
-    <t>47000000000473</t>
-  </si>
-  <si>
-    <t>47000000000474</t>
-  </si>
-  <si>
-    <t>47000000000475</t>
-  </si>
-  <si>
-    <t>47000000000476</t>
-  </si>
-  <si>
-    <t>47000000000477</t>
-  </si>
-  <si>
-    <t>47000000000478</t>
-  </si>
-  <si>
-    <t>47000000000479</t>
-  </si>
-  <si>
-    <t>47000000000480</t>
-  </si>
-  <si>
-    <t>47000000000481</t>
-  </si>
-  <si>
-    <t>47000000000482</t>
-  </si>
-  <si>
-    <t>47000000000483</t>
-  </si>
-  <si>
-    <t>47000000000484</t>
-  </si>
-  <si>
-    <t>47000000000485</t>
-  </si>
-  <si>
-    <t>47000000000486</t>
-  </si>
-  <si>
-    <t>47000000000487</t>
-  </si>
-  <si>
-    <t>47000000000488</t>
-  </si>
-  <si>
-    <t>47000000000489</t>
-  </si>
-  <si>
-    <t>47000000000490</t>
-  </si>
-  <si>
-    <t>47000000000491</t>
-  </si>
-  <si>
-    <t>47000000000492</t>
-  </si>
-  <si>
-    <t>47000000000493</t>
-  </si>
-  <si>
-    <t>47000000000494</t>
-  </si>
-  <si>
-    <t>47000000000495</t>
-  </si>
-  <si>
-    <t>47000000000496</t>
-  </si>
-  <si>
-    <t>47000000000497</t>
-  </si>
-  <si>
-    <t>47000000000498</t>
-  </si>
-  <si>
-    <t>47000000000499</t>
-  </si>
-  <si>
-    <t>47000000000500</t>
-  </si>
-  <si>
-    <t>47000000000501</t>
-  </si>
-  <si>
-    <t>47000000000502</t>
-  </si>
-  <si>
-    <t>47000000000503</t>
-  </si>
-  <si>
-    <t>47000000000504</t>
-  </si>
-  <si>
-    <t>47000000000505</t>
-  </si>
-  <si>
-    <t>47000000000506</t>
-  </si>
-  <si>
-    <t>47000000000507</t>
-  </si>
-  <si>
-    <t>47000000000508</t>
-  </si>
-  <si>
-    <t>47000000000509</t>
-  </si>
-  <si>
-    <t>47000000000510</t>
-  </si>
-  <si>
-    <t>47000000000511</t>
-  </si>
-  <si>
-    <t>47000000000512</t>
-  </si>
-  <si>
-    <t>47000000000513</t>
-  </si>
-  <si>
-    <t>47000000000514</t>
-  </si>
-  <si>
-    <t>47000000000515</t>
-  </si>
-  <si>
-    <t>47000000000516</t>
-  </si>
-  <si>
-    <t>47000000000517</t>
-  </si>
-  <si>
-    <t>47000000000518</t>
-  </si>
-  <si>
-    <t>47000000000519</t>
-  </si>
-  <si>
-    <t>47000000000520</t>
-  </si>
-  <si>
-    <t>47000000000521</t>
-  </si>
-  <si>
-    <t>47000000000522</t>
-  </si>
-  <si>
-    <t>47000000000523</t>
-  </si>
-  <si>
-    <t>47000000000524</t>
-  </si>
-  <si>
     <t>SYS_PID</t>
   </si>
   <si>
@@ -4919,6 +3347,165 @@
   </si>
   <si>
     <t>Khamim</t>
+  </si>
+  <si>
+    <t>zainal.abidin</t>
+  </si>
+  <si>
+    <t>togar.sihombing</t>
+  </si>
+  <si>
+    <t>khaidir</t>
+  </si>
+  <si>
+    <t>latip.muhlanto</t>
+  </si>
+  <si>
+    <t>budi.sulistianto</t>
+  </si>
+  <si>
+    <t>sudirman</t>
+  </si>
+  <si>
+    <t>haerul.gunawan</t>
+  </si>
+  <si>
+    <t>ahmad.gunawan</t>
+  </si>
+  <si>
+    <t>taufik.iskandar</t>
+  </si>
+  <si>
+    <t>musdalipa</t>
+  </si>
+  <si>
+    <t>leonardo.putra</t>
+  </si>
+  <si>
+    <t>andri.andriyan</t>
+  </si>
+  <si>
+    <t>eka.budi</t>
+  </si>
+  <si>
+    <t>yustiana.firda</t>
+  </si>
+  <si>
+    <t>nico.melky</t>
+  </si>
+  <si>
+    <t>aden.bagus</t>
+  </si>
+  <si>
+    <t>abdul.rachman</t>
+  </si>
+  <si>
+    <t>adhe.kurniawan</t>
+  </si>
+  <si>
+    <t>eka.kurniawan</t>
+  </si>
+  <si>
+    <t>satrio.dhiaputra</t>
+  </si>
+  <si>
+    <t>tegar.hersaputra</t>
+  </si>
+  <si>
+    <t>joshika.pradirga</t>
+  </si>
+  <si>
+    <t>wisnu.trenggono</t>
+  </si>
+  <si>
+    <t>ahmad.fauzi</t>
+  </si>
+  <si>
+    <t>muhammad.ramadani</t>
+  </si>
+  <si>
+    <t>rahmata.novanisa</t>
+  </si>
+  <si>
+    <t>User_ZainalAbidin</t>
+  </si>
+  <si>
+    <t>User_TogarSihombing</t>
+  </si>
+  <si>
+    <t>User_Khaidir</t>
+  </si>
+  <si>
+    <t>User_LatipMuhlanto</t>
+  </si>
+  <si>
+    <t>User_BudiSulistianto</t>
+  </si>
+  <si>
+    <t>User_Sudirman</t>
+  </si>
+  <si>
+    <t>User_HaerulGunawan</t>
+  </si>
+  <si>
+    <t>User_AhmadGunawan</t>
+  </si>
+  <si>
+    <t>User_TaufikIskandar</t>
+  </si>
+  <si>
+    <t>User_Musdalipa</t>
+  </si>
+  <si>
+    <t>User_LeonardoPutra</t>
+  </si>
+  <si>
+    <t>User_AndriAndriyan</t>
+  </si>
+  <si>
+    <t>User_EkaBudi</t>
+  </si>
+  <si>
+    <t>User_YustianaFirda</t>
+  </si>
+  <si>
+    <t>User_NicoMelky</t>
+  </si>
+  <si>
+    <t>User_AdenBagus</t>
+  </si>
+  <si>
+    <t>User_AbdulRachman</t>
+  </si>
+  <si>
+    <t>User_AdheKurniawan</t>
+  </si>
+  <si>
+    <t>User_EkaKurniawan</t>
+  </si>
+  <si>
+    <t>User_IrvanAgus</t>
+  </si>
+  <si>
+    <t>User_SatrioDhiaputra</t>
+  </si>
+  <si>
+    <t>User_TegarHersaputra</t>
+  </si>
+  <si>
+    <t>User_JoshikaPradirga</t>
+  </si>
+  <si>
+    <t>User_WisnuTrenggono</t>
+  </si>
+  <si>
+    <t>User_AhmadFauzi</t>
+  </si>
+  <si>
+    <t>User_MuhammadRamadani</t>
+  </si>
+  <si>
+    <t>User_RahmataNovanisa</t>
   </si>
 </sst>
 </file>
@@ -4985,15 +3572,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5298,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E576"/>
+  <dimension ref="B1:F603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="B555" sqref="B555"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5310,178 +3898,196 @@
     <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E1" s="3" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="5">
+        <v>47000000000001</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IF(EXACT(B2, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblLDAPObject_User_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, '", B2, "', ", IF(EXACT(C2, ""), "null", CONCATENATE("'", C2, "'")), "');"))</f>
+        <v>PERFORM "SchSysConfig"."Func_TblLDAPObject_User_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'astam', 'Astamyugo'');</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="5">
+        <f>E2+1</f>
+        <v>47000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E67" si="0">E3+1</f>
+        <v>47000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000010</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000013</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>1023</v>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000015</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -5491,8 +4097,9 @@
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>1024</v>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000016</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -5502,8 +4109,9 @@
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>1025</v>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000017</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -5513,8 +4121,9 @@
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>1026</v>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000018</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -5524,8 +4133,9 @@
       <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>1027</v>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000019</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -5535,8 +4145,9 @@
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>1028</v>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000020</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -5546,8 +4157,9 @@
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>1029</v>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000021</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -5557,8 +4169,9 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>1030</v>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000022</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -5568,8 +4181,9 @@
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>1031</v>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000023</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -5579,8 +4193,9 @@
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>1032</v>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000024</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -5590,8 +4205,9 @@
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>1033</v>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000025</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -5601,8 +4217,9 @@
       <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>1034</v>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000026</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -5612,8 +4229,9 @@
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>1035</v>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000027</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -5623,8 +4241,9 @@
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>1036</v>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000028</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -5634,8 +4253,9 @@
       <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>1037</v>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000029</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -5645,8 +4265,9 @@
       <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>1038</v>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000030</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -5656,8 +4277,9 @@
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>1039</v>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000031</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -5667,8 +4289,9 @@
       <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>1040</v>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000032</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -5678,8 +4301,9 @@
       <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>1041</v>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000033</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -5689,8 +4313,9 @@
       <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>1042</v>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000034</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -5700,8 +4325,9 @@
       <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>1043</v>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000035</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -5711,8 +4337,9 @@
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>1044</v>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000036</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -5722,8 +4349,9 @@
       <c r="C38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>1045</v>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000037</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -5733,8 +4361,9 @@
       <c r="C39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>1046</v>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000038</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -5744,8 +4373,9 @@
       <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>1047</v>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000039</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -5755,8 +4385,9 @@
       <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>1048</v>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000040</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -5766,8 +4397,9 @@
       <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>1049</v>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000041</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -5777,8 +4409,9 @@
       <c r="C43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>1050</v>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000042</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -5788,8 +4421,9 @@
       <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>1051</v>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000043</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -5799,8 +4433,9 @@
       <c r="C45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>1052</v>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000044</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -5810,8 +4445,9 @@
       <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>1053</v>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000045</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -5821,8 +4457,9 @@
       <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>1054</v>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000046</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -5832,8 +4469,9 @@
       <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>1055</v>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000047</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -5843,8 +4481,9 @@
       <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>1056</v>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000048</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -5854,8 +4493,9 @@
       <c r="C50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>1057</v>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000049</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -5865,8 +4505,9 @@
       <c r="C51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>1058</v>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000050</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -5876,8 +4517,9 @@
       <c r="C52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>1059</v>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000051</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
@@ -5887,8 +4529,9 @@
       <c r="C53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>1060</v>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000052</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -5898,8 +4541,9 @@
       <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>1061</v>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000053</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -5909,8 +4553,9 @@
       <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>1062</v>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000054</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -5920,8 +4565,9 @@
       <c r="C56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>1063</v>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000055</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
@@ -5931,8 +4577,9 @@
       <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>1064</v>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000056</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
@@ -5942,8 +4589,9 @@
       <c r="C58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>1065</v>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000057</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
@@ -5953,8 +4601,9 @@
       <c r="C59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>1066</v>
+      <c r="E59" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000058</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
@@ -5964,8 +4613,9 @@
       <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>1067</v>
+      <c r="E60" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000059</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -5975,8 +4625,9 @@
       <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>1068</v>
+      <c r="E61" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000060</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
@@ -5986,8 +4637,9 @@
       <c r="C62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>1069</v>
+      <c r="E62" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000061</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
@@ -5997,8 +4649,9 @@
       <c r="C63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>1070</v>
+      <c r="E63" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000062</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -6008,8 +4661,9 @@
       <c r="C64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>1071</v>
+      <c r="E64" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000063</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -6019,8 +4673,9 @@
       <c r="C65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>1072</v>
+      <c r="E65" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000064</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -6030,8 +4685,9 @@
       <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>1073</v>
+      <c r="E66" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000065</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
@@ -6041,8 +4697,9 @@
       <c r="C67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>1074</v>
+      <c r="E67" s="5">
+        <f t="shared" si="0"/>
+        <v>47000000000066</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
@@ -6052,8 +4709,9 @@
       <c r="C68" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>1075</v>
+      <c r="E68" s="5">
+        <f t="shared" ref="E68:E131" si="1">E67+1</f>
+        <v>47000000000067</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -6063,8 +4721,9 @@
       <c r="C69" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>1076</v>
+      <c r="E69" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000068</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -6074,8 +4733,9 @@
       <c r="C70" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>1077</v>
+      <c r="E70" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000069</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
@@ -6085,8 +4745,9 @@
       <c r="C71" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>1078</v>
+      <c r="E71" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000070</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
@@ -6096,8 +4757,9 @@
       <c r="C72" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>1079</v>
+      <c r="E72" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000071</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -6107,8 +4769,9 @@
       <c r="C73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>1080</v>
+      <c r="E73" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000072</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -6118,8 +4781,9 @@
       <c r="C74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>1081</v>
+      <c r="E74" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000073</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
@@ -6129,8 +4793,9 @@
       <c r="C75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>1082</v>
+      <c r="E75" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000074</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -6140,8 +4805,9 @@
       <c r="C76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>1083</v>
+      <c r="E76" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000075</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
@@ -6151,8 +4817,9 @@
       <c r="C77" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>1084</v>
+      <c r="E77" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000076</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -6162,8 +4829,9 @@
       <c r="C78" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>1085</v>
+      <c r="E78" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000077</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -6173,8 +4841,9 @@
       <c r="C79" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>1086</v>
+      <c r="E79" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000078</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -6184,8 +4853,9 @@
       <c r="C80" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>1087</v>
+      <c r="E80" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000079</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
@@ -6195,8 +4865,9 @@
       <c r="C81" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>1088</v>
+      <c r="E81" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000080</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -6206,8 +4877,9 @@
       <c r="C82" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>1089</v>
+      <c r="E82" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000081</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
@@ -6217,8 +4889,9 @@
       <c r="C83" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>1090</v>
+      <c r="E83" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000082</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
@@ -6228,8 +4901,9 @@
       <c r="C84" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>1091</v>
+      <c r="E84" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000083</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
@@ -6239,8 +4913,9 @@
       <c r="C85" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>1092</v>
+      <c r="E85" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000084</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -6250,8 +4925,9 @@
       <c r="C86" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>1093</v>
+      <c r="E86" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000085</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -6261,8 +4937,9 @@
       <c r="C87" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>1094</v>
+      <c r="E87" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000086</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -6272,8 +4949,9 @@
       <c r="C88" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>1095</v>
+      <c r="E88" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000087</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
@@ -6283,8 +4961,9 @@
       <c r="C89" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>1096</v>
+      <c r="E89" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000088</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
@@ -6294,8 +4973,9 @@
       <c r="C90" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>1097</v>
+      <c r="E90" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000089</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -6305,8 +4985,9 @@
       <c r="C91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>1098</v>
+      <c r="E91" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000090</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -6316,8 +4997,9 @@
       <c r="C92" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>1099</v>
+      <c r="E92" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000091</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -6327,8 +5009,9 @@
       <c r="C93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>1100</v>
+      <c r="E93" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000092</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
@@ -6338,8 +5021,9 @@
       <c r="C94" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>1101</v>
+      <c r="E94" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000093</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -6349,8 +5033,9 @@
       <c r="C95" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>1102</v>
+      <c r="E95" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000094</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
@@ -6360,8 +5045,9 @@
       <c r="C96" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>1103</v>
+      <c r="E96" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000095</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -6371,8 +5057,9 @@
       <c r="C97" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>1104</v>
+      <c r="E97" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000096</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -6382,8 +5069,9 @@
       <c r="C98" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>1105</v>
+      <c r="E98" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000097</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
@@ -6393,8 +5081,9 @@
       <c r="C99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>1106</v>
+      <c r="E99" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000098</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
@@ -6404,8 +5093,9 @@
       <c r="C100" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>1107</v>
+      <c r="E100" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000099</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
@@ -6415,8 +5105,9 @@
       <c r="C101" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>1108</v>
+      <c r="E101" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000100</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -6426,8 +5117,9 @@
       <c r="C102" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>1109</v>
+      <c r="E102" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000101</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
@@ -6437,8 +5129,9 @@
       <c r="C103" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>1110</v>
+      <c r="E103" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000102</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -6448,8 +5141,9 @@
       <c r="C104" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>1111</v>
+      <c r="E104" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000103</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
@@ -6459,8 +5153,9 @@
       <c r="C105" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>1112</v>
+      <c r="E105" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000104</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
@@ -6470,8 +5165,9 @@
       <c r="C106" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>1113</v>
+      <c r="E106" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000105</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
@@ -6481,8 +5177,9 @@
       <c r="C107" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>1114</v>
+      <c r="E107" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000106</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
@@ -6492,8 +5189,9 @@
       <c r="C108" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>1115</v>
+      <c r="E108" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000107</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -6503,8 +5201,9 @@
       <c r="C109" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>1116</v>
+      <c r="E109" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000108</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -6514,8 +5213,9 @@
       <c r="C110" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>1117</v>
+      <c r="E110" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000109</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -6525,8 +5225,9 @@
       <c r="C111" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>1118</v>
+      <c r="E111" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000110</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
@@ -6536,8 +5237,9 @@
       <c r="C112" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>1119</v>
+      <c r="E112" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000111</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
@@ -6547,8 +5249,9 @@
       <c r="C113" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>1120</v>
+      <c r="E113" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000112</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -6558,8 +5261,9 @@
       <c r="C114" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>1121</v>
+      <c r="E114" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000113</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
@@ -6569,8 +5273,9 @@
       <c r="C115" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>1122</v>
+      <c r="E115" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000114</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
@@ -6580,8 +5285,9 @@
       <c r="C116" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>1123</v>
+      <c r="E116" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000115</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
@@ -6591,8 +5297,9 @@
       <c r="C117" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>1124</v>
+      <c r="E117" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000116</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
@@ -6602,8 +5309,9 @@
       <c r="C118" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>1125</v>
+      <c r="E118" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000117</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
@@ -6613,8 +5321,9 @@
       <c r="C119" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>1126</v>
+      <c r="E119" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000118</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
@@ -6624,8 +5333,9 @@
       <c r="C120" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>1127</v>
+      <c r="E120" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000119</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
@@ -6635,8 +5345,9 @@
       <c r="C121" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>1128</v>
+      <c r="E121" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000120</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
@@ -6646,8 +5357,9 @@
       <c r="C122" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>1129</v>
+      <c r="E122" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000121</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
@@ -6657,8 +5369,9 @@
       <c r="C123" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>1130</v>
+      <c r="E123" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000122</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
@@ -6668,8 +5381,9 @@
       <c r="C124" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>1131</v>
+      <c r="E124" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000123</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
@@ -6679,8 +5393,9 @@
       <c r="C125" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>1132</v>
+      <c r="E125" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000124</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
@@ -6690,8 +5405,9 @@
       <c r="C126" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>1133</v>
+      <c r="E126" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000125</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
@@ -6701,8 +5417,9 @@
       <c r="C127" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>1134</v>
+      <c r="E127" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000126</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
@@ -6712,8 +5429,9 @@
       <c r="C128" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>1135</v>
+      <c r="E128" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000127</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
@@ -6723,8 +5441,9 @@
       <c r="C129" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>1136</v>
+      <c r="E129" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000128</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
@@ -6734,8 +5453,9 @@
       <c r="C130" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>1137</v>
+      <c r="E130" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000129</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
@@ -6745,8 +5465,9 @@
       <c r="C131" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>1138</v>
+      <c r="E131" s="5">
+        <f t="shared" si="1"/>
+        <v>47000000000130</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
@@ -6756,8 +5477,9 @@
       <c r="C132" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>1139</v>
+      <c r="E132" s="5">
+        <f t="shared" ref="E132:E195" si="2">E131+1</f>
+        <v>47000000000131</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -6767,8 +5489,9 @@
       <c r="C133" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>1140</v>
+      <c r="E133" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000132</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
@@ -6778,8 +5501,9 @@
       <c r="C134" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>1141</v>
+      <c r="E134" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000133</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
@@ -6789,8 +5513,9 @@
       <c r="C135" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>1142</v>
+      <c r="E135" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000134</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
@@ -6800,8 +5525,9 @@
       <c r="C136" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>1143</v>
+      <c r="E136" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000135</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
@@ -6811,8 +5537,9 @@
       <c r="C137" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>1144</v>
+      <c r="E137" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000136</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
@@ -6822,8 +5549,9 @@
       <c r="C138" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>1145</v>
+      <c r="E138" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000137</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
@@ -6833,8 +5561,9 @@
       <c r="C139" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>1146</v>
+      <c r="E139" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000138</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
@@ -6844,8 +5573,9 @@
       <c r="C140" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>1147</v>
+      <c r="E140" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000139</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
@@ -6855,8 +5585,9 @@
       <c r="C141" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>1148</v>
+      <c r="E141" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000140</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
@@ -6866,8 +5597,9 @@
       <c r="C142" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>1149</v>
+      <c r="E142" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000141</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
@@ -6877,8 +5609,9 @@
       <c r="C143" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>1150</v>
+      <c r="E143" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000142</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
@@ -6888,8 +5621,9 @@
       <c r="C144" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>1151</v>
+      <c r="E144" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000143</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
@@ -6899,8 +5633,9 @@
       <c r="C145" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>1152</v>
+      <c r="E145" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000144</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
@@ -6910,24 +5645,27 @@
       <c r="C146" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>1153</v>
+      <c r="E146" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000145</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>1154</v>
+      <c r="E147" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000146</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>1155</v>
+      <c r="E148" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000147</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
@@ -6937,8 +5675,9 @@
       <c r="C149" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>1156</v>
+      <c r="E149" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000148</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
@@ -6948,16 +5687,18 @@
       <c r="C150" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>1157</v>
+      <c r="E150" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000149</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>1158</v>
+      <c r="E151" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000150</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
@@ -6967,8 +5708,9 @@
       <c r="C152" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>1159</v>
+      <c r="E152" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000151</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
@@ -6978,8 +5720,9 @@
       <c r="C153" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>1160</v>
+      <c r="E153" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000152</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -6989,8 +5732,9 @@
       <c r="C154" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>1161</v>
+      <c r="E154" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000153</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
@@ -7000,8 +5744,9 @@
       <c r="C155" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>1162</v>
+      <c r="E155" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000154</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
@@ -7011,8 +5756,9 @@
       <c r="C156" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>1163</v>
+      <c r="E156" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000155</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
@@ -7022,8 +5768,9 @@
       <c r="C157" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>1164</v>
+      <c r="E157" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000156</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
@@ -7033,16 +5780,18 @@
       <c r="C158" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>1165</v>
+      <c r="E158" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000157</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>1166</v>
+      <c r="E159" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000158</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -7052,8 +5801,9 @@
       <c r="C160" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E160" s="4" t="s">
-        <v>1167</v>
+      <c r="E160" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000159</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
@@ -7063,8 +5813,9 @@
       <c r="C161" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>1168</v>
+      <c r="E161" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000160</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
@@ -7074,8 +5825,9 @@
       <c r="C162" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>1169</v>
+      <c r="E162" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000161</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
@@ -7085,8 +5837,9 @@
       <c r="C163" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>1170</v>
+      <c r="E163" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000162</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
@@ -7096,56 +5849,63 @@
       <c r="C164" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>1171</v>
+      <c r="E164" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000163</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>1172</v>
+      <c r="E165" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000164</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>1173</v>
+      <c r="E166" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000165</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>1174</v>
+      <c r="E167" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000166</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>1175</v>
+      <c r="E168" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000167</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>1176</v>
+      <c r="E169" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000168</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>1177</v>
+      <c r="E170" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000169</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
@@ -7155,8 +5915,9 @@
       <c r="C171" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>1178</v>
+      <c r="E171" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000170</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
@@ -7166,8 +5927,9 @@
       <c r="C172" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>1179</v>
+      <c r="E172" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000171</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
@@ -7177,8 +5939,9 @@
       <c r="C173" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>1180</v>
+      <c r="E173" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000172</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
@@ -7188,8 +5951,9 @@
       <c r="C174" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>1181</v>
+      <c r="E174" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000173</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
@@ -7199,8 +5963,9 @@
       <c r="C175" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>1182</v>
+      <c r="E175" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000174</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
@@ -7210,8 +5975,9 @@
       <c r="C176" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>1183</v>
+      <c r="E176" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000175</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
@@ -7221,8 +5987,9 @@
       <c r="C177" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>1184</v>
+      <c r="E177" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000176</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
@@ -7232,8 +5999,9 @@
       <c r="C178" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>1185</v>
+      <c r="E178" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000177</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
@@ -7243,8 +6011,9 @@
       <c r="C179" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E179" s="4" t="s">
-        <v>1186</v>
+      <c r="E179" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000178</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
@@ -7254,8 +6023,9 @@
       <c r="C180" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E180" s="4" t="s">
-        <v>1187</v>
+      <c r="E180" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000179</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
@@ -7265,8 +6035,9 @@
       <c r="C181" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>1188</v>
+      <c r="E181" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000180</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
@@ -7276,8 +6047,9 @@
       <c r="C182" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>1189</v>
+      <c r="E182" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000181</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
@@ -7287,8 +6059,9 @@
       <c r="C183" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>1190</v>
+      <c r="E183" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000182</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
@@ -7298,8 +6071,9 @@
       <c r="C184" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>1191</v>
+      <c r="E184" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000183</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
@@ -7309,8 +6083,9 @@
       <c r="C185" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>1192</v>
+      <c r="E185" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000184</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
@@ -7320,8 +6095,9 @@
       <c r="C186" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="4" t="s">
-        <v>1193</v>
+      <c r="E186" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000185</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
@@ -7331,8 +6107,9 @@
       <c r="C187" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E187" s="4" t="s">
-        <v>1194</v>
+      <c r="E187" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000186</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
@@ -7342,8 +6119,9 @@
       <c r="C188" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>1195</v>
+      <c r="E188" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000187</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
@@ -7353,8 +6131,9 @@
       <c r="C189" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E189" s="4" t="s">
-        <v>1196</v>
+      <c r="E189" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000188</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
@@ -7364,8 +6143,9 @@
       <c r="C190" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E190" s="4" t="s">
-        <v>1197</v>
+      <c r="E190" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000189</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
@@ -7375,8 +6155,9 @@
       <c r="C191" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E191" s="4" t="s">
-        <v>1198</v>
+      <c r="E191" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000190</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
@@ -7386,8 +6167,9 @@
       <c r="C192" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E192" s="4" t="s">
-        <v>1199</v>
+      <c r="E192" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000191</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
@@ -7397,8 +6179,9 @@
       <c r="C193" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E193" s="4" t="s">
-        <v>1200</v>
+      <c r="E193" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000192</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
@@ -7408,8 +6191,9 @@
       <c r="C194" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E194" s="4" t="s">
-        <v>1201</v>
+      <c r="E194" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000193</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
@@ -7419,8 +6203,9 @@
       <c r="C195" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E195" s="4" t="s">
-        <v>1202</v>
+      <c r="E195" s="5">
+        <f t="shared" si="2"/>
+        <v>47000000000194</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
@@ -7430,8 +6215,9 @@
       <c r="C196" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E196" s="4" t="s">
-        <v>1203</v>
+      <c r="E196" s="5">
+        <f t="shared" ref="E196:E259" si="3">E195+1</f>
+        <v>47000000000195</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
@@ -7441,8 +6227,9 @@
       <c r="C197" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E197" s="4" t="s">
-        <v>1204</v>
+      <c r="E197" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000196</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
@@ -7452,8 +6239,9 @@
       <c r="C198" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E198" s="4" t="s">
-        <v>1205</v>
+      <c r="E198" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000197</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
@@ -7463,8 +6251,9 @@
       <c r="C199" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E199" s="4" t="s">
-        <v>1206</v>
+      <c r="E199" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000198</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
@@ -7474,8 +6263,9 @@
       <c r="C200" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E200" s="4" t="s">
-        <v>1207</v>
+      <c r="E200" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000199</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
@@ -7485,8 +6275,9 @@
       <c r="C201" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E201" s="4" t="s">
-        <v>1208</v>
+      <c r="E201" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000200</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
@@ -7496,8 +6287,9 @@
       <c r="C202" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E202" s="4" t="s">
-        <v>1209</v>
+      <c r="E202" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000201</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
@@ -7507,8 +6299,9 @@
       <c r="C203" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E203" s="4" t="s">
-        <v>1210</v>
+      <c r="E203" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000202</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
@@ -7518,8 +6311,9 @@
       <c r="C204" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E204" s="4" t="s">
-        <v>1211</v>
+      <c r="E204" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000203</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
@@ -7529,8 +6323,9 @@
       <c r="C205" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E205" s="4" t="s">
-        <v>1212</v>
+      <c r="E205" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000204</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
@@ -7540,8 +6335,9 @@
       <c r="C206" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E206" s="4" t="s">
-        <v>1213</v>
+      <c r="E206" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000205</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
@@ -7551,8 +6347,9 @@
       <c r="C207" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E207" s="4" t="s">
-        <v>1214</v>
+      <c r="E207" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000206</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
@@ -7562,8 +6359,9 @@
       <c r="C208" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>1215</v>
+      <c r="E208" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000207</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
@@ -7573,8 +6371,9 @@
       <c r="C209" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E209" s="4" t="s">
-        <v>1216</v>
+      <c r="E209" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000208</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
@@ -7584,8 +6383,9 @@
       <c r="C210" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E210" s="4" t="s">
-        <v>1217</v>
+      <c r="E210" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000209</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
@@ -7595,8 +6395,9 @@
       <c r="C211" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E211" s="4" t="s">
-        <v>1218</v>
+      <c r="E211" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000210</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
@@ -7606,8 +6407,9 @@
       <c r="C212" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E212" s="4" t="s">
-        <v>1219</v>
+      <c r="E212" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000211</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
@@ -7617,8 +6419,9 @@
       <c r="C213" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>1220</v>
+      <c r="E213" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000212</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
@@ -7628,8 +6431,9 @@
       <c r="C214" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E214" s="4" t="s">
-        <v>1221</v>
+      <c r="E214" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000213</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
@@ -7639,8 +6443,9 @@
       <c r="C215" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E215" s="4" t="s">
-        <v>1222</v>
+      <c r="E215" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000214</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
@@ -7650,8 +6455,9 @@
       <c r="C216" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E216" s="4" t="s">
-        <v>1223</v>
+      <c r="E216" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000215</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
@@ -7661,8 +6467,9 @@
       <c r="C217" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E217" s="4" t="s">
-        <v>1224</v>
+      <c r="E217" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000216</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
@@ -7672,8 +6479,9 @@
       <c r="C218" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E218" s="4" t="s">
-        <v>1225</v>
+      <c r="E218" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000217</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
@@ -7683,8 +6491,9 @@
       <c r="C219" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E219" s="4" t="s">
-        <v>1226</v>
+      <c r="E219" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000218</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
@@ -7694,8 +6503,9 @@
       <c r="C220" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E220" s="4" t="s">
-        <v>1227</v>
+      <c r="E220" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000219</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
@@ -7705,8 +6515,9 @@
       <c r="C221" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E221" s="4" t="s">
-        <v>1228</v>
+      <c r="E221" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000220</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
@@ -7716,8 +6527,9 @@
       <c r="C222" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E222" s="4" t="s">
-        <v>1229</v>
+      <c r="E222" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000221</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
@@ -7727,8 +6539,9 @@
       <c r="C223" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E223" s="4" t="s">
-        <v>1230</v>
+      <c r="E223" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000222</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
@@ -7738,8 +6551,9 @@
       <c r="C224" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E224" s="4" t="s">
-        <v>1231</v>
+      <c r="E224" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000223</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
@@ -7749,8 +6563,9 @@
       <c r="C225" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E225" s="4" t="s">
-        <v>1232</v>
+      <c r="E225" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000224</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
@@ -7760,8 +6575,9 @@
       <c r="C226" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E226" s="4" t="s">
-        <v>1233</v>
+      <c r="E226" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000225</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
@@ -7771,8 +6587,9 @@
       <c r="C227" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E227" s="4" t="s">
-        <v>1234</v>
+      <c r="E227" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000226</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
@@ -7782,8 +6599,9 @@
       <c r="C228" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E228" s="4" t="s">
-        <v>1235</v>
+      <c r="E228" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000227</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
@@ -7793,8 +6611,9 @@
       <c r="C229" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E229" s="4" t="s">
-        <v>1236</v>
+      <c r="E229" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000228</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
@@ -7804,8 +6623,9 @@
       <c r="C230" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E230" s="4" t="s">
-        <v>1237</v>
+      <c r="E230" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000229</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
@@ -7815,8 +6635,9 @@
       <c r="C231" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E231" s="4" t="s">
-        <v>1238</v>
+      <c r="E231" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000230</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
@@ -7826,8 +6647,9 @@
       <c r="C232" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E232" s="4" t="s">
-        <v>1239</v>
+      <c r="E232" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000231</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.2">
@@ -7837,8 +6659,9 @@
       <c r="C233" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E233" s="4" t="s">
-        <v>1240</v>
+      <c r="E233" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000232</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.2">
@@ -7848,8 +6671,9 @@
       <c r="C234" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E234" s="4" t="s">
-        <v>1241</v>
+      <c r="E234" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000233</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
@@ -7859,8 +6683,9 @@
       <c r="C235" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E235" s="4" t="s">
-        <v>1242</v>
+      <c r="E235" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000234</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
@@ -7870,8 +6695,9 @@
       <c r="C236" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E236" s="4" t="s">
-        <v>1243</v>
+      <c r="E236" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000235</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.2">
@@ -7881,8 +6707,9 @@
       <c r="C237" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E237" s="4" t="s">
-        <v>1244</v>
+      <c r="E237" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000236</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.2">
@@ -7892,8 +6719,9 @@
       <c r="C238" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E238" s="4" t="s">
-        <v>1245</v>
+      <c r="E238" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000237</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.2">
@@ -7903,8 +6731,9 @@
       <c r="C239" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E239" s="4" t="s">
-        <v>1246</v>
+      <c r="E239" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000238</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
@@ -7914,8 +6743,9 @@
       <c r="C240" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E240" s="4" t="s">
-        <v>1247</v>
+      <c r="E240" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000239</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
@@ -7925,8 +6755,9 @@
       <c r="C241" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E241" s="4" t="s">
-        <v>1248</v>
+      <c r="E241" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000240</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
@@ -7936,8 +6767,9 @@
       <c r="C242" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E242" s="4" t="s">
-        <v>1249</v>
+      <c r="E242" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000241</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
@@ -7947,8 +6779,9 @@
       <c r="C243" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E243" s="4" t="s">
-        <v>1250</v>
+      <c r="E243" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000242</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
@@ -7958,8 +6791,9 @@
       <c r="C244" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E244" s="4" t="s">
-        <v>1251</v>
+      <c r="E244" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000243</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
@@ -7969,8 +6803,9 @@
       <c r="C245" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E245" s="4" t="s">
-        <v>1252</v>
+      <c r="E245" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000244</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
@@ -7980,8 +6815,9 @@
       <c r="C246" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E246" s="4" t="s">
-        <v>1253</v>
+      <c r="E246" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000245</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
@@ -7991,8 +6827,9 @@
       <c r="C247" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E247" s="4" t="s">
-        <v>1254</v>
+      <c r="E247" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000246</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
@@ -8002,8 +6839,9 @@
       <c r="C248" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E248" s="4" t="s">
-        <v>1255</v>
+      <c r="E248" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000247</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
@@ -8013,8 +6851,9 @@
       <c r="C249" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E249" s="4" t="s">
-        <v>1256</v>
+      <c r="E249" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000248</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
@@ -8024,8 +6863,9 @@
       <c r="C250" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E250" s="4" t="s">
-        <v>1257</v>
+      <c r="E250" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000249</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
@@ -8035,8 +6875,9 @@
       <c r="C251" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E251" s="4" t="s">
-        <v>1258</v>
+      <c r="E251" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000250</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
@@ -8046,8 +6887,9 @@
       <c r="C252" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E252" s="4" t="s">
-        <v>1259</v>
+      <c r="E252" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000251</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
@@ -8057,8 +6899,9 @@
       <c r="C253" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E253" s="4" t="s">
-        <v>1260</v>
+      <c r="E253" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000252</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
@@ -8068,8 +6911,9 @@
       <c r="C254" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E254" s="4" t="s">
-        <v>1261</v>
+      <c r="E254" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000253</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.2">
@@ -8079,8 +6923,9 @@
       <c r="C255" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E255" s="4" t="s">
-        <v>1262</v>
+      <c r="E255" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000254</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.2">
@@ -8090,8 +6935,9 @@
       <c r="C256" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E256" s="4" t="s">
-        <v>1263</v>
+      <c r="E256" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000255</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.2">
@@ -8101,8 +6947,9 @@
       <c r="C257" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E257" s="4" t="s">
-        <v>1264</v>
+      <c r="E257" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000256</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.2">
@@ -8112,8 +6959,9 @@
       <c r="C258" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E258" s="4" t="s">
-        <v>1265</v>
+      <c r="E258" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000257</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.2">
@@ -8123,8 +6971,9 @@
       <c r="C259" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E259" s="4" t="s">
-        <v>1266</v>
+      <c r="E259" s="5">
+        <f t="shared" si="3"/>
+        <v>47000000000258</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.2">
@@ -8134,8 +6983,9 @@
       <c r="C260" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E260" s="4" t="s">
-        <v>1267</v>
+      <c r="E260" s="5">
+        <f t="shared" ref="E260:E323" si="4">E259+1</f>
+        <v>47000000000259</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.2">
@@ -8145,16 +6995,18 @@
       <c r="C261" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E261" s="4" t="s">
-        <v>1268</v>
+      <c r="E261" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000260</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E262" s="4" t="s">
-        <v>1269</v>
+      <c r="E262" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000261</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.2">
@@ -8164,8 +7016,9 @@
       <c r="C263" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E263" s="4" t="s">
-        <v>1270</v>
+      <c r="E263" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000262</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.2">
@@ -8175,8 +7028,9 @@
       <c r="C264" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E264" s="4" t="s">
-        <v>1271</v>
+      <c r="E264" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000263</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.2">
@@ -8186,8 +7040,9 @@
       <c r="C265" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E265" s="4" t="s">
-        <v>1272</v>
+      <c r="E265" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000264</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.2">
@@ -8197,8 +7052,9 @@
       <c r="C266" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E266" s="4" t="s">
-        <v>1273</v>
+      <c r="E266" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000265</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.2">
@@ -8208,8 +7064,9 @@
       <c r="C267" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E267" s="4" t="s">
-        <v>1274</v>
+      <c r="E267" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000266</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.2">
@@ -8219,8 +7076,9 @@
       <c r="C268" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E268" s="4" t="s">
-        <v>1275</v>
+      <c r="E268" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000267</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.2">
@@ -8230,8 +7088,9 @@
       <c r="C269" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E269" s="4" t="s">
-        <v>1276</v>
+      <c r="E269" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000268</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.2">
@@ -8241,8 +7100,9 @@
       <c r="C270" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E270" s="4" t="s">
-        <v>1277</v>
+      <c r="E270" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000269</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.2">
@@ -8252,8 +7112,9 @@
       <c r="C271" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E271" s="4" t="s">
-        <v>1278</v>
+      <c r="E271" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000270</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.2">
@@ -8263,8 +7124,9 @@
       <c r="C272" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E272" s="4" t="s">
-        <v>1279</v>
+      <c r="E272" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000271</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.2">
@@ -8274,8 +7136,9 @@
       <c r="C273" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E273" s="4" t="s">
-        <v>1280</v>
+      <c r="E273" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000272</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.2">
@@ -8285,8 +7148,9 @@
       <c r="C274" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E274" s="4" t="s">
-        <v>1281</v>
+      <c r="E274" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000273</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.2">
@@ -8296,8 +7160,9 @@
       <c r="C275" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E275" s="4" t="s">
-        <v>1282</v>
+      <c r="E275" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000274</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.2">
@@ -8307,8 +7172,9 @@
       <c r="C276" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E276" s="4" t="s">
-        <v>1283</v>
+      <c r="E276" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000275</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.2">
@@ -8318,8 +7184,9 @@
       <c r="C277" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E277" s="4" t="s">
-        <v>1284</v>
+      <c r="E277" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000276</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.2">
@@ -8329,8 +7196,9 @@
       <c r="C278" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E278" s="4" t="s">
-        <v>1285</v>
+      <c r="E278" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000277</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.2">
@@ -8340,8 +7208,9 @@
       <c r="C279" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E279" s="4" t="s">
-        <v>1286</v>
+      <c r="E279" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000278</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.2">
@@ -8351,8 +7220,9 @@
       <c r="C280" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E280" s="4" t="s">
-        <v>1287</v>
+      <c r="E280" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000279</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.2">
@@ -8362,8 +7232,9 @@
       <c r="C281" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E281" s="4" t="s">
-        <v>1288</v>
+      <c r="E281" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000280</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.2">
@@ -8373,8 +7244,9 @@
       <c r="C282" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E282" s="4" t="s">
-        <v>1289</v>
+      <c r="E282" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000281</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.2">
@@ -8384,19 +7256,21 @@
       <c r="C283" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E283" s="4" t="s">
-        <v>1290</v>
+      <c r="E283" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000282</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C284" s="5" t="s">
+      <c r="C284" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E284" s="4" t="s">
-        <v>1291</v>
+      <c r="E284" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000283</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.2">
@@ -8406,8 +7280,9 @@
       <c r="C285" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E285" s="4" t="s">
-        <v>1292</v>
+      <c r="E285" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000284</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.2">
@@ -8417,8 +7292,9 @@
       <c r="C286" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E286" s="4" t="s">
-        <v>1293</v>
+      <c r="E286" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000285</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.2">
@@ -8428,8 +7304,9 @@
       <c r="C287" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E287" s="4" t="s">
-        <v>1294</v>
+      <c r="E287" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000286</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.2">
@@ -8439,8 +7316,9 @@
       <c r="C288" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E288" s="4" t="s">
-        <v>1295</v>
+      <c r="E288" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000287</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.2">
@@ -8450,8 +7328,9 @@
       <c r="C289" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E289" s="4" t="s">
-        <v>1296</v>
+      <c r="E289" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000288</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.2">
@@ -8461,8 +7340,9 @@
       <c r="C290" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E290" s="4" t="s">
-        <v>1297</v>
+      <c r="E290" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000289</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.2">
@@ -8472,8 +7352,9 @@
       <c r="C291" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="E291" s="4" t="s">
-        <v>1298</v>
+      <c r="E291" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000290</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.2">
@@ -8483,8 +7364,9 @@
       <c r="C292" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E292" s="4" t="s">
-        <v>1299</v>
+      <c r="E292" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000291</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.2">
@@ -8494,8 +7376,9 @@
       <c r="C293" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E293" s="4" t="s">
-        <v>1300</v>
+      <c r="E293" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000292</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.2">
@@ -8505,8 +7388,9 @@
       <c r="C294" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E294" s="4" t="s">
-        <v>1301</v>
+      <c r="E294" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000293</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.2">
@@ -8516,8 +7400,9 @@
       <c r="C295" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E295" s="4" t="s">
-        <v>1302</v>
+      <c r="E295" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000294</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.2">
@@ -8527,8 +7412,9 @@
       <c r="C296" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E296" s="4" t="s">
-        <v>1303</v>
+      <c r="E296" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000295</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.2">
@@ -8538,8 +7424,9 @@
       <c r="C297" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E297" s="4" t="s">
-        <v>1304</v>
+      <c r="E297" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000296</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.2">
@@ -8549,8 +7436,9 @@
       <c r="C298" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E298" s="4" t="s">
-        <v>1305</v>
+      <c r="E298" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000297</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.2">
@@ -8560,8 +7448,9 @@
       <c r="C299" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E299" s="4" t="s">
-        <v>1306</v>
+      <c r="E299" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000298</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.2">
@@ -8571,8 +7460,9 @@
       <c r="C300" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E300" s="4" t="s">
-        <v>1307</v>
+      <c r="E300" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000299</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.2">
@@ -8582,8 +7472,9 @@
       <c r="C301" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E301" s="4" t="s">
-        <v>1308</v>
+      <c r="E301" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000300</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.2">
@@ -8593,8 +7484,9 @@
       <c r="C302" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E302" s="4" t="s">
-        <v>1309</v>
+      <c r="E302" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000301</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.2">
@@ -8604,8 +7496,9 @@
       <c r="C303" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E303" s="4" t="s">
-        <v>1310</v>
+      <c r="E303" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000302</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.2">
@@ -8615,8 +7508,9 @@
       <c r="C304" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E304" s="4" t="s">
-        <v>1311</v>
+      <c r="E304" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000303</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.2">
@@ -8626,8 +7520,9 @@
       <c r="C305" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E305" s="4" t="s">
-        <v>1312</v>
+      <c r="E305" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000304</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.2">
@@ -8637,8 +7532,9 @@
       <c r="C306" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E306" s="4" t="s">
-        <v>1313</v>
+      <c r="E306" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000305</v>
       </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.2">
@@ -8648,8 +7544,9 @@
       <c r="C307" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E307" s="4" t="s">
-        <v>1314</v>
+      <c r="E307" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000306</v>
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.2">
@@ -8659,8 +7556,9 @@
       <c r="C308" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="E308" s="4" t="s">
-        <v>1315</v>
+      <c r="E308" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000307</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.2">
@@ -8670,8 +7568,9 @@
       <c r="C309" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E309" s="4" t="s">
-        <v>1316</v>
+      <c r="E309" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000308</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.2">
@@ -8681,8 +7580,9 @@
       <c r="C310" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E310" s="4" t="s">
-        <v>1317</v>
+      <c r="E310" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000309</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.2">
@@ -8692,8 +7592,9 @@
       <c r="C311" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E311" s="4" t="s">
-        <v>1318</v>
+      <c r="E311" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000310</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.2">
@@ -8703,8 +7604,9 @@
       <c r="C312" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E312" s="4" t="s">
-        <v>1319</v>
+      <c r="E312" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000311</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.2">
@@ -8714,8 +7616,9 @@
       <c r="C313" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E313" s="4" t="s">
-        <v>1320</v>
+      <c r="E313" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000312</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.2">
@@ -8725,8 +7628,9 @@
       <c r="C314" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E314" s="4" t="s">
-        <v>1321</v>
+      <c r="E314" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000313</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.2">
@@ -8736,8 +7640,9 @@
       <c r="C315" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E315" s="4" t="s">
-        <v>1322</v>
+      <c r="E315" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000314</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.2">
@@ -8747,8 +7652,9 @@
       <c r="C316" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E316" s="4" t="s">
-        <v>1323</v>
+      <c r="E316" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000315</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.2">
@@ -8758,8 +7664,9 @@
       <c r="C317" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E317" s="4" t="s">
-        <v>1324</v>
+      <c r="E317" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000316</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.2">
@@ -8769,8 +7676,9 @@
       <c r="C318" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E318" s="4" t="s">
-        <v>1325</v>
+      <c r="E318" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000317</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.2">
@@ -8780,8 +7688,9 @@
       <c r="C319" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E319" s="4" t="s">
-        <v>1326</v>
+      <c r="E319" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000318</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.2">
@@ -8791,8 +7700,9 @@
       <c r="C320" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E320" s="4" t="s">
-        <v>1327</v>
+      <c r="E320" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000319</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.2">
@@ -8802,8 +7712,9 @@
       <c r="C321" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E321" s="4" t="s">
-        <v>1328</v>
+      <c r="E321" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000320</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.2">
@@ -8813,8 +7724,9 @@
       <c r="C322" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E322" s="4" t="s">
-        <v>1329</v>
+      <c r="E322" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000321</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.2">
@@ -8824,8 +7736,9 @@
       <c r="C323" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E323" s="4" t="s">
-        <v>1330</v>
+      <c r="E323" s="5">
+        <f t="shared" si="4"/>
+        <v>47000000000322</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.2">
@@ -8835,8 +7748,9 @@
       <c r="C324" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E324" s="4" t="s">
-        <v>1331</v>
+      <c r="E324" s="5">
+        <f t="shared" ref="E324:E387" si="5">E323+1</f>
+        <v>47000000000323</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.2">
@@ -8846,8 +7760,9 @@
       <c r="C325" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E325" s="4" t="s">
-        <v>1332</v>
+      <c r="E325" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000324</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.2">
@@ -8857,8 +7772,9 @@
       <c r="C326" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E326" s="4" t="s">
-        <v>1333</v>
+      <c r="E326" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000325</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.2">
@@ -8868,8 +7784,9 @@
       <c r="C327" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E327" s="4" t="s">
-        <v>1334</v>
+      <c r="E327" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000326</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.2">
@@ -8879,8 +7796,9 @@
       <c r="C328" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E328" s="4" t="s">
-        <v>1335</v>
+      <c r="E328" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000327</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.2">
@@ -8890,8 +7808,9 @@
       <c r="C329" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E329" s="4" t="s">
-        <v>1336</v>
+      <c r="E329" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000328</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.2">
@@ -8901,8 +7820,9 @@
       <c r="C330" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E330" s="4" t="s">
-        <v>1337</v>
+      <c r="E330" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000329</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.2">
@@ -8912,8 +7832,9 @@
       <c r="C331" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E331" s="4" t="s">
-        <v>1338</v>
+      <c r="E331" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000330</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.2">
@@ -8923,8 +7844,9 @@
       <c r="C332" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="E332" s="4" t="s">
-        <v>1339</v>
+      <c r="E332" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000331</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.2">
@@ -8934,8 +7856,9 @@
       <c r="C333" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E333" s="4" t="s">
-        <v>1340</v>
+      <c r="E333" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000332</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.2">
@@ -8945,8 +7868,9 @@
       <c r="C334" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E334" s="4" t="s">
-        <v>1341</v>
+      <c r="E334" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000333</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.2">
@@ -8956,8 +7880,9 @@
       <c r="C335" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E335" s="4" t="s">
-        <v>1342</v>
+      <c r="E335" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000334</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.2">
@@ -8967,8 +7892,9 @@
       <c r="C336" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E336" s="4" t="s">
-        <v>1343</v>
+      <c r="E336" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000335</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.2">
@@ -8978,8 +7904,9 @@
       <c r="C337" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E337" s="4" t="s">
-        <v>1344</v>
+      <c r="E337" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000336</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.2">
@@ -8989,8 +7916,9 @@
       <c r="C338" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E338" s="4" t="s">
-        <v>1345</v>
+      <c r="E338" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000337</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.2">
@@ -9000,8 +7928,9 @@
       <c r="C339" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E339" s="4" t="s">
-        <v>1346</v>
+      <c r="E339" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000338</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.2">
@@ -9011,8 +7940,9 @@
       <c r="C340" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E340" s="4" t="s">
-        <v>1347</v>
+      <c r="E340" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000339</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.2">
@@ -9022,8 +7952,9 @@
       <c r="C341" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E341" s="4" t="s">
-        <v>1348</v>
+      <c r="E341" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000340</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.2">
@@ -9033,8 +7964,9 @@
       <c r="C342" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E342" s="4" t="s">
-        <v>1349</v>
+      <c r="E342" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000341</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.2">
@@ -9044,8 +7976,9 @@
       <c r="C343" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E343" s="4" t="s">
-        <v>1350</v>
+      <c r="E343" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000342</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.2">
@@ -9055,8 +7988,9 @@
       <c r="C344" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="E344" s="4" t="s">
-        <v>1351</v>
+      <c r="E344" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000343</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.2">
@@ -9066,8 +8000,9 @@
       <c r="C345" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E345" s="4" t="s">
-        <v>1352</v>
+      <c r="E345" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000344</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.2">
@@ -9077,8 +8012,9 @@
       <c r="C346" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E346" s="4" t="s">
-        <v>1353</v>
+      <c r="E346" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000345</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.2">
@@ -9088,8 +8024,9 @@
       <c r="C347" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E347" s="4" t="s">
-        <v>1354</v>
+      <c r="E347" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000346</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.2">
@@ -9099,8 +8036,9 @@
       <c r="C348" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="E348" s="4" t="s">
-        <v>1355</v>
+      <c r="E348" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000347</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.2">
@@ -9110,8 +8048,9 @@
       <c r="C349" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="E349" s="4" t="s">
-        <v>1356</v>
+      <c r="E349" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000348</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.2">
@@ -9121,8 +8060,9 @@
       <c r="C350" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E350" s="4" t="s">
-        <v>1357</v>
+      <c r="E350" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000349</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.2">
@@ -9132,8 +8072,9 @@
       <c r="C351" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E351" s="4" t="s">
-        <v>1358</v>
+      <c r="E351" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000350</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.2">
@@ -9143,8 +8084,9 @@
       <c r="C352" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="E352" s="4" t="s">
-        <v>1359</v>
+      <c r="E352" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000351</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.2">
@@ -9154,8 +8096,9 @@
       <c r="C353" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E353" s="4" t="s">
-        <v>1360</v>
+      <c r="E353" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000352</v>
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.2">
@@ -9165,8 +8108,9 @@
       <c r="C354" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E354" s="4" t="s">
-        <v>1361</v>
+      <c r="E354" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000353</v>
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.2">
@@ -9176,8 +8120,9 @@
       <c r="C355" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="E355" s="4" t="s">
-        <v>1362</v>
+      <c r="E355" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000354</v>
       </c>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.2">
@@ -9187,8 +8132,9 @@
       <c r="C356" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E356" s="4" t="s">
-        <v>1363</v>
+      <c r="E356" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000355</v>
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.2">
@@ -9198,8 +8144,9 @@
       <c r="C357" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E357" s="4" t="s">
-        <v>1364</v>
+      <c r="E357" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000356</v>
       </c>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.2">
@@ -9209,8 +8156,9 @@
       <c r="C358" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E358" s="4" t="s">
-        <v>1365</v>
+      <c r="E358" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000357</v>
       </c>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.2">
@@ -9220,8 +8168,9 @@
       <c r="C359" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E359" s="4" t="s">
-        <v>1366</v>
+      <c r="E359" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000358</v>
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.2">
@@ -9231,8 +8180,9 @@
       <c r="C360" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="E360" s="4" t="s">
-        <v>1367</v>
+      <c r="E360" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000359</v>
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.2">
@@ -9242,8 +8192,9 @@
       <c r="C361" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E361" s="4" t="s">
-        <v>1368</v>
+      <c r="E361" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000360</v>
       </c>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.2">
@@ -9253,8 +8204,9 @@
       <c r="C362" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E362" s="4" t="s">
-        <v>1369</v>
+      <c r="E362" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000361</v>
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.2">
@@ -9264,8 +8216,9 @@
       <c r="C363" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E363" s="4" t="s">
-        <v>1370</v>
+      <c r="E363" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000362</v>
       </c>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.2">
@@ -9275,8 +8228,9 @@
       <c r="C364" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E364" s="4" t="s">
-        <v>1371</v>
+      <c r="E364" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000363</v>
       </c>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.2">
@@ -9286,8 +8240,9 @@
       <c r="C365" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E365" s="4" t="s">
-        <v>1372</v>
+      <c r="E365" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000364</v>
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.2">
@@ -9297,8 +8252,9 @@
       <c r="C366" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E366" s="4" t="s">
-        <v>1373</v>
+      <c r="E366" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000365</v>
       </c>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.2">
@@ -9308,8 +8264,9 @@
       <c r="C367" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E367" s="4" t="s">
-        <v>1374</v>
+      <c r="E367" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000366</v>
       </c>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.2">
@@ -9319,8 +8276,9 @@
       <c r="C368" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E368" s="4" t="s">
-        <v>1375</v>
+      <c r="E368" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000367</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.2">
@@ -9330,8 +8288,9 @@
       <c r="C369" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="E369" s="4" t="s">
-        <v>1376</v>
+      <c r="E369" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000368</v>
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.2">
@@ -9341,8 +8300,9 @@
       <c r="C370" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E370" s="4" t="s">
-        <v>1377</v>
+      <c r="E370" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000369</v>
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.2">
@@ -9352,8 +8312,9 @@
       <c r="C371" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E371" s="4" t="s">
-        <v>1378</v>
+      <c r="E371" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000370</v>
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.2">
@@ -9363,8 +8324,9 @@
       <c r="C372" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="E372" s="4" t="s">
-        <v>1379</v>
+      <c r="E372" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000371</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.2">
@@ -9374,8 +8336,9 @@
       <c r="C373" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E373" s="4" t="s">
-        <v>1380</v>
+      <c r="E373" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000372</v>
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.2">
@@ -9385,8 +8348,9 @@
       <c r="C374" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="E374" s="4" t="s">
-        <v>1381</v>
+      <c r="E374" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000373</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.2">
@@ -9396,8 +8360,9 @@
       <c r="C375" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="E375" s="4" t="s">
-        <v>1382</v>
+      <c r="E375" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000374</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.2">
@@ -9407,8 +8372,9 @@
       <c r="C376" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E376" s="4" t="s">
-        <v>1383</v>
+      <c r="E376" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000375</v>
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.2">
@@ -9418,8 +8384,9 @@
       <c r="C377" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E377" s="4" t="s">
-        <v>1384</v>
+      <c r="E377" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000376</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.2">
@@ -9429,8 +8396,9 @@
       <c r="C378" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="E378" s="4" t="s">
-        <v>1385</v>
+      <c r="E378" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000377</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.2">
@@ -9440,8 +8408,9 @@
       <c r="C379" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E379" s="4" t="s">
-        <v>1386</v>
+      <c r="E379" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000378</v>
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.2">
@@ -9451,8 +8420,9 @@
       <c r="C380" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E380" s="4" t="s">
-        <v>1387</v>
+      <c r="E380" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000379</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.2">
@@ -9462,8 +8432,9 @@
       <c r="C381" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="E381" s="4" t="s">
-        <v>1388</v>
+      <c r="E381" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000380</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.2">
@@ -9473,8 +8444,9 @@
       <c r="C382" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E382" s="4" t="s">
-        <v>1389</v>
+      <c r="E382" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000381</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.2">
@@ -9484,8 +8456,9 @@
       <c r="C383" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="E383" s="4" t="s">
-        <v>1390</v>
+      <c r="E383" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000382</v>
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.2">
@@ -9495,8 +8468,9 @@
       <c r="C384" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E384" s="4" t="s">
-        <v>1391</v>
+      <c r="E384" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000383</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.2">
@@ -9506,8 +8480,9 @@
       <c r="C385" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="E385" s="4" t="s">
-        <v>1392</v>
+      <c r="E385" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000384</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.2">
@@ -9517,8 +8492,9 @@
       <c r="C386" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E386" s="4" t="s">
-        <v>1393</v>
+      <c r="E386" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000385</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.2">
@@ -9528,8 +8504,9 @@
       <c r="C387" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="E387" s="4" t="s">
-        <v>1394</v>
+      <c r="E387" s="5">
+        <f t="shared" si="5"/>
+        <v>47000000000386</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.2">
@@ -9539,8 +8516,9 @@
       <c r="C388" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E388" s="4" t="s">
-        <v>1395</v>
+      <c r="E388" s="5">
+        <f t="shared" ref="E388:E451" si="6">E387+1</f>
+        <v>47000000000387</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.2">
@@ -9550,8 +8528,9 @@
       <c r="C389" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="E389" s="4" t="s">
-        <v>1396</v>
+      <c r="E389" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000388</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.2">
@@ -9561,8 +8540,9 @@
       <c r="C390" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E390" s="4" t="s">
-        <v>1397</v>
+      <c r="E390" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000389</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.2">
@@ -9572,8 +8552,9 @@
       <c r="C391" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E391" s="4" t="s">
-        <v>1398</v>
+      <c r="E391" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000390</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.2">
@@ -9583,8 +8564,9 @@
       <c r="C392" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E392" s="4" t="s">
-        <v>1399</v>
+      <c r="E392" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000391</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.2">
@@ -9594,8 +8576,9 @@
       <c r="C393" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="E393" s="4" t="s">
-        <v>1400</v>
+      <c r="E393" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000392</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.2">
@@ -9605,8 +8588,9 @@
       <c r="C394" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E394" s="4" t="s">
-        <v>1401</v>
+      <c r="E394" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000393</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.2">
@@ -9616,8 +8600,9 @@
       <c r="C395" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E395" s="4" t="s">
-        <v>1402</v>
+      <c r="E395" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000394</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.2">
@@ -9627,8 +8612,9 @@
       <c r="C396" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="E396" s="4" t="s">
-        <v>1403</v>
+      <c r="E396" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000395</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.2">
@@ -9638,8 +8624,9 @@
       <c r="C397" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="E397" s="4" t="s">
-        <v>1404</v>
+      <c r="E397" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000396</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.2">
@@ -9649,8 +8636,9 @@
       <c r="C398" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E398" s="4" t="s">
-        <v>1405</v>
+      <c r="E398" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000397</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.2">
@@ -9660,8 +8648,9 @@
       <c r="C399" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E399" s="4" t="s">
-        <v>1406</v>
+      <c r="E399" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000398</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.2">
@@ -9671,8 +8660,9 @@
       <c r="C400" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="E400" s="4" t="s">
-        <v>1407</v>
+      <c r="E400" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000399</v>
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.2">
@@ -9682,8 +8672,9 @@
       <c r="C401" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E401" s="4" t="s">
-        <v>1408</v>
+      <c r="E401" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000400</v>
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.2">
@@ -9693,8 +8684,9 @@
       <c r="C402" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="E402" s="4" t="s">
-        <v>1409</v>
+      <c r="E402" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000401</v>
       </c>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.2">
@@ -9704,8 +8696,9 @@
       <c r="C403" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="E403" s="4" t="s">
-        <v>1410</v>
+      <c r="E403" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000402</v>
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.2">
@@ -9715,8 +8708,9 @@
       <c r="C404" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E404" s="4" t="s">
-        <v>1411</v>
+      <c r="E404" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000403</v>
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.2">
@@ -9726,8 +8720,9 @@
       <c r="C405" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="E405" s="4" t="s">
-        <v>1412</v>
+      <c r="E405" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000404</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.2">
@@ -9737,8 +8732,9 @@
       <c r="C406" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="E406" s="4" t="s">
-        <v>1413</v>
+      <c r="E406" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000405</v>
       </c>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.2">
@@ -9748,8 +8744,9 @@
       <c r="C407" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="E407" s="4" t="s">
-        <v>1414</v>
+      <c r="E407" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000406</v>
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.2">
@@ -9759,8 +8756,9 @@
       <c r="C408" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E408" s="4" t="s">
-        <v>1415</v>
+      <c r="E408" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000407</v>
       </c>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.2">
@@ -9770,8 +8768,9 @@
       <c r="C409" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="E409" s="4" t="s">
-        <v>1416</v>
+      <c r="E409" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000408</v>
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.2">
@@ -9781,8 +8780,9 @@
       <c r="C410" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E410" s="4" t="s">
-        <v>1417</v>
+      <c r="E410" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000409</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.2">
@@ -9792,8 +8792,9 @@
       <c r="C411" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="E411" s="4" t="s">
-        <v>1418</v>
+      <c r="E411" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000410</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.2">
@@ -9803,8 +8804,9 @@
       <c r="C412" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="E412" s="4" t="s">
-        <v>1419</v>
+      <c r="E412" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000411</v>
       </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.2">
@@ -9814,8 +8816,9 @@
       <c r="C413" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="E413" s="4" t="s">
-        <v>1420</v>
+      <c r="E413" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000412</v>
       </c>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.2">
@@ -9825,8 +8828,9 @@
       <c r="C414" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="E414" s="4" t="s">
-        <v>1421</v>
+      <c r="E414" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000413</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.2">
@@ -9836,8 +8840,9 @@
       <c r="C415" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E415" s="4" t="s">
-        <v>1422</v>
+      <c r="E415" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000414</v>
       </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.2">
@@ -9847,8 +8852,9 @@
       <c r="C416" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="E416" s="4" t="s">
-        <v>1423</v>
+      <c r="E416" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000415</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.2">
@@ -9858,8 +8864,9 @@
       <c r="C417" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="E417" s="4" t="s">
-        <v>1424</v>
+      <c r="E417" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000416</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.2">
@@ -9869,8 +8876,9 @@
       <c r="C418" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="E418" s="4" t="s">
-        <v>1425</v>
+      <c r="E418" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000417</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.2">
@@ -9880,8 +8888,9 @@
       <c r="C419" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="E419" s="4" t="s">
-        <v>1426</v>
+      <c r="E419" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000418</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.2">
@@ -9891,8 +8900,9 @@
       <c r="C420" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="E420" s="4" t="s">
-        <v>1427</v>
+      <c r="E420" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000419</v>
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.2">
@@ -9902,8 +8912,9 @@
       <c r="C421" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E421" s="4" t="s">
-        <v>1428</v>
+      <c r="E421" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000420</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.2">
@@ -9913,8 +8924,9 @@
       <c r="C422" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E422" s="4" t="s">
-        <v>1429</v>
+      <c r="E422" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000421</v>
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.2">
@@ -9924,8 +8936,9 @@
       <c r="C423" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="E423" s="4" t="s">
-        <v>1430</v>
+      <c r="E423" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000422</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.2">
@@ -9935,8 +8948,9 @@
       <c r="C424" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E424" s="4" t="s">
-        <v>1431</v>
+      <c r="E424" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000423</v>
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.2">
@@ -9946,8 +8960,9 @@
       <c r="C425" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E425" s="4" t="s">
-        <v>1432</v>
+      <c r="E425" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000424</v>
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.2">
@@ -9957,8 +8972,9 @@
       <c r="C426" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E426" s="4" t="s">
-        <v>1433</v>
+      <c r="E426" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000425</v>
       </c>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.2">
@@ -9968,8 +8984,9 @@
       <c r="C427" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="E427" s="4" t="s">
-        <v>1434</v>
+      <c r="E427" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000426</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.2">
@@ -9979,8 +8996,9 @@
       <c r="C428" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="E428" s="4" t="s">
-        <v>1435</v>
+      <c r="E428" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000427</v>
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.2">
@@ -9990,8 +9008,9 @@
       <c r="C429" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E429" s="4" t="s">
-        <v>1436</v>
+      <c r="E429" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000428</v>
       </c>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.2">
@@ -10001,8 +9020,9 @@
       <c r="C430" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="E430" s="4" t="s">
-        <v>1437</v>
+      <c r="E430" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000429</v>
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.2">
@@ -10012,8 +9032,9 @@
       <c r="C431" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E431" s="4" t="s">
-        <v>1438</v>
+      <c r="E431" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000430</v>
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.2">
@@ -10023,8 +9044,9 @@
       <c r="C432" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="E432" s="4" t="s">
-        <v>1439</v>
+      <c r="E432" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000431</v>
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.2">
@@ -10034,8 +9056,9 @@
       <c r="C433" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E433" s="4" t="s">
-        <v>1440</v>
+      <c r="E433" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000432</v>
       </c>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.2">
@@ -10045,8 +9068,9 @@
       <c r="C434" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="E434" s="4" t="s">
-        <v>1441</v>
+      <c r="E434" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000433</v>
       </c>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.2">
@@ -10056,8 +9080,9 @@
       <c r="C435" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E435" s="4" t="s">
-        <v>1442</v>
+      <c r="E435" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000434</v>
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.2">
@@ -10067,8 +9092,9 @@
       <c r="C436" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E436" s="4" t="s">
-        <v>1443</v>
+      <c r="E436" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000435</v>
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.2">
@@ -10078,8 +9104,9 @@
       <c r="C437" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E437" s="4" t="s">
-        <v>1444</v>
+      <c r="E437" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000436</v>
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.2">
@@ -10089,8 +9116,9 @@
       <c r="C438" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E438" s="4" t="s">
-        <v>1445</v>
+      <c r="E438" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000437</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.2">
@@ -10100,8 +9128,9 @@
       <c r="C439" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E439" s="4" t="s">
-        <v>1446</v>
+      <c r="E439" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000438</v>
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.2">
@@ -10111,8 +9140,9 @@
       <c r="C440" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="E440" s="4" t="s">
-        <v>1447</v>
+      <c r="E440" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000439</v>
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.2">
@@ -10122,8 +9152,9 @@
       <c r="C441" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E441" s="4" t="s">
-        <v>1448</v>
+      <c r="E441" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000440</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.2">
@@ -10133,8 +9164,9 @@
       <c r="C442" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="E442" s="4" t="s">
-        <v>1449</v>
+      <c r="E442" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000441</v>
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.2">
@@ -10144,8 +9176,9 @@
       <c r="C443" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="E443" s="4" t="s">
-        <v>1450</v>
+      <c r="E443" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000442</v>
       </c>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.2">
@@ -10155,8 +9188,9 @@
       <c r="C444" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="E444" s="4" t="s">
-        <v>1451</v>
+      <c r="E444" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000443</v>
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.2">
@@ -10166,8 +9200,9 @@
       <c r="C445" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="E445" s="4" t="s">
-        <v>1452</v>
+      <c r="E445" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000444</v>
       </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.2">
@@ -10177,8 +9212,9 @@
       <c r="C446" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E446" s="4" t="s">
-        <v>1453</v>
+      <c r="E446" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000445</v>
       </c>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.2">
@@ -10188,8 +9224,9 @@
       <c r="C447" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E447" s="4" t="s">
-        <v>1454</v>
+      <c r="E447" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000446</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.2">
@@ -10199,8 +9236,9 @@
       <c r="C448" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="E448" s="4" t="s">
-        <v>1455</v>
+      <c r="E448" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000447</v>
       </c>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.2">
@@ -10210,8 +9248,9 @@
       <c r="C449" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="E449" s="4" t="s">
-        <v>1456</v>
+      <c r="E449" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000448</v>
       </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.2">
@@ -10221,8 +9260,9 @@
       <c r="C450" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="E450" s="4" t="s">
-        <v>1457</v>
+      <c r="E450" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000449</v>
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.2">
@@ -10232,8 +9272,9 @@
       <c r="C451" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="E451" s="4" t="s">
-        <v>1458</v>
+      <c r="E451" s="5">
+        <f t="shared" si="6"/>
+        <v>47000000000450</v>
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.2">
@@ -10243,8 +9284,9 @@
       <c r="C452" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E452" s="4" t="s">
-        <v>1459</v>
+      <c r="E452" s="5">
+        <f t="shared" ref="E452:E515" si="7">E451+1</f>
+        <v>47000000000451</v>
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.2">
@@ -10254,8 +9296,9 @@
       <c r="C453" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="E453" s="4" t="s">
-        <v>1460</v>
+      <c r="E453" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000452</v>
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.2">
@@ -10265,8 +9308,9 @@
       <c r="C454" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E454" s="4" t="s">
-        <v>1461</v>
+      <c r="E454" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000453</v>
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.2">
@@ -10276,8 +9320,9 @@
       <c r="C455" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="E455" s="4" t="s">
-        <v>1462</v>
+      <c r="E455" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000454</v>
       </c>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.2">
@@ -10287,8 +9332,9 @@
       <c r="C456" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="E456" s="4" t="s">
-        <v>1463</v>
+      <c r="E456" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000455</v>
       </c>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.2">
@@ -10298,8 +9344,9 @@
       <c r="C457" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="E457" s="4" t="s">
-        <v>1464</v>
+      <c r="E457" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000456</v>
       </c>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.2">
@@ -10309,8 +9356,9 @@
       <c r="C458" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E458" s="4" t="s">
-        <v>1465</v>
+      <c r="E458" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000457</v>
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.2">
@@ -10320,8 +9368,9 @@
       <c r="C459" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E459" s="4" t="s">
-        <v>1466</v>
+      <c r="E459" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000458</v>
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.2">
@@ -10331,8 +9380,9 @@
       <c r="C460" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="E460" s="4" t="s">
-        <v>1467</v>
+      <c r="E460" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000459</v>
       </c>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.2">
@@ -10342,8 +9392,9 @@
       <c r="C461" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E461" s="4" t="s">
-        <v>1468</v>
+      <c r="E461" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000460</v>
       </c>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.2">
@@ -10353,8 +9404,9 @@
       <c r="C462" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E462" s="4" t="s">
-        <v>1469</v>
+      <c r="E462" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000461</v>
       </c>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.2">
@@ -10364,8 +9416,9 @@
       <c r="C463" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="E463" s="4" t="s">
-        <v>1470</v>
+      <c r="E463" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000462</v>
       </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.2">
@@ -10375,8 +9428,9 @@
       <c r="C464" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E464" s="4" t="s">
-        <v>1471</v>
+      <c r="E464" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000463</v>
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.2">
@@ -10386,8 +9440,9 @@
       <c r="C465" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="E465" s="4" t="s">
-        <v>1472</v>
+      <c r="E465" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000464</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.2">
@@ -10397,8 +9452,9 @@
       <c r="C466" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="E466" s="4" t="s">
-        <v>1473</v>
+      <c r="E466" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000465</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.2">
@@ -10408,8 +9464,9 @@
       <c r="C467" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="E467" s="4" t="s">
-        <v>1474</v>
+      <c r="E467" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000466</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.2">
@@ -10419,8 +9476,9 @@
       <c r="C468" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="E468" s="4" t="s">
-        <v>1475</v>
+      <c r="E468" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000467</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.2">
@@ -10430,8 +9488,9 @@
       <c r="C469" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="E469" s="4" t="s">
-        <v>1476</v>
+      <c r="E469" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000468</v>
       </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.2">
@@ -10441,8 +9500,9 @@
       <c r="C470" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="E470" s="4" t="s">
-        <v>1477</v>
+      <c r="E470" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000469</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.2">
@@ -10452,8 +9512,9 @@
       <c r="C471" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="E471" s="4" t="s">
-        <v>1478</v>
+      <c r="E471" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000470</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.2">
@@ -10463,8 +9524,9 @@
       <c r="C472" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="E472" s="4" t="s">
-        <v>1479</v>
+      <c r="E472" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000471</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.2">
@@ -10474,8 +9536,9 @@
       <c r="C473" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="E473" s="4" t="s">
-        <v>1480</v>
+      <c r="E473" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000472</v>
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.2">
@@ -10485,8 +9548,9 @@
       <c r="C474" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="E474" s="4" t="s">
-        <v>1481</v>
+      <c r="E474" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000473</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.2">
@@ -10496,8 +9560,9 @@
       <c r="C475" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="E475" s="4" t="s">
-        <v>1482</v>
+      <c r="E475" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000474</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.2">
@@ -10507,8 +9572,9 @@
       <c r="C476" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="E476" s="4" t="s">
-        <v>1483</v>
+      <c r="E476" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000475</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.2">
@@ -10518,8 +9584,9 @@
       <c r="C477" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="E477" s="4" t="s">
-        <v>1484</v>
+      <c r="E477" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000476</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.2">
@@ -10529,8 +9596,9 @@
       <c r="C478" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="E478" s="4" t="s">
-        <v>1485</v>
+      <c r="E478" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000477</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.2">
@@ -10540,8 +9608,9 @@
       <c r="C479" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="E479" s="4" t="s">
-        <v>1486</v>
+      <c r="E479" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000478</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.2">
@@ -10551,8 +9620,9 @@
       <c r="C480" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="E480" s="4" t="s">
-        <v>1487</v>
+      <c r="E480" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000479</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.2">
@@ -10562,8 +9632,9 @@
       <c r="C481" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="E481" s="4" t="s">
-        <v>1488</v>
+      <c r="E481" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000480</v>
       </c>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.2">
@@ -10573,8 +9644,9 @@
       <c r="C482" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="E482" s="4" t="s">
-        <v>1489</v>
+      <c r="E482" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000481</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.2">
@@ -10584,8 +9656,9 @@
       <c r="C483" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="E483" s="4" t="s">
-        <v>1490</v>
+      <c r="E483" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000482</v>
       </c>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.2">
@@ -10595,8 +9668,9 @@
       <c r="C484" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="E484" s="4" t="s">
-        <v>1491</v>
+      <c r="E484" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000483</v>
       </c>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.2">
@@ -10606,8 +9680,9 @@
       <c r="C485" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E485" s="4" t="s">
-        <v>1492</v>
+      <c r="E485" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000484</v>
       </c>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.2">
@@ -10617,8 +9692,9 @@
       <c r="C486" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="E486" s="4" t="s">
-        <v>1493</v>
+      <c r="E486" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000485</v>
       </c>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.2">
@@ -10628,8 +9704,9 @@
       <c r="C487" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="E487" s="4" t="s">
-        <v>1494</v>
+      <c r="E487" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000486</v>
       </c>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.2">
@@ -10639,8 +9716,9 @@
       <c r="C488" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="E488" s="4" t="s">
-        <v>1495</v>
+      <c r="E488" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000487</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.2">
@@ -10650,8 +9728,9 @@
       <c r="C489" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="E489" s="4" t="s">
-        <v>1496</v>
+      <c r="E489" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000488</v>
       </c>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.2">
@@ -10661,8 +9740,9 @@
       <c r="C490" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="E490" s="4" t="s">
-        <v>1497</v>
+      <c r="E490" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000489</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.2">
@@ -10672,8 +9752,9 @@
       <c r="C491" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="E491" s="4" t="s">
-        <v>1498</v>
+      <c r="E491" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000490</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.2">
@@ -10683,8 +9764,9 @@
       <c r="C492" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="E492" s="4" t="s">
-        <v>1499</v>
+      <c r="E492" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000491</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.2">
@@ -10694,8 +9776,9 @@
       <c r="C493" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="E493" s="4" t="s">
-        <v>1500</v>
+      <c r="E493" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000492</v>
       </c>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.2">
@@ -10705,8 +9788,9 @@
       <c r="C494" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="E494" s="4" t="s">
-        <v>1501</v>
+      <c r="E494" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000493</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.2">
@@ -10716,8 +9800,9 @@
       <c r="C495" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="E495" s="4" t="s">
-        <v>1502</v>
+      <c r="E495" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000494</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.2">
@@ -10727,8 +9812,9 @@
       <c r="C496" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E496" s="4" t="s">
-        <v>1503</v>
+      <c r="E496" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000495</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.2">
@@ -10738,8 +9824,9 @@
       <c r="C497" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="E497" s="4" t="s">
-        <v>1504</v>
+      <c r="E497" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000496</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.2">
@@ -10749,8 +9836,9 @@
       <c r="C498" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="E498" s="4" t="s">
-        <v>1505</v>
+      <c r="E498" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000497</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.2">
@@ -10760,8 +9848,9 @@
       <c r="C499" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="E499" s="4" t="s">
-        <v>1506</v>
+      <c r="E499" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000498</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.2">
@@ -10771,8 +9860,9 @@
       <c r="C500" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="E500" s="4" t="s">
-        <v>1507</v>
+      <c r="E500" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000499</v>
       </c>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.2">
@@ -10782,8 +9872,9 @@
       <c r="C501" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="E501" s="4" t="s">
-        <v>1508</v>
+      <c r="E501" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000500</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.2">
@@ -10793,8 +9884,9 @@
       <c r="C502" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="E502" s="4" t="s">
-        <v>1509</v>
+      <c r="E502" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000501</v>
       </c>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.2">
@@ -10804,8 +9896,9 @@
       <c r="C503" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="E503" s="4" t="s">
-        <v>1510</v>
+      <c r="E503" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000502</v>
       </c>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.2">
@@ -10815,8 +9908,9 @@
       <c r="C504" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="E504" s="4" t="s">
-        <v>1511</v>
+      <c r="E504" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000503</v>
       </c>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.2">
@@ -10826,8 +9920,9 @@
       <c r="C505" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="E505" s="4" t="s">
-        <v>1512</v>
+      <c r="E505" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000504</v>
       </c>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.2">
@@ -10837,8 +9932,9 @@
       <c r="C506" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E506" s="4" t="s">
-        <v>1513</v>
+      <c r="E506" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000505</v>
       </c>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.2">
@@ -10848,8 +9944,9 @@
       <c r="C507" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="E507" s="4" t="s">
-        <v>1514</v>
+      <c r="E507" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000506</v>
       </c>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.2">
@@ -10859,8 +9956,9 @@
       <c r="C508" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="E508" s="4" t="s">
-        <v>1515</v>
+      <c r="E508" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000507</v>
       </c>
     </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.2">
@@ -10870,8 +9968,9 @@
       <c r="C509" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="E509" s="4" t="s">
-        <v>1516</v>
+      <c r="E509" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000508</v>
       </c>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.2">
@@ -10881,8 +9980,9 @@
       <c r="C510" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="E510" s="4" t="s">
-        <v>1517</v>
+      <c r="E510" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000509</v>
       </c>
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.2">
@@ -10892,8 +9992,9 @@
       <c r="C511" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="E511" s="4" t="s">
-        <v>1518</v>
+      <c r="E511" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000510</v>
       </c>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.2">
@@ -10903,8 +10004,9 @@
       <c r="C512" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="E512" s="4" t="s">
-        <v>1519</v>
+      <c r="E512" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000511</v>
       </c>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.2">
@@ -10914,8 +10016,9 @@
       <c r="C513" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="E513" s="4" t="s">
-        <v>1520</v>
+      <c r="E513" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000512</v>
       </c>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.2">
@@ -10925,8 +10028,9 @@
       <c r="C514" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="E514" s="4" t="s">
-        <v>1521</v>
+      <c r="E514" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000513</v>
       </c>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.2">
@@ -10936,8 +10040,9 @@
       <c r="C515" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="E515" s="4" t="s">
-        <v>1522</v>
+      <c r="E515" s="5">
+        <f t="shared" si="7"/>
+        <v>47000000000514</v>
       </c>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.2">
@@ -10947,8 +10052,9 @@
       <c r="C516" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="E516" s="4" t="s">
-        <v>1523</v>
+      <c r="E516" s="5">
+        <f t="shared" ref="E516:E579" si="8">E515+1</f>
+        <v>47000000000515</v>
       </c>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.2">
@@ -10958,8 +10064,9 @@
       <c r="C517" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="E517" s="4" t="s">
-        <v>1524</v>
+      <c r="E517" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000516</v>
       </c>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.2">
@@ -10969,8 +10076,9 @@
       <c r="C518" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="E518" s="4" t="s">
-        <v>1525</v>
+      <c r="E518" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000517</v>
       </c>
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.2">
@@ -10980,8 +10088,9 @@
       <c r="C519" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="E519" s="4" t="s">
-        <v>1526</v>
+      <c r="E519" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000518</v>
       </c>
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.2">
@@ -10991,8 +10100,9 @@
       <c r="C520" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="E520" s="4" t="s">
-        <v>1527</v>
+      <c r="E520" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000519</v>
       </c>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.2">
@@ -11002,8 +10112,9 @@
       <c r="C521" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="E521" s="4" t="s">
-        <v>1528</v>
+      <c r="E521" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000520</v>
       </c>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.2">
@@ -11013,8 +10124,9 @@
       <c r="C522" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="E522" s="4" t="s">
-        <v>1529</v>
+      <c r="E522" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000521</v>
       </c>
     </row>
     <row r="523" spans="2:5" x14ac:dyDescent="0.2">
@@ -11024,8 +10136,9 @@
       <c r="C523" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="E523" s="4" t="s">
-        <v>1530</v>
+      <c r="E523" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000522</v>
       </c>
     </row>
     <row r="524" spans="2:5" x14ac:dyDescent="0.2">
@@ -11035,8 +10148,9 @@
       <c r="C524" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="E524" s="4" t="s">
-        <v>1531</v>
+      <c r="E524" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000523</v>
       </c>
     </row>
     <row r="525" spans="2:5" x14ac:dyDescent="0.2">
@@ -11046,573 +10160,946 @@
       <c r="C525" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="E525" s="4" t="s">
-        <v>1532</v>
+      <c r="E525" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000524</v>
       </c>
     </row>
     <row r="526" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B526" s="1" t="s">
-        <v>1534</v>
+        <v>1010</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E526" s="4" t="s">
-        <v>1531</v>
+        <v>1109</v>
+      </c>
+      <c r="E526" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000525</v>
       </c>
     </row>
     <row r="527" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B527" s="1" t="s">
-        <v>1535</v>
+        <v>1011</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E527" s="4" t="s">
-        <v>1532</v>
+        <v>1110</v>
+      </c>
+      <c r="E527" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000526</v>
       </c>
     </row>
     <row r="528" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B528" s="1" t="s">
-        <v>1536</v>
+        <v>1012</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E528" s="4" t="s">
-        <v>1531</v>
+        <v>1061</v>
+      </c>
+      <c r="E528" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000527</v>
       </c>
     </row>
     <row r="529" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B529" s="1" t="s">
-        <v>1537</v>
+        <v>1013</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E529" s="4" t="s">
-        <v>1532</v>
+        <v>1062</v>
+      </c>
+      <c r="E529" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000528</v>
       </c>
     </row>
     <row r="530" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B530" s="1" t="s">
-        <v>1538</v>
+        <v>1014</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E530" s="4" t="s">
-        <v>1531</v>
+        <v>1063</v>
+      </c>
+      <c r="E530" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000529</v>
       </c>
     </row>
     <row r="531" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B531" s="1" t="s">
-        <v>1539</v>
+        <v>1015</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E531" s="4" t="s">
-        <v>1532</v>
+        <v>1064</v>
+      </c>
+      <c r="E531" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000530</v>
       </c>
     </row>
     <row r="532" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B532" s="1" t="s">
-        <v>1540</v>
+        <v>1016</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E532" s="4" t="s">
-        <v>1531</v>
+        <v>1065</v>
+      </c>
+      <c r="E532" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000531</v>
       </c>
     </row>
     <row r="533" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B533" s="1" t="s">
-        <v>1541</v>
+        <v>1017</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E533" s="4" t="s">
-        <v>1532</v>
+        <v>1066</v>
+      </c>
+      <c r="E533" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000532</v>
       </c>
     </row>
     <row r="534" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B534" s="1" t="s">
-        <v>1542</v>
+        <v>1018</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E534" s="4" t="s">
-        <v>1531</v>
+        <v>1067</v>
+      </c>
+      <c r="E534" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000533</v>
       </c>
     </row>
     <row r="535" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B535" s="1" t="s">
-        <v>1543</v>
+        <v>1019</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E535" s="4" t="s">
-        <v>1532</v>
+        <v>1068</v>
+      </c>
+      <c r="E535" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000534</v>
       </c>
     </row>
     <row r="536" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B536" s="1" t="s">
-        <v>1544</v>
+        <v>1020</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E536" s="4" t="s">
-        <v>1531</v>
+        <v>1069</v>
+      </c>
+      <c r="E536" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000535</v>
       </c>
     </row>
     <row r="537" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B537" s="1" t="s">
-        <v>1545</v>
+        <v>1021</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E537" s="4" t="s">
-        <v>1532</v>
+        <v>1070</v>
+      </c>
+      <c r="E537" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000536</v>
       </c>
     </row>
     <row r="538" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B538" s="1" t="s">
-        <v>1546</v>
+        <v>1022</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E538" s="4" t="s">
-        <v>1531</v>
+        <v>1071</v>
+      </c>
+      <c r="E538" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000537</v>
       </c>
     </row>
     <row r="539" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B539" s="1" t="s">
-        <v>1547</v>
+        <v>1023</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E539" s="4" t="s">
-        <v>1532</v>
+        <v>1072</v>
+      </c>
+      <c r="E539" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000538</v>
       </c>
     </row>
     <row r="540" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B540" s="1" t="s">
-        <v>1548</v>
+        <v>1024</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E540" s="4" t="s">
-        <v>1531</v>
+        <v>1073</v>
+      </c>
+      <c r="E540" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000539</v>
       </c>
     </row>
     <row r="541" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B541" s="1" t="s">
-        <v>1549</v>
+        <v>1025</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E541" s="4" t="s">
-        <v>1532</v>
+        <v>1074</v>
+      </c>
+      <c r="E541" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000540</v>
       </c>
     </row>
     <row r="542" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B542" s="1" t="s">
-        <v>1550</v>
+        <v>1026</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E542" s="4" t="s">
-        <v>1531</v>
+        <v>1075</v>
+      </c>
+      <c r="E542" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000541</v>
       </c>
     </row>
     <row r="543" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B543" s="1" t="s">
-        <v>1551</v>
+        <v>1027</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E543" s="4" t="s">
-        <v>1532</v>
+        <v>1076</v>
+      </c>
+      <c r="E543" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000542</v>
       </c>
     </row>
     <row r="544" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B544" s="1" t="s">
-        <v>1552</v>
+        <v>1028</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E544" s="4" t="s">
-        <v>1531</v>
+        <v>1077</v>
+      </c>
+      <c r="E544" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000543</v>
       </c>
     </row>
     <row r="545" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B545" s="1" t="s">
-        <v>1553</v>
+        <v>1029</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E545" s="4" t="s">
-        <v>1532</v>
+        <v>1078</v>
+      </c>
+      <c r="E545" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000544</v>
       </c>
     </row>
     <row r="546" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B546" s="1" t="s">
-        <v>1554</v>
+        <v>1030</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E546" s="4" t="s">
-        <v>1531</v>
+        <v>1079</v>
+      </c>
+      <c r="E546" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000545</v>
       </c>
     </row>
     <row r="547" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B547" s="1" t="s">
-        <v>1555</v>
+        <v>1031</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E547" s="4" t="s">
-        <v>1532</v>
+        <v>1080</v>
+      </c>
+      <c r="E547" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000546</v>
       </c>
     </row>
     <row r="548" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B548" s="1" t="s">
-        <v>1556</v>
+        <v>1032</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E548" s="4" t="s">
-        <v>1531</v>
+        <v>1081</v>
+      </c>
+      <c r="E548" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000547</v>
       </c>
     </row>
     <row r="549" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B549" s="1" t="s">
-        <v>1557</v>
+        <v>1033</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E549" s="4" t="s">
-        <v>1532</v>
+        <v>1082</v>
+      </c>
+      <c r="E549" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000548</v>
       </c>
     </row>
     <row r="550" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B550" s="1" t="s">
-        <v>1558</v>
+        <v>1034</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E550" s="4" t="s">
-        <v>1531</v>
+        <v>1083</v>
+      </c>
+      <c r="E550" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000549</v>
       </c>
     </row>
     <row r="551" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B551" s="1" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E551" s="4" t="s">
-        <v>1532</v>
+        <v>1035</v>
+      </c>
+      <c r="E551" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000550</v>
       </c>
     </row>
     <row r="552" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B552" s="1" t="s">
-        <v>1560</v>
+        <v>1036</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E552" s="4" t="s">
-        <v>1531</v>
+        <v>1084</v>
+      </c>
+      <c r="E552" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000551</v>
       </c>
     </row>
     <row r="553" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B553" s="1" t="s">
-        <v>1561</v>
+        <v>1037</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E553" s="4" t="s">
-        <v>1532</v>
+        <v>1085</v>
+      </c>
+      <c r="E553" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000552</v>
       </c>
     </row>
     <row r="554" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B554" s="1" t="s">
-        <v>1562</v>
+        <v>1038</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E554" s="4" t="s">
-        <v>1531</v>
+        <v>1086</v>
+      </c>
+      <c r="E554" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000553</v>
       </c>
     </row>
     <row r="555" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B555" s="1" t="s">
-        <v>1563</v>
+        <v>1039</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E555" s="4" t="s">
-        <v>1532</v>
+        <v>1087</v>
+      </c>
+      <c r="E555" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000554</v>
       </c>
     </row>
     <row r="556" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B556" s="1" t="s">
-        <v>1564</v>
+        <v>1040</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E556" s="4" t="s">
-        <v>1531</v>
+        <v>1088</v>
+      </c>
+      <c r="E556" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000555</v>
       </c>
     </row>
     <row r="557" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B557" s="1" t="s">
-        <v>1565</v>
+        <v>1041</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E557" s="4" t="s">
-        <v>1532</v>
+        <v>1089</v>
+      </c>
+      <c r="E557" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000556</v>
       </c>
     </row>
     <row r="558" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B558" s="1" t="s">
-        <v>1566</v>
+        <v>1042</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E558" s="4" t="s">
-        <v>1531</v>
+        <v>1090</v>
+      </c>
+      <c r="E558" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000557</v>
       </c>
     </row>
     <row r="559" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B559" s="1" t="s">
-        <v>1567</v>
+        <v>1043</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E559" s="4" t="s">
-        <v>1532</v>
+        <v>1091</v>
+      </c>
+      <c r="E559" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000558</v>
       </c>
     </row>
     <row r="560" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B560" s="1" t="s">
-        <v>1568</v>
+        <v>1044</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E560" s="4" t="s">
-        <v>1531</v>
+        <v>1092</v>
+      </c>
+      <c r="E560" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000559</v>
       </c>
     </row>
     <row r="561" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B561" s="1" t="s">
-        <v>1569</v>
+        <v>1045</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E561" s="4" t="s">
-        <v>1532</v>
+        <v>1093</v>
+      </c>
+      <c r="E561" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000560</v>
       </c>
     </row>
     <row r="562" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B562" s="1" t="s">
-        <v>1570</v>
+        <v>1046</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E562" s="4" t="s">
-        <v>1531</v>
+        <v>1094</v>
+      </c>
+      <c r="E562" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000561</v>
       </c>
     </row>
     <row r="563" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B563" s="1" t="s">
-        <v>1571</v>
+        <v>1047</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E563" s="4" t="s">
-        <v>1532</v>
+        <v>1095</v>
+      </c>
+      <c r="E563" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000562</v>
       </c>
     </row>
     <row r="564" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B564" s="1" t="s">
-        <v>1572</v>
+        <v>1048</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E564" s="4" t="s">
-        <v>1531</v>
+        <v>1096</v>
+      </c>
+      <c r="E564" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000563</v>
       </c>
     </row>
     <row r="565" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B565" s="1" t="s">
-        <v>1573</v>
+        <v>1049</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E565" s="4" t="s">
-        <v>1532</v>
+        <v>1097</v>
+      </c>
+      <c r="E565" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000564</v>
       </c>
     </row>
     <row r="566" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B566" s="1" t="s">
-        <v>1574</v>
+        <v>1050</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E566" s="4" t="s">
-        <v>1531</v>
+        <v>1098</v>
+      </c>
+      <c r="E566" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000565</v>
       </c>
     </row>
     <row r="567" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B567" s="1" t="s">
-        <v>1575</v>
+        <v>1051</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E567" s="4" t="s">
-        <v>1532</v>
+        <v>1099</v>
+      </c>
+      <c r="E567" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000566</v>
       </c>
     </row>
     <row r="568" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B568" s="1" t="s">
-        <v>1576</v>
+        <v>1052</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E568" s="4" t="s">
-        <v>1531</v>
+        <v>1100</v>
+      </c>
+      <c r="E568" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000567</v>
       </c>
     </row>
     <row r="569" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B569" s="1" t="s">
-        <v>1577</v>
+        <v>1053</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E569" s="4" t="s">
-        <v>1532</v>
+        <v>1101</v>
+      </c>
+      <c r="E569" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000568</v>
       </c>
     </row>
     <row r="570" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B570" s="1" t="s">
-        <v>1578</v>
+        <v>1054</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E570" s="4" t="s">
-        <v>1531</v>
+        <v>1102</v>
+      </c>
+      <c r="E570" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000569</v>
       </c>
     </row>
     <row r="571" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B571" s="1" t="s">
-        <v>1579</v>
+        <v>1055</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E571" s="4" t="s">
-        <v>1532</v>
+        <v>1103</v>
+      </c>
+      <c r="E571" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000570</v>
       </c>
     </row>
     <row r="572" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B572" s="1" t="s">
-        <v>1580</v>
+        <v>1056</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E572" s="4" t="s">
-        <v>1531</v>
+        <v>1104</v>
+      </c>
+      <c r="E572" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000571</v>
       </c>
     </row>
     <row r="573" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B573" s="1" t="s">
-        <v>1581</v>
+        <v>1057</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E573" s="4" t="s">
-        <v>1532</v>
+        <v>1105</v>
+      </c>
+      <c r="E573" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000572</v>
       </c>
     </row>
     <row r="574" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B574" s="1" t="s">
-        <v>1582</v>
+        <v>1058</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E574" s="4" t="s">
-        <v>1531</v>
+        <v>1106</v>
+      </c>
+      <c r="E574" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000573</v>
       </c>
     </row>
     <row r="575" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B575" s="1" t="s">
-        <v>1583</v>
+        <v>1059</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E575" s="4" t="s">
-        <v>1532</v>
+        <v>1107</v>
+      </c>
+      <c r="E575" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000574</v>
       </c>
     </row>
     <row r="576" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B576" s="1" t="s">
-        <v>1584</v>
+        <v>1060</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E576" s="4" t="s">
-        <v>1531</v>
+        <v>1108</v>
+      </c>
+      <c r="E576" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000575</v>
+      </c>
+    </row>
+    <row r="577" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B577" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E577" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000576</v>
+      </c>
+    </row>
+    <row r="578" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B578" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E578" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000577</v>
+      </c>
+    </row>
+    <row r="579" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B579" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E579" s="5">
+        <f t="shared" si="8"/>
+        <v>47000000000578</v>
+      </c>
+    </row>
+    <row r="580" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B580" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E580" s="5">
+        <f t="shared" ref="E580:E603" si="9">E579+1</f>
+        <v>47000000000579</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B581" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E581" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000580</v>
+      </c>
+    </row>
+    <row r="582" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B582" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E582" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000581</v>
+      </c>
+    </row>
+    <row r="583" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B583" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E583" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000582</v>
+      </c>
+    </row>
+    <row r="584" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B584" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E584" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000583</v>
+      </c>
+    </row>
+    <row r="585" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B585" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E585" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000584</v>
+      </c>
+    </row>
+    <row r="586" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B586" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E586" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000585</v>
+      </c>
+    </row>
+    <row r="587" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B587" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E587" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000586</v>
+      </c>
+    </row>
+    <row r="588" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B588" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E588" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000587</v>
+      </c>
+    </row>
+    <row r="589" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B589" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E589" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000588</v>
+      </c>
+    </row>
+    <row r="590" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B590" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E590" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000589</v>
+      </c>
+    </row>
+    <row r="591" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B591" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E591" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000590</v>
+      </c>
+    </row>
+    <row r="592" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B592" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E592" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000591</v>
+      </c>
+    </row>
+    <row r="593" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B593" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E593" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000592</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B594" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E594" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000593</v>
+      </c>
+    </row>
+    <row r="595" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B595" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E595" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000594</v>
+      </c>
+    </row>
+    <row r="596" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B596" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E596" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000595</v>
+      </c>
+    </row>
+    <row r="597" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B597" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E597" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000596</v>
+      </c>
+    </row>
+    <row r="598" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B598" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E598" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000597</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B599" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E599" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000598</v>
+      </c>
+    </row>
+    <row r="600" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B600" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E600" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000599</v>
+      </c>
+    </row>
+    <row r="601" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B601" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E601" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000600</v>
+      </c>
+    </row>
+    <row r="602" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B602" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E602" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000601</v>
+      </c>
+    </row>
+    <row r="603" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B603" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E603" s="5">
+        <f t="shared" si="9"/>
+        <v>47000000000602</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:E525 E526:E576" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -3830,14 +3830,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -4150,7 +4143,7 @@
   </sheetPr>
   <dimension ref="B1:F606"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C545" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -13820,7 +13813,7 @@
   </sheetPr>
   <dimension ref="B1:D612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
@@ -3994,14 +3994,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -14370,13 +14363,13 @@
         <v>47000000000627</v>
       </c>
       <c r="F631" s="13" t="str">
-        <f t="shared" ref="F582:F631" si="20">IF(EXACT(B631, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblLDAPObject_User_SET""(varSystemLoginSession, null::bigint, null::varchar, null::varchar,  varInstitutionBranchID, varBaseCurrencyID, '", B631, "', ", IF(EXACT(C631, ""), "null", CONCATENATE("'", C631, "'")), ");"))</f>
+        <f t="shared" ref="F631" si="20">IF(EXACT(B631, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblLDAPObject_User_SET""(varSystemLoginSession, null::bigint, null::varchar, null::varchar,  varInstitutionBranchID, varBaseCurrencyID, '", B631, "', ", IF(EXACT(C631, ""), "null", CONCATENATE("'", C631, "'")), ");"))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E631">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>EXACT(E3, E4)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblLDAPObject_User.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1224">
   <si>
     <t>astam</t>
   </si>
@@ -3669,6 +3669,24 @@
   </si>
   <si>
     <t>Adythia A</t>
+  </si>
+  <si>
+    <t>andrean.fahrizi</t>
+  </si>
+  <si>
+    <t>achmad.sandi</t>
+  </si>
+  <si>
+    <t>amar.abdilah</t>
+  </si>
+  <si>
+    <t>User_AhmadSandi</t>
+  </si>
+  <si>
+    <t>User_AndreanFahrizi</t>
+  </si>
+  <si>
+    <t>User_AmarAbdilah</t>
   </si>
 </sst>
 </file>
@@ -3728,7 +3746,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3762,6 +3780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3986,15 +4010,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4305,13 +4343,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:F631"/>
+  <dimension ref="B1:F634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C623" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F633" sqref="F631:F633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13563,11 +13601,11 @@
         <v>1137</v>
       </c>
       <c r="E581" s="14">
-        <f t="shared" ref="E581:E631" si="18" xml:space="preserve"> E580 + IF(EXACT(F581, ""), 0, 1)</f>
+        <f t="shared" ref="E581:E633" si="18" xml:space="preserve"> E580 + IF(EXACT(F581, ""), 0, 1)</f>
         <v>47000000000578</v>
       </c>
       <c r="F581" s="13" t="str">
-        <f t="shared" ref="F581:F630" si="19">IF(EXACT(B581, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblLDAPObject_User_SET""(varSystemLoginSession, null::bigint, null::varchar, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B581, "', ", IF(EXACT(C581, ""), "null", CONCATENATE("'", C581, "'")), ");"))</f>
+        <f t="shared" ref="F581:F634" si="19">IF(EXACT(B581, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblLDAPObject_User_SET""(varSystemLoginSession, null::bigint, null::varchar, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B581, "', ", IF(EXACT(C581, ""), "null", CONCATENATE("'", C581, "'")), ");"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblLDAPObject_User_SET"(varSystemLoginSession, null::bigint, null::varchar, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'khaidir', 'User_Khaidir');</v>
       </c>
     </row>
@@ -13956,10 +13994,10 @@
       </c>
     </row>
     <row r="606" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B606" s="21" t="s">
+      <c r="B606" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="C606" s="21" t="s">
+      <c r="C606" s="20" t="s">
         <v>1166</v>
       </c>
       <c r="E606" s="14">
@@ -14036,10 +14074,10 @@
       </c>
     </row>
     <row r="611" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B611" s="22" t="s">
+      <c r="B611" s="21" t="s">
         <v>1177</v>
       </c>
-      <c r="C611" s="22" t="s">
+      <c r="C611" s="21" t="s">
         <v>1171</v>
       </c>
       <c r="E611" s="14">
@@ -14356,21 +14394,74 @@
       </c>
     </row>
     <row r="631" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B631" s="22"/>
-      <c r="C631" s="22"/>
+      <c r="B631" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C631" s="8" t="s">
+        <v>1221</v>
+      </c>
       <c r="E631" s="14">
         <f t="shared" si="18"/>
+        <v>47000000000628</v>
+      </c>
+      <c r="F631" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchSysConfig"."Func_TblLDAPObject_User_SET"(varSystemLoginSession, null::bigint, null::varchar, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'achmad.sandi', 'User_AhmadSandi');</v>
+      </c>
+    </row>
+    <row r="632" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B632" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C632" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E632" s="14">
+        <f t="shared" si="18"/>
+        <v>47000000000629</v>
+      </c>
+      <c r="F632" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchSysConfig"."Func_TblLDAPObject_User_SET"(varSystemLoginSession, null::bigint, null::varchar, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'andrean.fahrizi', 'User_AndreanFahrizi');</v>
+      </c>
+    </row>
+    <row r="633" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B633" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C633" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E633" s="14">
+        <f t="shared" si="18"/>
+        <v>47000000000630</v>
+      </c>
+      <c r="F633" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchSysConfig"."Func_TblLDAPObject_User_SET"(varSystemLoginSession, null::bigint, null::varchar, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'amar.abdilah', 'User_AmarAbdilah');</v>
+      </c>
+    </row>
+    <row r="634" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B634" s="21"/>
+      <c r="C634" s="21"/>
+      <c r="E634" s="14">
+        <f xml:space="preserve"> E630 + IF(EXACT(F634, ""), 0, 1)</f>
         <v>47000000000627</v>
       </c>
-      <c r="F631" s="13" t="str">
-        <f t="shared" ref="F631" si="20">IF(EXACT(B631, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblLDAPObject_User_SET""(varSystemLoginSession, null::bigint, null::varchar, null::varchar,  varInstitutionBranchID, varBaseCurrencyID, '", B631, "', ", IF(EXACT(C631, ""), "null", CONCATENATE("'", C631, "'")), ");"))</f>
+      <c r="F634" s="13" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E631">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="E4:E633">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>EXACT(E3, E4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E634">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>EXACT(E630, E634)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14383,13 +14474,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:D631"/>
+  <dimension ref="B1:D634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C617" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C616" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B630" sqref="B630"/>
+      <selection pane="bottomRight" activeCell="F628" sqref="F628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14423,11 +14514,11 @@
         <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$E4)</f>
         <v>47000000000001</v>
       </c>
-      <c r="C4" s="20" t="str">
+      <c r="C4" s="23" t="str">
         <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$B4)</f>
         <v>astam</v>
       </c>
-      <c r="D4" s="20" t="str">
+      <c r="D4" s="23" t="str">
         <f>IF(EXACT(MAIN!$F4, ""), "", ""&amp;MAIN!$C4)</f>
         <v>Astamyugo</v>
       </c>
@@ -14437,11 +14528,11 @@
         <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$E5)</f>
         <v>47000000000002</v>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C5" s="23" t="str">
         <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$B5)</f>
         <v>hasrul</v>
       </c>
-      <c r="D5" s="20" t="str">
+      <c r="D5" s="23" t="str">
         <f>IF(EXACT(MAIN!$F5, ""), "", ""&amp;MAIN!$C5)</f>
         <v>Hasrul</v>
       </c>
@@ -14451,11 +14542,11 @@
         <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$E6)</f>
         <v>47000000000003</v>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="23" t="str">
         <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$B6)</f>
         <v>irma</v>
       </c>
-      <c r="D6" s="20" t="str">
+      <c r="D6" s="23" t="str">
         <f>IF(EXACT(MAIN!$F6, ""), "", ""&amp;MAIN!$C6)</f>
         <v>Triani Irma</v>
       </c>
@@ -14465,11 +14556,11 @@
         <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$E7)</f>
         <v>47000000000004</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="23" t="str">
         <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$B7)</f>
         <v>lina</v>
       </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="23" t="str">
         <f>IF(EXACT(MAIN!$F7, ""), "", ""&amp;MAIN!$C7)</f>
         <v>Tjhang Linawati</v>
       </c>
@@ -14479,11 +14570,11 @@
         <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$E8)</f>
         <v>47000000000005</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="23" t="str">
         <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$B8)</f>
         <v>dadi</v>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="23" t="str">
         <f>IF(EXACT(MAIN!$F8, ""), "", ""&amp;MAIN!$C8)</f>
         <v>Dadi Anda Zuchradi</v>
       </c>
@@ -14493,11 +14584,11 @@
         <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$E9)</f>
         <v>47000000000006</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="23" t="str">
         <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$B9)</f>
         <v>irvan</v>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="23" t="str">
         <f>IF(EXACT(MAIN!$F9, ""), "", ""&amp;MAIN!$C9)</f>
         <v>Irvan</v>
       </c>
@@ -14507,11 +14598,11 @@
         <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$E10)</f>
         <v>47000000000007</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="23" t="str">
         <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$B10)</f>
         <v>christianto</v>
       </c>
-      <c r="D10" s="20" t="str">
+      <c r="D10" s="23" t="str">
         <f>IF(EXACT(MAIN!$F10, ""), "", ""&amp;MAIN!$C10)</f>
         <v>Christianto</v>
       </c>
@@ -14521,11 +14612,11 @@
         <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$E11)</f>
         <v>47000000000008</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="23" t="str">
         <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$B11)</f>
         <v>setiadi</v>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="23" t="str">
         <f>IF(EXACT(MAIN!$F11, ""), "", ""&amp;MAIN!$C11)</f>
         <v>Setiadi</v>
       </c>
@@ -14535,11 +14626,11 @@
         <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$E12)</f>
         <v>47000000000009</v>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="23" t="str">
         <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$B12)</f>
         <v>ucok</v>
       </c>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="23" t="str">
         <f>IF(EXACT(MAIN!$F12, ""), "", ""&amp;MAIN!$C12)</f>
         <v>Zafrizal Rifla (Ucok)</v>
       </c>
@@ -14549,11 +14640,11 @@
         <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$E13)</f>
         <v>47000000000010</v>
       </c>
-      <c r="C13" s="20" t="str">
+      <c r="C13" s="23" t="str">
         <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$B13)</f>
         <v>kornel</v>
       </c>
-      <c r="D13" s="20" t="str">
+      <c r="D13" s="23" t="str">
         <f>IF(EXACT(MAIN!$F13, ""), "", ""&amp;MAIN!$C13)</f>
         <v>Kornel Sakan</v>
       </c>
@@ -14563,11 +14654,11 @@
         <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$E14)</f>
         <v>47000000000011</v>
       </c>
-      <c r="C14" s="20" t="str">
+      <c r="C14" s="23" t="str">
         <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$B14)</f>
         <v>ernawati</v>
       </c>
-      <c r="D14" s="20" t="str">
+      <c r="D14" s="23" t="str">
         <f>IF(EXACT(MAIN!$F14, ""), "", ""&amp;MAIN!$C14)</f>
         <v>Ernawati</v>
       </c>
@@ -14577,11 +14668,11 @@
         <f>IF(EXACT(MAIN!$F15, ""), "", MAIN!$E15)</f>
         <v>47000000000012</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="23" t="str">
         <f>IF(EXACT(MAIN!$F15, ""), "", MAIN!$B15)</f>
         <v>hendri</v>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="23" t="str">
         <f>IF(EXACT(MAIN!$F15, ""), "", ""&amp;MAIN!$C15)</f>
         <v>Hendri Kustian</v>
       </c>
@@ -14591,11 +14682,11 @@
         <f>IF(EXACT(MAIN!$F16, ""), "", MAIN!$E16)</f>
         <v>47000000000013</v>
       </c>
-      <c r="C16" s="20" t="str">
+      <c r="C16" s="23" t="str">
         <f>IF(EXACT(MAIN!$F16, ""), "", MAIN!$B16)</f>
         <v>iskandarsyah</v>
       </c>
-      <c r="D16" s="20" t="str">
+      <c r="D16" s="23" t="str">
         <f>IF(EXACT(MAIN!$F16, ""), "", ""&amp;MAIN!$C16)</f>
         <v>Iskandarsyah</v>
       </c>
@@ -14605,11 +14696,11 @@
         <f>IF(EXACT(MAIN!$F17, ""), "", MAIN!$E17)</f>
         <v>47000000000014</v>
       </c>
-      <c r="C17" s="20" t="str">
+      <c r="C17" s="23" t="str">
         <f>IF(EXACT(MAIN!$F17, ""), "", MAIN!$B17)</f>
         <v>mullan</v>
       </c>
-      <c r="D17" s="20" t="str">
+      <c r="D17" s="23" t="str">
         <f>IF(EXACT(MAIN!$F17, ""), "", ""&amp;MAIN!$C17)</f>
         <v>Mullan Tresna</v>
       </c>
@@ -14619,11 +14710,11 @@
         <f>IF(EXACT(MAIN!$F18, ""), "", MAIN!$E18)</f>
         <v>47000000000015</v>
       </c>
-      <c r="C18" s="20" t="str">
+      <c r="C18" s="23" t="str">
         <f>IF(EXACT(MAIN!$F18, ""), "", MAIN!$B18)</f>
         <v>yulianta</v>
       </c>
-      <c r="D18" s="20" t="str">
+      <c r="D18" s="23" t="str">
         <f>IF(EXACT(MAIN!$F18, ""), "", ""&amp;MAIN!$C18)</f>
         <v>Yulianta</v>
       </c>
@@ -14633,11 +14724,11 @@
         <f>IF(EXACT(MAIN!$F19, ""), "", MAIN!$E19)</f>
         <v>47000000000016</v>
       </c>
-      <c r="C19" s="20" t="str">
+      <c r="C19" s="23" t="str">
         <f>IF(EXACT(MAIN!$F19, ""), "", MAIN!$B19)</f>
         <v>ferry</v>
       </c>
-      <c r="D19" s="20" t="str">
+      <c r="D19" s="23" t="str">
         <f>IF(EXACT(MAIN!$F19, ""), "", ""&amp;MAIN!$C19)</f>
         <v>Ferry P Simanjuntak</v>
       </c>
@@ -14647,11 +14738,11 @@
         <f>IF(EXACT(MAIN!$F20, ""), "", MAIN!$E20)</f>
         <v>47000000000017</v>
       </c>
-      <c r="C20" s="20" t="str">
+      <c r="C20" s="23" t="str">
         <f>IF(EXACT(MAIN!$F20, ""), "", MAIN!$B20)</f>
         <v>siti</v>
       </c>
-      <c r="D20" s="20" t="str">
+      <c r="D20" s="23" t="str">
         <f>IF(EXACT(MAIN!$F20, ""), "", ""&amp;MAIN!$C20)</f>
         <v>Siti Mulyani</v>
       </c>
@@ -14661,11 +14752,11 @@
         <f>IF(EXACT(MAIN!$F21, ""), "", MAIN!$E21)</f>
         <v>47000000000018</v>
       </c>
-      <c r="C21" s="20" t="str">
+      <c r="C21" s="23" t="str">
         <f>IF(EXACT(MAIN!$F21, ""), "", MAIN!$B21)</f>
         <v>tenri</v>
       </c>
-      <c r="D21" s="20" t="str">
+      <c r="D21" s="23" t="str">
         <f>IF(EXACT(MAIN!$F21, ""), "", ""&amp;MAIN!$C21)</f>
         <v>Tenri Sumange</v>
       </c>
@@ -14675,11 +14766,11 @@
         <f>IF(EXACT(MAIN!$F22, ""), "", MAIN!$E22)</f>
         <v>47000000000019</v>
       </c>
-      <c r="C22" s="20" t="str">
+      <c r="C22" s="23" t="str">
         <f>IF(EXACT(MAIN!$F22, ""), "", MAIN!$B22)</f>
         <v>hardianto</v>
       </c>
-      <c r="D22" s="20" t="str">
+      <c r="D22" s="23" t="str">
         <f>IF(EXACT(MAIN!$F22, ""), "", ""&amp;MAIN!$C22)</f>
         <v>Hardianto</v>
       </c>
@@ -14689,11 +14780,11 @@
         <f>IF(EXACT(MAIN!$F23, ""), "", MAIN!$E23)</f>
         <v>47000000000020</v>
       </c>
-      <c r="C23" s="20" t="str">
+      <c r="C23" s="23" t="str">
         <f>IF(EXACT(MAIN!$F23, ""), "", MAIN!$B23)</f>
         <v>kurnia</v>
       </c>
-      <c r="D23" s="20" t="str">
+      <c r="D23" s="23" t="str">
         <f>IF(EXACT(MAIN!$F23, ""), "", ""&amp;MAIN!$C23)</f>
         <v>Fitriastuti Kurnia</v>
       </c>
@@ -14703,11 +14794,11 @@
         <f>IF(EXACT(MAIN!$F24, ""), "", MAIN!$E24)</f>
         <v>47000000000021</v>
       </c>
-      <c r="C24" s="20" t="str">
+      <c r="C24" s="23" t="str">
         <f>IF(EXACT(MAIN!$F24, ""), "", MAIN!$B24)</f>
         <v>iwanw</v>
       </c>
-      <c r="D24" s="20" t="str">
+      <c r="D24" s="23" t="str">
         <f>IF(EXACT(MAIN!$F24, ""), "", ""&amp;MAIN!$C24)</f>
         <v>Iwan Wibawa</v>
       </c>
@@ -14717,11 +14808,11 @@
         <f>IF(EXACT(MAIN!$F25, ""), "", MAIN!$E25)</f>
         <v>47000000000022</v>
       </c>
-      <c r="C25" s="20" t="str">
+      <c r="C25" s="23" t="str">
         <f>IF(EXACT(MAIN!$F25, ""), "", MAIN!$B25)</f>
         <v>zaire</v>
       </c>
-      <c r="D25" s="20" t="str">
+      <c r="D25" s="23" t="str">
         <f>IF(EXACT(MAIN!$F25, ""), "", ""&amp;MAIN!$C25)</f>
         <v>Zaire Dite</v>
       </c>
@@ -14731,11 +14822,11 @@
         <f>IF(EXACT(MAIN!$F26, ""), "", MAIN!$E26)</f>
         <v>47000000000023</v>
       </c>
-      <c r="C26" s="20" t="str">
+      <c r="C26" s="23" t="str">
         <f>IF(EXACT(MAIN!$F26, ""), "", MAIN!$B26)</f>
         <v>kokohandoko</v>
       </c>
-      <c r="D26" s="20" t="str">
+      <c r="D26" s="23" t="str">
         <f>IF(EXACT(MAIN!$F26, ""), "", ""&amp;MAIN!$C26)</f>
         <v>Handoko</v>
       </c>
@@ -14745,11 +14836,11 @@
         <f>IF(EXACT(MAIN!$F27, ""), "", MAIN!$E27)</f>
         <v>47000000000024</v>
       </c>
-      <c r="C27" s="20" t="str">
+      <c r="C27" s="23" t="str">
         <f>IF(EXACT(MAIN!$F27, ""), "", MAIN!$B27)</f>
         <v>nabil</v>
       </c>
-      <c r="D27" s="20" t="str">
+      <c r="D27" s="23" t="str">
         <f>IF(EXACT(MAIN!$F27, ""), "", ""&amp;MAIN!$C27)</f>
         <v>Abdullah Nabil</v>
       </c>
@@ -14759,11 +14850,11 @@
         <f>IF(EXACT(MAIN!$F28, ""), "", MAIN!$E28)</f>
         <v>47000000000025</v>
       </c>
-      <c r="C28" s="20" t="str">
+      <c r="C28" s="23" t="str">
         <f>IF(EXACT(MAIN!$F28, ""), "", MAIN!$B28)</f>
         <v>utami</v>
       </c>
-      <c r="D28" s="20" t="str">
+      <c r="D28" s="23" t="str">
         <f>IF(EXACT(MAIN!$F28, ""), "", ""&amp;MAIN!$C28)</f>
         <v>Utami Dewi</v>
       </c>
@@ -14773,11 +14864,11 @@
         <f>IF(EXACT(MAIN!$F29, ""), "", MAIN!$E29)</f>
         <v>47000000000026</v>
       </c>
-      <c r="C29" s="20" t="str">
+      <c r="C29" s="23" t="str">
         <f>IF(EXACT(MAIN!$F29, ""), "", MAIN!$B29)</f>
         <v>dadan</v>
       </c>
-      <c r="D29" s="20" t="str">
+      <c r="D29" s="23" t="str">
         <f>IF(EXACT(MAIN!$F29, ""), "", ""&amp;MAIN!$C29)</f>
         <v>Dadan Suhendar</v>
       </c>
@@ -14787,11 +14878,11 @@
         <f>IF(EXACT(MAIN!$F30, ""), "", MAIN!$E30)</f>
         <v>47000000000027</v>
       </c>
-      <c r="C30" s="20" t="str">
+      <c r="C30" s="23" t="str">
         <f>IF(EXACT(MAIN!$F30, ""), "", MAIN!$B30)</f>
         <v>fikri</v>
       </c>
-      <c r="D30" s="20" t="str">
+      <c r="D30" s="23" t="str">
         <f>IF(EXACT(MAIN!$F30, ""), "", ""&amp;MAIN!$C30)</f>
         <v>Fikri</v>
       </c>
@@ -14801,11 +14892,11 @@
         <f>IF(EXACT(MAIN!$F31, ""), "", MAIN!$E31)</f>
         <v>47000000000028</v>
       </c>
-      <c r="C31" s="20" t="str">
+      <c r="C31" s="23" t="str">
         <f>IF(EXACT(MAIN!$F31, ""), "", MAIN!$B31)</f>
         <v>fardi</v>
       </c>
-      <c r="D31" s="20" t="str">
+      <c r="D31" s="23" t="str">
         <f>IF(EXACT(MAIN!$F31, ""), "", ""&amp;MAIN!$C31)</f>
         <v>Fardi Nauli R</v>
       </c>
@@ -14815,11 +14906,11 @@
         <f>IF(EXACT(MAIN!$F32, ""), "", MAIN!$E32)</f>
         <v>47000000000029</v>
       </c>
-      <c r="C32" s="20" t="str">
+      <c r="C32" s="23" t="str">
         <f>IF(EXACT(MAIN!$F32, ""), "", MAIN!$B32)</f>
         <v>dinnar</v>
       </c>
-      <c r="D32" s="20" t="str">
+      <c r="D32" s="23" t="str">
         <f>IF(EXACT(MAIN!$F32, ""), "", ""&amp;MAIN!$C32)</f>
         <v>Dinnar Budiarti</v>
       </c>
@@ -14829,11 +14920,11 @@
         <f>IF(EXACT(MAIN!$F33, ""), "", MAIN!$E33)</f>
         <v>47000000000030</v>
       </c>
-      <c r="C33" s="20" t="str">
+      <c r="C33" s="23" t="str">
         <f>IF(EXACT(MAIN!$F33, ""), "", MAIN!$B33)</f>
         <v>sumirat</v>
       </c>
-      <c r="D33" s="20" t="str">
+      <c r="D33" s="23" t="str">
         <f>IF(EXACT(MAIN!$F33, ""), "", ""&amp;MAIN!$C33)</f>
         <v>Sumirat</v>
       </c>
@@ -14843,11 +14934,11 @@
         <f>IF(EXACT(MAIN!$F34, ""), "", MAIN!$E34)</f>
         <v>47000000000031</v>
       </c>
-      <c r="C34" s="20" t="str">
+      <c r="C34" s="23" t="str">
         <f>IF(EXACT(MAIN!$F34, ""), "", MAIN!$B34)</f>
         <v>anika</v>
       </c>
-      <c r="D34" s="20" t="str">
+      <c r="D34" s="23" t="str">
         <f>IF(EXACT(MAIN!$F34, ""), "", ""&amp;MAIN!$C34)</f>
         <v>Anika Setyowati</v>
       </c>
@@ -14857,11 +14948,11 @@
         <f>IF(EXACT(MAIN!$F35, ""), "", MAIN!$E35)</f>
         <v>47000000000032</v>
       </c>
-      <c r="C35" s="20" t="str">
+      <c r="C35" s="23" t="str">
         <f>IF(EXACT(MAIN!$F35, ""), "", MAIN!$B35)</f>
         <v>surtoyo</v>
       </c>
-      <c r="D35" s="20" t="str">
+      <c r="D35" s="23" t="str">
         <f>IF(EXACT(MAIN!$F35, ""), "", ""&amp;MAIN!$C35)</f>
         <v>Surtoyo Syukri</v>
       </c>
@@ -14871,11 +14962,11 @@
         <f>IF(EXACT(MAIN!$F36, ""), "", MAIN!$E36)</f>
         <v>47000000000033</v>
       </c>
-      <c r="C36" s="20" t="str">
+      <c r="C36" s="23" t="str">
         <f>IF(EXACT(MAIN!$F36, ""), "", MAIN!$B36)</f>
         <v>santi</v>
       </c>
-      <c r="D36" s="20" t="str">
+      <c r="D36" s="23" t="str">
         <f>IF(EXACT(MAIN!$F36, ""), "", ""&amp;MAIN!$C36)</f>
         <v>Santi Dewi RW</v>
       </c>
@@ -14885,11 +14976,11 @@
         <f>IF(EXACT(MAIN!$F37, ""), "", MAIN!$E37)</f>
         <v>47000000000034</v>
       </c>
-      <c r="C37" s="20" t="str">
+      <c r="C37" s="23" t="str">
         <f>IF(EXACT(MAIN!$F37, ""), "", MAIN!$B37)</f>
         <v>alpha</v>
       </c>
-      <c r="D37" s="20" t="str">
+      <c r="D37" s="23" t="str">
         <f>IF(EXACT(MAIN!$F37, ""), "", ""&amp;MAIN!$C37)</f>
         <v>Alphaliyanri Lasria</v>
       </c>
@@ -14899,11 +14990,11 @@
         <f>IF(EXACT(MAIN!$F38, ""), "", MAIN!$E38)</f>
         <v>47000000000035</v>
       </c>
-      <c r="C38" s="20" t="str">
+      <c r="C38" s="23" t="str">
         <f>IF(EXACT(MAIN!$F38, ""), "", MAIN!$B38)</f>
         <v>jaya</v>
       </c>
-      <c r="D38" s="20" t="str">
+      <c r="D38" s="23" t="str">
         <f>IF(EXACT(MAIN!$F38, ""), "", ""&amp;MAIN!$C38)</f>
         <v>Jaya Ganef</v>
       </c>
@@ -14913,11 +15004,11 @@
         <f>IF(EXACT(MAIN!$F39, ""), "", MAIN!$E39)</f>
         <v>47000000000036</v>
       </c>
-      <c r="C39" s="20" t="str">
+      <c r="C39" s="23" t="str">
         <f>IF(EXACT(MAIN!$F39, ""), "", MAIN!$B39)</f>
         <v>noercholis</v>
       </c>
-      <c r="D39" s="20" t="str">
+      <c r="D39" s="23" t="str">
         <f>IF(EXACT(MAIN!$F39, ""), "", ""&amp;MAIN!$C39)</f>
         <v>Noercholis Firmansyah</v>
       </c>
@@ -14927,11 +15018,11 @@
         <f>IF(EXACT(MAIN!$F40, ""), "", MAIN!$E40)</f>
         <v>47000000000037</v>
       </c>
-      <c r="C40" s="20" t="str">
+      <c r="C40" s="23" t="str">
         <f>IF(EXACT(MAIN!$F40, ""), "", MAIN!$B40)</f>
         <v>herni</v>
       </c>
-      <c r="D40" s="20" t="str">
+      <c r="D40" s="23" t="str">
         <f>IF(EXACT(MAIN!$F40, ""), "", ""&amp;MAIN!$C40)</f>
         <v>Herni Yuliati</v>
       </c>
@@ -14941,11 +15032,11 @@
         <f>IF(EXACT(MAIN!$F41, ""), "", MAIN!$E41)</f>
         <v>47000000000038</v>
       </c>
-      <c r="C41" s="20" t="str">
+      <c r="C41" s="23" t="str">
         <f>IF(EXACT(MAIN!$F41, ""), "", MAIN!$B41)</f>
         <v>wiwik</v>
       </c>
-      <c r="D41" s="20" t="str">
+      <c r="D41" s="23" t="str">
         <f>IF(EXACT(MAIN!$F41, ""), "", ""&amp;MAIN!$C41)</f>
         <v>Triwiarti Dibya</v>
       </c>
@@ -14955,11 +15046,11 @@
         <f>IF(EXACT(MAIN!$F42, ""), "", MAIN!$E42)</f>
         <v>47000000000039</v>
       </c>
-      <c r="C42" s="20" t="str">
+      <c r="C42" s="23" t="str">
         <f>IF(EXACT(MAIN!$F42, ""), "", MAIN!$B42)</f>
         <v>redi</v>
       </c>
-      <c r="D42" s="20" t="str">
+      <c r="D42" s="23" t="str">
         <f>IF(EXACT(MAIN!$F42, ""), "", ""&amp;MAIN!$C42)</f>
         <v>Redi Subekti</v>
       </c>
@@ -14969,11 +15060,11 @@
         <f>IF(EXACT(MAIN!$F43, ""), "", MAIN!$E43)</f>
         <v>47000000000040</v>
       </c>
-      <c r="C43" s="20" t="str">
+      <c r="C43" s="23" t="str">
         <f>IF(EXACT(MAIN!$F43, ""), "", MAIN!$B43)</f>
         <v>hamidah</v>
       </c>
-      <c r="D43" s="20" t="str">
+      <c r="D43" s="23" t="str">
         <f>IF(EXACT(MAIN!$F43, ""), "", ""&amp;MAIN!$C43)</f>
         <v>Eka Hamidah</v>
       </c>
@@ -14983,11 +15074,11 @@
         <f>IF(EXACT(MAIN!$F44, ""), "", MAIN!$E44)</f>
         <v>47000000000041</v>
       </c>
-      <c r="C44" s="20" t="str">
+      <c r="C44" s="23" t="str">
         <f>IF(EXACT(MAIN!$F44, ""), "", MAIN!$B44)</f>
         <v>anwar</v>
       </c>
-      <c r="D44" s="20" t="str">
+      <c r="D44" s="23" t="str">
         <f>IF(EXACT(MAIN!$F44, ""), "", ""&amp;MAIN!$C44)</f>
         <v>Anwar Purnomo</v>
       </c>
@@ -14997,11 +15088,11 @@
         <f>IF(EXACT(MAIN!$F45, ""), "", MAIN!$E45)</f>
         <v>47000000000042</v>
       </c>
-      <c r="C45" s="20" t="str">
+      <c r="C45" s="23" t="str">
         <f>IF(EXACT(MAIN!$F45, ""), "", MAIN!$B45)</f>
         <v>zulkarnaen</v>
       </c>
-      <c r="D45" s="20" t="str">
+      <c r="D45" s="23" t="str">
         <f>IF(EXACT(MAIN!$F45, ""), "", ""&amp;MAIN!$C45)</f>
         <v>Ahmad Zulkarnaen</v>
       </c>
@@ -15011,11 +15102,11 @@
         <f>IF(EXACT(MAIN!$F46, ""), "", MAIN!$E46)</f>
         <v>47000000000043</v>
       </c>
-      <c r="C46" s="20" t="str">
+      <c r="C46" s="23" t="str">
         <f>IF(EXACT(MAIN!$F46, ""), "", MAIN!$B46)</f>
         <v>reni</v>
       </c>
-      <c r="D46" s="20" t="str">
+      <c r="D46" s="23" t="str">
         <f>IF(EXACT(MAIN!$F46, ""), "", ""&amp;MAIN!$C46)</f>
         <v>Reni Septiana</v>
       </c>
@@ -15025,11 +15116,11 @@
         <f>IF(EXACT(MAIN!$F47, ""), "", MAIN!$E47)</f>
         <v>47000000000044</v>
       </c>
-      <c r="C47" s="20" t="str">
+      <c r="C47" s="23" t="str">
         <f>IF(EXACT(MAIN!$F47, ""), "", MAIN!$B47)</f>
         <v>ibrahim</v>
       </c>
-      <c r="D47" s="20" t="str">
+      <c r="D47" s="23" t="str">
         <f>IF(EXACT(MAIN!$F47, ""), "", ""&amp;MAIN!$C47)</f>
         <v>Ibrahim Soukani</v>
       </c>
@@ -15039,11 +15130,11 @@
         <f>IF(EXACT(MAIN!$F48, ""), "", MAIN!$E48)</f>
         <v>47000000000045</v>
       </c>
-      <c r="C48" s="20" t="str">
+      <c r="C48" s="23" t="str">
         <f>IF(EXACT(MAIN!$F48, ""), "", MAIN!$B48)</f>
         <v>iva</v>
       </c>
-      <c r="D48" s="20" t="str">
+      <c r="D48" s="23" t="str">
         <f>IF(EXACT(MAIN!$F48, ""), "", ""&amp;MAIN!$C48)</f>
         <v>Iva Nurvahayati</v>
       </c>
@@ -15053,11 +15144,11 @@
         <f>IF(EXACT(MAIN!$F49, ""), "", MAIN!$E49)</f>
         <v>47000000000046</v>
       </c>
-      <c r="C49" s="20" t="str">
+      <c r="C49" s="23" t="str">
         <f>IF(EXACT(MAIN!$F49, ""), "", MAIN!$B49)</f>
         <v>yulianti</v>
       </c>
-      <c r="D49" s="20" t="str">
+      <c r="D49" s="23" t="str">
         <f>IF(EXACT(MAIN!$F49, ""), "", ""&amp;MAIN!$C49)</f>
         <v>Yulianti</v>
       </c>
@@ -15067,11 +15158,11 @@
         <f>IF(EXACT(MAIN!$F50, ""), "", MAIN!$E50)</f>
         <v>47000000000047</v>
       </c>
-      <c r="C50" s="20" t="str">
+      <c r="C50" s="23" t="str">
         <f>IF(EXACT(MAIN!$F50, ""), "", MAIN!$B50)</f>
         <v>adi</v>
       </c>
-      <c r="D50" s="20" t="str">
+      <c r="D50" s="23" t="str">
         <f>IF(EXACT(MAIN!$F50, ""), "", ""&amp;MAIN!$C50)</f>
         <v>Adi Ruswandi</v>
       </c>
@@ -15081,11 +15172,11 @@
         <f>IF(EXACT(MAIN!$F51, ""), "", MAIN!$E51)</f>
         <v>47000000000048</v>
       </c>
-      <c r="C51" s="20" t="str">
+      <c r="C51" s="23" t="str">
         <f>IF(EXACT(MAIN!$F51, ""), "", MAIN!$B51)</f>
         <v>rasrin</v>
       </c>
-      <c r="D51" s="20" t="str">
+      <c r="D51" s="23" t="str">
         <f>IF(EXACT(MAIN!$F51, ""), "", ""&amp;MAIN!$C51)</f>
         <v>Rinaldi Asrin</v>
       </c>
@@ -15095,11 +15186,11 @@
         <f>IF(EXACT(MAIN!$F52, ""), "", MAIN!$E52)</f>
         <v>47000000000049</v>
       </c>
-      <c r="C52" s="20" t="str">
+      <c r="C52" s="23" t="str">
         <f>IF(EXACT(MAIN!$F52, ""), "", MAIN!$B52)</f>
         <v>budi</v>
       </c>
-      <c r="D52" s="20" t="str">
+      <c r="D52" s="23" t="str">
         <f>IF(EXACT(MAIN!$F52, ""), "", ""&amp;MAIN!$C52)</f>
         <v>Budi Satrio</v>
       </c>
@@ -15109,11 +15200,11 @@
         <f>IF(EXACT(MAIN!$F53, ""), "", MAIN!$E53)</f>
         <v>47000000000050</v>
       </c>
-      <c r="C53" s="20" t="str">
+      <c r="C53" s="23" t="str">
         <f>IF(EXACT(MAIN!$F53, ""), "", MAIN!$B53)</f>
         <v>hsusanto</v>
       </c>
-      <c r="D53" s="20" t="str">
+      <c r="D53" s="23" t="str">
         <f>IF(EXACT(MAIN!$F53, ""), "", ""&amp;MAIN!$C53)</f>
         <v>Heri Susanto</v>
       </c>
@@ -15123,11 +15214,11 @@
         <f>IF(EXACT(MAIN!$F54, ""), "", MAIN!$E54)</f>
         <v>47000000000051</v>
       </c>
-      <c r="C54" s="20" t="str">
+      <c r="C54" s="23" t="str">
         <f>IF(EXACT(MAIN!$F54, ""), "", MAIN!$B54)</f>
         <v>laksono</v>
       </c>
-      <c r="D54" s="20" t="str">
+      <c r="D54" s="23" t="str">
         <f>IF(EXACT(MAIN!$F54, ""), "", ""&amp;MAIN!$C54)</f>
         <v>Eko Laksono</v>
       </c>
@@ -15137,11 +15228,11 @@
         <f>IF(EXACT(MAIN!$F55, ""), "", MAIN!$E55)</f>
         <v>47000000000052</v>
       </c>
-      <c r="C55" s="20" t="str">
+      <c r="C55" s="23" t="str">
         <f>IF(EXACT(MAIN!$F55, ""), "", MAIN!$B55)</f>
         <v>gunawan</v>
       </c>
-      <c r="D55" s="20" t="str">
+      <c r="D55" s="23" t="str">
         <f>IF(EXACT(MAIN!$F55, ""), "", ""&amp;MAIN!$C55)</f>
         <v>Gunawan</v>
       </c>
@@ -15151,11 +15242,11 @@
         <f>IF(EXACT(MAIN!$F56, ""), "", MAIN!$E56)</f>
         <v>47000000000053</v>
       </c>
-      <c r="C56" s="20" t="str">
+      <c r="C56" s="23" t="str">
         <f>IF(EXACT(MAIN!$F56, ""), "", MAIN!$B56)</f>
         <v>wisu</v>
       </c>
-      <c r="D56" s="20" t="str">
+      <c r="D56" s="23" t="str">
         <f>IF(EXACT(MAIN!$F56, ""), "", ""&amp;MAIN!$C56)</f>
         <v>Wisudanto C. Suntoyo</v>
       </c>
@@ -15165,11 +15256,11 @@
         <f>IF(EXACT(MAIN!$F57, ""), "", MAIN!$E57)</f>
         <v>47000000000054</v>
       </c>
-      <c r="C57" s="20" t="str">
+      <c r="C57" s="23" t="str">
         <f>IF(EXACT(MAIN!$F57, ""), "", MAIN!$B57)</f>
         <v>bherly</v>
       </c>
-      <c r="D57" s="20" t="str">
+      <c r="D57" s="23" t="str">
         <f>IF(EXACT(MAIN!$F57, ""), "", ""&amp;MAIN!$C57)</f>
         <v>Bherly Novrandy</v>
       </c>
@@ -15179,11 +15270,11 @@
         <f>IF(EXACT(MAIN!$F58, ""), "", MAIN!$E58)</f>
         <v>47000000000055</v>
       </c>
-      <c r="C58" s="20" t="str">
+      <c r="C58" s="23" t="str">
         <f>IF(EXACT(MAIN!$F58, ""), "", MAIN!$B58)</f>
         <v>trims</v>
       </c>
-      <c r="D58" s="20" t="str">
+      <c r="D58" s="23" t="str">
         <f>IF(EXACT(MAIN!$F58, ""), "", ""&amp;MAIN!$C58)</f>
         <v>Tri M. Saputra</v>
       </c>
@@ -15193,11 +15284,11 @@
         <f>IF(EXACT(MAIN!$F59, ""), "", MAIN!$E59)</f>
         <v>47000000000056</v>
       </c>
-      <c r="C59" s="20" t="str">
+      <c r="C59" s="23" t="str">
         <f>IF(EXACT(MAIN!$F59, ""), "", MAIN!$B59)</f>
         <v>jonhar</v>
       </c>
-      <c r="D59" s="20" t="str">
+      <c r="D59" s="23" t="str">
         <f>IF(EXACT(MAIN!$F59, ""), "", ""&amp;MAIN!$C59)</f>
         <v>Jonhar Aziz</v>
       </c>
@@ -15207,11 +15298,11 @@
         <f>IF(EXACT(MAIN!$F60, ""), "", MAIN!$E60)</f>
         <v>47000000000057</v>
       </c>
-      <c r="C60" s="20" t="str">
+      <c r="C60" s="23" t="str">
         <f>IF(EXACT(MAIN!$F60, ""), "", MAIN!$B60)</f>
         <v>marungkil</v>
       </c>
-      <c r="D60" s="20" t="str">
+      <c r="D60" s="23" t="str">
         <f>IF(EXACT(MAIN!$F60, ""), "", ""&amp;MAIN!$C60)</f>
         <v>Marungkil Sagala</v>
       </c>
@@ -15221,11 +15312,11 @@
         <f>IF(EXACT(MAIN!$F61, ""), "", MAIN!$E61)</f>
         <v>47000000000058</v>
       </c>
-      <c r="C61" s="20" t="str">
+      <c r="C61" s="23" t="str">
         <f>IF(EXACT(MAIN!$F61, ""), "", MAIN!$B61)</f>
         <v>assubki</v>
       </c>
-      <c r="D61" s="20" t="str">
+      <c r="D61" s="23" t="str">
         <f>IF(EXACT(MAIN!$F61, ""), "", ""&amp;MAIN!$C61)</f>
         <v>T Assubki</v>
       </c>
@@ -15235,11 +15326,11 @@
         <f>IF(EXACT(MAIN!$F62, ""), "", MAIN!$E62)</f>
         <v>47000000000059</v>
       </c>
-      <c r="C62" s="20" t="str">
+      <c r="C62" s="23" t="str">
         <f>IF(EXACT(MAIN!$F62, ""), "", MAIN!$B62)</f>
         <v>dion</v>
       </c>
-      <c r="D62" s="20" t="str">
+      <c r="D62" s="23" t="str">
         <f>IF(EXACT(MAIN!$F62, ""), "", ""&amp;MAIN!$C62)</f>
         <v>Dionesius S. Duka</v>
       </c>
@@ -15249,11 +15340,11 @@
         <f>IF(EXACT(MAIN!$F63, ""), "", MAIN!$E63)</f>
         <v>47000000000060</v>
       </c>
-      <c r="C63" s="20" t="str">
+      <c r="C63" s="23" t="str">
         <f>IF(EXACT(MAIN!$F63, ""), "", MAIN!$B63)</f>
         <v>endang</v>
       </c>
-      <c r="D63" s="20" t="str">
+      <c r="D63" s="23" t="str">
         <f>IF(EXACT(MAIN!$F63, ""), "", ""&amp;MAIN!$C63)</f>
         <v>Endang Sutrisna</v>
       </c>
@@ -15263,11 +15354,11 @@
         <f>IF(EXACT(MAIN!$F64, ""), "", MAIN!$E64)</f>
         <v>47000000000061</v>
       </c>
-      <c r="C64" s="20" t="str">
+      <c r="C64" s="23" t="str">
         <f>IF(EXACT(MAIN!$F64, ""), "", MAIN!$B64)</f>
         <v>ganda</v>
       </c>
-      <c r="D64" s="20" t="str">
+      <c r="D64" s="23" t="str">
         <f>IF(EXACT(MAIN!$F64, ""), "", ""&amp;MAIN!$C64)</f>
         <v>Ganda Yuharis R</v>
       </c>
@@ -15277,11 +15368,11 @@
         <f>IF(EXACT(MAIN!$F65, ""), "", MAIN!$E65)</f>
         <v>47000000000062</v>
       </c>
-      <c r="C65" s="20" t="str">
+      <c r="C65" s="23" t="str">
         <f>IF(EXACT(MAIN!$F65, ""), "", MAIN!$B65)</f>
         <v>hanif</v>
       </c>
-      <c r="D65" s="20" t="str">
+      <c r="D65" s="23" t="str">
         <f>IF(EXACT(MAIN!$F65, ""), "", ""&amp;MAIN!$C65)</f>
         <v>Hanif Ashari</v>
       </c>
@@ -15291,11 +15382,11 @@
         <f>IF(EXACT(MAIN!$F66, ""), "", MAIN!$E66)</f>
         <v>47000000000063</v>
       </c>
-      <c r="C66" s="20" t="str">
+      <c r="C66" s="23" t="str">
         <f>IF(EXACT(MAIN!$F66, ""), "", MAIN!$B66)</f>
         <v>kholik</v>
       </c>
-      <c r="D66" s="20" t="str">
+      <c r="D66" s="23" t="str">
         <f>IF(EXACT(MAIN!$F66, ""), "", ""&amp;MAIN!$C66)</f>
         <v>Kholik</v>
       </c>
@@ -15305,11 +15396,11 @@
         <f>IF(EXACT(MAIN!$F67, ""), "", MAIN!$E67)</f>
         <v>47000000000064</v>
       </c>
-      <c r="C67" s="20" t="str">
+      <c r="C67" s="23" t="str">
         <f>IF(EXACT(MAIN!$F67, ""), "", MAIN!$B67)</f>
         <v>nandang</v>
       </c>
-      <c r="D67" s="20" t="str">
+      <c r="D67" s="23" t="str">
         <f>IF(EXACT(MAIN!$F67, ""), "", ""&amp;MAIN!$C67)</f>
         <v>Nandang</v>
       </c>
@@ -15319,11 +15410,11 @@
         <f>IF(EXACT(MAIN!$F68, ""), "", MAIN!$E68)</f>
         <v>47000000000065</v>
       </c>
-      <c r="C68" s="20" t="str">
+      <c r="C68" s="23" t="str">
         <f>IF(EXACT(MAIN!$F68, ""), "", MAIN!$B68)</f>
         <v>risdyanto</v>
       </c>
-      <c r="D68" s="20" t="str">
+      <c r="D68" s="23" t="str">
         <f>IF(EXACT(MAIN!$F68, ""), "", ""&amp;MAIN!$C68)</f>
         <v>Risdyanto Risdyanto</v>
       </c>
@@ -15333,11 +15424,11 @@
         <f>IF(EXACT(MAIN!$F69, ""), "", MAIN!$E69)</f>
         <v>47000000000066</v>
       </c>
-      <c r="C69" s="20" t="str">
+      <c r="C69" s="23" t="str">
         <f>IF(EXACT(MAIN!$F69, ""), "", MAIN!$B69)</f>
         <v>sofyan</v>
       </c>
-      <c r="D69" s="20" t="str">
+      <c r="D69" s="23" t="str">
         <f>IF(EXACT(MAIN!$F69, ""), "", ""&amp;MAIN!$C69)</f>
         <v>Sofyan Maulana</v>
       </c>
@@ -15347,11 +15438,11 @@
         <f>IF(EXACT(MAIN!$F70, ""), "", MAIN!$E70)</f>
         <v>47000000000067</v>
       </c>
-      <c r="C70" s="20" t="str">
+      <c r="C70" s="23" t="str">
         <f>IF(EXACT(MAIN!$F70, ""), "", MAIN!$B70)</f>
         <v>yanuar</v>
       </c>
-      <c r="D70" s="20" t="str">
+      <c r="D70" s="23" t="str">
         <f>IF(EXACT(MAIN!$F70, ""), "", ""&amp;MAIN!$C70)</f>
         <v>Yanuar Tri Ananda</v>
       </c>
@@ -15361,11 +15452,11 @@
         <f>IF(EXACT(MAIN!$F71, ""), "", MAIN!$E71)</f>
         <v>47000000000068</v>
       </c>
-      <c r="C71" s="20" t="str">
+      <c r="C71" s="23" t="str">
         <f>IF(EXACT(MAIN!$F71, ""), "", MAIN!$B71)</f>
         <v>putranto</v>
       </c>
-      <c r="D71" s="20" t="str">
+      <c r="D71" s="23" t="str">
         <f>IF(EXACT(MAIN!$F71, ""), "", ""&amp;MAIN!$C71)</f>
         <v>Nugroho Putranto</v>
       </c>
@@ -15375,11 +15466,11 @@
         <f>IF(EXACT(MAIN!$F72, ""), "", MAIN!$E72)</f>
         <v>47000000000069</v>
       </c>
-      <c r="C72" s="20" t="str">
+      <c r="C72" s="23" t="str">
         <f>IF(EXACT(MAIN!$F72, ""), "", MAIN!$B72)</f>
         <v>alexandri</v>
       </c>
-      <c r="D72" s="20" t="str">
+      <c r="D72" s="23" t="str">
         <f>IF(EXACT(MAIN!$F72, ""), "", ""&amp;MAIN!$C72)</f>
         <v>Alexandri</v>
       </c>
@@ -15389,11 +15480,11 @@
         <f>IF(EXACT(MAIN!$F73, ""), "", MAIN!$E73)</f>
         <v>47000000000070</v>
       </c>
-      <c r="C73" s="20" t="str">
+      <c r="C73" s="23" t="str">
         <f>IF(EXACT(MAIN!$F73, ""), "", MAIN!$B73)</f>
         <v>syafrudin</v>
       </c>
-      <c r="D73" s="20" t="str">
+      <c r="D73" s="23" t="str">
         <f>IF(EXACT(MAIN!$F73, ""), "", ""&amp;MAIN!$C73)</f>
         <v>Syafrudin Machmud</v>
       </c>
@@ -15403,11 +15494,11 @@
         <f>IF(EXACT(MAIN!$F74, ""), "", MAIN!$E74)</f>
         <v>47000000000071</v>
       </c>
-      <c r="C74" s="20" t="str">
+      <c r="C74" s="23" t="str">
         <f>IF(EXACT(MAIN!$F74, ""), "", MAIN!$B74)</f>
         <v>bondhan</v>
       </c>
-      <c r="D74" s="20" t="str">
+      <c r="D74" s="23" t="str">
         <f>IF(EXACT(MAIN!$F74, ""), "", ""&amp;MAIN!$C74)</f>
         <v>Bondhan Sosiarta</v>
       </c>
@@ -15417,11 +15508,11 @@
         <f>IF(EXACT(MAIN!$F75, ""), "", MAIN!$E75)</f>
         <v>47000000000072</v>
       </c>
-      <c r="C75" s="20" t="str">
+      <c r="C75" s="23" t="str">
         <f>IF(EXACT(MAIN!$F75, ""), "", MAIN!$B75)</f>
         <v>samsul</v>
       </c>
-      <c r="D75" s="20" t="str">
+      <c r="D75" s="23" t="str">
         <f>IF(EXACT(MAIN!$F75, ""), "", ""&amp;MAIN!$C75)</f>
         <v>Samsul Hadi</v>
       </c>
@@ -15431,11 +15522,11 @@
         <f>IF(EXACT(MAIN!$F76, ""), "", MAIN!$E76)</f>
         <v>47000000000073</v>
       </c>
-      <c r="C76" s="20" t="str">
+      <c r="C76" s="23" t="str">
         <f>IF(EXACT(MAIN!$F76, ""), "", MAIN!$B76)</f>
         <v>marbun</v>
       </c>
-      <c r="D76" s="20" t="str">
+      <c r="D76" s="23" t="str">
         <f>IF(EXACT(MAIN!$F76, ""), "", ""&amp;MAIN!$C76)</f>
         <v>Marbun Pantas Banjarmahon</v>
       </c>
@@ -15445,11 +15536,11 @@
         <f>IF(EXACT(MAIN!$F77, ""), "", MAIN!$E77)</f>
         <v>47000000000074</v>
       </c>
-      <c r="C77" s="20" t="str">
+      <c r="C77" s="23" t="str">
         <f>IF(EXACT(MAIN!$F77, ""), "", MAIN!$B77)</f>
         <v>galuh</v>
       </c>
-      <c r="D77" s="20" t="str">
+      <c r="D77" s="23" t="str">
         <f>IF(EXACT(MAIN!$F77, ""), "", ""&amp;MAIN!$C77)</f>
         <v>Galuh Swastika</v>
       </c>
@@ -15459,11 +15550,11 @@
         <f>IF(EXACT(MAIN!$F78, ""), "", MAIN!$E78)</f>
         <v>47000000000075</v>
       </c>
-      <c r="C78" s="20" t="str">
+      <c r="C78" s="23" t="str">
         <f>IF(EXACT(MAIN!$F78, ""), "", MAIN!$B78)</f>
         <v>syambudi</v>
       </c>
-      <c r="D78" s="20" t="str">
+      <c r="D78" s="23" t="str">
         <f>IF(EXACT(MAIN!$F78, ""), "", ""&amp;MAIN!$C78)</f>
         <v>Eko Syambudi</v>
       </c>
@@ -15473,11 +15564,11 @@
         <f>IF(EXACT(MAIN!$F79, ""), "", MAIN!$E79)</f>
         <v>47000000000076</v>
       </c>
-      <c r="C79" s="20" t="str">
+      <c r="C79" s="23" t="str">
         <f>IF(EXACT(MAIN!$F79, ""), "", MAIN!$B79)</f>
         <v>imelda</v>
       </c>
-      <c r="D79" s="20" t="str">
+      <c r="D79" s="23" t="str">
         <f>IF(EXACT(MAIN!$F79, ""), "", ""&amp;MAIN!$C79)</f>
         <v>Imelda Claudia</v>
       </c>
@@ -15487,11 +15578,11 @@
         <f>IF(EXACT(MAIN!$F80, ""), "", MAIN!$E80)</f>
         <v>47000000000077</v>
       </c>
-      <c r="C80" s="20" t="str">
+      <c r="C80" s="23" t="str">
         <f>IF(EXACT(MAIN!$F80, ""), "", MAIN!$B80)</f>
         <v>maharani</v>
       </c>
-      <c r="D80" s="20" t="str">
+      <c r="D80" s="23" t="str">
         <f>IF(EXACT(MAIN!$F80, ""), "", ""&amp;MAIN!$C80)</f>
         <v>Maharani Tanjungsari</v>
       </c>
@@ -15501,11 +15592,11 @@
         <f>IF(EXACT(MAIN!$F81, ""), "", MAIN!$E81)</f>
         <v>47000000000078</v>
       </c>
-      <c r="C81" s="20" t="str">
+      <c r="C81" s="23" t="str">
         <f>IF(EXACT(MAIN!$F81, ""), "", MAIN!$B81)</f>
         <v>raoli</v>
       </c>
-      <c r="D81" s="20" t="str">
+      <c r="D81" s="23" t="str">
         <f>IF(EXACT(MAIN!$F81, ""), "", ""&amp;MAIN!$C81)</f>
         <v>Raoli Nainggolan</v>
       </c>
@@ -15515,11 +15606,11 @@
         <f>IF(EXACT(MAIN!$F82, ""), "", MAIN!$E82)</f>
         <v>47000000000079</v>
       </c>
-      <c r="C82" s="20" t="str">
+      <c r="C82" s="23" t="str">
         <f>IF(EXACT(MAIN!$F82, ""), "", MAIN!$B82)</f>
         <v>esa</v>
       </c>
-      <c r="D82" s="20" t="str">
+      <c r="D82" s="23" t="str">
         <f>IF(EXACT(MAIN!$F82, ""), "", ""&amp;MAIN!$C82)</f>
         <v>Esa Annahar</v>
       </c>
@@ -15529,11 +15620,11 @@
         <f>IF(EXACT(MAIN!$F83, ""), "", MAIN!$E83)</f>
         <v>47000000000080</v>
       </c>
-      <c r="C83" s="20" t="str">
+      <c r="C83" s="23" t="str">
         <f>IF(EXACT(MAIN!$F83, ""), "", MAIN!$B83)</f>
         <v>novalia</v>
       </c>
-      <c r="D83" s="20" t="str">
+      <c r="D83" s="23" t="str">
         <f>IF(EXACT(MAIN!$F83, ""), "", ""&amp;MAIN!$C83)</f>
         <v>novalia</v>
       </c>
@@ -15543,11 +15634,11 @@
         <f>IF(EXACT(MAIN!$F84, ""), "", MAIN!$E84)</f>
         <v>47000000000081</v>
       </c>
-      <c r="C84" s="20" t="str">
+      <c r="C84" s="23" t="str">
         <f>IF(EXACT(MAIN!$F84, ""), "", MAIN!$B84)</f>
         <v>efrina</v>
       </c>
-      <c r="D84" s="20" t="str">
+      <c r="D84" s="23" t="str">
         <f>IF(EXACT(MAIN!$F84, ""), "", ""&amp;MAIN!$C84)</f>
         <v>Efrina Dwililia</v>
       </c>
@@ -15557,11 +15648,11 @@
         <f>IF(EXACT(MAIN!$F85, ""), "", MAIN!$E85)</f>
         <v>47000000000082</v>
       </c>
-      <c r="C85" s="20" t="str">
+      <c r="C85" s="23" t="str">
         <f>IF(EXACT(MAIN!$F85, ""), "", MAIN!$B85)</f>
         <v>diyah</v>
       </c>
-      <c r="D85" s="20" t="str">
+      <c r="D85" s="23" t="str">
         <f>IF(EXACT(MAIN!$F85, ""), "", ""&amp;MAIN!$C85)</f>
         <v>Diyah Martina</v>
       </c>
@@ -15571,11 +15662,11 @@
         <f>IF(EXACT(MAIN!$F86, ""), "", MAIN!$E86)</f>
         <v>47000000000083</v>
       </c>
-      <c r="C86" s="20" t="str">
+      <c r="C86" s="23" t="str">
         <f>IF(EXACT(MAIN!$F86, ""), "", MAIN!$B86)</f>
         <v>rickys</v>
       </c>
-      <c r="D86" s="20" t="str">
+      <c r="D86" s="23" t="str">
         <f>IF(EXACT(MAIN!$F86, ""), "", ""&amp;MAIN!$C86)</f>
         <v>Ricky Samuel</v>
       </c>
@@ -15585,11 +15676,11 @@
         <f>IF(EXACT(MAIN!$F87, ""), "", MAIN!$E87)</f>
         <v>47000000000084</v>
       </c>
-      <c r="C87" s="20" t="str">
+      <c r="C87" s="23" t="str">
         <f>IF(EXACT(MAIN!$F87, ""), "", MAIN!$B87)</f>
         <v>indra</v>
       </c>
-      <c r="D87" s="20" t="str">
+      <c r="D87" s="23" t="str">
         <f>IF(EXACT(MAIN!$F87, ""), "", ""&amp;MAIN!$C87)</f>
         <v>Indra Muchtar</v>
       </c>
@@ -15599,11 +15690,11 @@
         <f>IF(EXACT(MAIN!$F88, ""), "", MAIN!$E88)</f>
         <v>47000000000085</v>
       </c>
-      <c r="C88" s="20" t="str">
+      <c r="C88" s="23" t="str">
         <f>IF(EXACT(MAIN!$F88, ""), "", MAIN!$B88)</f>
         <v>turita</v>
       </c>
-      <c r="D88" s="20" t="str">
+      <c r="D88" s="23" t="str">
         <f>IF(EXACT(MAIN!$F88, ""), "", ""&amp;MAIN!$C88)</f>
         <v>Turita Marantina</v>
       </c>
@@ -15613,11 +15704,11 @@
         <f>IF(EXACT(MAIN!$F89, ""), "", MAIN!$E89)</f>
         <v>47000000000086</v>
       </c>
-      <c r="C89" s="20" t="str">
+      <c r="C89" s="23" t="str">
         <f>IF(EXACT(MAIN!$F89, ""), "", MAIN!$B89)</f>
         <v>parulian</v>
       </c>
-      <c r="D89" s="20" t="str">
+      <c r="D89" s="23" t="str">
         <f>IF(EXACT(MAIN!$F89, ""), "", ""&amp;MAIN!$C89)</f>
         <v>Parulian Napitupulu</v>
       </c>
@@ -15627,11 +15718,11 @@
         <f>IF(EXACT(MAIN!$F90, ""), "", MAIN!$E90)</f>
         <v>47000000000087</v>
       </c>
-      <c r="C90" s="20" t="str">
+      <c r="C90" s="23" t="str">
         <f>IF(EXACT(MAIN!$F90, ""), "", MAIN!$B90)</f>
         <v>rjunaedi</v>
       </c>
-      <c r="D90" s="20" t="str">
+      <c r="D90" s="23" t="str">
         <f>IF(EXACT(MAIN!$F90, ""), "", ""&amp;MAIN!$C90)</f>
         <v>Rudi Junaedi</v>
       </c>
@@ -15641,11 +15732,11 @@
         <f>IF(EXACT(MAIN!$F91, ""), "", MAIN!$E91)</f>
         <v>47000000000088</v>
       </c>
-      <c r="C91" s="20" t="str">
+      <c r="C91" s="23" t="str">
         <f>IF(EXACT(MAIN!$F91, ""), "", MAIN!$B91)</f>
         <v>edi</v>
       </c>
-      <c r="D91" s="20" t="str">
+      <c r="D91" s="23" t="str">
         <f>IF(EXACT(MAIN!$F91, ""), "", ""&amp;MAIN!$C91)</f>
         <v>Edi Turnip</v>
       </c>
@@ -15655,11 +15746,11 @@
         <f>IF(EXACT(MAIN!$F92, ""), "", MAIN!$E92)</f>
         <v>47000000000089</v>
       </c>
-      <c r="C92" s="20" t="str">
+      <c r="C92" s="23" t="str">
         <f>IF(EXACT(MAIN!$F92, ""), "", MAIN!$B92)</f>
         <v>istanto</v>
       </c>
-      <c r="D92" s="20" t="str">
+      <c r="D92" s="23" t="str">
         <f>IF(EXACT(MAIN!$F92, ""), "", ""&amp;MAIN!$C92)</f>
         <v>Istanto Istanto</v>
       </c>
@@ -15669,11 +15760,11 @@
         <f>IF(EXACT(MAIN!$F93, ""), "", MAIN!$E93)</f>
         <v>47000000000090</v>
       </c>
-      <c r="C93" s="20" t="str">
+      <c r="C93" s="23" t="str">
         <f>IF(EXACT(MAIN!$F93, ""), "", MAIN!$B93)</f>
         <v>amin</v>
       </c>
-      <c r="D93" s="20" t="str">
+      <c r="D93" s="23" t="str">
         <f>IF(EXACT(MAIN!$F93, ""), "", ""&amp;MAIN!$C93)</f>
         <v>Al Amin</v>
       </c>
@@ -15683,11 +15774,11 @@
         <f>IF(EXACT(MAIN!$F94, ""), "", MAIN!$E94)</f>
         <v>47000000000091</v>
       </c>
-      <c r="C94" s="20" t="str">
+      <c r="C94" s="23" t="str">
         <f>IF(EXACT(MAIN!$F94, ""), "", MAIN!$B94)</f>
         <v>johannes</v>
       </c>
-      <c r="D94" s="20" t="str">
+      <c r="D94" s="23" t="str">
         <f>IF(EXACT(MAIN!$F94, ""), "", ""&amp;MAIN!$C94)</f>
         <v>Johannes Silalahi</v>
       </c>
@@ -15697,11 +15788,11 @@
         <f>IF(EXACT(MAIN!$F95, ""), "", MAIN!$E95)</f>
         <v>47000000000092</v>
       </c>
-      <c r="C95" s="20" t="str">
+      <c r="C95" s="23" t="str">
         <f>IF(EXACT(MAIN!$F95, ""), "", MAIN!$B95)</f>
         <v>netti</v>
       </c>
-      <c r="D95" s="20" t="str">
+      <c r="D95" s="23" t="str">
         <f>IF(EXACT(MAIN!$F95, ""), "", ""&amp;MAIN!$C95)</f>
         <v>Anak Agung Netti Ariani</v>
       </c>
@@ -15711,11 +15802,11 @@
         <f>IF(EXACT(MAIN!$F96, ""), "", MAIN!$E96)</f>
         <v>47000000000093</v>
       </c>
-      <c r="C96" s="20" t="str">
+      <c r="C96" s="23" t="str">
         <f>IF(EXACT(MAIN!$F96, ""), "", MAIN!$B96)</f>
         <v>hanantowiryo</v>
       </c>
-      <c r="D96" s="20" t="str">
+      <c r="D96" s="23" t="str">
         <f>IF(EXACT(MAIN!$F96, ""), "", ""&amp;MAIN!$C96)</f>
         <v>Hanantowiryo Tamtama</v>
       </c>
@@ -15725,11 +15816,11 @@
         <f>IF(EXACT(MAIN!$F97, ""), "", MAIN!$E97)</f>
         <v>47000000000094</v>
       </c>
-      <c r="C97" s="20" t="str">
+      <c r="C97" s="23" t="str">
         <f>IF(EXACT(MAIN!$F97, ""), "", MAIN!$B97)</f>
         <v>sarah</v>
       </c>
-      <c r="D97" s="20" t="str">
+      <c r="D97" s="23" t="str">
         <f>IF(EXACT(MAIN!$F97, ""), "", ""&amp;MAIN!$C97)</f>
         <v>Sarah Sibarani</v>
       </c>
@@ -15739,11 +15830,11 @@
         <f>IF(EXACT(MAIN!$F98, ""), "", MAIN!$E98)</f>
         <v>47000000000095</v>
       </c>
-      <c r="C98" s="20" t="str">
+      <c r="C98" s="23" t="str">
         <f>IF(EXACT(MAIN!$F98, ""), "", MAIN!$B98)</f>
         <v>dodit</v>
       </c>
-      <c r="D98" s="20" t="str">
+      <c r="D98" s="23" t="str">
         <f>IF(EXACT(MAIN!$F98, ""), "", ""&amp;MAIN!$C98)</f>
         <v>Dodit Widiarto</v>
       </c>
@@ -15753,11 +15844,11 @@
         <f>IF(EXACT(MAIN!$F99, ""), "", MAIN!$E99)</f>
         <v>47000000000096</v>
       </c>
-      <c r="C99" s="20" t="str">
+      <c r="C99" s="23" t="str">
         <f>IF(EXACT(MAIN!$F99, ""), "", MAIN!$B99)</f>
         <v>rika</v>
       </c>
-      <c r="D99" s="20" t="str">
+      <c r="D99" s="23" t="str">
         <f>IF(EXACT(MAIN!$F99, ""), "", ""&amp;MAIN!$C99)</f>
         <v>Rika Ginting</v>
       </c>
@@ -15767,11 +15858,11 @@
         <f>IF(EXACT(MAIN!$F100, ""), "", MAIN!$E100)</f>
         <v>47000000000097</v>
       </c>
-      <c r="C100" s="20" t="str">
+      <c r="C100" s="23" t="str">
         <f>IF(EXACT(MAIN!$F100, ""), "", MAIN!$B100)</f>
         <v>emir</v>
       </c>
-      <c r="D100" s="20" t="str">
+      <c r="D100" s="23" t="str">
         <f>IF(EXACT(MAIN!$F100, ""), "", ""&amp;MAIN!$C100)</f>
         <v>Emir Paranita Nasution</v>
       </c>
@@ -15781,11 +15872,11 @@
         <f>IF(EXACT(MAIN!$F101, ""), "", MAIN!$E101)</f>
         <v>47000000000098</v>
       </c>
-      <c r="C101" s="20" t="str">
+      <c r="C101" s="23" t="str">
         <f>IF(EXACT(MAIN!$F101, ""), "", MAIN!$B101)</f>
         <v>yefri</v>
       </c>
-      <c r="D101" s="20" t="str">
+      <c r="D101" s="23" t="str">
         <f>IF(EXACT(MAIN!$F101, ""), "", ""&amp;MAIN!$C101)</f>
         <v>Yefri Hendrayani</v>
       </c>
@@ -15795,11 +15886,11 @@
         <f>IF(EXACT(MAIN!$F102, ""), "", MAIN!$E102)</f>
         <v>47000000000099</v>
       </c>
-      <c r="C102" s="20" t="str">
+      <c r="C102" s="23" t="str">
         <f>IF(EXACT(MAIN!$F102, ""), "", MAIN!$B102)</f>
         <v>subagio</v>
       </c>
-      <c r="D102" s="20" t="str">
+      <c r="D102" s="23" t="str">
         <f>IF(EXACT(MAIN!$F102, ""), "", ""&amp;MAIN!$C102)</f>
         <v>subagio</v>
       </c>
@@ -15809,11 +15900,11 @@
         <f>IF(EXACT(MAIN!$F103, ""), "", MAIN!$E103)</f>
         <v>47000000000100</v>
       </c>
-      <c r="C103" s="20" t="str">
+      <c r="C103" s="23" t="str">
         <f>IF(EXACT(MAIN!$F103, ""), "", MAIN!$B103)</f>
         <v>gustia</v>
       </c>
-      <c r="D103" s="20" t="str">
+      <c r="D103" s="23" t="str">
         <f>IF(EXACT(MAIN!$F103, ""), "", ""&amp;MAIN!$C103)</f>
         <v>Gustia Rakhmanita</v>
       </c>
@@ -15823,11 +15914,11 @@
         <f>IF(EXACT(MAIN!$F104, ""), "", MAIN!$E104)</f>
         <v>47000000000101</v>
       </c>
-      <c r="C104" s="20" t="str">
+      <c r="C104" s="23" t="str">
         <f>IF(EXACT(MAIN!$F104, ""), "", MAIN!$B104)</f>
         <v>agnes</v>
       </c>
-      <c r="D104" s="20" t="str">
+      <c r="D104" s="23" t="str">
         <f>IF(EXACT(MAIN!$F104, ""), "", ""&amp;MAIN!$C104)</f>
         <v>Agnes Sutedja</v>
       </c>
@@ -15837,11 +15928,11 @@
         <f>IF(EXACT(MAIN!$F105, ""), "", MAIN!$E105)</f>
         <v>47000000000102</v>
       </c>
-      <c r="C105" s="20" t="str">
+      <c r="C105" s="23" t="str">
         <f>IF(EXACT(MAIN!$F105, ""), "", MAIN!$B105)</f>
         <v>nina</v>
       </c>
-      <c r="D105" s="20" t="str">
+      <c r="D105" s="23" t="str">
         <f>IF(EXACT(MAIN!$F105, ""), "", ""&amp;MAIN!$C105)</f>
         <v>Farhana</v>
       </c>
@@ -15851,11 +15942,11 @@
         <f>IF(EXACT(MAIN!$F106, ""), "", MAIN!$E106)</f>
         <v>47000000000103</v>
       </c>
-      <c r="C106" s="20" t="str">
+      <c r="C106" s="23" t="str">
         <f>IF(EXACT(MAIN!$F106, ""), "", MAIN!$B106)</f>
         <v>arfianti</v>
       </c>
-      <c r="D106" s="20" t="str">
+      <c r="D106" s="23" t="str">
         <f>IF(EXACT(MAIN!$F106, ""), "", ""&amp;MAIN!$C106)</f>
         <v>Arfianti Haryani</v>
       </c>
@@ -15865,11 +15956,11 @@
         <f>IF(EXACT(MAIN!$F107, ""), "", MAIN!$E107)</f>
         <v>47000000000104</v>
       </c>
-      <c r="C107" s="20" t="str">
+      <c r="C107" s="23" t="str">
         <f>IF(EXACT(MAIN!$F107, ""), "", MAIN!$B107)</f>
         <v>herdi</v>
       </c>
-      <c r="D107" s="20" t="str">
+      <c r="D107" s="23" t="str">
         <f>IF(EXACT(MAIN!$F107, ""), "", ""&amp;MAIN!$C107)</f>
         <v>Herdi Yulia Rohmana</v>
       </c>
@@ -15879,11 +15970,11 @@
         <f>IF(EXACT(MAIN!$F108, ""), "", MAIN!$E108)</f>
         <v>47000000000105</v>
       </c>
-      <c r="C108" s="20" t="str">
+      <c r="C108" s="23" t="str">
         <f>IF(EXACT(MAIN!$F108, ""), "", MAIN!$B108)</f>
         <v>desi</v>
       </c>
-      <c r="D108" s="20" t="str">
+      <c r="D108" s="23" t="str">
         <f>IF(EXACT(MAIN!$F108, ""), "", ""&amp;MAIN!$C108)</f>
         <v>Desi Setiowati</v>
       </c>
@@ -15893,11 +15984,11 @@
         <f>IF(EXACT(MAIN!$F109, ""), "", MAIN!$E109)</f>
         <v>47000000000106</v>
       </c>
-      <c r="C109" s="20" t="str">
+      <c r="C109" s="23" t="str">
         <f>IF(EXACT(MAIN!$F109, ""), "", MAIN!$B109)</f>
         <v>imamb</v>
       </c>
-      <c r="D109" s="20" t="str">
+      <c r="D109" s="23" t="str">
         <f>IF(EXACT(MAIN!$F109, ""), "", ""&amp;MAIN!$C109)</f>
         <v>Imam Basuki</v>
       </c>
@@ -15907,11 +15998,11 @@
         <f>IF(EXACT(MAIN!$F110, ""), "", MAIN!$E110)</f>
         <v>47000000000107</v>
       </c>
-      <c r="C110" s="20" t="str">
+      <c r="C110" s="23" t="str">
         <f>IF(EXACT(MAIN!$F110, ""), "", MAIN!$B110)</f>
         <v>otong</v>
       </c>
-      <c r="D110" s="20" t="str">
+      <c r="D110" s="23" t="str">
         <f>IF(EXACT(MAIN!$F110, ""), "", ""&amp;MAIN!$C110)</f>
         <v>otong Bustori</v>
       </c>
@@ -15921,11 +16012,11 @@
         <f>IF(EXACT(MAIN!$F111, ""), "", MAIN!$E111)</f>
         <v>47000000000108</v>
       </c>
-      <c r="C111" s="20" t="str">
+      <c r="C111" s="23" t="str">
         <f>IF(EXACT(MAIN!$F111, ""), "", MAIN!$B111)</f>
         <v>retnasha</v>
       </c>
-      <c r="D111" s="20" t="str">
+      <c r="D111" s="23" t="str">
         <f>IF(EXACT(MAIN!$F111, ""), "", ""&amp;MAIN!$C111)</f>
         <v>Retnasha Gameswari</v>
       </c>
@@ -15935,11 +16026,11 @@
         <f>IF(EXACT(MAIN!$F112, ""), "", MAIN!$E112)</f>
         <v>47000000000109</v>
       </c>
-      <c r="C112" s="20" t="str">
+      <c r="C112" s="23" t="str">
         <f>IF(EXACT(MAIN!$F112, ""), "", MAIN!$B112)</f>
         <v>juminar</v>
       </c>
-      <c r="D112" s="20" t="str">
+      <c r="D112" s="23" t="str">
         <f>IF(EXACT(MAIN!$F112, ""), "", ""&amp;MAIN!$C112)</f>
         <v>Juminar</v>
       </c>
@@ -15949,11 +16040,11 @@
         <f>IF(EXACT(MAIN!$F113, ""), "", MAIN!$E113)</f>
         <v>47000000000110</v>
       </c>
-      <c r="C113" s="20" t="str">
+      <c r="C113" s="23" t="str">
         <f>IF(EXACT(MAIN!$F113, ""), "", MAIN!$B113)</f>
         <v>yanto</v>
       </c>
-      <c r="D113" s="20" t="str">
+      <c r="D113" s="23" t="str">
         <f>IF(EXACT(MAIN!$F113, ""), "", ""&amp;MAIN!$C113)</f>
         <v>Trisyanto</v>
       </c>
@@ -15963,11 +16054,11 @@
         <f>IF(EXACT(MAIN!$F114, ""), "", MAIN!$E114)</f>
         <v>47000000000111</v>
       </c>
-      <c r="C114" s="20" t="str">
+      <c r="C114" s="23" t="str">
         <f>IF(EXACT(MAIN!$F114, ""), "", MAIN!$B114)</f>
         <v>lia</v>
       </c>
-      <c r="D114" s="20" t="str">
+      <c r="D114" s="23" t="str">
         <f>IF(EXACT(MAIN!$F114, ""), "", ""&amp;MAIN!$C114)</f>
         <v>Liaseptriani Liaseptriani</v>
       </c>
@@ -15977,11 +16068,11 @@
         <f>IF(EXACT(MAIN!$F115, ""), "", MAIN!$E115)</f>
         <v>47000000000112</v>
       </c>
-      <c r="C115" s="20" t="str">
+      <c r="C115" s="23" t="str">
         <f>IF(EXACT(MAIN!$F115, ""), "", MAIN!$B115)</f>
         <v>gatoth</v>
       </c>
-      <c r="D115" s="20" t="str">
+      <c r="D115" s="23" t="str">
         <f>IF(EXACT(MAIN!$F115, ""), "", ""&amp;MAIN!$C115)</f>
         <v>gatot harsono</v>
       </c>
@@ -15991,11 +16082,11 @@
         <f>IF(EXACT(MAIN!$F116, ""), "", MAIN!$E116)</f>
         <v>47000000000113</v>
       </c>
-      <c r="C116" s="20" t="str">
+      <c r="C116" s="23" t="str">
         <f>IF(EXACT(MAIN!$F116, ""), "", MAIN!$B116)</f>
         <v>feri</v>
       </c>
-      <c r="D116" s="20" t="str">
+      <c r="D116" s="23" t="str">
         <f>IF(EXACT(MAIN!$F116, ""), "", ""&amp;MAIN!$C116)</f>
         <v>Feri Priyanto</v>
       </c>
@@ -16005,11 +16096,11 @@
         <f>IF(EXACT(MAIN!$F117, ""), "", MAIN!$E117)</f>
         <v>47000000000114</v>
       </c>
-      <c r="C117" s="20" t="str">
+      <c r="C117" s="23" t="str">
         <f>IF(EXACT(MAIN!$F117, ""), "", MAIN!$B117)</f>
         <v>winda</v>
       </c>
-      <c r="D117" s="20" t="str">
+      <c r="D117" s="23" t="str">
         <f>IF(EXACT(MAIN!$F117, ""), "", ""&amp;MAIN!$C117)</f>
         <v>Winda Suherman</v>
       </c>
@@ -16019,11 +16110,11 @@
         <f>IF(EXACT(MAIN!$F118, ""), "", MAIN!$E118)</f>
         <v>47000000000115</v>
       </c>
-      <c r="C118" s="20" t="str">
+      <c r="C118" s="23" t="str">
         <f>IF(EXACT(MAIN!$F118, ""), "", MAIN!$B118)</f>
         <v>indawan</v>
       </c>
-      <c r="D118" s="20" t="str">
+      <c r="D118" s="23" t="str">
         <f>IF(EXACT(MAIN!$F118, ""), "", ""&amp;MAIN!$C118)</f>
         <v>Indawan Haryadi</v>
       </c>
@@ -16033,11 +16124,11 @@
         <f>IF(EXACT(MAIN!$F119, ""), "", MAIN!$E119)</f>
         <v>47000000000116</v>
       </c>
-      <c r="C119" s="20" t="str">
+      <c r="C119" s="23" t="str">
         <f>IF(EXACT(MAIN!$F119, ""), "", MAIN!$B119)</f>
         <v>laode</v>
       </c>
-      <c r="D119" s="20" t="str">
+      <c r="D119" s="23" t="str">
         <f>IF(EXACT(MAIN!$F119, ""), "", ""&amp;MAIN!$C119)</f>
         <v>Laode</v>
       </c>
@@ -16047,11 +16138,11 @@
         <f>IF(EXACT(MAIN!$F120, ""), "", MAIN!$E120)</f>
         <v>47000000000117</v>
       </c>
-      <c r="C120" s="20" t="str">
+      <c r="C120" s="23" t="str">
         <f>IF(EXACT(MAIN!$F120, ""), "", MAIN!$B120)</f>
         <v>iwan</v>
       </c>
-      <c r="D120" s="20" t="str">
+      <c r="D120" s="23" t="str">
         <f>IF(EXACT(MAIN!$F120, ""), "", ""&amp;MAIN!$C120)</f>
         <v>Iwan Setiawan</v>
       </c>
@@ -16061,11 +16152,11 @@
         <f>IF(EXACT(MAIN!$F121, ""), "", MAIN!$E121)</f>
         <v>47000000000118</v>
       </c>
-      <c r="C121" s="20" t="str">
+      <c r="C121" s="23" t="str">
         <f>IF(EXACT(MAIN!$F121, ""), "", MAIN!$B121)</f>
         <v>warsito</v>
       </c>
-      <c r="D121" s="20" t="str">
+      <c r="D121" s="23" t="str">
         <f>IF(EXACT(MAIN!$F121, ""), "", ""&amp;MAIN!$C121)</f>
         <v>Warsito Edy Saputra</v>
       </c>
@@ -16075,11 +16166,11 @@
         <f>IF(EXACT(MAIN!$F122, ""), "", MAIN!$E122)</f>
         <v>47000000000119</v>
       </c>
-      <c r="C122" s="20" t="str">
+      <c r="C122" s="23" t="str">
         <f>IF(EXACT(MAIN!$F122, ""), "", MAIN!$B122)</f>
         <v>afif</v>
       </c>
-      <c r="D122" s="20" t="str">
+      <c r="D122" s="23" t="str">
         <f>IF(EXACT(MAIN!$F122, ""), "", ""&amp;MAIN!$C122)</f>
         <v>Moh. Afif</v>
       </c>
@@ -16089,11 +16180,11 @@
         <f>IF(EXACT(MAIN!$F123, ""), "", MAIN!$E123)</f>
         <v>47000000000120</v>
       </c>
-      <c r="C123" s="20" t="str">
+      <c r="C123" s="23" t="str">
         <f>IF(EXACT(MAIN!$F123, ""), "", MAIN!$B123)</f>
         <v>sutarno</v>
       </c>
-      <c r="D123" s="20" t="str">
+      <c r="D123" s="23" t="str">
         <f>IF(EXACT(MAIN!$F123, ""), "", ""&amp;MAIN!$C123)</f>
         <v>Sutarno</v>
       </c>
@@ -16103,11 +16194,11 @@
         <f>IF(EXACT(MAIN!$F124, ""), "", MAIN!$E124)</f>
         <v>47000000000121</v>
       </c>
-      <c r="C124" s="20" t="str">
+      <c r="C124" s="23" t="str">
         <f>IF(EXACT(MAIN!$F124, ""), "", MAIN!$B124)</f>
         <v>andrih</v>
       </c>
-      <c r="D124" s="20" t="str">
+      <c r="D124" s="23" t="str">
         <f>IF(EXACT(MAIN!$F124, ""), "", ""&amp;MAIN!$C124)</f>
         <v>Andri Herdiansyah</v>
       </c>
@@ -16117,11 +16208,11 @@
         <f>IF(EXACT(MAIN!$F125, ""), "", MAIN!$E125)</f>
         <v>47000000000122</v>
       </c>
-      <c r="C125" s="20" t="str">
+      <c r="C125" s="23" t="str">
         <f>IF(EXACT(MAIN!$F125, ""), "", MAIN!$B125)</f>
         <v>dony</v>
       </c>
-      <c r="D125" s="20" t="str">
+      <c r="D125" s="23" t="str">
         <f>IF(EXACT(MAIN!$F125, ""), "", ""&amp;MAIN!$C125)</f>
         <v>Dony Darmawan</v>
       </c>
@@ -16131,11 +16222,11 @@
         <f>IF(EXACT(MAIN!$F126, ""), "", MAIN!$E126)</f>
         <v>47000000000123</v>
       </c>
-      <c r="C126" s="20" t="str">
+      <c r="C126" s="23" t="str">
         <f>IF(EXACT(MAIN!$F126, ""), "", MAIN!$B126)</f>
         <v>ahmad</v>
       </c>
-      <c r="D126" s="20" t="str">
+      <c r="D126" s="23" t="str">
         <f>IF(EXACT(MAIN!$F126, ""), "", ""&amp;MAIN!$C126)</f>
         <v>Ahmad Syaifullah</v>
       </c>
@@ -16145,11 +16236,11 @@
         <f>IF(EXACT(MAIN!$F127, ""), "", MAIN!$E127)</f>
         <v>47000000000124</v>
       </c>
-      <c r="C127" s="20" t="str">
+      <c r="C127" s="23" t="str">
         <f>IF(EXACT(MAIN!$F127, ""), "", MAIN!$B127)</f>
         <v>erwin</v>
       </c>
-      <c r="D127" s="20" t="str">
+      <c r="D127" s="23" t="str">
         <f>IF(EXACT(MAIN!$F127, ""), "", ""&amp;MAIN!$C127)</f>
         <v>Erwin Said</v>
       </c>
@@ -16159,11 +16250,11 @@
         <f>IF(EXACT(MAIN!$F128, ""), "", MAIN!$E128)</f>
         <v>47000000000125</v>
       </c>
-      <c r="C128" s="20" t="str">
+      <c r="C128" s="23" t="str">
         <f>IF(EXACT(MAIN!$F128, ""), "", MAIN!$B128)</f>
         <v>isnaeni</v>
       </c>
-      <c r="D128" s="20" t="str">
+      <c r="D128" s="23" t="str">
         <f>IF(EXACT(MAIN!$F128, ""), "", ""&amp;MAIN!$C128)</f>
         <v>Harry Isnaeni</v>
       </c>
@@ -16173,11 +16264,11 @@
         <f>IF(EXACT(MAIN!$F129, ""), "", MAIN!$E129)</f>
         <v>47000000000126</v>
       </c>
-      <c r="C129" s="20" t="str">
+      <c r="C129" s="23" t="str">
         <f>IF(EXACT(MAIN!$F129, ""), "", MAIN!$B129)</f>
         <v>kahar</v>
       </c>
-      <c r="D129" s="20" t="str">
+      <c r="D129" s="23" t="str">
         <f>IF(EXACT(MAIN!$F129, ""), "", ""&amp;MAIN!$C129)</f>
         <v>Kahar Triyono</v>
       </c>
@@ -16187,11 +16278,11 @@
         <f>IF(EXACT(MAIN!$F130, ""), "", MAIN!$E130)</f>
         <v>47000000000127</v>
       </c>
-      <c r="C130" s="20" t="str">
+      <c r="C130" s="23" t="str">
         <f>IF(EXACT(MAIN!$F130, ""), "", MAIN!$B130)</f>
         <v>jondril</v>
       </c>
-      <c r="D130" s="20" t="str">
+      <c r="D130" s="23" t="str">
         <f>IF(EXACT(MAIN!$F130, ""), "", ""&amp;MAIN!$C130)</f>
         <v>Jondril Hantoni</v>
       </c>
@@ -16201,11 +16292,11 @@
         <f>IF(EXACT(MAIN!$F131, ""), "", MAIN!$E131)</f>
         <v>47000000000128</v>
       </c>
-      <c r="C131" s="20" t="str">
+      <c r="C131" s="23" t="str">
         <f>IF(EXACT(MAIN!$F131, ""), "", MAIN!$B131)</f>
         <v>zainuddin</v>
       </c>
-      <c r="D131" s="20" t="str">
+      <c r="D131" s="23" t="str">
         <f>IF(EXACT(MAIN!$F131, ""), "", ""&amp;MAIN!$C131)</f>
         <v>Zainuddin Zainuddin</v>
       </c>
@@ -16215,11 +16306,11 @@
         <f>IF(EXACT(MAIN!$F132, ""), "", MAIN!$E132)</f>
         <v>47000000000129</v>
       </c>
-      <c r="C132" s="20" t="str">
+      <c r="C132" s="23" t="str">
         <f>IF(EXACT(MAIN!$F132, ""), "", MAIN!$B132)</f>
         <v>sudarlan</v>
       </c>
-      <c r="D132" s="20" t="str">
+      <c r="D132" s="23" t="str">
         <f>IF(EXACT(MAIN!$F132, ""), "", ""&amp;MAIN!$C132)</f>
         <v>Sudarlan Sudarlan</v>
       </c>
@@ -16229,11 +16320,11 @@
         <f>IF(EXACT(MAIN!$F133, ""), "", MAIN!$E133)</f>
         <v>47000000000130</v>
       </c>
-      <c r="C133" s="20" t="str">
+      <c r="C133" s="23" t="str">
         <f>IF(EXACT(MAIN!$F133, ""), "", MAIN!$B133)</f>
         <v>jerryd</v>
       </c>
-      <c r="D133" s="20" t="str">
+      <c r="D133" s="23" t="str">
         <f>IF(EXACT(MAIN!$F133, ""), "", ""&amp;MAIN!$C133)</f>
         <v>Jerry Djajasaputra</v>
       </c>
@@ -16243,11 +16334,11 @@
         <f>IF(EXACT(MAIN!$F134, ""), "", MAIN!$E134)</f>
         <v>47000000000131</v>
       </c>
-      <c r="C134" s="20" t="str">
+      <c r="C134" s="23" t="str">
         <f>IF(EXACT(MAIN!$F134, ""), "", MAIN!$B134)</f>
         <v>eddy</v>
       </c>
-      <c r="D134" s="20" t="str">
+      <c r="D134" s="23" t="str">
         <f>IF(EXACT(MAIN!$F134, ""), "", ""&amp;MAIN!$C134)</f>
         <v>Eddy Waluyo</v>
       </c>
@@ -16257,11 +16348,11 @@
         <f>IF(EXACT(MAIN!$F135, ""), "", MAIN!$E135)</f>
         <v>47000000000132</v>
       </c>
-      <c r="C135" s="20" t="str">
+      <c r="C135" s="23" t="str">
         <f>IF(EXACT(MAIN!$F135, ""), "", MAIN!$B135)</f>
         <v>yusman</v>
       </c>
-      <c r="D135" s="20" t="str">
+      <c r="D135" s="23" t="str">
         <f>IF(EXACT(MAIN!$F135, ""), "", ""&amp;MAIN!$C135)</f>
         <v>Yusman</v>
       </c>
@@ -16271,11 +16362,11 @@
         <f>IF(EXACT(MAIN!$F136, ""), "", MAIN!$E136)</f>
         <v>47000000000133</v>
       </c>
-      <c r="C136" s="20" t="str">
+      <c r="C136" s="23" t="str">
         <f>IF(EXACT(MAIN!$F136, ""), "", MAIN!$B136)</f>
         <v>marissa</v>
       </c>
-      <c r="D136" s="20" t="str">
+      <c r="D136" s="23" t="str">
         <f>IF(EXACT(MAIN!$F136, ""), "", ""&amp;MAIN!$C136)</f>
         <v>Marissa Watak</v>
       </c>
@@ -16285,11 +16376,11 @@
         <f>IF(EXACT(MAIN!$F137, ""), "", MAIN!$E137)</f>
         <v>47000000000134</v>
       </c>
-      <c r="C137" s="20" t="str">
+      <c r="C137" s="23" t="str">
         <f>IF(EXACT(MAIN!$F137, ""), "", MAIN!$B137)</f>
         <v>sugiarto</v>
       </c>
-      <c r="D137" s="20" t="str">
+      <c r="D137" s="23" t="str">
         <f>IF(EXACT(MAIN!$F137, ""), "", ""&amp;MAIN!$C137)</f>
         <v>Sugiarto Sugiarto</v>
       </c>
@@ -16299,11 +16390,11 @@
         <f>IF(EXACT(MAIN!$F138, ""), "", MAIN!$E138)</f>
         <v>47000000000135</v>
       </c>
-      <c r="C138" s="20" t="str">
+      <c r="C138" s="23" t="str">
         <f>IF(EXACT(MAIN!$F138, ""), "", MAIN!$B138)</f>
         <v>tutus</v>
       </c>
-      <c r="D138" s="20" t="str">
+      <c r="D138" s="23" t="str">
         <f>IF(EXACT(MAIN!$F138, ""), "", ""&amp;MAIN!$C138)</f>
         <v>Tutus Ary</v>
       </c>
@@ -16313,11 +16404,11 @@
         <f>IF(EXACT(MAIN!$F139, ""), "", MAIN!$E139)</f>
         <v>47000000000136</v>
       </c>
-      <c r="C139" s="20" t="str">
+      <c r="C139" s="23" t="str">
         <f>IF(EXACT(MAIN!$F139, ""), "", MAIN!$B139)</f>
         <v>sumadi</v>
       </c>
-      <c r="D139" s="20" t="str">
+      <c r="D139" s="23" t="str">
         <f>IF(EXACT(MAIN!$F139, ""), "", ""&amp;MAIN!$C139)</f>
         <v>sumadi</v>
       </c>
@@ -16327,11 +16418,11 @@
         <f>IF(EXACT(MAIN!$F140, ""), "", MAIN!$E140)</f>
         <v>47000000000137</v>
       </c>
-      <c r="C140" s="20" t="str">
+      <c r="C140" s="23" t="str">
         <f>IF(EXACT(MAIN!$F140, ""), "", MAIN!$B140)</f>
         <v>totok</v>
       </c>
-      <c r="D140" s="20" t="str">
+      <c r="D140" s="23" t="str">
         <f>IF(EXACT(MAIN!$F140, ""), "", ""&amp;MAIN!$C140)</f>
         <v>Totok Kristianto</v>
       </c>
@@ -16341,11 +16432,11 @@
         <f>IF(EXACT(MAIN!$F141, ""), "", MAIN!$E141)</f>
         <v>47000000000138</v>
       </c>
-      <c r="C141" s="20" t="str">
+      <c r="C141" s="23" t="str">
         <f>IF(EXACT(MAIN!$F141, ""), "", MAIN!$B141)</f>
         <v>yossie</v>
       </c>
-      <c r="D141" s="20" t="str">
+      <c r="D141" s="23" t="str">
         <f>IF(EXACT(MAIN!$F141, ""), "", ""&amp;MAIN!$C141)</f>
         <v>Yossie Deliana</v>
       </c>
@@ -16355,11 +16446,11 @@
         <f>IF(EXACT(MAIN!$F142, ""), "", MAIN!$E142)</f>
         <v>47000000000139</v>
       </c>
-      <c r="C142" s="20" t="str">
+      <c r="C142" s="23" t="str">
         <f>IF(EXACT(MAIN!$F142, ""), "", MAIN!$B142)</f>
         <v>samad</v>
       </c>
-      <c r="D142" s="20" t="str">
+      <c r="D142" s="23" t="str">
         <f>IF(EXACT(MAIN!$F142, ""), "", ""&amp;MAIN!$C142)</f>
         <v>Samad Abdul</v>
       </c>
@@ -16369,11 +16460,11 @@
         <f>IF(EXACT(MAIN!$F143, ""), "", MAIN!$E143)</f>
         <v>47000000000140</v>
       </c>
-      <c r="C143" s="20" t="str">
+      <c r="C143" s="23" t="str">
         <f>IF(EXACT(MAIN!$F143, ""), "", MAIN!$B143)</f>
         <v>agusp</v>
       </c>
-      <c r="D143" s="20" t="str">
+      <c r="D143" s="23" t="str">
         <f>IF(EXACT(MAIN!$F143, ""), "", ""&amp;MAIN!$C143)</f>
         <v>Agus Priyatno Mahmudo</v>
       </c>
@@ -16383,11 +16474,11 @@
         <f>IF(EXACT(MAIN!$F144, ""), "", MAIN!$E144)</f>
         <v>47000000000141</v>
       </c>
-      <c r="C144" s="20" t="str">
+      <c r="C144" s="23" t="str">
         <f>IF(EXACT(MAIN!$F144, ""), "", MAIN!$B144)</f>
         <v>agust</v>
       </c>
-      <c r="D144" s="20" t="str">
+      <c r="D144" s="23" t="str">
         <f>IF(EXACT(MAIN!$F144, ""), "", ""&amp;MAIN!$C144)</f>
         <v>Agus Tanto</v>
       </c>
@@ -16397,11 +16488,11 @@
         <f>IF(EXACT(MAIN!$F145, ""), "", MAIN!$E145)</f>
         <v>47000000000142</v>
       </c>
-      <c r="C145" s="20" t="str">
+      <c r="C145" s="23" t="str">
         <f>IF(EXACT(MAIN!$F145, ""), "", MAIN!$B145)</f>
         <v>andrie</v>
       </c>
-      <c r="D145" s="20" t="str">
+      <c r="D145" s="23" t="str">
         <f>IF(EXACT(MAIN!$F145, ""), "", ""&amp;MAIN!$C145)</f>
         <v>Andrie</v>
       </c>
@@ -16411,11 +16502,11 @@
         <f>IF(EXACT(MAIN!$F146, ""), "", MAIN!$E146)</f>
         <v>47000000000143</v>
       </c>
-      <c r="C146" s="20" t="str">
+      <c r="C146" s="23" t="str">
         <f>IF(EXACT(MAIN!$F146, ""), "", MAIN!$B146)</f>
         <v>bambang</v>
       </c>
-      <c r="D146" s="20" t="str">
+      <c r="D146" s="23" t="str">
         <f>IF(EXACT(MAIN!$F146, ""), "", ""&amp;MAIN!$C146)</f>
         <v>Bambang Irawan</v>
       </c>
@@ -16425,11 +16516,11 @@
         <f>IF(EXACT(MAIN!$F147, ""), "", MAIN!$E147)</f>
         <v>47000000000144</v>
       </c>
-      <c r="C147" s="20" t="str">
+      <c r="C147" s="23" t="str">
         <f>IF(EXACT(MAIN!$F147, ""), "", MAIN!$B147)</f>
         <v>cecep</v>
       </c>
-      <c r="D147" s="20" t="str">
+      <c r="D147" s="23" t="str">
         <f>IF(EXACT(MAIN!$F147, ""), "", ""&amp;MAIN!$C147)</f>
         <v>Cecep Maulana</v>
       </c>
@@ -16439,11 +16530,11 @@
         <f>IF(EXACT(MAIN!$F148, ""), "", MAIN!$E148)</f>
         <v>47000000000145</v>
       </c>
-      <c r="C148" s="20" t="str">
+      <c r="C148" s="23" t="str">
         <f>IF(EXACT(MAIN!$F148, ""), "", MAIN!$B148)</f>
         <v>djuang</v>
       </c>
-      <c r="D148" s="20" t="str">
+      <c r="D148" s="23" t="str">
         <f>IF(EXACT(MAIN!$F148, ""), "", ""&amp;MAIN!$C148)</f>
         <v>Djuang Tampubolon</v>
       </c>
@@ -16453,11 +16544,11 @@
         <f>IF(EXACT(MAIN!$F149, ""), "", MAIN!$E149)</f>
         <v>47000000000146</v>
       </c>
-      <c r="C149" s="20" t="str">
+      <c r="C149" s="23" t="str">
         <f>IF(EXACT(MAIN!$F149, ""), "", MAIN!$B149)</f>
         <v>edwardh</v>
       </c>
-      <c r="D149" s="20" t="str">
+      <c r="D149" s="23" t="str">
         <f>IF(EXACT(MAIN!$F149, ""), "", ""&amp;MAIN!$C149)</f>
         <v/>
       </c>
@@ -16467,11 +16558,11 @@
         <f>IF(EXACT(MAIN!$F150, ""), "", MAIN!$E150)</f>
         <v>47000000000147</v>
       </c>
-      <c r="C150" s="20" t="str">
+      <c r="C150" s="23" t="str">
         <f>IF(EXACT(MAIN!$F150, ""), "", MAIN!$B150)</f>
         <v>edwardp</v>
       </c>
-      <c r="D150" s="20" t="str">
+      <c r="D150" s="23" t="str">
         <f>IF(EXACT(MAIN!$F150, ""), "", ""&amp;MAIN!$C150)</f>
         <v/>
       </c>
@@ -16481,11 +16572,11 @@
         <f>IF(EXACT(MAIN!$F151, ""), "", MAIN!$E151)</f>
         <v>47000000000148</v>
       </c>
-      <c r="C151" s="20" t="str">
+      <c r="C151" s="23" t="str">
         <f>IF(EXACT(MAIN!$F151, ""), "", MAIN!$B151)</f>
         <v>effendi</v>
       </c>
-      <c r="D151" s="20" t="str">
+      <c r="D151" s="23" t="str">
         <f>IF(EXACT(MAIN!$F151, ""), "", ""&amp;MAIN!$C151)</f>
         <v>Effendi fendi</v>
       </c>
@@ -16495,11 +16586,11 @@
         <f>IF(EXACT(MAIN!$F152, ""), "", MAIN!$E152)</f>
         <v>47000000000149</v>
       </c>
-      <c r="C152" s="20" t="str">
+      <c r="C152" s="23" t="str">
         <f>IF(EXACT(MAIN!$F152, ""), "", MAIN!$B152)</f>
         <v>marlina</v>
       </c>
-      <c r="D152" s="20" t="str">
+      <c r="D152" s="23" t="str">
         <f>IF(EXACT(MAIN!$F152, ""), "", ""&amp;MAIN!$C152)</f>
         <v>HR Marlina STR</v>
       </c>
@@ -16509,11 +16600,11 @@
         <f>IF(EXACT(MAIN!$F153, ""), "", MAIN!$E153)</f>
         <v>47000000000150</v>
       </c>
-      <c r="C153" s="20" t="str">
+      <c r="C153" s="23" t="str">
         <f>IF(EXACT(MAIN!$F153, ""), "", MAIN!$B153)</f>
         <v>iwanbudi</v>
       </c>
-      <c r="D153" s="20" t="str">
+      <c r="D153" s="23" t="str">
         <f>IF(EXACT(MAIN!$F153, ""), "", ""&amp;MAIN!$C153)</f>
         <v/>
       </c>
@@ -16523,11 +16614,11 @@
         <f>IF(EXACT(MAIN!$F154, ""), "", MAIN!$E154)</f>
         <v>47000000000151</v>
       </c>
-      <c r="C154" s="20" t="str">
+      <c r="C154" s="23" t="str">
         <f>IF(EXACT(MAIN!$F154, ""), "", MAIN!$B154)</f>
         <v>juharja</v>
       </c>
-      <c r="D154" s="20" t="str">
+      <c r="D154" s="23" t="str">
         <f>IF(EXACT(MAIN!$F154, ""), "", ""&amp;MAIN!$C154)</f>
         <v>Juharja Juharja</v>
       </c>
@@ -16537,11 +16628,11 @@
         <f>IF(EXACT(MAIN!$F155, ""), "", MAIN!$E155)</f>
         <v>47000000000152</v>
       </c>
-      <c r="C155" s="20" t="str">
+      <c r="C155" s="23" t="str">
         <f>IF(EXACT(MAIN!$F155, ""), "", MAIN!$B155)</f>
         <v>idham</v>
       </c>
-      <c r="D155" s="20" t="str">
+      <c r="D155" s="23" t="str">
         <f>IF(EXACT(MAIN!$F155, ""), "", ""&amp;MAIN!$C155)</f>
         <v>Idham Idham</v>
       </c>
@@ -16551,11 +16642,11 @@
         <f>IF(EXACT(MAIN!$F156, ""), "", MAIN!$E156)</f>
         <v>47000000000153</v>
       </c>
-      <c r="C156" s="20" t="str">
+      <c r="C156" s="23" t="str">
         <f>IF(EXACT(MAIN!$F156, ""), "", MAIN!$B156)</f>
         <v>mashuri</v>
       </c>
-      <c r="D156" s="20" t="str">
+      <c r="D156" s="23" t="str">
         <f>IF(EXACT(MAIN!$F156, ""), "", ""&amp;MAIN!$C156)</f>
         <v>Mashuri Mashuri</v>
       </c>
@@ -16565,11 +16656,11 @@
         <f>IF(EXACT(MAIN!$F157, ""), "", MAIN!$E157)</f>
         <v>47000000000154</v>
       </c>
-      <c r="C157" s="20" t="str">
+      <c r="C157" s="23" t="str">
         <f>IF(EXACT(MAIN!$F157, ""), "", MAIN!$B157)</f>
         <v>ardiansyah</v>
       </c>
-      <c r="D157" s="20" t="str">
+      <c r="D157" s="23" t="str">
         <f>IF(EXACT(MAIN!$F157, ""), "", ""&amp;MAIN!$C157)</f>
         <v>Ardiansyah</v>
       </c>
@@ -16579,11 +16670,11 @@
         <f>IF(EXACT(MAIN!$F158, ""), "", MAIN!$E158)</f>
         <v>47000000000155</v>
       </c>
-      <c r="C158" s="20" t="str">
+      <c r="C158" s="23" t="str">
         <f>IF(EXACT(MAIN!$F158, ""), "", MAIN!$B158)</f>
         <v>novan</v>
       </c>
-      <c r="D158" s="20" t="str">
+      <c r="D158" s="23" t="str">
         <f>IF(EXACT(MAIN!$F158, ""), "", ""&amp;MAIN!$C158)</f>
         <v>Novan Nugraha</v>
       </c>
@@ -16593,11 +16684,11 @@
         <f>IF(EXACT(MAIN!$F159, ""), "", MAIN!$E159)</f>
         <v>47000000000156</v>
       </c>
-      <c r="C159" s="20" t="str">
+      <c r="C159" s="23" t="str">
         <f>IF(EXACT(MAIN!$F159, ""), "", MAIN!$B159)</f>
         <v>rhino</v>
       </c>
-      <c r="D159" s="20" t="str">
+      <c r="D159" s="23" t="str">
         <f>IF(EXACT(MAIN!$F159, ""), "", ""&amp;MAIN!$C159)</f>
         <v>Rhino Priawan</v>
       </c>
@@ -16607,11 +16698,11 @@
         <f>IF(EXACT(MAIN!$F160, ""), "", MAIN!$E160)</f>
         <v>47000000000157</v>
       </c>
-      <c r="C160" s="20" t="str">
+      <c r="C160" s="23" t="str">
         <f>IF(EXACT(MAIN!$F160, ""), "", MAIN!$B160)</f>
         <v>suriono</v>
       </c>
-      <c r="D160" s="20" t="str">
+      <c r="D160" s="23" t="str">
         <f>IF(EXACT(MAIN!$F160, ""), "", ""&amp;MAIN!$C160)</f>
         <v>Suriono Suriono</v>
       </c>
@@ -16621,11 +16712,11 @@
         <f>IF(EXACT(MAIN!$F161, ""), "", MAIN!$E161)</f>
         <v>47000000000158</v>
       </c>
-      <c r="C161" s="20" t="str">
+      <c r="C161" s="23" t="str">
         <f>IF(EXACT(MAIN!$F161, ""), "", MAIN!$B161)</f>
         <v>teuku</v>
       </c>
-      <c r="D161" s="20" t="str">
+      <c r="D161" s="23" t="str">
         <f>IF(EXACT(MAIN!$F161, ""), "", ""&amp;MAIN!$C161)</f>
         <v/>
       </c>
@@ -16635,11 +16726,11 @@
         <f>IF(EXACT(MAIN!$F162, ""), "", MAIN!$E162)</f>
         <v>47000000000159</v>
       </c>
-      <c r="C162" s="20" t="str">
+      <c r="C162" s="23" t="str">
         <f>IF(EXACT(MAIN!$F162, ""), "", MAIN!$B162)</f>
         <v>leo</v>
       </c>
-      <c r="D162" s="20" t="str">
+      <c r="D162" s="23" t="str">
         <f>IF(EXACT(MAIN!$F162, ""), "", ""&amp;MAIN!$C162)</f>
         <v>Leo Nababan</v>
       </c>
@@ -16649,11 +16740,11 @@
         <f>IF(EXACT(MAIN!$F163, ""), "", MAIN!$E163)</f>
         <v>47000000000160</v>
       </c>
-      <c r="C163" s="20" t="str">
+      <c r="C163" s="23" t="str">
         <f>IF(EXACT(MAIN!$F163, ""), "", MAIN!$B163)</f>
         <v>idhamnst</v>
       </c>
-      <c r="D163" s="20" t="str">
+      <c r="D163" s="23" t="str">
         <f>IF(EXACT(MAIN!$F163, ""), "", ""&amp;MAIN!$C163)</f>
         <v>Idham Nasution</v>
       </c>
@@ -16663,11 +16754,11 @@
         <f>IF(EXACT(MAIN!$F164, ""), "", MAIN!$E164)</f>
         <v>47000000000161</v>
       </c>
-      <c r="C164" s="20" t="str">
+      <c r="C164" s="23" t="str">
         <f>IF(EXACT(MAIN!$F164, ""), "", MAIN!$B164)</f>
         <v>andri</v>
       </c>
-      <c r="D164" s="20" t="str">
+      <c r="D164" s="23" t="str">
         <f>IF(EXACT(MAIN!$F164, ""), "", ""&amp;MAIN!$C164)</f>
         <v>Andri Gunawan</v>
       </c>
@@ -16677,11 +16768,11 @@
         <f>IF(EXACT(MAIN!$F165, ""), "", MAIN!$E165)</f>
         <v>47000000000162</v>
       </c>
-      <c r="C165" s="20" t="str">
+      <c r="C165" s="23" t="str">
         <f>IF(EXACT(MAIN!$F165, ""), "", MAIN!$B165)</f>
         <v>zulkifli</v>
       </c>
-      <c r="D165" s="20" t="str">
+      <c r="D165" s="23" t="str">
         <f>IF(EXACT(MAIN!$F165, ""), "", ""&amp;MAIN!$C165)</f>
         <v>Teuku Zulkifli</v>
       </c>
@@ -16691,11 +16782,11 @@
         <f>IF(EXACT(MAIN!$F166, ""), "", MAIN!$E166)</f>
         <v>47000000000163</v>
       </c>
-      <c r="C166" s="20" t="str">
+      <c r="C166" s="23" t="str">
         <f>IF(EXACT(MAIN!$F166, ""), "", MAIN!$B166)</f>
         <v>isat</v>
       </c>
-      <c r="D166" s="20" t="str">
+      <c r="D166" s="23" t="str">
         <f>IF(EXACT(MAIN!$F166, ""), "", ""&amp;MAIN!$C166)</f>
         <v>Isa Taufiq</v>
       </c>
@@ -16705,11 +16796,11 @@
         <f>IF(EXACT(MAIN!$F167, ""), "", MAIN!$E167)</f>
         <v>47000000000164</v>
       </c>
-      <c r="C167" s="20" t="str">
+      <c r="C167" s="23" t="str">
         <f>IF(EXACT(MAIN!$F167, ""), "", MAIN!$B167)</f>
         <v>EdiSum</v>
       </c>
-      <c r="D167" s="20" t="str">
+      <c r="D167" s="23" t="str">
         <f>IF(EXACT(MAIN!$F167, ""), "", ""&amp;MAIN!$C167)</f>
         <v/>
       </c>
@@ -16719,11 +16810,11 @@
         <f>IF(EXACT(MAIN!$F168, ""), "", MAIN!$E168)</f>
         <v>47000000000165</v>
       </c>
-      <c r="C168" s="20" t="str">
+      <c r="C168" s="23" t="str">
         <f>IF(EXACT(MAIN!$F168, ""), "", MAIN!$B168)</f>
         <v>matshol</v>
       </c>
-      <c r="D168" s="20" t="str">
+      <c r="D168" s="23" t="str">
         <f>IF(EXACT(MAIN!$F168, ""), "", ""&amp;MAIN!$C168)</f>
         <v/>
       </c>
@@ -16733,11 +16824,11 @@
         <f>IF(EXACT(MAIN!$F169, ""), "", MAIN!$E169)</f>
         <v>47000000000166</v>
       </c>
-      <c r="C169" s="20" t="str">
+      <c r="C169" s="23" t="str">
         <f>IF(EXACT(MAIN!$F169, ""), "", MAIN!$B169)</f>
         <v>masimin</v>
       </c>
-      <c r="D169" s="20" t="str">
+      <c r="D169" s="23" t="str">
         <f>IF(EXACT(MAIN!$F169, ""), "", ""&amp;MAIN!$C169)</f>
         <v/>
       </c>
@@ -16747,11 +16838,11 @@
         <f>IF(EXACT(MAIN!$F170, ""), "", MAIN!$E170)</f>
         <v>47000000000167</v>
       </c>
-      <c r="C170" s="20" t="str">
+      <c r="C170" s="23" t="str">
         <f>IF(EXACT(MAIN!$F170, ""), "", MAIN!$B170)</f>
         <v>rofiq</v>
       </c>
-      <c r="D170" s="20" t="str">
+      <c r="D170" s="23" t="str">
         <f>IF(EXACT(MAIN!$F170, ""), "", ""&amp;MAIN!$C170)</f>
         <v/>
       </c>
@@ -16761,11 +16852,11 @@
         <f>IF(EXACT(MAIN!$F171, ""), "", MAIN!$E171)</f>
         <v>47000000000168</v>
       </c>
-      <c r="C171" s="20" t="str">
+      <c r="C171" s="23" t="str">
         <f>IF(EXACT(MAIN!$F171, ""), "", MAIN!$B171)</f>
         <v>sribas</v>
       </c>
-      <c r="D171" s="20" t="str">
+      <c r="D171" s="23" t="str">
         <f>IF(EXACT(MAIN!$F171, ""), "", ""&amp;MAIN!$C171)</f>
         <v/>
       </c>
@@ -16775,11 +16866,11 @@
         <f>IF(EXACT(MAIN!$F172, ""), "", MAIN!$E172)</f>
         <v>47000000000169</v>
       </c>
-      <c r="C172" s="20" t="str">
+      <c r="C172" s="23" t="str">
         <f>IF(EXACT(MAIN!$F172, ""), "", MAIN!$B172)</f>
         <v>taufikh</v>
       </c>
-      <c r="D172" s="20" t="str">
+      <c r="D172" s="23" t="str">
         <f>IF(EXACT(MAIN!$F172, ""), "", ""&amp;MAIN!$C172)</f>
         <v/>
       </c>
@@ -16789,11 +16880,11 @@
         <f>IF(EXACT(MAIN!$F173, ""), "", MAIN!$E173)</f>
         <v>47000000000170</v>
       </c>
-      <c r="C173" s="20" t="str">
+      <c r="C173" s="23" t="str">
         <f>IF(EXACT(MAIN!$F173, ""), "", MAIN!$B173)</f>
         <v>benita</v>
       </c>
-      <c r="D173" s="20" t="str">
+      <c r="D173" s="23" t="str">
         <f>IF(EXACT(MAIN!$F173, ""), "", ""&amp;MAIN!$C173)</f>
         <v>Benita Sofia</v>
       </c>
@@ -16803,11 +16894,11 @@
         <f>IF(EXACT(MAIN!$F174, ""), "", MAIN!$E174)</f>
         <v>47000000000171</v>
       </c>
-      <c r="C174" s="20" t="str">
+      <c r="C174" s="23" t="str">
         <f>IF(EXACT(MAIN!$F174, ""), "", MAIN!$B174)</f>
         <v>zulfikar</v>
       </c>
-      <c r="D174" s="20" t="str">
+      <c r="D174" s="23" t="str">
         <f>IF(EXACT(MAIN!$F174, ""), "", ""&amp;MAIN!$C174)</f>
         <v>Zulfikar Siregar</v>
       </c>
@@ -16817,11 +16908,11 @@
         <f>IF(EXACT(MAIN!$F175, ""), "", MAIN!$E175)</f>
         <v>47000000000172</v>
       </c>
-      <c r="C175" s="20" t="str">
+      <c r="C175" s="23" t="str">
         <f>IF(EXACT(MAIN!$F175, ""), "", MAIN!$B175)</f>
         <v>erwinf</v>
       </c>
-      <c r="D175" s="20" t="str">
+      <c r="D175" s="23" t="str">
         <f>IF(EXACT(MAIN!$F175, ""), "", ""&amp;MAIN!$C175)</f>
         <v>Erwin Firmansyah</v>
       </c>
@@ -16831,11 +16922,11 @@
         <f>IF(EXACT(MAIN!$F176, ""), "", MAIN!$E176)</f>
         <v>47000000000173</v>
       </c>
-      <c r="C176" s="20" t="str">
+      <c r="C176" s="23" t="str">
         <f>IF(EXACT(MAIN!$F176, ""), "", MAIN!$B176)</f>
         <v>dian</v>
       </c>
-      <c r="D176" s="20" t="str">
+      <c r="D176" s="23" t="str">
         <f>IF(EXACT(MAIN!$F176, ""), "", ""&amp;MAIN!$C176)</f>
         <v>Dian Hariyana</v>
       </c>
@@ -16845,11 +16936,11 @@
         <f>IF(EXACT(MAIN!$F177, ""), "", MAIN!$E177)</f>
         <v>47000000000174</v>
       </c>
-      <c r="C177" s="20" t="str">
+      <c r="C177" s="23" t="str">
         <f>IF(EXACT(MAIN!$F177, ""), "", MAIN!$B177)</f>
         <v>adhitya</v>
       </c>
-      <c r="D177" s="20" t="str">
+      <c r="D177" s="23" t="str">
         <f>IF(EXACT(MAIN!$F177, ""), "", ""&amp;MAIN!$C177)</f>
         <v>Adhitya Danar</v>
       </c>
@@ -16859,11 +16950,11 @@
         <f>IF(EXACT(MAIN!$F178, ""), "", MAIN!$E178)</f>
         <v>47000000000175</v>
       </c>
-      <c r="C178" s="20" t="str">
+      <c r="C178" s="23" t="str">
         <f>IF(EXACT(MAIN!$F178, ""), "", MAIN!$B178)</f>
         <v>tria</v>
       </c>
-      <c r="D178" s="20" t="str">
+      <c r="D178" s="23" t="str">
         <f>IF(EXACT(MAIN!$F178, ""), "", ""&amp;MAIN!$C178)</f>
         <v>tri aji</v>
       </c>
@@ -16873,11 +16964,11 @@
         <f>IF(EXACT(MAIN!$F179, ""), "", MAIN!$E179)</f>
         <v>47000000000176</v>
       </c>
-      <c r="C179" s="20" t="str">
+      <c r="C179" s="23" t="str">
         <f>IF(EXACT(MAIN!$F179, ""), "", MAIN!$B179)</f>
         <v>marzuki</v>
       </c>
-      <c r="D179" s="20" t="str">
+      <c r="D179" s="23" t="str">
         <f>IF(EXACT(MAIN!$F179, ""), "", ""&amp;MAIN!$C179)</f>
         <v>marzuki</v>
       </c>
@@ -16887,11 +16978,11 @@
         <f>IF(EXACT(MAIN!$F180, ""), "", MAIN!$E180)</f>
         <v>47000000000177</v>
       </c>
-      <c r="C180" s="20" t="str">
+      <c r="C180" s="23" t="str">
         <f>IF(EXACT(MAIN!$F180, ""), "", MAIN!$B180)</f>
         <v>yulius</v>
       </c>
-      <c r="D180" s="20" t="str">
+      <c r="D180" s="23" t="str">
         <f>IF(EXACT(MAIN!$F180, ""), "", ""&amp;MAIN!$C180)</f>
         <v>Yulius</v>
       </c>
@@ -16901,11 +16992,11 @@
         <f>IF(EXACT(MAIN!$F181, ""), "", MAIN!$E181)</f>
         <v>47000000000178</v>
       </c>
-      <c r="C181" s="20" t="str">
+      <c r="C181" s="23" t="str">
         <f>IF(EXACT(MAIN!$F181, ""), "", MAIN!$B181)</f>
         <v>supriyadi</v>
       </c>
-      <c r="D181" s="20" t="str">
+      <c r="D181" s="23" t="str">
         <f>IF(EXACT(MAIN!$F181, ""), "", ""&amp;MAIN!$C181)</f>
         <v>Supriyadi</v>
       </c>
@@ -16915,11 +17006,11 @@
         <f>IF(EXACT(MAIN!$F182, ""), "", MAIN!$E182)</f>
         <v>47000000000179</v>
       </c>
-      <c r="C182" s="20" t="str">
+      <c r="C182" s="23" t="str">
         <f>IF(EXACT(MAIN!$F182, ""), "", MAIN!$B182)</f>
         <v>yakup</v>
       </c>
-      <c r="D182" s="20" t="str">
+      <c r="D182" s="23" t="str">
         <f>IF(EXACT(MAIN!$F182, ""), "", ""&amp;MAIN!$C182)</f>
         <v>Yakup Sunaryo</v>
       </c>
@@ -16929,11 +17020,11 @@
         <f>IF(EXACT(MAIN!$F183, ""), "", MAIN!$E183)</f>
         <v>47000000000180</v>
       </c>
-      <c r="C183" s="20" t="str">
+      <c r="C183" s="23" t="str">
         <f>IF(EXACT(MAIN!$F183, ""), "", MAIN!$B183)</f>
         <v>hendar</v>
       </c>
-      <c r="D183" s="20" t="str">
+      <c r="D183" s="23" t="str">
         <f>IF(EXACT(MAIN!$F183, ""), "", ""&amp;MAIN!$C183)</f>
         <v>Hendar Pambudi</v>
       </c>
@@ -16943,11 +17034,11 @@
         <f>IF(EXACT(MAIN!$F184, ""), "", MAIN!$E184)</f>
         <v>47000000000181</v>
       </c>
-      <c r="C184" s="20" t="str">
+      <c r="C184" s="23" t="str">
         <f>IF(EXACT(MAIN!$F184, ""), "", MAIN!$B184)</f>
         <v>simron</v>
       </c>
-      <c r="D184" s="20" t="str">
+      <c r="D184" s="23" t="str">
         <f>IF(EXACT(MAIN!$F184, ""), "", ""&amp;MAIN!$C184)</f>
         <v>Simron Ronaldi Nasution</v>
       </c>
@@ -16957,11 +17048,11 @@
         <f>IF(EXACT(MAIN!$F185, ""), "", MAIN!$E185)</f>
         <v>47000000000182</v>
       </c>
-      <c r="C185" s="20" t="str">
+      <c r="C185" s="23" t="str">
         <f>IF(EXACT(MAIN!$F185, ""), "", MAIN!$B185)</f>
         <v>nugraha</v>
       </c>
-      <c r="D185" s="20" t="str">
+      <c r="D185" s="23" t="str">
         <f>IF(EXACT(MAIN!$F185, ""), "", ""&amp;MAIN!$C185)</f>
         <v>Nugraha</v>
       </c>
@@ -16971,11 +17062,11 @@
         <f>IF(EXACT(MAIN!$F186, ""), "", MAIN!$E186)</f>
         <v>47000000000183</v>
       </c>
-      <c r="C186" s="20" t="str">
+      <c r="C186" s="23" t="str">
         <f>IF(EXACT(MAIN!$F186, ""), "", MAIN!$B186)</f>
         <v>dwinanto</v>
       </c>
-      <c r="D186" s="20" t="str">
+      <c r="D186" s="23" t="str">
         <f>IF(EXACT(MAIN!$F186, ""), "", ""&amp;MAIN!$C186)</f>
         <v>Dwinanto Prabowo</v>
       </c>
@@ -16985,11 +17076,11 @@
         <f>IF(EXACT(MAIN!$F187, ""), "", MAIN!$E187)</f>
         <v>47000000000184</v>
       </c>
-      <c r="C187" s="20" t="str">
+      <c r="C187" s="23" t="str">
         <f>IF(EXACT(MAIN!$F187, ""), "", MAIN!$B187)</f>
         <v>nurhidayat</v>
       </c>
-      <c r="D187" s="20" t="str">
+      <c r="D187" s="23" t="str">
         <f>IF(EXACT(MAIN!$F187, ""), "", ""&amp;MAIN!$C187)</f>
         <v>Nurhidayat</v>
       </c>
@@ -16999,11 +17090,11 @@
         <f>IF(EXACT(MAIN!$F188, ""), "", MAIN!$E188)</f>
         <v>47000000000185</v>
       </c>
-      <c r="C188" s="20" t="str">
+      <c r="C188" s="23" t="str">
         <f>IF(EXACT(MAIN!$F188, ""), "", MAIN!$B188)</f>
         <v>tiara</v>
       </c>
-      <c r="D188" s="20" t="str">
+      <c r="D188" s="23" t="str">
         <f>IF(EXACT(MAIN!$F188, ""), "", ""&amp;MAIN!$C188)</f>
         <v>Tiara Kemalasari</v>
       </c>
@@ -17013,11 +17104,11 @@
         <f>IF(EXACT(MAIN!$F189, ""), "", MAIN!$E189)</f>
         <v>47000000000186</v>
       </c>
-      <c r="C189" s="20" t="str">
+      <c r="C189" s="23" t="str">
         <f>IF(EXACT(MAIN!$F189, ""), "", MAIN!$B189)</f>
         <v>sucim</v>
       </c>
-      <c r="D189" s="20" t="str">
+      <c r="D189" s="23" t="str">
         <f>IF(EXACT(MAIN!$F189, ""), "", ""&amp;MAIN!$C189)</f>
         <v>Suci Mardiana</v>
       </c>
@@ -17027,11 +17118,11 @@
         <f>IF(EXACT(MAIN!$F190, ""), "", MAIN!$E190)</f>
         <v>47000000000187</v>
       </c>
-      <c r="C190" s="20" t="str">
+      <c r="C190" s="23" t="str">
         <f>IF(EXACT(MAIN!$F190, ""), "", MAIN!$B190)</f>
         <v>vonny</v>
       </c>
-      <c r="D190" s="20" t="str">
+      <c r="D190" s="23" t="str">
         <f>IF(EXACT(MAIN!$F190, ""), "", ""&amp;MAIN!$C190)</f>
         <v>Vonny Agram</v>
       </c>
@@ -17041,11 +17132,11 @@
         <f>IF(EXACT(MAIN!$F191, ""), "", MAIN!$E191)</f>
         <v>47000000000188</v>
       </c>
-      <c r="C191" s="20" t="str">
+      <c r="C191" s="23" t="str">
         <f>IF(EXACT(MAIN!$F191, ""), "", MAIN!$B191)</f>
         <v>mulyono</v>
       </c>
-      <c r="D191" s="20" t="str">
+      <c r="D191" s="23" t="str">
         <f>IF(EXACT(MAIN!$F191, ""), "", ""&amp;MAIN!$C191)</f>
         <v>mulyono</v>
       </c>
@@ -17055,11 +17146,11 @@
         <f>IF(EXACT(MAIN!$F192, ""), "", MAIN!$E192)</f>
         <v>47000000000189</v>
       </c>
-      <c r="C192" s="20" t="str">
+      <c r="C192" s="23" t="str">
         <f>IF(EXACT(MAIN!$F192, ""), "", MAIN!$B192)</f>
         <v>keila</v>
       </c>
-      <c r="D192" s="20" t="str">
+      <c r="D192" s="23" t="str">
         <f>IF(EXACT(MAIN!$F192, ""), "", ""&amp;MAIN!$C192)</f>
         <v>Keila</v>
       </c>
@@ -17069,11 +17160,11 @@
         <f>IF(EXACT(MAIN!$F193, ""), "", MAIN!$E193)</f>
         <v>47000000000190</v>
       </c>
-      <c r="C193" s="20" t="str">
+      <c r="C193" s="23" t="str">
         <f>IF(EXACT(MAIN!$F193, ""), "", MAIN!$B193)</f>
         <v>taslim</v>
       </c>
-      <c r="D193" s="20" t="str">
+      <c r="D193" s="23" t="str">
         <f>IF(EXACT(MAIN!$F193, ""), "", ""&amp;MAIN!$C193)</f>
         <v>Taslim</v>
       </c>
@@ -17083,11 +17174,11 @@
         <f>IF(EXACT(MAIN!$F194, ""), "", MAIN!$E194)</f>
         <v>47000000000191</v>
       </c>
-      <c r="C194" s="20" t="str">
+      <c r="C194" s="23" t="str">
         <f>IF(EXACT(MAIN!$F194, ""), "", MAIN!$B194)</f>
         <v>rubah</v>
       </c>
-      <c r="D194" s="20" t="str">
+      <c r="D194" s="23" t="str">
         <f>IF(EXACT(MAIN!$F194, ""), "", ""&amp;MAIN!$C194)</f>
         <v>Rubah</v>
       </c>
@@ -17097,11 +17188,11 @@
         <f>IF(EXACT(MAIN!$F195, ""), "", MAIN!$E195)</f>
         <v>47000000000192</v>
       </c>
-      <c r="C195" s="20" t="str">
+      <c r="C195" s="23" t="str">
         <f>IF(EXACT(MAIN!$F195, ""), "", MAIN!$B195)</f>
         <v>sitepu</v>
       </c>
-      <c r="D195" s="20" t="str">
+      <c r="D195" s="23" t="str">
         <f>IF(EXACT(MAIN!$F195, ""), "", ""&amp;MAIN!$C195)</f>
         <v>Jaya Sitepu</v>
       </c>
@@ -17111,11 +17202,11 @@
         <f>IF(EXACT(MAIN!$F196, ""), "", MAIN!$E196)</f>
         <v>47000000000193</v>
       </c>
-      <c r="C196" s="20" t="str">
+      <c r="C196" s="23" t="str">
         <f>IF(EXACT(MAIN!$F196, ""), "", MAIN!$B196)</f>
         <v>junaidi</v>
       </c>
-      <c r="D196" s="20" t="str">
+      <c r="D196" s="23" t="str">
         <f>IF(EXACT(MAIN!$F196, ""), "", ""&amp;MAIN!$C196)</f>
         <v>Junaidi</v>
       </c>
@@ -17125,11 +17216,11 @@
         <f>IF(EXACT(MAIN!$F197, ""), "", MAIN!$E197)</f>
         <v>47000000000194</v>
       </c>
-      <c r="C197" s="20" t="str">
+      <c r="C197" s="23" t="str">
         <f>IF(EXACT(MAIN!$F197, ""), "", MAIN!$B197)</f>
         <v>listyo</v>
       </c>
-      <c r="D197" s="20" t="str">
+      <c r="D197" s="23" t="str">
         <f>IF(EXACT(MAIN!$F197, ""), "", ""&amp;MAIN!$C197)</f>
         <v>Listyo Hartanto</v>
       </c>
@@ -17139,11 +17230,11 @@
         <f>IF(EXACT(MAIN!$F198, ""), "", MAIN!$E198)</f>
         <v>47000000000195</v>
       </c>
-      <c r="C198" s="20" t="str">
+      <c r="C198" s="23" t="str">
         <f>IF(EXACT(MAIN!$F198, ""), "", MAIN!$B198)</f>
         <v>francis</v>
       </c>
-      <c r="D198" s="20" t="str">
+      <c r="D198" s="23" t="str">
         <f>IF(EXACT(MAIN!$F198, ""), "", ""&amp;MAIN!$C198)</f>
         <v>Francis Imanuel</v>
       </c>
@@ -17153,11 +17244,11 @@
         <f>IF(EXACT(MAIN!$F199, ""), "", MAIN!$E199)</f>
         <v>47000000000196</v>
       </c>
-      <c r="C199" s="20" t="str">
+      <c r="C199" s="23" t="str">
         <f>IF(EXACT(MAIN!$F199, ""), "", MAIN!$B199)</f>
         <v>nancy</v>
       </c>
-      <c r="D199" s="20" t="str">
+      <c r="D199" s="23" t="str">
         <f>IF(EXACT(MAIN!$F199, ""), "", ""&amp;MAIN!$C199)</f>
         <v>Nancy Meriana Sinaga</v>
       </c>
@@ -17167,11 +17258,11 @@
         <f>IF(EXACT(MAIN!$F200, ""), "", MAIN!$E200)</f>
         <v>47000000000197</v>
       </c>
-      <c r="C200" s="20" t="str">
+      <c r="C200" s="23" t="str">
         <f>IF(EXACT(MAIN!$F200, ""), "", MAIN!$B200)</f>
         <v>rohmani</v>
       </c>
-      <c r="D200" s="20" t="str">
+      <c r="D200" s="23" t="str">
         <f>IF(EXACT(MAIN!$F200, ""), "", ""&amp;MAIN!$C200)</f>
         <v>Rohmani</v>
       </c>
@@ -17181,11 +17272,11 @@
         <f>IF(EXACT(MAIN!$F201, ""), "", MAIN!$E201)</f>
         <v>47000000000198</v>
       </c>
-      <c r="C201" s="20" t="str">
+      <c r="C201" s="23" t="str">
         <f>IF(EXACT(MAIN!$F201, ""), "", MAIN!$B201)</f>
         <v>herri</v>
       </c>
-      <c r="D201" s="20" t="str">
+      <c r="D201" s="23" t="str">
         <f>IF(EXACT(MAIN!$F201, ""), "", ""&amp;MAIN!$C201)</f>
         <v>Herri Setyawan</v>
       </c>
@@ -17195,11 +17286,11 @@
         <f>IF(EXACT(MAIN!$F202, ""), "", MAIN!$E202)</f>
         <v>47000000000199</v>
       </c>
-      <c r="C202" s="20" t="str">
+      <c r="C202" s="23" t="str">
         <f>IF(EXACT(MAIN!$F202, ""), "", MAIN!$B202)</f>
         <v>kurniadi</v>
       </c>
-      <c r="D202" s="20" t="str">
+      <c r="D202" s="23" t="str">
         <f>IF(EXACT(MAIN!$F202, ""), "", ""&amp;MAIN!$C202)</f>
         <v>Kurniadi</v>
       </c>
@@ -17209,11 +17300,11 @@
         <f>IF(EXACT(MAIN!$F203, ""), "", MAIN!$E203)</f>
         <v>47000000000200</v>
       </c>
-      <c r="C203" s="20" t="str">
+      <c r="C203" s="23" t="str">
         <f>IF(EXACT(MAIN!$F203, ""), "", MAIN!$B203)</f>
         <v>arini</v>
       </c>
-      <c r="D203" s="20" t="str">
+      <c r="D203" s="23" t="str">
         <f>IF(EXACT(MAIN!$F203, ""), "", ""&amp;MAIN!$C203)</f>
         <v>Arini</v>
       </c>
@@ -17223,11 +17314,11 @@
         <f>IF(EXACT(MAIN!$F204, ""), "", MAIN!$E204)</f>
         <v>47000000000201</v>
       </c>
-      <c r="C204" s="20" t="str">
+      <c r="C204" s="23" t="str">
         <f>IF(EXACT(MAIN!$F204, ""), "", MAIN!$B204)</f>
         <v>pikri</v>
       </c>
-      <c r="D204" s="20" t="str">
+      <c r="D204" s="23" t="str">
         <f>IF(EXACT(MAIN!$F204, ""), "", ""&amp;MAIN!$C204)</f>
         <v>Pikri Hidayat</v>
       </c>
@@ -17237,11 +17328,11 @@
         <f>IF(EXACT(MAIN!$F205, ""), "", MAIN!$E205)</f>
         <v>47000000000202</v>
       </c>
-      <c r="C205" s="20" t="str">
+      <c r="C205" s="23" t="str">
         <f>IF(EXACT(MAIN!$F205, ""), "", MAIN!$B205)</f>
         <v>anggina</v>
       </c>
-      <c r="D205" s="20" t="str">
+      <c r="D205" s="23" t="str">
         <f>IF(EXACT(MAIN!$F205, ""), "", ""&amp;MAIN!$C205)</f>
         <v>Anggina Tri Yudandi</v>
       </c>
@@ -17251,11 +17342,11 @@
         <f>IF(EXACT(MAIN!$F206, ""), "", MAIN!$E206)</f>
         <v>47000000000203</v>
       </c>
-      <c r="C206" s="20" t="str">
+      <c r="C206" s="23" t="str">
         <f>IF(EXACT(MAIN!$F206, ""), "", MAIN!$B206)</f>
         <v>sigit</v>
       </c>
-      <c r="D206" s="20" t="str">
+      <c r="D206" s="23" t="str">
         <f>IF(EXACT(MAIN!$F206, ""), "", ""&amp;MAIN!$C206)</f>
         <v>Sigit Rudiantono</v>
       </c>
@@ -17265,11 +17356,11 @@
         <f>IF(EXACT(MAIN!$F207, ""), "", MAIN!$E207)</f>
         <v>47000000000204</v>
       </c>
-      <c r="C207" s="20" t="str">
+      <c r="C207" s="23" t="str">
         <f>IF(EXACT(MAIN!$F207, ""), "", MAIN!$B207)</f>
         <v>ikhsan</v>
       </c>
-      <c r="D207" s="20" t="str">
+      <c r="D207" s="23" t="str">
         <f>IF(EXACT(MAIN!$F207, ""), "", ""&amp;MAIN!$C207)</f>
         <v>Muhamad Ikhsan</v>
       </c>
@@ -17279,11 +17370,11 @@
         <f>IF(EXACT(MAIN!$F208, ""), "", MAIN!$E208)</f>
         <v>47000000000205</v>
       </c>
-      <c r="C208" s="20" t="str">
+      <c r="C208" s="23" t="str">
         <f>IF(EXACT(MAIN!$F208, ""), "", MAIN!$B208)</f>
         <v>lestari</v>
       </c>
-      <c r="D208" s="20" t="str">
+      <c r="D208" s="23" t="str">
         <f>IF(EXACT(MAIN!$F208, ""), "", ""&amp;MAIN!$C208)</f>
         <v>Endang Lestari</v>
       </c>
@@ -17293,11 +17384,11 @@
         <f>IF(EXACT(MAIN!$F209, ""), "", MAIN!$E209)</f>
         <v>47000000000206</v>
       </c>
-      <c r="C209" s="20" t="str">
+      <c r="C209" s="23" t="str">
         <f>IF(EXACT(MAIN!$F209, ""), "", MAIN!$B209)</f>
         <v>ardi</v>
       </c>
-      <c r="D209" s="20" t="str">
+      <c r="D209" s="23" t="str">
         <f>IF(EXACT(MAIN!$F209, ""), "", ""&amp;MAIN!$C209)</f>
         <v>Ardi</v>
       </c>
@@ -17307,11 +17398,11 @@
         <f>IF(EXACT(MAIN!$F210, ""), "", MAIN!$E210)</f>
         <v>47000000000207</v>
       </c>
-      <c r="C210" s="20" t="str">
+      <c r="C210" s="23" t="str">
         <f>IF(EXACT(MAIN!$F210, ""), "", MAIN!$B210)</f>
         <v>elieser</v>
       </c>
-      <c r="D210" s="20" t="str">
+      <c r="D210" s="23" t="str">
         <f>IF(EXACT(MAIN!$F210, ""), "", ""&amp;MAIN!$C210)</f>
         <v>Elieser Ferdy P</v>
       </c>
@@ -17321,11 +17412,11 @@
         <f>IF(EXACT(MAIN!$F211, ""), "", MAIN!$E211)</f>
         <v>47000000000208</v>
       </c>
-      <c r="C211" s="20" t="str">
+      <c r="C211" s="23" t="str">
         <f>IF(EXACT(MAIN!$F211, ""), "", MAIN!$B211)</f>
         <v>sjanti</v>
       </c>
-      <c r="D211" s="20" t="str">
+      <c r="D211" s="23" t="str">
         <f>IF(EXACT(MAIN!$F211, ""), "", ""&amp;MAIN!$C211)</f>
         <v>Sjanti Devi</v>
       </c>
@@ -17335,11 +17426,11 @@
         <f>IF(EXACT(MAIN!$F212, ""), "", MAIN!$E212)</f>
         <v>47000000000209</v>
       </c>
-      <c r="C212" s="20" t="str">
+      <c r="C212" s="23" t="str">
         <f>IF(EXACT(MAIN!$F212, ""), "", MAIN!$B212)</f>
         <v>herman</v>
       </c>
-      <c r="D212" s="20" t="str">
+      <c r="D212" s="23" t="str">
         <f>IF(EXACT(MAIN!$F212, ""), "", ""&amp;MAIN!$C212)</f>
         <v>Herman Budoyo</v>
       </c>
@@ -17349,11 +17440,11 @@
         <f>IF(EXACT(MAIN!$F213, ""), "", MAIN!$E213)</f>
         <v>47000000000210</v>
       </c>
-      <c r="C213" s="20" t="str">
+      <c r="C213" s="23" t="str">
         <f>IF(EXACT(MAIN!$F213, ""), "", MAIN!$B213)</f>
         <v>faza</v>
       </c>
-      <c r="D213" s="20" t="str">
+      <c r="D213" s="23" t="str">
         <f>IF(EXACT(MAIN!$F213, ""), "", ""&amp;MAIN!$C213)</f>
         <v>Ahmad Faza</v>
       </c>
@@ -17363,11 +17454,11 @@
         <f>IF(EXACT(MAIN!$F214, ""), "", MAIN!$E214)</f>
         <v>47000000000211</v>
       </c>
-      <c r="C214" s="20" t="str">
+      <c r="C214" s="23" t="str">
         <f>IF(EXACT(MAIN!$F214, ""), "", MAIN!$B214)</f>
         <v>anna</v>
       </c>
-      <c r="D214" s="20" t="str">
+      <c r="D214" s="23" t="str">
         <f>IF(EXACT(MAIN!$F214, ""), "", ""&amp;MAIN!$C214)</f>
         <v>Anna Savitrie</v>
       </c>
@@ -17377,11 +17468,11 @@
         <f>IF(EXACT(MAIN!$F215, ""), "", MAIN!$E215)</f>
         <v>47000000000212</v>
       </c>
-      <c r="C215" s="20" t="str">
+      <c r="C215" s="23" t="str">
         <f>IF(EXACT(MAIN!$F215, ""), "", MAIN!$B215)</f>
         <v>sunaryati</v>
       </c>
-      <c r="D215" s="20" t="str">
+      <c r="D215" s="23" t="str">
         <f>IF(EXACT(MAIN!$F215, ""), "", ""&amp;MAIN!$C215)</f>
         <v>Sunaryati</v>
       </c>
@@ -17391,11 +17482,11 @@
         <f>IF(EXACT(MAIN!$F216, ""), "", MAIN!$E216)</f>
         <v>47000000000213</v>
       </c>
-      <c r="C216" s="20" t="str">
+      <c r="C216" s="23" t="str">
         <f>IF(EXACT(MAIN!$F216, ""), "", MAIN!$B216)</f>
         <v>afrida</v>
       </c>
-      <c r="D216" s="20" t="str">
+      <c r="D216" s="23" t="str">
         <f>IF(EXACT(MAIN!$F216, ""), "", ""&amp;MAIN!$C216)</f>
         <v>Afrida Eka Putri</v>
       </c>
@@ -17405,11 +17496,11 @@
         <f>IF(EXACT(MAIN!$F217, ""), "", MAIN!$E217)</f>
         <v>47000000000214</v>
       </c>
-      <c r="C217" s="20" t="str">
+      <c r="C217" s="23" t="str">
         <f>IF(EXACT(MAIN!$F217, ""), "", MAIN!$B217)</f>
         <v>barika</v>
       </c>
-      <c r="D217" s="20" t="str">
+      <c r="D217" s="23" t="str">
         <f>IF(EXACT(MAIN!$F217, ""), "", ""&amp;MAIN!$C217)</f>
         <v>Barika</v>
       </c>
@@ -17419,11 +17510,11 @@
         <f>IF(EXACT(MAIN!$F218, ""), "", MAIN!$E218)</f>
         <v>47000000000215</v>
       </c>
-      <c r="C218" s="20" t="str">
+      <c r="C218" s="23" t="str">
         <f>IF(EXACT(MAIN!$F218, ""), "", MAIN!$B218)</f>
         <v>faedi</v>
       </c>
-      <c r="D218" s="20" t="str">
+      <c r="D218" s="23" t="str">
         <f>IF(EXACT(MAIN!$F218, ""), "", ""&amp;MAIN!$C218)</f>
         <v>Alfaedi</v>
       </c>
@@ -17433,11 +17524,11 @@
         <f>IF(EXACT(MAIN!$F219, ""), "", MAIN!$E219)</f>
         <v>47000000000216</v>
       </c>
-      <c r="C219" s="20" t="str">
+      <c r="C219" s="23" t="str">
         <f>IF(EXACT(MAIN!$F219, ""), "", MAIN!$B219)</f>
         <v>sutra</v>
       </c>
-      <c r="D219" s="20" t="str">
+      <c r="D219" s="23" t="str">
         <f>IF(EXACT(MAIN!$F219, ""), "", ""&amp;MAIN!$C219)</f>
         <v>sutra riandi</v>
       </c>
@@ -17447,11 +17538,11 @@
         <f>IF(EXACT(MAIN!$F220, ""), "", MAIN!$E220)</f>
         <v>47000000000217</v>
       </c>
-      <c r="C220" s="20" t="str">
+      <c r="C220" s="23" t="str">
         <f>IF(EXACT(MAIN!$F220, ""), "", MAIN!$B220)</f>
         <v>bachtiar</v>
       </c>
-      <c r="D220" s="20" t="str">
+      <c r="D220" s="23" t="str">
         <f>IF(EXACT(MAIN!$F220, ""), "", ""&amp;MAIN!$C220)</f>
         <v>bachtiar</v>
       </c>
@@ -17461,11 +17552,11 @@
         <f>IF(EXACT(MAIN!$F221, ""), "", MAIN!$E221)</f>
         <v>47000000000218</v>
       </c>
-      <c r="C221" s="20" t="str">
+      <c r="C221" s="23" t="str">
         <f>IF(EXACT(MAIN!$F221, ""), "", MAIN!$B221)</f>
         <v>rahmadi</v>
       </c>
-      <c r="D221" s="20" t="str">
+      <c r="D221" s="23" t="str">
         <f>IF(EXACT(MAIN!$F221, ""), "", ""&amp;MAIN!$C221)</f>
         <v>Yudi Rahmadi</v>
       </c>
@@ -17475,11 +17566,11 @@
         <f>IF(EXACT(MAIN!$F222, ""), "", MAIN!$E222)</f>
         <v>47000000000219</v>
       </c>
-      <c r="C222" s="20" t="str">
+      <c r="C222" s="23" t="str">
         <f>IF(EXACT(MAIN!$F222, ""), "", MAIN!$B222)</f>
         <v>sumantri</v>
       </c>
-      <c r="D222" s="20" t="str">
+      <c r="D222" s="23" t="str">
         <f>IF(EXACT(MAIN!$F222, ""), "", ""&amp;MAIN!$C222)</f>
         <v>Iwan Sumantri</v>
       </c>
@@ -17489,11 +17580,11 @@
         <f>IF(EXACT(MAIN!$F223, ""), "", MAIN!$E223)</f>
         <v>47000000000220</v>
       </c>
-      <c r="C223" s="20" t="str">
+      <c r="C223" s="23" t="str">
         <f>IF(EXACT(MAIN!$F223, ""), "", MAIN!$B223)</f>
         <v>saputro</v>
       </c>
-      <c r="D223" s="20" t="str">
+      <c r="D223" s="23" t="str">
         <f>IF(EXACT(MAIN!$F223, ""), "", ""&amp;MAIN!$C223)</f>
         <v>Hanif Eko Saputro</v>
       </c>
@@ -17503,11 +17594,11 @@
         <f>IF(EXACT(MAIN!$F224, ""), "", MAIN!$E224)</f>
         <v>47000000000221</v>
       </c>
-      <c r="C224" s="20" t="str">
+      <c r="C224" s="23" t="str">
         <f>IF(EXACT(MAIN!$F224, ""), "", MAIN!$B224)</f>
         <v>antok</v>
       </c>
-      <c r="D224" s="20" t="str">
+      <c r="D224" s="23" t="str">
         <f>IF(EXACT(MAIN!$F224, ""), "", ""&amp;MAIN!$C224)</f>
         <v>Antok</v>
       </c>
@@ -17517,11 +17608,11 @@
         <f>IF(EXACT(MAIN!$F225, ""), "", MAIN!$E225)</f>
         <v>47000000000222</v>
       </c>
-      <c r="C225" s="20" t="str">
+      <c r="C225" s="23" t="str">
         <f>IF(EXACT(MAIN!$F225, ""), "", MAIN!$B225)</f>
         <v>intan</v>
       </c>
-      <c r="D225" s="20" t="str">
+      <c r="D225" s="23" t="str">
         <f>IF(EXACT(MAIN!$F225, ""), "", ""&amp;MAIN!$C225)</f>
         <v>Frederika Intan</v>
       </c>
@@ -17531,11 +17622,11 @@
         <f>IF(EXACT(MAIN!$F226, ""), "", MAIN!$E226)</f>
         <v>47000000000223</v>
       </c>
-      <c r="C226" s="20" t="str">
+      <c r="C226" s="23" t="str">
         <f>IF(EXACT(MAIN!$F226, ""), "", MAIN!$B226)</f>
         <v>kurniawan</v>
       </c>
-      <c r="D226" s="20" t="str">
+      <c r="D226" s="23" t="str">
         <f>IF(EXACT(MAIN!$F226, ""), "", ""&amp;MAIN!$C226)</f>
         <v>Kurniawan</v>
       </c>
@@ -17545,11 +17636,11 @@
         <f>IF(EXACT(MAIN!$F227, ""), "", MAIN!$E227)</f>
         <v>47000000000224</v>
       </c>
-      <c r="C227" s="20" t="str">
+      <c r="C227" s="23" t="str">
         <f>IF(EXACT(MAIN!$F227, ""), "", MAIN!$B227)</f>
         <v>dudung</v>
       </c>
-      <c r="D227" s="20" t="str">
+      <c r="D227" s="23" t="str">
         <f>IF(EXACT(MAIN!$F227, ""), "", ""&amp;MAIN!$C227)</f>
         <v>dudung</v>
       </c>
@@ -17559,11 +17650,11 @@
         <f>IF(EXACT(MAIN!$F228, ""), "", MAIN!$E228)</f>
         <v>47000000000225</v>
       </c>
-      <c r="C228" s="20" t="str">
+      <c r="C228" s="23" t="str">
         <f>IF(EXACT(MAIN!$F228, ""), "", MAIN!$B228)</f>
         <v>septania</v>
       </c>
-      <c r="D228" s="20" t="str">
+      <c r="D228" s="23" t="str">
         <f>IF(EXACT(MAIN!$F228, ""), "", ""&amp;MAIN!$C228)</f>
         <v>Gina Septa</v>
       </c>
@@ -17573,11 +17664,11 @@
         <f>IF(EXACT(MAIN!$F229, ""), "", MAIN!$E229)</f>
         <v>47000000000226</v>
       </c>
-      <c r="C229" s="20" t="str">
+      <c r="C229" s="23" t="str">
         <f>IF(EXACT(MAIN!$F229, ""), "", MAIN!$B229)</f>
         <v>rahmat</v>
       </c>
-      <c r="D229" s="20" t="str">
+      <c r="D229" s="23" t="str">
         <f>IF(EXACT(MAIN!$F229, ""), "", ""&amp;MAIN!$C229)</f>
         <v>Rahmat Riyadi</v>
       </c>
@@ -17587,11 +17678,11 @@
         <f>IF(EXACT(MAIN!$F230, ""), "", MAIN!$E230)</f>
         <v>47000000000227</v>
       </c>
-      <c r="C230" s="20" t="str">
+      <c r="C230" s="23" t="str">
         <f>IF(EXACT(MAIN!$F230, ""), "", MAIN!$B230)</f>
         <v>antony</v>
       </c>
-      <c r="D230" s="20" t="str">
+      <c r="D230" s="23" t="str">
         <f>IF(EXACT(MAIN!$F230, ""), "", ""&amp;MAIN!$C230)</f>
         <v>Antony Pakpahan</v>
       </c>
@@ -17601,11 +17692,11 @@
         <f>IF(EXACT(MAIN!$F231, ""), "", MAIN!$E231)</f>
         <v>47000000000228</v>
       </c>
-      <c r="C231" s="20" t="str">
+      <c r="C231" s="23" t="str">
         <f>IF(EXACT(MAIN!$F231, ""), "", MAIN!$B231)</f>
         <v>taufan</v>
       </c>
-      <c r="D231" s="20" t="str">
+      <c r="D231" s="23" t="str">
         <f>IF(EXACT(MAIN!$F231, ""), "", ""&amp;MAIN!$C231)</f>
         <v>Muhammad Taufan</v>
       </c>
@@ -17615,11 +17706,11 @@
         <f>IF(EXACT(MAIN!$F232, ""), "", MAIN!$E232)</f>
         <v>47000000000229</v>
       </c>
-      <c r="C232" s="20" t="str">
+      <c r="C232" s="23" t="str">
         <f>IF(EXACT(MAIN!$F232, ""), "", MAIN!$B232)</f>
         <v>tedy</v>
       </c>
-      <c r="D232" s="20" t="str">
+      <c r="D232" s="23" t="str">
         <f>IF(EXACT(MAIN!$F232, ""), "", ""&amp;MAIN!$C232)</f>
         <v>tedy harseno</v>
       </c>
@@ -17629,11 +17720,11 @@
         <f>IF(EXACT(MAIN!$F233, ""), "", MAIN!$E233)</f>
         <v>47000000000230</v>
       </c>
-      <c r="C233" s="20" t="str">
+      <c r="C233" s="23" t="str">
         <f>IF(EXACT(MAIN!$F233, ""), "", MAIN!$B233)</f>
         <v>Arman</v>
       </c>
-      <c r="D233" s="20" t="str">
+      <c r="D233" s="23" t="str">
         <f>IF(EXACT(MAIN!$F233, ""), "", ""&amp;MAIN!$C233)</f>
         <v>Arman</v>
       </c>
@@ -17643,11 +17734,11 @@
         <f>IF(EXACT(MAIN!$F234, ""), "", MAIN!$E234)</f>
         <v>47000000000231</v>
       </c>
-      <c r="C234" s="20" t="str">
+      <c r="C234" s="23" t="str">
         <f>IF(EXACT(MAIN!$F234, ""), "", MAIN!$B234)</f>
         <v>Ardisam</v>
       </c>
-      <c r="D234" s="20" t="str">
+      <c r="D234" s="23" t="str">
         <f>IF(EXACT(MAIN!$F234, ""), "", ""&amp;MAIN!$C234)</f>
         <v>Ardisam</v>
       </c>
@@ -17657,11 +17748,11 @@
         <f>IF(EXACT(MAIN!$F235, ""), "", MAIN!$E235)</f>
         <v>47000000000232</v>
       </c>
-      <c r="C235" s="20" t="str">
+      <c r="C235" s="23" t="str">
         <f>IF(EXACT(MAIN!$F235, ""), "", MAIN!$B235)</f>
         <v>Irwan</v>
       </c>
-      <c r="D235" s="20" t="str">
+      <c r="D235" s="23" t="str">
         <f>IF(EXACT(MAIN!$F235, ""), "", ""&amp;MAIN!$C235)</f>
         <v>irwan</v>
       </c>
@@ -17671,11 +17762,11 @@
         <f>IF(EXACT(MAIN!$F236, ""), "", MAIN!$E236)</f>
         <v>47000000000233</v>
       </c>
-      <c r="C236" s="20" t="str">
+      <c r="C236" s="23" t="str">
         <f>IF(EXACT(MAIN!$F236, ""), "", MAIN!$B236)</f>
         <v>indraj</v>
       </c>
-      <c r="D236" s="20" t="str">
+      <c r="D236" s="23" t="str">
         <f>IF(EXACT(MAIN!$F236, ""), "", ""&amp;MAIN!$C236)</f>
         <v>Indra Jaya</v>
       </c>
@@ -17685,11 +17776,11 @@
         <f>IF(EXACT(MAIN!$F237, ""), "", MAIN!$E237)</f>
         <v>47000000000234</v>
       </c>
-      <c r="C237" s="20" t="str">
+      <c r="C237" s="23" t="str">
         <f>IF(EXACT(MAIN!$F237, ""), "", MAIN!$B237)</f>
         <v>kendra</v>
       </c>
-      <c r="D237" s="20" t="str">
+      <c r="D237" s="23" t="str">
         <f>IF(EXACT(MAIN!$F237, ""), "", ""&amp;MAIN!$C237)</f>
         <v>Kendra Daniswara</v>
       </c>
@@ -17699,11 +17790,11 @@
         <f>IF(EXACT(MAIN!$F238, ""), "", MAIN!$E238)</f>
         <v>47000000000235</v>
       </c>
-      <c r="C238" s="20" t="str">
+      <c r="C238" s="23" t="str">
         <f>IF(EXACT(MAIN!$F238, ""), "", MAIN!$B238)</f>
         <v>Ichsanudin</v>
       </c>
-      <c r="D238" s="20" t="str">
+      <c r="D238" s="23" t="str">
         <f>IF(EXACT(MAIN!$F238, ""), "", ""&amp;MAIN!$C238)</f>
         <v>Ichsanudin</v>
       </c>
@@ -17713,11 +17804,11 @@
         <f>IF(EXACT(MAIN!$F239, ""), "", MAIN!$E239)</f>
         <v>47000000000236</v>
       </c>
-      <c r="C239" s="20" t="str">
+      <c r="C239" s="23" t="str">
         <f>IF(EXACT(MAIN!$F239, ""), "", MAIN!$B239)</f>
         <v>riki</v>
       </c>
-      <c r="D239" s="20" t="str">
+      <c r="D239" s="23" t="str">
         <f>IF(EXACT(MAIN!$F239, ""), "", ""&amp;MAIN!$C239)</f>
         <v>Riki Chairul Anwar</v>
       </c>
@@ -17727,11 +17818,11 @@
         <f>IF(EXACT(MAIN!$F240, ""), "", MAIN!$E240)</f>
         <v>47000000000237</v>
       </c>
-      <c r="C240" s="20" t="str">
+      <c r="C240" s="23" t="str">
         <f>IF(EXACT(MAIN!$F240, ""), "", MAIN!$B240)</f>
         <v>ikun</v>
       </c>
-      <c r="D240" s="20" t="str">
+      <c r="D240" s="23" t="str">
         <f>IF(EXACT(MAIN!$F240, ""), "", ""&amp;MAIN!$C240)</f>
         <v>Ikun M Soedrajat</v>
       </c>
@@ -17741,11 +17832,11 @@
         <f>IF(EXACT(MAIN!$F241, ""), "", MAIN!$E241)</f>
         <v>47000000000238</v>
       </c>
-      <c r="C241" s="20" t="str">
+      <c r="C241" s="23" t="str">
         <f>IF(EXACT(MAIN!$F241, ""), "", MAIN!$B241)</f>
         <v>firman</v>
       </c>
-      <c r="D241" s="20" t="str">
+      <c r="D241" s="23" t="str">
         <f>IF(EXACT(MAIN!$F241, ""), "", ""&amp;MAIN!$C241)</f>
         <v>Firman Akbar</v>
       </c>
@@ -17755,11 +17846,11 @@
         <f>IF(EXACT(MAIN!$F242, ""), "", MAIN!$E242)</f>
         <v>47000000000239</v>
       </c>
-      <c r="C242" s="20" t="str">
+      <c r="C242" s="23" t="str">
         <f>IF(EXACT(MAIN!$F242, ""), "", MAIN!$B242)</f>
         <v>rakman</v>
       </c>
-      <c r="D242" s="20" t="str">
+      <c r="D242" s="23" t="str">
         <f>IF(EXACT(MAIN!$F242, ""), "", ""&amp;MAIN!$C242)</f>
         <v>Rakman A Hadi</v>
       </c>
@@ -17769,11 +17860,11 @@
         <f>IF(EXACT(MAIN!$F243, ""), "", MAIN!$E243)</f>
         <v>47000000000240</v>
       </c>
-      <c r="C243" s="20" t="str">
+      <c r="C243" s="23" t="str">
         <f>IF(EXACT(MAIN!$F243, ""), "", MAIN!$B243)</f>
         <v>marten</v>
       </c>
-      <c r="D243" s="20" t="str">
+      <c r="D243" s="23" t="str">
         <f>IF(EXACT(MAIN!$F243, ""), "", ""&amp;MAIN!$C243)</f>
         <v>Marten Tabun</v>
       </c>
@@ -17783,11 +17874,11 @@
         <f>IF(EXACT(MAIN!$F244, ""), "", MAIN!$E244)</f>
         <v>47000000000241</v>
       </c>
-      <c r="C244" s="20" t="str">
+      <c r="C244" s="23" t="str">
         <f>IF(EXACT(MAIN!$F244, ""), "", MAIN!$B244)</f>
         <v>dudi</v>
       </c>
-      <c r="D244" s="20" t="str">
+      <c r="D244" s="23" t="str">
         <f>IF(EXACT(MAIN!$F244, ""), "", ""&amp;MAIN!$C244)</f>
         <v>Dudi Rustandi</v>
       </c>
@@ -17797,11 +17888,11 @@
         <f>IF(EXACT(MAIN!$F245, ""), "", MAIN!$E245)</f>
         <v>47000000000242</v>
       </c>
-      <c r="C245" s="20" t="str">
+      <c r="C245" s="23" t="str">
         <f>IF(EXACT(MAIN!$F245, ""), "", MAIN!$B245)</f>
         <v>saifulloh</v>
       </c>
-      <c r="D245" s="20" t="str">
+      <c r="D245" s="23" t="str">
         <f>IF(EXACT(MAIN!$F245, ""), "", ""&amp;MAIN!$C245)</f>
         <v>saifulloh</v>
       </c>
@@ -17811,11 +17902,11 @@
         <f>IF(EXACT(MAIN!$F246, ""), "", MAIN!$E246)</f>
         <v>47000000000243</v>
       </c>
-      <c r="C246" s="20" t="str">
+      <c r="C246" s="23" t="str">
         <f>IF(EXACT(MAIN!$F246, ""), "", MAIN!$B246)</f>
         <v>saifuloh</v>
       </c>
-      <c r="D246" s="20" t="str">
+      <c r="D246" s="23" t="str">
         <f>IF(EXACT(MAIN!$F246, ""), "", ""&amp;MAIN!$C246)</f>
         <v>saifuloh</v>
       </c>
@@ -17825,11 +17916,11 @@
         <f>IF(EXACT(MAIN!$F247, ""), "", MAIN!$E247)</f>
         <v>47000000000244</v>
       </c>
-      <c r="C247" s="20" t="str">
+      <c r="C247" s="23" t="str">
         <f>IF(EXACT(MAIN!$F247, ""), "", MAIN!$B247)</f>
         <v>liani</v>
       </c>
-      <c r="D247" s="20" t="str">
+      <c r="D247" s="23" t="str">
         <f>IF(EXACT(MAIN!$F247, ""), "", ""&amp;MAIN!$C247)</f>
         <v>Liani Atmaningrum</v>
       </c>
@@ -17839,11 +17930,11 @@
         <f>IF(EXACT(MAIN!$F248, ""), "", MAIN!$E248)</f>
         <v>47000000000245</v>
       </c>
-      <c r="C248" s="20" t="str">
+      <c r="C248" s="23" t="str">
         <f>IF(EXACT(MAIN!$F248, ""), "", MAIN!$B248)</f>
         <v>tompo</v>
       </c>
-      <c r="D248" s="20" t="str">
+      <c r="D248" s="23" t="str">
         <f>IF(EXACT(MAIN!$F248, ""), "", ""&amp;MAIN!$C248)</f>
         <v>Mohammad Arman Tompo</v>
       </c>
@@ -17853,11 +17944,11 @@
         <f>IF(EXACT(MAIN!$F249, ""), "", MAIN!$E249)</f>
         <v>47000000000246</v>
       </c>
-      <c r="C249" s="20" t="str">
+      <c r="C249" s="23" t="str">
         <f>IF(EXACT(MAIN!$F249, ""), "", MAIN!$B249)</f>
         <v>ida</v>
       </c>
-      <c r="D249" s="20" t="str">
+      <c r="D249" s="23" t="str">
         <f>IF(EXACT(MAIN!$F249, ""), "", ""&amp;MAIN!$C249)</f>
         <v>Ida Tri Wulaningsih</v>
       </c>
@@ -17867,11 +17958,11 @@
         <f>IF(EXACT(MAIN!$F250, ""), "", MAIN!$E250)</f>
         <v>47000000000247</v>
       </c>
-      <c r="C250" s="20" t="str">
+      <c r="C250" s="23" t="str">
         <f>IF(EXACT(MAIN!$F250, ""), "", MAIN!$B250)</f>
         <v>kiki</v>
       </c>
-      <c r="D250" s="20" t="str">
+      <c r="D250" s="23" t="str">
         <f>IF(EXACT(MAIN!$F250, ""), "", ""&amp;MAIN!$C250)</f>
         <v>Kiki Mustikawati</v>
       </c>
@@ -17881,11 +17972,11 @@
         <f>IF(EXACT(MAIN!$F251, ""), "", MAIN!$E251)</f>
         <v>47000000000248</v>
       </c>
-      <c r="C251" s="20" t="str">
+      <c r="C251" s="23" t="str">
         <f>IF(EXACT(MAIN!$F251, ""), "", MAIN!$B251)</f>
         <v>edyw</v>
       </c>
-      <c r="D251" s="20" t="str">
+      <c r="D251" s="23" t="str">
         <f>IF(EXACT(MAIN!$F251, ""), "", ""&amp;MAIN!$C251)</f>
         <v>Edy Putra Waskita</v>
       </c>
@@ -17895,11 +17986,11 @@
         <f>IF(EXACT(MAIN!$F252, ""), "", MAIN!$E252)</f>
         <v>47000000000249</v>
       </c>
-      <c r="C252" s="20" t="str">
+      <c r="C252" s="23" t="str">
         <f>IF(EXACT(MAIN!$F252, ""), "", MAIN!$B252)</f>
         <v>ramaizon</v>
       </c>
-      <c r="D252" s="20" t="str">
+      <c r="D252" s="23" t="str">
         <f>IF(EXACT(MAIN!$F252, ""), "", ""&amp;MAIN!$C252)</f>
         <v>Ramaizon</v>
       </c>
@@ -17909,11 +18000,11 @@
         <f>IF(EXACT(MAIN!$F253, ""), "", MAIN!$E253)</f>
         <v>47000000000250</v>
       </c>
-      <c r="C253" s="20" t="str">
+      <c r="C253" s="23" t="str">
         <f>IF(EXACT(MAIN!$F253, ""), "", MAIN!$B253)</f>
         <v>arifp</v>
       </c>
-      <c r="D253" s="20" t="str">
+      <c r="D253" s="23" t="str">
         <f>IF(EXACT(MAIN!$F253, ""), "", ""&amp;MAIN!$C253)</f>
         <v>Arif Prasetyo</v>
       </c>
@@ -17923,11 +18014,11 @@
         <f>IF(EXACT(MAIN!$F254, ""), "", MAIN!$E254)</f>
         <v>47000000000251</v>
       </c>
-      <c r="C254" s="20" t="str">
+      <c r="C254" s="23" t="str">
         <f>IF(EXACT(MAIN!$F254, ""), "", MAIN!$B254)</f>
         <v>murdiansyah</v>
       </c>
-      <c r="D254" s="20" t="str">
+      <c r="D254" s="23" t="str">
         <f>IF(EXACT(MAIN!$F254, ""), "", ""&amp;MAIN!$C254)</f>
         <v>murdiansyah</v>
       </c>
@@ -17937,11 +18028,11 @@
         <f>IF(EXACT(MAIN!$F255, ""), "", MAIN!$E255)</f>
         <v>47000000000252</v>
       </c>
-      <c r="C255" s="20" t="str">
+      <c r="C255" s="23" t="str">
         <f>IF(EXACT(MAIN!$F255, ""), "", MAIN!$B255)</f>
         <v>rifki</v>
       </c>
-      <c r="D255" s="20" t="str">
+      <c r="D255" s="23" t="str">
         <f>IF(EXACT(MAIN!$F255, ""), "", ""&amp;MAIN!$C255)</f>
         <v>rifki</v>
       </c>
@@ -17951,11 +18042,11 @@
         <f>IF(EXACT(MAIN!$F256, ""), "", MAIN!$E256)</f>
         <v>47000000000253</v>
       </c>
-      <c r="C256" s="20" t="str">
+      <c r="C256" s="23" t="str">
         <f>IF(EXACT(MAIN!$F256, ""), "", MAIN!$B256)</f>
         <v>elisa</v>
       </c>
-      <c r="D256" s="20" t="str">
+      <c r="D256" s="23" t="str">
         <f>IF(EXACT(MAIN!$F256, ""), "", ""&amp;MAIN!$C256)</f>
         <v>elisa</v>
       </c>
@@ -17965,11 +18056,11 @@
         <f>IF(EXACT(MAIN!$F257, ""), "", MAIN!$E257)</f>
         <v>47000000000254</v>
       </c>
-      <c r="C257" s="20" t="str">
+      <c r="C257" s="23" t="str">
         <f>IF(EXACT(MAIN!$F257, ""), "", MAIN!$B257)</f>
         <v>triyono</v>
       </c>
-      <c r="D257" s="20" t="str">
+      <c r="D257" s="23" t="str">
         <f>IF(EXACT(MAIN!$F257, ""), "", ""&amp;MAIN!$C257)</f>
         <v>triyono</v>
       </c>
@@ -17979,11 +18070,11 @@
         <f>IF(EXACT(MAIN!$F258, ""), "", MAIN!$E258)</f>
         <v>47000000000255</v>
       </c>
-      <c r="C258" s="20" t="str">
+      <c r="C258" s="23" t="str">
         <f>IF(EXACT(MAIN!$F258, ""), "", MAIN!$B258)</f>
         <v>monang</v>
       </c>
-      <c r="D258" s="20" t="str">
+      <c r="D258" s="23" t="str">
         <f>IF(EXACT(MAIN!$F258, ""), "", ""&amp;MAIN!$C258)</f>
         <v>Monang Simarmata</v>
       </c>
@@ -17993,11 +18084,11 @@
         <f>IF(EXACT(MAIN!$F259, ""), "", MAIN!$E259)</f>
         <v>47000000000256</v>
       </c>
-      <c r="C259" s="20" t="str">
+      <c r="C259" s="23" t="str">
         <f>IF(EXACT(MAIN!$F259, ""), "", MAIN!$B259)</f>
         <v>sandika</v>
       </c>
-      <c r="D259" s="20" t="str">
+      <c r="D259" s="23" t="str">
         <f>IF(EXACT(MAIN!$F259, ""), "", ""&amp;MAIN!$C259)</f>
         <v>sandika</v>
       </c>
@@ -18007,11 +18098,11 @@
         <f>IF(EXACT(MAIN!$F260, ""), "", MAIN!$E260)</f>
         <v>47000000000257</v>
       </c>
-      <c r="C260" s="20" t="str">
+      <c r="C260" s="23" t="str">
         <f>IF(EXACT(MAIN!$F260, ""), "", MAIN!$B260)</f>
         <v>utanto</v>
       </c>
-      <c r="D260" s="20" t="str">
+      <c r="D260" s="23" t="str">
         <f>IF(EXACT(MAIN!$F260, ""), "", ""&amp;MAIN!$C260)</f>
         <v>utanto</v>
       </c>
@@ -18021,11 +18112,11 @@
         <f>IF(EXACT(MAIN!$F261, ""), "", MAIN!$E261)</f>
         <v>47000000000258</v>
       </c>
-      <c r="C261" s="20" t="str">
+      <c r="C261" s="23" t="str">
         <f>IF(EXACT(MAIN!$F261, ""), "", MAIN!$B261)</f>
         <v>Aris</v>
       </c>
-      <c r="D261" s="20" t="str">
+      <c r="D261" s="23" t="str">
         <f>IF(EXACT(MAIN!$F261, ""), "", ""&amp;MAIN!$C261)</f>
         <v>Aris Widodo Pamungkas</v>
       </c>
@@ -18035,11 +18126,11 @@
         <f>IF(EXACT(MAIN!$F262, ""), "", MAIN!$E262)</f>
         <v>47000000000259</v>
       </c>
-      <c r="C262" s="20" t="str">
+      <c r="C262" s="23" t="str">
         <f>IF(EXACT(MAIN!$F262, ""), "", MAIN!$B262)</f>
         <v>yessi</v>
       </c>
-      <c r="D262" s="20" t="str">
+      <c r="D262" s="23" t="str">
         <f>IF(EXACT(MAIN!$F262, ""), "", ""&amp;MAIN!$C262)</f>
         <v>Yessi Setiarini</v>
       </c>
@@ -18049,11 +18140,11 @@
         <f>IF(EXACT(MAIN!$F263, ""), "", MAIN!$E263)</f>
         <v>47000000000260</v>
       </c>
-      <c r="C263" s="20" t="str">
+      <c r="C263" s="23" t="str">
         <f>IF(EXACT(MAIN!$F263, ""), "", MAIN!$B263)</f>
         <v>ari</v>
       </c>
-      <c r="D263" s="20" t="str">
+      <c r="D263" s="23" t="str">
         <f>IF(EXACT(MAIN!$F263, ""), "", ""&amp;MAIN!$C263)</f>
         <v>Ari Yuniasmono</v>
       </c>
@@ -18063,11 +18154,11 @@
         <f>IF(EXACT(MAIN!$F264, ""), "", MAIN!$E264)</f>
         <v>47000000000261</v>
       </c>
-      <c r="C264" s="20" t="str">
+      <c r="C264" s="23" t="str">
         <f>IF(EXACT(MAIN!$F264, ""), "", MAIN!$B264)</f>
         <v>rizanur</v>
       </c>
-      <c r="D264" s="20" t="str">
+      <c r="D264" s="23" t="str">
         <f>IF(EXACT(MAIN!$F264, ""), "", ""&amp;MAIN!$C264)</f>
         <v/>
       </c>
@@ -18077,11 +18168,11 @@
         <f>IF(EXACT(MAIN!$F265, ""), "", MAIN!$E265)</f>
         <v>47000000000262</v>
       </c>
-      <c r="C265" s="20" t="str">
+      <c r="C265" s="23" t="str">
         <f>IF(EXACT(MAIN!$F265, ""), "", MAIN!$B265)</f>
         <v>marciano</v>
       </c>
-      <c r="D265" s="20" t="str">
+      <c r="D265" s="23" t="str">
         <f>IF(EXACT(MAIN!$F265, ""), "", ""&amp;MAIN!$C265)</f>
         <v>Dedi Marciano Rizanur</v>
       </c>
@@ -18091,11 +18182,11 @@
         <f>IF(EXACT(MAIN!$F266, ""), "", MAIN!$E266)</f>
         <v>47000000000263</v>
       </c>
-      <c r="C266" s="20" t="str">
+      <c r="C266" s="23" t="str">
         <f>IF(EXACT(MAIN!$F266, ""), "", MAIN!$B266)</f>
         <v>uswatun</v>
       </c>
-      <c r="D266" s="20" t="str">
+      <c r="D266" s="23" t="str">
         <f>IF(EXACT(MAIN!$F266, ""), "", ""&amp;MAIN!$C266)</f>
         <v>Uswatun Khasanah</v>
       </c>
@@ -18105,11 +18196,11 @@
         <f>IF(EXACT(MAIN!$F267, ""), "", MAIN!$E267)</f>
         <v>47000000000264</v>
       </c>
-      <c r="C267" s="20" t="str">
+      <c r="C267" s="23" t="str">
         <f>IF(EXACT(MAIN!$F267, ""), "", MAIN!$B267)</f>
         <v>weldi</v>
       </c>
-      <c r="D267" s="20" t="str">
+      <c r="D267" s="23" t="str">
         <f>IF(EXACT(MAIN!$F267, ""), "", ""&amp;MAIN!$C267)</f>
         <v>Weldi Wimar</v>
       </c>
@@ -18119,11 +18210,11 @@
         <f>IF(EXACT(MAIN!$F268, ""), "", MAIN!$E268)</f>
         <v>47000000000265</v>
       </c>
-      <c r="C268" s="20" t="str">
+      <c r="C268" s="23" t="str">
         <f>IF(EXACT(MAIN!$F268, ""), "", MAIN!$B268)</f>
         <v>yorid</v>
       </c>
-      <c r="D268" s="20" t="str">
+      <c r="D268" s="23" t="str">
         <f>IF(EXACT(MAIN!$F268, ""), "", ""&amp;MAIN!$C268)</f>
         <v>Yorid Fae</v>
       </c>
@@ -18133,11 +18224,11 @@
         <f>IF(EXACT(MAIN!$F269, ""), "", MAIN!$E269)</f>
         <v>47000000000266</v>
       </c>
-      <c r="C269" s="20" t="str">
+      <c r="C269" s="23" t="str">
         <f>IF(EXACT(MAIN!$F269, ""), "", MAIN!$B269)</f>
         <v>tobing</v>
       </c>
-      <c r="D269" s="20" t="str">
+      <c r="D269" s="23" t="str">
         <f>IF(EXACT(MAIN!$F269, ""), "", ""&amp;MAIN!$C269)</f>
         <v>Saut MPL Tobing</v>
       </c>
@@ -18147,11 +18238,11 @@
         <f>IF(EXACT(MAIN!$F270, ""), "", MAIN!$E270)</f>
         <v>47000000000267</v>
       </c>
-      <c r="C270" s="20" t="str">
+      <c r="C270" s="23" t="str">
         <f>IF(EXACT(MAIN!$F270, ""), "", MAIN!$B270)</f>
         <v>widodo</v>
       </c>
-      <c r="D270" s="20" t="str">
+      <c r="D270" s="23" t="str">
         <f>IF(EXACT(MAIN!$F270, ""), "", ""&amp;MAIN!$C270)</f>
         <v>Wahyu Widodo</v>
       </c>
@@ -18161,11 +18252,11 @@
         <f>IF(EXACT(MAIN!$F271, ""), "", MAIN!$E271)</f>
         <v>47000000000268</v>
       </c>
-      <c r="C271" s="20" t="str">
+      <c r="C271" s="23" t="str">
         <f>IF(EXACT(MAIN!$F271, ""), "", MAIN!$B271)</f>
         <v>yunni</v>
       </c>
-      <c r="D271" s="20" t="str">
+      <c r="D271" s="23" t="str">
         <f>IF(EXACT(MAIN!$F271, ""), "", ""&amp;MAIN!$C271)</f>
         <v>Yunni Sazili</v>
       </c>
@@ -18175,11 +18266,11 @@
         <f>IF(EXACT(MAIN!$F272, ""), "", MAIN!$E272)</f>
         <v>47000000000269</v>
       </c>
-      <c r="C272" s="20" t="str">
+      <c r="C272" s="23" t="str">
         <f>IF(EXACT(MAIN!$F272, ""), "", MAIN!$B272)</f>
         <v>iswahyuni</v>
       </c>
-      <c r="D272" s="20" t="str">
+      <c r="D272" s="23" t="str">
         <f>IF(EXACT(MAIN!$F272, ""), "", ""&amp;MAIN!$C272)</f>
         <v>Iswahyuni</v>
       </c>
@@ -18189,11 +18280,11 @@
         <f>IF(EXACT(MAIN!$F273, ""), "", MAIN!$E273)</f>
         <v>47000000000270</v>
       </c>
-      <c r="C273" s="20" t="str">
+      <c r="C273" s="23" t="str">
         <f>IF(EXACT(MAIN!$F273, ""), "", MAIN!$B273)</f>
         <v>sobari</v>
       </c>
-      <c r="D273" s="20" t="str">
+      <c r="D273" s="23" t="str">
         <f>IF(EXACT(MAIN!$F273, ""), "", ""&amp;MAIN!$C273)</f>
         <v>Endang Sobari</v>
       </c>
@@ -18203,11 +18294,11 @@
         <f>IF(EXACT(MAIN!$F274, ""), "", MAIN!$E274)</f>
         <v>47000000000271</v>
       </c>
-      <c r="C274" s="20" t="str">
+      <c r="C274" s="23" t="str">
         <f>IF(EXACT(MAIN!$F274, ""), "", MAIN!$B274)</f>
         <v>edis</v>
       </c>
-      <c r="D274" s="20" t="str">
+      <c r="D274" s="23" t="str">
         <f>IF(EXACT(MAIN!$F274, ""), "", ""&amp;MAIN!$C274)</f>
         <v>Edi Siswanto</v>
       </c>
@@ -18217,11 +18308,11 @@
         <f>IF(EXACT(MAIN!$F275, ""), "", MAIN!$E275)</f>
         <v>47000000000272</v>
       </c>
-      <c r="C275" s="20" t="str">
+      <c r="C275" s="23" t="str">
         <f>IF(EXACT(MAIN!$F275, ""), "", MAIN!$B275)</f>
         <v>syahrizal</v>
       </c>
-      <c r="D275" s="20" t="str">
+      <c r="D275" s="23" t="str">
         <f>IF(EXACT(MAIN!$F275, ""), "", ""&amp;MAIN!$C275)</f>
         <v>Syahrizal</v>
       </c>
@@ -18231,11 +18322,11 @@
         <f>IF(EXACT(MAIN!$F276, ""), "", MAIN!$E276)</f>
         <v>47000000000273</v>
       </c>
-      <c r="C276" s="20" t="str">
+      <c r="C276" s="23" t="str">
         <f>IF(EXACT(MAIN!$F276, ""), "", MAIN!$B276)</f>
         <v>anton</v>
       </c>
-      <c r="D276" s="20" t="str">
+      <c r="D276" s="23" t="str">
         <f>IF(EXACT(MAIN!$F276, ""), "", ""&amp;MAIN!$C276)</f>
         <v>Anton Iryanto</v>
       </c>
@@ -18245,11 +18336,11 @@
         <f>IF(EXACT(MAIN!$F277, ""), "", MAIN!$E277)</f>
         <v>47000000000274</v>
       </c>
-      <c r="C277" s="20" t="str">
+      <c r="C277" s="23" t="str">
         <f>IF(EXACT(MAIN!$F277, ""), "", MAIN!$B277)</f>
         <v>chairul</v>
       </c>
-      <c r="D277" s="20" t="str">
+      <c r="D277" s="23" t="str">
         <f>IF(EXACT(MAIN!$F277, ""), "", ""&amp;MAIN!$C277)</f>
         <v>Chairul Musaddat</v>
       </c>
@@ -18259,11 +18350,11 @@
         <f>IF(EXACT(MAIN!$F278, ""), "", MAIN!$E278)</f>
         <v>47000000000275</v>
       </c>
-      <c r="C278" s="20" t="str">
+      <c r="C278" s="23" t="str">
         <f>IF(EXACT(MAIN!$F278, ""), "", MAIN!$B278)</f>
         <v>rere</v>
       </c>
-      <c r="D278" s="20" t="str">
+      <c r="D278" s="23" t="str">
         <f>IF(EXACT(MAIN!$F278, ""), "", ""&amp;MAIN!$C278)</f>
         <v>Rere Ronggolawe</v>
       </c>
@@ -18273,11 +18364,11 @@
         <f>IF(EXACT(MAIN!$F279, ""), "", MAIN!$E279)</f>
         <v>47000000000276</v>
       </c>
-      <c r="C279" s="20" t="str">
+      <c r="C279" s="23" t="str">
         <f>IF(EXACT(MAIN!$F279, ""), "", MAIN!$B279)</f>
         <v>ryan</v>
       </c>
-      <c r="D279" s="20" t="str">
+      <c r="D279" s="23" t="str">
         <f>IF(EXACT(MAIN!$F279, ""), "", ""&amp;MAIN!$C279)</f>
         <v>Ryan Bagus Sasminta</v>
       </c>
@@ -18287,11 +18378,11 @@
         <f>IF(EXACT(MAIN!$F280, ""), "", MAIN!$E280)</f>
         <v>47000000000277</v>
       </c>
-      <c r="C280" s="20" t="str">
+      <c r="C280" s="23" t="str">
         <f>IF(EXACT(MAIN!$F280, ""), "", MAIN!$B280)</f>
         <v>bela</v>
       </c>
-      <c r="D280" s="20" t="str">
+      <c r="D280" s="23" t="str">
         <f>IF(EXACT(MAIN!$F280, ""), "", ""&amp;MAIN!$C280)</f>
         <v>Bela Retmalantika</v>
       </c>
@@ -18301,11 +18392,11 @@
         <f>IF(EXACT(MAIN!$F281, ""), "", MAIN!$E281)</f>
         <v>47000000000278</v>
       </c>
-      <c r="C281" s="20" t="str">
+      <c r="C281" s="23" t="str">
         <f>IF(EXACT(MAIN!$F281, ""), "", MAIN!$B281)</f>
         <v>sinta</v>
       </c>
-      <c r="D281" s="20" t="str">
+      <c r="D281" s="23" t="str">
         <f>IF(EXACT(MAIN!$F281, ""), "", ""&amp;MAIN!$C281)</f>
         <v>Sinta Vera Trikawati</v>
       </c>
@@ -18315,11 +18406,11 @@
         <f>IF(EXACT(MAIN!$F282, ""), "", MAIN!$E282)</f>
         <v>47000000000279</v>
       </c>
-      <c r="C282" s="20" t="str">
+      <c r="C282" s="23" t="str">
         <f>IF(EXACT(MAIN!$F282, ""), "", MAIN!$B282)</f>
         <v>Redis</v>
       </c>
-      <c r="D282" s="20" t="str">
+      <c r="D282" s="23" t="str">
         <f>IF(EXACT(MAIN!$F282, ""), "", ""&amp;MAIN!$C282)</f>
         <v>Redi Setiadi</v>
       </c>
@@ -18329,11 +18420,11 @@
         <f>IF(EXACT(MAIN!$F283, ""), "", MAIN!$E283)</f>
         <v>47000000000280</v>
       </c>
-      <c r="C283" s="20" t="str">
+      <c r="C283" s="23" t="str">
         <f>IF(EXACT(MAIN!$F283, ""), "", MAIN!$B283)</f>
         <v>slamet</v>
       </c>
-      <c r="D283" s="20" t="str">
+      <c r="D283" s="23" t="str">
         <f>IF(EXACT(MAIN!$F283, ""), "", ""&amp;MAIN!$C283)</f>
         <v>Slamet Budi Setiawan</v>
       </c>
@@ -18343,11 +18434,11 @@
         <f>IF(EXACT(MAIN!$F284, ""), "", MAIN!$E284)</f>
         <v>47000000000281</v>
       </c>
-      <c r="C284" s="20" t="str">
+      <c r="C284" s="23" t="str">
         <f>IF(EXACT(MAIN!$F284, ""), "", MAIN!$B284)</f>
         <v>hendrik</v>
       </c>
-      <c r="D284" s="20" t="str">
+      <c r="D284" s="23" t="str">
         <f>IF(EXACT(MAIN!$F284, ""), "", ""&amp;MAIN!$C284)</f>
         <v>Hendrik</v>
       </c>
@@ -18357,11 +18448,11 @@
         <f>IF(EXACT(MAIN!$F285, ""), "", MAIN!$E285)</f>
         <v>47000000000282</v>
       </c>
-      <c r="C285" s="20" t="str">
+      <c r="C285" s="23" t="str">
         <f>IF(EXACT(MAIN!$F285, ""), "", MAIN!$B285)</f>
         <v>tamba</v>
       </c>
-      <c r="D285" s="20" t="str">
+      <c r="D285" s="23" t="str">
         <f>IF(EXACT(MAIN!$F285, ""), "", ""&amp;MAIN!$C285)</f>
         <v>Manutar Tamba</v>
       </c>
@@ -18371,11 +18462,11 @@
         <f>IF(EXACT(MAIN!$F286, ""), "", MAIN!$E286)</f>
         <v>47000000000283</v>
       </c>
-      <c r="C286" s="20" t="str">
+      <c r="C286" s="23" t="str">
         <f>IF(EXACT(MAIN!$F286, ""), "", MAIN!$B286)</f>
         <v>system_cron</v>
       </c>
-      <c r="D286" s="20" t="str">
+      <c r="D286" s="23" t="str">
         <f>IF(EXACT(MAIN!$F286, ""), "", ""&amp;MAIN!$C286)</f>
         <v>SYSTEM CRON</v>
       </c>
@@ -18385,11 +18476,11 @@
         <f>IF(EXACT(MAIN!$F287, ""), "", MAIN!$E287)</f>
         <v>47000000000284</v>
       </c>
-      <c r="C287" s="20" t="str">
+      <c r="C287" s="23" t="str">
         <f>IF(EXACT(MAIN!$F287, ""), "", MAIN!$B287)</f>
         <v>kusumowati</v>
       </c>
-      <c r="D287" s="20" t="str">
+      <c r="D287" s="23" t="str">
         <f>IF(EXACT(MAIN!$F287, ""), "", ""&amp;MAIN!$C287)</f>
         <v>Nur Kusumowati</v>
       </c>
@@ -18399,11 +18490,11 @@
         <f>IF(EXACT(MAIN!$F288, ""), "", MAIN!$E288)</f>
         <v>47000000000285</v>
       </c>
-      <c r="C288" s="20" t="str">
+      <c r="C288" s="23" t="str">
         <f>IF(EXACT(MAIN!$F288, ""), "", MAIN!$B288)</f>
         <v>ubaidillah</v>
       </c>
-      <c r="D288" s="20" t="str">
+      <c r="D288" s="23" t="str">
         <f>IF(EXACT(MAIN!$F288, ""), "", ""&amp;MAIN!$C288)</f>
         <v>Ubaidillah</v>
       </c>
@@ -18413,11 +18504,11 @@
         <f>IF(EXACT(MAIN!$F289, ""), "", MAIN!$E289)</f>
         <v>47000000000286</v>
       </c>
-      <c r="C289" s="20" t="str">
+      <c r="C289" s="23" t="str">
         <f>IF(EXACT(MAIN!$F289, ""), "", MAIN!$B289)</f>
         <v>iman</v>
       </c>
-      <c r="D289" s="20" t="str">
+      <c r="D289" s="23" t="str">
         <f>IF(EXACT(MAIN!$F289, ""), "", ""&amp;MAIN!$C289)</f>
         <v>Iman Hakiki</v>
       </c>
@@ -18427,11 +18518,11 @@
         <f>IF(EXACT(MAIN!$F290, ""), "", MAIN!$E290)</f>
         <v>47000000000287</v>
       </c>
-      <c r="C290" s="20" t="str">
+      <c r="C290" s="23" t="str">
         <f>IF(EXACT(MAIN!$F290, ""), "", MAIN!$B290)</f>
         <v>susilawati</v>
       </c>
-      <c r="D290" s="20" t="str">
+      <c r="D290" s="23" t="str">
         <f>IF(EXACT(MAIN!$F290, ""), "", ""&amp;MAIN!$C290)</f>
         <v>Susilawati</v>
       </c>
@@ -18441,11 +18532,11 @@
         <f>IF(EXACT(MAIN!$F291, ""), "", MAIN!$E291)</f>
         <v>47000000000288</v>
       </c>
-      <c r="C291" s="20" t="str">
+      <c r="C291" s="23" t="str">
         <f>IF(EXACT(MAIN!$F291, ""), "", MAIN!$B291)</f>
         <v>darsito</v>
       </c>
-      <c r="D291" s="20" t="str">
+      <c r="D291" s="23" t="str">
         <f>IF(EXACT(MAIN!$F291, ""), "", ""&amp;MAIN!$C291)</f>
         <v>Darsito</v>
       </c>
@@ -18455,11 +18546,11 @@
         <f>IF(EXACT(MAIN!$F292, ""), "", MAIN!$E292)</f>
         <v>47000000000289</v>
       </c>
-      <c r="C292" s="20" t="str">
+      <c r="C292" s="23" t="str">
         <f>IF(EXACT(MAIN!$F292, ""), "", MAIN!$B292)</f>
         <v>zafrizal</v>
       </c>
-      <c r="D292" s="20" t="str">
+      <c r="D292" s="23" t="str">
         <f>IF(EXACT(MAIN!$F292, ""), "", ""&amp;MAIN!$C292)</f>
         <v>zafrizal</v>
       </c>
@@ -18469,11 +18560,11 @@
         <f>IF(EXACT(MAIN!$F293, ""), "", MAIN!$E293)</f>
         <v>47000000000290</v>
       </c>
-      <c r="C293" s="20" t="str">
+      <c r="C293" s="23" t="str">
         <f>IF(EXACT(MAIN!$F293, ""), "", MAIN!$B293)</f>
         <v>manotar</v>
       </c>
-      <c r="D293" s="20" t="str">
+      <c r="D293" s="23" t="str">
         <f>IF(EXACT(MAIN!$F293, ""), "", ""&amp;MAIN!$C293)</f>
         <v>Manotar Tamba</v>
       </c>
@@ -18483,11 +18574,11 @@
         <f>IF(EXACT(MAIN!$F294, ""), "", MAIN!$E294)</f>
         <v>47000000000291</v>
       </c>
-      <c r="C294" s="20" t="str">
+      <c r="C294" s="23" t="str">
         <f>IF(EXACT(MAIN!$F294, ""), "", MAIN!$B294)</f>
         <v>surono</v>
       </c>
-      <c r="D294" s="20" t="str">
+      <c r="D294" s="23" t="str">
         <f>IF(EXACT(MAIN!$F294, ""), "", ""&amp;MAIN!$C294)</f>
         <v>Surono</v>
       </c>
@@ -18497,11 +18588,11 @@
         <f>IF(EXACT(MAIN!$F295, ""), "", MAIN!$E295)</f>
         <v>47000000000292</v>
       </c>
-      <c r="C295" s="20" t="str">
+      <c r="C295" s="23" t="str">
         <f>IF(EXACT(MAIN!$F295, ""), "", MAIN!$B295)</f>
         <v>suryadi</v>
       </c>
-      <c r="D295" s="20" t="str">
+      <c r="D295" s="23" t="str">
         <f>IF(EXACT(MAIN!$F295, ""), "", ""&amp;MAIN!$C295)</f>
         <v>Suryadi</v>
       </c>
@@ -18511,11 +18602,11 @@
         <f>IF(EXACT(MAIN!$F296, ""), "", MAIN!$E296)</f>
         <v>47000000000293</v>
       </c>
-      <c r="C296" s="20" t="str">
+      <c r="C296" s="23" t="str">
         <f>IF(EXACT(MAIN!$F296, ""), "", MAIN!$B296)</f>
         <v>raise</v>
       </c>
-      <c r="D296" s="20" t="str">
+      <c r="D296" s="23" t="str">
         <f>IF(EXACT(MAIN!$F296, ""), "", ""&amp;MAIN!$C296)</f>
         <v>Rais Indra Noor</v>
       </c>
@@ -18525,11 +18616,11 @@
         <f>IF(EXACT(MAIN!$F297, ""), "", MAIN!$E297)</f>
         <v>47000000000294</v>
       </c>
-      <c r="C297" s="20" t="str">
+      <c r="C297" s="23" t="str">
         <f>IF(EXACT(MAIN!$F297, ""), "", MAIN!$B297)</f>
         <v>faiz</v>
       </c>
-      <c r="D297" s="20" t="str">
+      <c r="D297" s="23" t="str">
         <f>IF(EXACT(MAIN!$F297, ""), "", ""&amp;MAIN!$C297)</f>
         <v>Faiz Haems</v>
       </c>
@@ -18539,11 +18630,11 @@
         <f>IF(EXACT(MAIN!$F298, ""), "", MAIN!$E298)</f>
         <v>47000000000295</v>
       </c>
-      <c r="C298" s="20" t="str">
+      <c r="C298" s="23" t="str">
         <f>IF(EXACT(MAIN!$F298, ""), "", MAIN!$B298)</f>
         <v>hendarto</v>
       </c>
-      <c r="D298" s="20" t="str">
+      <c r="D298" s="23" t="str">
         <f>IF(EXACT(MAIN!$F298, ""), "", ""&amp;MAIN!$C298)</f>
         <v>Agung Hendarto</v>
       </c>
@@ -18553,11 +18644,11 @@
         <f>IF(EXACT(MAIN!$F299, ""), "", MAIN!$E299)</f>
         <v>47000000000296</v>
       </c>
-      <c r="C299" s="20" t="str">
+      <c r="C299" s="23" t="str">
         <f>IF(EXACT(MAIN!$F299, ""), "", MAIN!$B299)</f>
         <v>denis</v>
       </c>
-      <c r="D299" s="20" t="str">
+      <c r="D299" s="23" t="str">
         <f>IF(EXACT(MAIN!$F299, ""), "", ""&amp;MAIN!$C299)</f>
         <v>Deni Setiawan</v>
       </c>
@@ -18567,11 +18658,11 @@
         <f>IF(EXACT(MAIN!$F300, ""), "", MAIN!$E300)</f>
         <v>47000000000297</v>
       </c>
-      <c r="C300" s="20" t="str">
+      <c r="C300" s="23" t="str">
         <f>IF(EXACT(MAIN!$F300, ""), "", MAIN!$B300)</f>
         <v>shobarin</v>
       </c>
-      <c r="D300" s="20" t="str">
+      <c r="D300" s="23" t="str">
         <f>IF(EXACT(MAIN!$F300, ""), "", ""&amp;MAIN!$C300)</f>
         <v>Shobarin Jabar</v>
       </c>
@@ -18581,11 +18672,11 @@
         <f>IF(EXACT(MAIN!$F301, ""), "", MAIN!$E301)</f>
         <v>47000000000298</v>
       </c>
-      <c r="C301" s="20" t="str">
+      <c r="C301" s="23" t="str">
         <f>IF(EXACT(MAIN!$F301, ""), "", MAIN!$B301)</f>
         <v>riandi</v>
       </c>
-      <c r="D301" s="20" t="str">
+      <c r="D301" s="23" t="str">
         <f>IF(EXACT(MAIN!$F301, ""), "", ""&amp;MAIN!$C301)</f>
         <v>Riandi</v>
       </c>
@@ -18595,11 +18686,11 @@
         <f>IF(EXACT(MAIN!$F302, ""), "", MAIN!$E302)</f>
         <v>47000000000299</v>
       </c>
-      <c r="C302" s="20" t="str">
+      <c r="C302" s="23" t="str">
         <f>IF(EXACT(MAIN!$F302, ""), "", MAIN!$B302)</f>
         <v>mulyadi</v>
       </c>
-      <c r="D302" s="20" t="str">
+      <c r="D302" s="23" t="str">
         <f>IF(EXACT(MAIN!$F302, ""), "", ""&amp;MAIN!$C302)</f>
         <v>Mulyadi</v>
       </c>
@@ -18609,11 +18700,11 @@
         <f>IF(EXACT(MAIN!$F303, ""), "", MAIN!$E303)</f>
         <v>47000000000300</v>
       </c>
-      <c r="C303" s="20" t="str">
+      <c r="C303" s="23" t="str">
         <f>IF(EXACT(MAIN!$F303, ""), "", MAIN!$B303)</f>
         <v>dedi</v>
       </c>
-      <c r="D303" s="20" t="str">
+      <c r="D303" s="23" t="str">
         <f>IF(EXACT(MAIN!$F303, ""), "", ""&amp;MAIN!$C303)</f>
         <v>Dedi Rianto</v>
       </c>
@@ -18623,11 +18714,11 @@
         <f>IF(EXACT(MAIN!$F304, ""), "", MAIN!$E304)</f>
         <v>47000000000301</v>
       </c>
-      <c r="C304" s="20" t="str">
+      <c r="C304" s="23" t="str">
         <f>IF(EXACT(MAIN!$F304, ""), "", MAIN!$B304)</f>
         <v>iyusd</v>
       </c>
-      <c r="D304" s="20" t="str">
+      <c r="D304" s="23" t="str">
         <f>IF(EXACT(MAIN!$F304, ""), "", ""&amp;MAIN!$C304)</f>
         <v>Iyus Darwin</v>
       </c>
@@ -18637,11 +18728,11 @@
         <f>IF(EXACT(MAIN!$F305, ""), "", MAIN!$E305)</f>
         <v>47000000000302</v>
       </c>
-      <c r="C305" s="20" t="str">
+      <c r="C305" s="23" t="str">
         <f>IF(EXACT(MAIN!$F305, ""), "", MAIN!$B305)</f>
         <v>yasirl</v>
       </c>
-      <c r="D305" s="20" t="str">
+      <c r="D305" s="23" t="str">
         <f>IF(EXACT(MAIN!$F305, ""), "", ""&amp;MAIN!$C305)</f>
         <v>Yasir Liem</v>
       </c>
@@ -18651,11 +18742,11 @@
         <f>IF(EXACT(MAIN!$F306, ""), "", MAIN!$E306)</f>
         <v>47000000000303</v>
       </c>
-      <c r="C306" s="20" t="str">
+      <c r="C306" s="23" t="str">
         <f>IF(EXACT(MAIN!$F306, ""), "", MAIN!$B306)</f>
         <v>zafrulloh</v>
       </c>
-      <c r="D306" s="20" t="str">
+      <c r="D306" s="23" t="str">
         <f>IF(EXACT(MAIN!$F306, ""), "", ""&amp;MAIN!$C306)</f>
         <v>Sir Muhammad Zafrulloh Khan</v>
       </c>
@@ -18665,11 +18756,11 @@
         <f>IF(EXACT(MAIN!$F307, ""), "", MAIN!$E307)</f>
         <v>47000000000304</v>
       </c>
-      <c r="C307" s="20" t="str">
+      <c r="C307" s="23" t="str">
         <f>IF(EXACT(MAIN!$F307, ""), "", MAIN!$B307)</f>
         <v>nawirl</v>
       </c>
-      <c r="D307" s="20" t="str">
+      <c r="D307" s="23" t="str">
         <f>IF(EXACT(MAIN!$F307, ""), "", ""&amp;MAIN!$C307)</f>
         <v>Nawir Lahamutu</v>
       </c>
@@ -18679,11 +18770,11 @@
         <f>IF(EXACT(MAIN!$F308, ""), "", MAIN!$E308)</f>
         <v>47000000000305</v>
       </c>
-      <c r="C308" s="20" t="str">
+      <c r="C308" s="23" t="str">
         <f>IF(EXACT(MAIN!$F308, ""), "", MAIN!$B308)</f>
         <v>swarj</v>
       </c>
-      <c r="D308" s="20" t="str">
+      <c r="D308" s="23" t="str">
         <f>IF(EXACT(MAIN!$F308, ""), "", ""&amp;MAIN!$C308)</f>
         <v>Swar Jono</v>
       </c>
@@ -18693,11 +18784,11 @@
         <f>IF(EXACT(MAIN!$F309, ""), "", MAIN!$E309)</f>
         <v>47000000000306</v>
       </c>
-      <c r="C309" s="20" t="str">
+      <c r="C309" s="23" t="str">
         <f>IF(EXACT(MAIN!$F309, ""), "", MAIN!$B309)</f>
         <v>hasan</v>
       </c>
-      <c r="D309" s="20" t="str">
+      <c r="D309" s="23" t="str">
         <f>IF(EXACT(MAIN!$F309, ""), "", ""&amp;MAIN!$C309)</f>
         <v>Hasan Gani</v>
       </c>
@@ -18707,11 +18798,11 @@
         <f>IF(EXACT(MAIN!$F310, ""), "", MAIN!$E310)</f>
         <v>47000000000307</v>
       </c>
-      <c r="C310" s="20" t="str">
+      <c r="C310" s="23" t="str">
         <f>IF(EXACT(MAIN!$F310, ""), "", MAIN!$B310)</f>
         <v>mustofa</v>
       </c>
-      <c r="D310" s="20" t="str">
+      <c r="D310" s="23" t="str">
         <f>IF(EXACT(MAIN!$F310, ""), "", ""&amp;MAIN!$C310)</f>
         <v>Imam Mustofa</v>
       </c>
@@ -18721,11 +18812,11 @@
         <f>IF(EXACT(MAIN!$F311, ""), "", MAIN!$E311)</f>
         <v>47000000000308</v>
       </c>
-      <c r="C311" s="20" t="str">
+      <c r="C311" s="23" t="str">
         <f>IF(EXACT(MAIN!$F311, ""), "", MAIN!$B311)</f>
         <v>jumino</v>
       </c>
-      <c r="D311" s="20" t="str">
+      <c r="D311" s="23" t="str">
         <f>IF(EXACT(MAIN!$F311, ""), "", ""&amp;MAIN!$C311)</f>
         <v>jumino</v>
       </c>
@@ -18735,11 +18826,11 @@
         <f>IF(EXACT(MAIN!$F312, ""), "", MAIN!$E312)</f>
         <v>47000000000309</v>
       </c>
-      <c r="C312" s="20" t="str">
+      <c r="C312" s="23" t="str">
         <f>IF(EXACT(MAIN!$F312, ""), "", MAIN!$B312)</f>
         <v>felpy</v>
       </c>
-      <c r="D312" s="20" t="str">
+      <c r="D312" s="23" t="str">
         <f>IF(EXACT(MAIN!$F312, ""), "", ""&amp;MAIN!$C312)</f>
         <v>Felpy</v>
       </c>
@@ -18749,11 +18840,11 @@
         <f>IF(EXACT(MAIN!$F313, ""), "", MAIN!$E313)</f>
         <v>47000000000310</v>
       </c>
-      <c r="C313" s="20" t="str">
+      <c r="C313" s="23" t="str">
         <f>IF(EXACT(MAIN!$F313, ""), "", MAIN!$B313)</f>
         <v>yuliandaru</v>
       </c>
-      <c r="D313" s="20" t="str">
+      <c r="D313" s="23" t="str">
         <f>IF(EXACT(MAIN!$F313, ""), "", ""&amp;MAIN!$C313)</f>
         <v>Yuliandaru Suryoatmodjo</v>
       </c>
@@ -18763,11 +18854,11 @@
         <f>IF(EXACT(MAIN!$F314, ""), "", MAIN!$E314)</f>
         <v>47000000000311</v>
       </c>
-      <c r="C314" s="20" t="str">
+      <c r="C314" s="23" t="str">
         <f>IF(EXACT(MAIN!$F314, ""), "", MAIN!$B314)</f>
         <v>awaludi</v>
       </c>
-      <c r="D314" s="20" t="str">
+      <c r="D314" s="23" t="str">
         <f>IF(EXACT(MAIN!$F314, ""), "", ""&amp;MAIN!$C314)</f>
         <v>awaludin</v>
       </c>
@@ -18777,11 +18868,11 @@
         <f>IF(EXACT(MAIN!$F315, ""), "", MAIN!$E315)</f>
         <v>47000000000312</v>
       </c>
-      <c r="C315" s="20" t="str">
+      <c r="C315" s="23" t="str">
         <f>IF(EXACT(MAIN!$F315, ""), "", MAIN!$B315)</f>
         <v>denny</v>
       </c>
-      <c r="D315" s="20" t="str">
+      <c r="D315" s="23" t="str">
         <f>IF(EXACT(MAIN!$F315, ""), "", ""&amp;MAIN!$C315)</f>
         <v>M Denny  Micrazudin</v>
       </c>
@@ -18791,11 +18882,11 @@
         <f>IF(EXACT(MAIN!$F316, ""), "", MAIN!$E316)</f>
         <v>47000000000313</v>
       </c>
-      <c r="C316" s="20" t="str">
+      <c r="C316" s="23" t="str">
         <f>IF(EXACT(MAIN!$F316, ""), "", MAIN!$B316)</f>
         <v>ambon</v>
       </c>
-      <c r="D316" s="20" t="str">
+      <c r="D316" s="23" t="str">
         <f>IF(EXACT(MAIN!$F316, ""), "", ""&amp;MAIN!$C316)</f>
         <v>Ambon Rumalean</v>
       </c>
@@ -18805,11 +18896,11 @@
         <f>IF(EXACT(MAIN!$F317, ""), "", MAIN!$E317)</f>
         <v>47000000000314</v>
       </c>
-      <c r="C317" s="20" t="str">
+      <c r="C317" s="23" t="str">
         <f>IF(EXACT(MAIN!$F317, ""), "", MAIN!$B317)</f>
         <v>nawal</v>
       </c>
-      <c r="D317" s="20" t="str">
+      <c r="D317" s="23" t="str">
         <f>IF(EXACT(MAIN!$F317, ""), "", ""&amp;MAIN!$C317)</f>
         <v>Nawal</v>
       </c>
@@ -18819,11 +18910,11 @@
         <f>IF(EXACT(MAIN!$F318, ""), "", MAIN!$E318)</f>
         <v>47000000000315</v>
       </c>
-      <c r="C318" s="20" t="str">
+      <c r="C318" s="23" t="str">
         <f>IF(EXACT(MAIN!$F318, ""), "", MAIN!$B318)</f>
         <v>miftakhul</v>
       </c>
-      <c r="D318" s="20" t="str">
+      <c r="D318" s="23" t="str">
         <f>IF(EXACT(MAIN!$F318, ""), "", ""&amp;MAIN!$C318)</f>
         <v>Miftakhul Muzakky</v>
       </c>
@@ -18833,11 +18924,11 @@
         <f>IF(EXACT(MAIN!$F319, ""), "", MAIN!$E319)</f>
         <v>47000000000316</v>
       </c>
-      <c r="C319" s="20" t="str">
+      <c r="C319" s="23" t="str">
         <f>IF(EXACT(MAIN!$F319, ""), "", MAIN!$B319)</f>
         <v>bambangp</v>
       </c>
-      <c r="D319" s="20" t="str">
+      <c r="D319" s="23" t="str">
         <f>IF(EXACT(MAIN!$F319, ""), "", ""&amp;MAIN!$C319)</f>
         <v>Bambang Prihatin</v>
       </c>
@@ -18847,11 +18938,11 @@
         <f>IF(EXACT(MAIN!$F320, ""), "", MAIN!$E320)</f>
         <v>47000000000317</v>
       </c>
-      <c r="C320" s="20" t="str">
+      <c r="C320" s="23" t="str">
         <f>IF(EXACT(MAIN!$F320, ""), "", MAIN!$B320)</f>
         <v>rizki</v>
       </c>
-      <c r="D320" s="20" t="str">
+      <c r="D320" s="23" t="str">
         <f>IF(EXACT(MAIN!$F320, ""), "", ""&amp;MAIN!$C320)</f>
         <v>Rizki Akbar</v>
       </c>
@@ -18861,11 +18952,11 @@
         <f>IF(EXACT(MAIN!$F321, ""), "", MAIN!$E321)</f>
         <v>47000000000318</v>
       </c>
-      <c r="C321" s="20" t="str">
+      <c r="C321" s="23" t="str">
         <f>IF(EXACT(MAIN!$F321, ""), "", MAIN!$B321)</f>
         <v>anshori</v>
       </c>
-      <c r="D321" s="20" t="str">
+      <c r="D321" s="23" t="str">
         <f>IF(EXACT(MAIN!$F321, ""), "", ""&amp;MAIN!$C321)</f>
         <v>Isa Anshori</v>
       </c>
@@ -18875,11 +18966,11 @@
         <f>IF(EXACT(MAIN!$F322, ""), "", MAIN!$E322)</f>
         <v>47000000000319</v>
       </c>
-      <c r="C322" s="20" t="str">
+      <c r="C322" s="23" t="str">
         <f>IF(EXACT(MAIN!$F322, ""), "", MAIN!$B322)</f>
         <v>ridwan</v>
       </c>
-      <c r="D322" s="20" t="str">
+      <c r="D322" s="23" t="str">
         <f>IF(EXACT(MAIN!$F322, ""), "", ""&amp;MAIN!$C322)</f>
         <v>Ridwan Nurhadi</v>
       </c>
@@ -18889,11 +18980,11 @@
         <f>IF(EXACT(MAIN!$F323, ""), "", MAIN!$E323)</f>
         <v>47000000000320</v>
       </c>
-      <c r="C323" s="20" t="str">
+      <c r="C323" s="23" t="str">
         <f>IF(EXACT(MAIN!$F323, ""), "", MAIN!$B323)</f>
         <v>budiman</v>
       </c>
-      <c r="D323" s="20" t="str">
+      <c r="D323" s="23" t="str">
         <f>IF(EXACT(MAIN!$F323, ""), "", ""&amp;MAIN!$C323)</f>
         <v>Budiman</v>
       </c>
@@ -18903,11 +18994,11 @@
         <f>IF(EXACT(MAIN!$F324, ""), "", MAIN!$E324)</f>
         <v>47000000000321</v>
       </c>
-      <c r="C324" s="20" t="str">
+      <c r="C324" s="23" t="str">
         <f>IF(EXACT(MAIN!$F324, ""), "", MAIN!$B324)</f>
         <v>frando</v>
       </c>
-      <c r="D324" s="20" t="str">
+      <c r="D324" s="23" t="str">
         <f>IF(EXACT(MAIN!$F324, ""), "", ""&amp;MAIN!$C324)</f>
         <v>Frando J Siahan</v>
       </c>
@@ -18917,11 +19008,11 @@
         <f>IF(EXACT(MAIN!$F325, ""), "", MAIN!$E325)</f>
         <v>47000000000322</v>
       </c>
-      <c r="C325" s="20" t="str">
+      <c r="C325" s="23" t="str">
         <f>IF(EXACT(MAIN!$F325, ""), "", MAIN!$B325)</f>
         <v>ares</v>
       </c>
-      <c r="D325" s="20" t="str">
+      <c r="D325" s="23" t="str">
         <f>IF(EXACT(MAIN!$F325, ""), "", ""&amp;MAIN!$C325)</f>
         <v>Ares S Mauboi</v>
       </c>
@@ -18931,11 +19022,11 @@
         <f>IF(EXACT(MAIN!$F326, ""), "", MAIN!$E326)</f>
         <v>47000000000323</v>
       </c>
-      <c r="C326" s="20" t="str">
+      <c r="C326" s="23" t="str">
         <f>IF(EXACT(MAIN!$F326, ""), "", MAIN!$B326)</f>
         <v>hadi</v>
       </c>
-      <c r="D326" s="20" t="str">
+      <c r="D326" s="23" t="str">
         <f>IF(EXACT(MAIN!$F326, ""), "", ""&amp;MAIN!$C326)</f>
         <v>Hadi Kasmuri</v>
       </c>
@@ -18945,11 +19036,11 @@
         <f>IF(EXACT(MAIN!$F327, ""), "", MAIN!$E327)</f>
         <v>47000000000324</v>
       </c>
-      <c r="C327" s="20" t="str">
+      <c r="C327" s="23" t="str">
         <f>IF(EXACT(MAIN!$F327, ""), "", MAIN!$B327)</f>
         <v>yusri</v>
       </c>
-      <c r="D327" s="20" t="str">
+      <c r="D327" s="23" t="str">
         <f>IF(EXACT(MAIN!$F327, ""), "", ""&amp;MAIN!$C327)</f>
         <v>Yusri Azhar</v>
       </c>
@@ -18959,11 +19050,11 @@
         <f>IF(EXACT(MAIN!$F328, ""), "", MAIN!$E328)</f>
         <v>47000000000325</v>
       </c>
-      <c r="C328" s="20" t="str">
+      <c r="C328" s="23" t="str">
         <f>IF(EXACT(MAIN!$F328, ""), "", MAIN!$B328)</f>
         <v>rusdi</v>
       </c>
-      <c r="D328" s="20" t="str">
+      <c r="D328" s="23" t="str">
         <f>IF(EXACT(MAIN!$F328, ""), "", ""&amp;MAIN!$C328)</f>
         <v>M Rusdi</v>
       </c>
@@ -18973,11 +19064,11 @@
         <f>IF(EXACT(MAIN!$F329, ""), "", MAIN!$E329)</f>
         <v>47000000000326</v>
       </c>
-      <c r="C329" s="20" t="str">
+      <c r="C329" s="23" t="str">
         <f>IF(EXACT(MAIN!$F329, ""), "", MAIN!$B329)</f>
         <v>syahputra</v>
       </c>
-      <c r="D329" s="20" t="str">
+      <c r="D329" s="23" t="str">
         <f>IF(EXACT(MAIN!$F329, ""), "", ""&amp;MAIN!$C329)</f>
         <v>Dedi Syahputra</v>
       </c>
@@ -18987,11 +19078,11 @@
         <f>IF(EXACT(MAIN!$F330, ""), "", MAIN!$E330)</f>
         <v>47000000000327</v>
       </c>
-      <c r="C330" s="20" t="str">
+      <c r="C330" s="23" t="str">
         <f>IF(EXACT(MAIN!$F330, ""), "", MAIN!$B330)</f>
         <v>kusnadi</v>
       </c>
-      <c r="D330" s="20" t="str">
+      <c r="D330" s="23" t="str">
         <f>IF(EXACT(MAIN!$F330, ""), "", ""&amp;MAIN!$C330)</f>
         <v>Dedi Kusnadi</v>
       </c>
@@ -19001,11 +19092,11 @@
         <f>IF(EXACT(MAIN!$F331, ""), "", MAIN!$E331)</f>
         <v>47000000000328</v>
       </c>
-      <c r="C331" s="20" t="str">
+      <c r="C331" s="23" t="str">
         <f>IF(EXACT(MAIN!$F331, ""), "", MAIN!$B331)</f>
         <v>thomsen</v>
       </c>
-      <c r="D331" s="20" t="str">
+      <c r="D331" s="23" t="str">
         <f>IF(EXACT(MAIN!$F331, ""), "", ""&amp;MAIN!$C331)</f>
         <v>Moritz Thomsen Marbun</v>
       </c>
@@ -19015,11 +19106,11 @@
         <f>IF(EXACT(MAIN!$F332, ""), "", MAIN!$E332)</f>
         <v>47000000000329</v>
       </c>
-      <c r="C332" s="20" t="str">
+      <c r="C332" s="23" t="str">
         <f>IF(EXACT(MAIN!$F332, ""), "", MAIN!$B332)</f>
         <v>aryoko</v>
       </c>
-      <c r="D332" s="20" t="str">
+      <c r="D332" s="23" t="str">
         <f>IF(EXACT(MAIN!$F332, ""), "", ""&amp;MAIN!$C332)</f>
         <v>Aryoko Sudiro</v>
       </c>
@@ -19029,11 +19120,11 @@
         <f>IF(EXACT(MAIN!$F333, ""), "", MAIN!$E333)</f>
         <v>47000000000330</v>
       </c>
-      <c r="C333" s="20" t="str">
+      <c r="C333" s="23" t="str">
         <f>IF(EXACT(MAIN!$F333, ""), "", MAIN!$B333)</f>
         <v>prayanti</v>
       </c>
-      <c r="D333" s="20" t="str">
+      <c r="D333" s="23" t="str">
         <f>IF(EXACT(MAIN!$F333, ""), "", ""&amp;MAIN!$C333)</f>
         <v>Prayanti Dewi Anggraini</v>
       </c>
@@ -19043,11 +19134,11 @@
         <f>IF(EXACT(MAIN!$F334, ""), "", MAIN!$E334)</f>
         <v>47000000000331</v>
       </c>
-      <c r="C334" s="20" t="str">
+      <c r="C334" s="23" t="str">
         <f>IF(EXACT(MAIN!$F334, ""), "", MAIN!$B334)</f>
         <v>ardita</v>
       </c>
-      <c r="D334" s="20" t="str">
+      <c r="D334" s="23" t="str">
         <f>IF(EXACT(MAIN!$F334, ""), "", ""&amp;MAIN!$C334)</f>
         <v>Ardita</v>
       </c>
@@ -19057,11 +19148,11 @@
         <f>IF(EXACT(MAIN!$F335, ""), "", MAIN!$E335)</f>
         <v>47000000000332</v>
       </c>
-      <c r="C335" s="20" t="str">
+      <c r="C335" s="23" t="str">
         <f>IF(EXACT(MAIN!$F335, ""), "", MAIN!$B335)</f>
         <v>pmQ135</v>
       </c>
-      <c r="D335" s="20" t="str">
+      <c r="D335" s="23" t="str">
         <f>IF(EXACT(MAIN!$F335, ""), "", ""&amp;MAIN!$C335)</f>
         <v>PM Q000135</v>
       </c>
@@ -19071,11 +19162,11 @@
         <f>IF(EXACT(MAIN!$F336, ""), "", MAIN!$E336)</f>
         <v>47000000000333</v>
       </c>
-      <c r="C336" s="20" t="str">
+      <c r="C336" s="23" t="str">
         <f>IF(EXACT(MAIN!$F336, ""), "", MAIN!$B336)</f>
         <v>nicky</v>
       </c>
-      <c r="D336" s="20" t="str">
+      <c r="D336" s="23" t="str">
         <f>IF(EXACT(MAIN!$F336, ""), "", ""&amp;MAIN!$C336)</f>
         <v>Nicky Kurnia</v>
       </c>
@@ -19085,11 +19176,11 @@
         <f>IF(EXACT(MAIN!$F337, ""), "", MAIN!$E337)</f>
         <v>47000000000334</v>
       </c>
-      <c r="C337" s="20" t="str">
+      <c r="C337" s="23" t="str">
         <f>IF(EXACT(MAIN!$F337, ""), "", MAIN!$B337)</f>
         <v>ardizah</v>
       </c>
-      <c r="D337" s="20" t="str">
+      <c r="D337" s="23" t="str">
         <f>IF(EXACT(MAIN!$F337, ""), "", ""&amp;MAIN!$C337)</f>
         <v>M Ari Ardizah Nasution</v>
       </c>
@@ -19099,11 +19190,11 @@
         <f>IF(EXACT(MAIN!$F338, ""), "", MAIN!$E338)</f>
         <v>47000000000335</v>
       </c>
-      <c r="C338" s="20" t="str">
+      <c r="C338" s="23" t="str">
         <f>IF(EXACT(MAIN!$F338, ""), "", MAIN!$B338)</f>
         <v>dadanh</v>
       </c>
-      <c r="D338" s="20" t="str">
+      <c r="D338" s="23" t="str">
         <f>IF(EXACT(MAIN!$F338, ""), "", ""&amp;MAIN!$C338)</f>
         <v>Dadan Hermawan</v>
       </c>
@@ -19113,11 +19204,11 @@
         <f>IF(EXACT(MAIN!$F339, ""), "", MAIN!$E339)</f>
         <v>47000000000336</v>
       </c>
-      <c r="C339" s="20" t="str">
+      <c r="C339" s="23" t="str">
         <f>IF(EXACT(MAIN!$F339, ""), "", MAIN!$B339)</f>
         <v>ardhi</v>
       </c>
-      <c r="D339" s="20" t="str">
+      <c r="D339" s="23" t="str">
         <f>IF(EXACT(MAIN!$F339, ""), "", ""&amp;MAIN!$C339)</f>
         <v>Ardhi Swasono</v>
       </c>
@@ -19127,11 +19218,11 @@
         <f>IF(EXACT(MAIN!$F340, ""), "", MAIN!$E340)</f>
         <v>47000000000337</v>
       </c>
-      <c r="C340" s="20" t="str">
+      <c r="C340" s="23" t="str">
         <f>IF(EXACT(MAIN!$F340, ""), "", MAIN!$B340)</f>
         <v>budip</v>
       </c>
-      <c r="D340" s="20" t="str">
+      <c r="D340" s="23" t="str">
         <f>IF(EXACT(MAIN!$F340, ""), "", ""&amp;MAIN!$C340)</f>
         <v>Budi Pranata Sinaga</v>
       </c>
@@ -19141,11 +19232,11 @@
         <f>IF(EXACT(MAIN!$F341, ""), "", MAIN!$E341)</f>
         <v>47000000000338</v>
       </c>
-      <c r="C341" s="20" t="str">
+      <c r="C341" s="23" t="str">
         <f>IF(EXACT(MAIN!$F341, ""), "", MAIN!$B341)</f>
         <v>midin</v>
       </c>
-      <c r="D341" s="20" t="str">
+      <c r="D341" s="23" t="str">
         <f>IF(EXACT(MAIN!$F341, ""), "", ""&amp;MAIN!$C341)</f>
         <v>Midin Ena</v>
       </c>
@@ -19155,11 +19246,11 @@
         <f>IF(EXACT(MAIN!$F342, ""), "", MAIN!$E342)</f>
         <v>47000000000339</v>
       </c>
-      <c r="C342" s="20" t="str">
+      <c r="C342" s="23" t="str">
         <f>IF(EXACT(MAIN!$F342, ""), "", MAIN!$B342)</f>
         <v>bardai</v>
       </c>
-      <c r="D342" s="20" t="str">
+      <c r="D342" s="23" t="str">
         <f>IF(EXACT(MAIN!$F342, ""), "", ""&amp;MAIN!$C342)</f>
         <v>Bardai</v>
       </c>
@@ -19169,11 +19260,11 @@
         <f>IF(EXACT(MAIN!$F343, ""), "", MAIN!$E343)</f>
         <v>47000000000340</v>
       </c>
-      <c r="C343" s="20" t="str">
+      <c r="C343" s="23" t="str">
         <f>IF(EXACT(MAIN!$F343, ""), "", MAIN!$B343)</f>
         <v>syafruddin</v>
       </c>
-      <c r="D343" s="20" t="str">
+      <c r="D343" s="23" t="str">
         <f>IF(EXACT(MAIN!$F343, ""), "", ""&amp;MAIN!$C343)</f>
         <v>Syafruddin</v>
       </c>
@@ -19183,11 +19274,11 @@
         <f>IF(EXACT(MAIN!$F344, ""), "", MAIN!$E344)</f>
         <v>47000000000341</v>
       </c>
-      <c r="C344" s="20" t="str">
+      <c r="C344" s="23" t="str">
         <f>IF(EXACT(MAIN!$F344, ""), "", MAIN!$B344)</f>
         <v>rizky</v>
       </c>
-      <c r="D344" s="20" t="str">
+      <c r="D344" s="23" t="str">
         <f>IF(EXACT(MAIN!$F344, ""), "", ""&amp;MAIN!$C344)</f>
         <v>Rizky Fauzy</v>
       </c>
@@ -19197,11 +19288,11 @@
         <f>IF(EXACT(MAIN!$F345, ""), "", MAIN!$E345)</f>
         <v>47000000000342</v>
       </c>
-      <c r="C345" s="20" t="str">
+      <c r="C345" s="23" t="str">
         <f>IF(EXACT(MAIN!$F345, ""), "", MAIN!$B345)</f>
         <v>imams</v>
       </c>
-      <c r="D345" s="20" t="str">
+      <c r="D345" s="23" t="str">
         <f>IF(EXACT(MAIN!$F345, ""), "", ""&amp;MAIN!$C345)</f>
         <v>Imam Safiiy</v>
       </c>
@@ -19211,11 +19302,11 @@
         <f>IF(EXACT(MAIN!$F346, ""), "", MAIN!$E346)</f>
         <v>47000000000343</v>
       </c>
-      <c r="C346" s="20" t="str">
+      <c r="C346" s="23" t="str">
         <f>IF(EXACT(MAIN!$F346, ""), "", MAIN!$B346)</f>
         <v>jimmy</v>
       </c>
-      <c r="D346" s="20" t="str">
+      <c r="D346" s="23" t="str">
         <f>IF(EXACT(MAIN!$F346, ""), "", ""&amp;MAIN!$C346)</f>
         <v>Jimmy Wal</v>
       </c>
@@ -19225,11 +19316,11 @@
         <f>IF(EXACT(MAIN!$F347, ""), "", MAIN!$E347)</f>
         <v>47000000000344</v>
       </c>
-      <c r="C347" s="20" t="str">
+      <c r="C347" s="23" t="str">
         <f>IF(EXACT(MAIN!$F347, ""), "", MAIN!$B347)</f>
         <v>budianto</v>
       </c>
-      <c r="D347" s="20" t="str">
+      <c r="D347" s="23" t="str">
         <f>IF(EXACT(MAIN!$F347, ""), "", ""&amp;MAIN!$C347)</f>
         <v>Budianto</v>
       </c>
@@ -19239,11 +19330,11 @@
         <f>IF(EXACT(MAIN!$F348, ""), "", MAIN!$E348)</f>
         <v>47000000000345</v>
       </c>
-      <c r="C348" s="20" t="str">
+      <c r="C348" s="23" t="str">
         <f>IF(EXACT(MAIN!$F348, ""), "", MAIN!$B348)</f>
         <v>rio</v>
       </c>
-      <c r="D348" s="20" t="str">
+      <c r="D348" s="23" t="str">
         <f>IF(EXACT(MAIN!$F348, ""), "", ""&amp;MAIN!$C348)</f>
         <v>Rio Hakim</v>
       </c>
@@ -19253,11 +19344,11 @@
         <f>IF(EXACT(MAIN!$F349, ""), "", MAIN!$E349)</f>
         <v>47000000000346</v>
       </c>
-      <c r="C349" s="20" t="str">
+      <c r="C349" s="23" t="str">
         <f>IF(EXACT(MAIN!$F349, ""), "", MAIN!$B349)</f>
         <v>nasrul</v>
       </c>
-      <c r="D349" s="20" t="str">
+      <c r="D349" s="23" t="str">
         <f>IF(EXACT(MAIN!$F349, ""), "", ""&amp;MAIN!$C349)</f>
         <v>Nasrul Anwar P</v>
       </c>
@@ -19267,11 +19358,11 @@
         <f>IF(EXACT(MAIN!$F350, ""), "", MAIN!$E350)</f>
         <v>47000000000347</v>
       </c>
-      <c r="C350" s="20" t="str">
+      <c r="C350" s="23" t="str">
         <f>IF(EXACT(MAIN!$F350, ""), "", MAIN!$B350)</f>
         <v>syaiful</v>
       </c>
-      <c r="D350" s="20" t="str">
+      <c r="D350" s="23" t="str">
         <f>IF(EXACT(MAIN!$F350, ""), "", ""&amp;MAIN!$C350)</f>
         <v>Syaiful Idjam</v>
       </c>
@@ -19281,11 +19372,11 @@
         <f>IF(EXACT(MAIN!$F351, ""), "", MAIN!$E351)</f>
         <v>47000000000348</v>
       </c>
-      <c r="C351" s="20" t="str">
+      <c r="C351" s="23" t="str">
         <f>IF(EXACT(MAIN!$F351, ""), "", MAIN!$B351)</f>
         <v>yudo</v>
       </c>
-      <c r="D351" s="20" t="str">
+      <c r="D351" s="23" t="str">
         <f>IF(EXACT(MAIN!$F351, ""), "", ""&amp;MAIN!$C351)</f>
         <v>Yudo Jati Rahmat Satrio</v>
       </c>
@@ -19295,11 +19386,11 @@
         <f>IF(EXACT(MAIN!$F352, ""), "", MAIN!$E352)</f>
         <v>47000000000349</v>
       </c>
-      <c r="C352" s="20" t="str">
+      <c r="C352" s="23" t="str">
         <f>IF(EXACT(MAIN!$F352, ""), "", MAIN!$B352)</f>
         <v>mursalim</v>
       </c>
-      <c r="D352" s="20" t="str">
+      <c r="D352" s="23" t="str">
         <f>IF(EXACT(MAIN!$F352, ""), "", ""&amp;MAIN!$C352)</f>
         <v>Mursalim</v>
       </c>
@@ -19309,11 +19400,11 @@
         <f>IF(EXACT(MAIN!$F353, ""), "", MAIN!$E353)</f>
         <v>47000000000350</v>
       </c>
-      <c r="C353" s="20" t="str">
+      <c r="C353" s="23" t="str">
         <f>IF(EXACT(MAIN!$F353, ""), "", MAIN!$B353)</f>
         <v>aditya</v>
       </c>
-      <c r="D353" s="20" t="str">
+      <c r="D353" s="23" t="str">
         <f>IF(EXACT(MAIN!$F353, ""), "", ""&amp;MAIN!$C353)</f>
         <v>Aditya Yudha Prawira</v>
       </c>
@@ -19323,11 +19414,11 @@
         <f>IF(EXACT(MAIN!$F354, ""), "", MAIN!$E354)</f>
         <v>47000000000351</v>
       </c>
-      <c r="C354" s="20" t="str">
+      <c r="C354" s="23" t="str">
         <f>IF(EXACT(MAIN!$F354, ""), "", MAIN!$B354)</f>
         <v>siska</v>
       </c>
-      <c r="D354" s="20" t="str">
+      <c r="D354" s="23" t="str">
         <f>IF(EXACT(MAIN!$F354, ""), "", ""&amp;MAIN!$C354)</f>
         <v>Siska Marlina</v>
       </c>
@@ -19337,11 +19428,11 @@
         <f>IF(EXACT(MAIN!$F355, ""), "", MAIN!$E355)</f>
         <v>47000000000352</v>
       </c>
-      <c r="C355" s="20" t="str">
+      <c r="C355" s="23" t="str">
         <f>IF(EXACT(MAIN!$F355, ""), "", MAIN!$B355)</f>
         <v>melati</v>
       </c>
-      <c r="D355" s="20" t="str">
+      <c r="D355" s="23" t="str">
         <f>IF(EXACT(MAIN!$F355, ""), "", ""&amp;MAIN!$C355)</f>
         <v>Nur Indra Sri Melati</v>
       </c>
@@ -19351,11 +19442,11 @@
         <f>IF(EXACT(MAIN!$F356, ""), "", MAIN!$E356)</f>
         <v>47000000000353</v>
       </c>
-      <c r="C356" s="20" t="str">
+      <c r="C356" s="23" t="str">
         <f>IF(EXACT(MAIN!$F356, ""), "", MAIN!$B356)</f>
         <v>marcella</v>
       </c>
-      <c r="D356" s="20" t="str">
+      <c r="D356" s="23" t="str">
         <f>IF(EXACT(MAIN!$F356, ""), "", ""&amp;MAIN!$C356)</f>
         <v>Marcella Avia Ramadhinaningrum</v>
       </c>
@@ -19365,11 +19456,11 @@
         <f>IF(EXACT(MAIN!$F357, ""), "", MAIN!$E357)</f>
         <v>47000000000354</v>
       </c>
-      <c r="C357" s="20" t="str">
+      <c r="C357" s="23" t="str">
         <f>IF(EXACT(MAIN!$F357, ""), "", MAIN!$B357)</f>
         <v>jaruli</v>
       </c>
-      <c r="D357" s="20" t="str">
+      <c r="D357" s="23" t="str">
         <f>IF(EXACT(MAIN!$F357, ""), "", ""&amp;MAIN!$C357)</f>
         <v>Jaruli Samosir</v>
       </c>
@@ -19379,11 +19470,11 @@
         <f>IF(EXACT(MAIN!$F358, ""), "", MAIN!$E358)</f>
         <v>47000000000355</v>
       </c>
-      <c r="C358" s="20" t="str">
+      <c r="C358" s="23" t="str">
         <f>IF(EXACT(MAIN!$F358, ""), "", MAIN!$B358)</f>
         <v>ari priwarsono</v>
       </c>
-      <c r="D358" s="20" t="str">
+      <c r="D358" s="23" t="str">
         <f>IF(EXACT(MAIN!$F358, ""), "", ""&amp;MAIN!$C358)</f>
         <v>Ari Priwarsono</v>
       </c>
@@ -19393,11 +19484,11 @@
         <f>IF(EXACT(MAIN!$F359, ""), "", MAIN!$E359)</f>
         <v>47000000000356</v>
       </c>
-      <c r="C359" s="20" t="str">
+      <c r="C359" s="23" t="str">
         <f>IF(EXACT(MAIN!$F359, ""), "", MAIN!$B359)</f>
         <v>susanto</v>
       </c>
-      <c r="D359" s="20" t="str">
+      <c r="D359" s="23" t="str">
         <f>IF(EXACT(MAIN!$F359, ""), "", ""&amp;MAIN!$C359)</f>
         <v>Teguh Susanto</v>
       </c>
@@ -19407,11 +19498,11 @@
         <f>IF(EXACT(MAIN!$F360, ""), "", MAIN!$E360)</f>
         <v>47000000000357</v>
       </c>
-      <c r="C360" s="20" t="str">
+      <c r="C360" s="23" t="str">
         <f>IF(EXACT(MAIN!$F360, ""), "", MAIN!$B360)</f>
         <v>juan</v>
       </c>
-      <c r="D360" s="20" t="str">
+      <c r="D360" s="23" t="str">
         <f>IF(EXACT(MAIN!$F360, ""), "", ""&amp;MAIN!$C360)</f>
         <v>Juan Talitha</v>
       </c>
@@ -19421,11 +19512,11 @@
         <f>IF(EXACT(MAIN!$F361, ""), "", MAIN!$E361)</f>
         <v>47000000000358</v>
       </c>
-      <c r="C361" s="20" t="str">
+      <c r="C361" s="23" t="str">
         <f>IF(EXACT(MAIN!$F361, ""), "", MAIN!$B361)</f>
         <v>rachmad</v>
       </c>
-      <c r="D361" s="20" t="str">
+      <c r="D361" s="23" t="str">
         <f>IF(EXACT(MAIN!$F361, ""), "", ""&amp;MAIN!$C361)</f>
         <v>Rachmad</v>
       </c>
@@ -19435,11 +19526,11 @@
         <f>IF(EXACT(MAIN!$F362, ""), "", MAIN!$E362)</f>
         <v>47000000000359</v>
       </c>
-      <c r="C362" s="20" t="str">
+      <c r="C362" s="23" t="str">
         <f>IF(EXACT(MAIN!$F362, ""), "", MAIN!$B362)</f>
         <v>radjiman</v>
       </c>
-      <c r="D362" s="20" t="str">
+      <c r="D362" s="23" t="str">
         <f>IF(EXACT(MAIN!$F362, ""), "", ""&amp;MAIN!$C362)</f>
         <v>Radjiman</v>
       </c>
@@ -19449,11 +19540,11 @@
         <f>IF(EXACT(MAIN!$F363, ""), "", MAIN!$E363)</f>
         <v>47000000000360</v>
       </c>
-      <c r="C363" s="20" t="str">
+      <c r="C363" s="23" t="str">
         <f>IF(EXACT(MAIN!$F363, ""), "", MAIN!$B363)</f>
         <v>soleh</v>
       </c>
-      <c r="D363" s="20" t="str">
+      <c r="D363" s="23" t="str">
         <f>IF(EXACT(MAIN!$F363, ""), "", ""&amp;MAIN!$C363)</f>
         <v>Mat Soleh</v>
       </c>
@@ -19463,11 +19554,11 @@
         <f>IF(EXACT(MAIN!$F364, ""), "", MAIN!$E364)</f>
         <v>47000000000361</v>
       </c>
-      <c r="C364" s="20" t="str">
+      <c r="C364" s="23" t="str">
         <f>IF(EXACT(MAIN!$F364, ""), "", MAIN!$B364)</f>
         <v>binsar</v>
       </c>
-      <c r="D364" s="20" t="str">
+      <c r="D364" s="23" t="str">
         <f>IF(EXACT(MAIN!$F364, ""), "", ""&amp;MAIN!$C364)</f>
         <v>Binsar</v>
       </c>
@@ -19477,11 +19568,11 @@
         <f>IF(EXACT(MAIN!$F365, ""), "", MAIN!$E365)</f>
         <v>47000000000362</v>
       </c>
-      <c r="C365" s="20" t="str">
+      <c r="C365" s="23" t="str">
         <f>IF(EXACT(MAIN!$F365, ""), "", MAIN!$B365)</f>
         <v>karim</v>
       </c>
-      <c r="D365" s="20" t="str">
+      <c r="D365" s="23" t="str">
         <f>IF(EXACT(MAIN!$F365, ""), "", ""&amp;MAIN!$C365)</f>
         <v>Abdul Karim</v>
       </c>
@@ -19491,11 +19582,11 @@
         <f>IF(EXACT(MAIN!$F366, ""), "", MAIN!$E366)</f>
         <v>47000000000363</v>
       </c>
-      <c r="C366" s="20" t="str">
+      <c r="C366" s="23" t="str">
         <f>IF(EXACT(MAIN!$F366, ""), "", MAIN!$B366)</f>
         <v>cahyaningrum</v>
       </c>
-      <c r="D366" s="20" t="str">
+      <c r="D366" s="23" t="str">
         <f>IF(EXACT(MAIN!$F366, ""), "", ""&amp;MAIN!$C366)</f>
         <v>Cahyaningrum Widiastuti</v>
       </c>
@@ -19505,11 +19596,11 @@
         <f>IF(EXACT(MAIN!$F367, ""), "", MAIN!$E367)</f>
         <v>47000000000364</v>
       </c>
-      <c r="C367" s="20" t="str">
+      <c r="C367" s="23" t="str">
         <f>IF(EXACT(MAIN!$F367, ""), "", MAIN!$B367)</f>
         <v>icha</v>
       </c>
-      <c r="D367" s="20" t="str">
+      <c r="D367" s="23" t="str">
         <f>IF(EXACT(MAIN!$F367, ""), "", ""&amp;MAIN!$C367)</f>
         <v>Icha Mailinda</v>
       </c>
@@ -19519,11 +19610,11 @@
         <f>IF(EXACT(MAIN!$F368, ""), "", MAIN!$E368)</f>
         <v>47000000000365</v>
       </c>
-      <c r="C368" s="20" t="str">
+      <c r="C368" s="23" t="str">
         <f>IF(EXACT(MAIN!$F368, ""), "", MAIN!$B368)</f>
         <v>annisa</v>
       </c>
-      <c r="D368" s="20" t="str">
+      <c r="D368" s="23" t="str">
         <f>IF(EXACT(MAIN!$F368, ""), "", ""&amp;MAIN!$C368)</f>
         <v>Cahyaning Annisa</v>
       </c>
@@ -19533,11 +19624,11 @@
         <f>IF(EXACT(MAIN!$F369, ""), "", MAIN!$E369)</f>
         <v>47000000000366</v>
       </c>
-      <c r="C369" s="20" t="str">
+      <c r="C369" s="23" t="str">
         <f>IF(EXACT(MAIN!$F369, ""), "", MAIN!$B369)</f>
         <v>yahya</v>
       </c>
-      <c r="D369" s="20" t="str">
+      <c r="D369" s="23" t="str">
         <f>IF(EXACT(MAIN!$F369, ""), "", ""&amp;MAIN!$C369)</f>
         <v>Yahya Adyasa Febriansyah</v>
       </c>
@@ -19547,11 +19638,11 @@
         <f>IF(EXACT(MAIN!$F370, ""), "", MAIN!$E370)</f>
         <v>47000000000367</v>
       </c>
-      <c r="C370" s="20" t="str">
+      <c r="C370" s="23" t="str">
         <f>IF(EXACT(MAIN!$F370, ""), "", MAIN!$B370)</f>
         <v>haikal</v>
       </c>
-      <c r="D370" s="20" t="str">
+      <c r="D370" s="23" t="str">
         <f>IF(EXACT(MAIN!$F370, ""), "", ""&amp;MAIN!$C370)</f>
         <v>Haikal</v>
       </c>
@@ -19561,11 +19652,11 @@
         <f>IF(EXACT(MAIN!$F371, ""), "", MAIN!$E371)</f>
         <v>47000000000368</v>
       </c>
-      <c r="C371" s="20" t="str">
+      <c r="C371" s="23" t="str">
         <f>IF(EXACT(MAIN!$F371, ""), "", MAIN!$B371)</f>
         <v>febriyanto</v>
       </c>
-      <c r="D371" s="20" t="str">
+      <c r="D371" s="23" t="str">
         <f>IF(EXACT(MAIN!$F371, ""), "", ""&amp;MAIN!$C371)</f>
         <v>Febriyanto Ahdiat</v>
       </c>
@@ -19575,11 +19666,11 @@
         <f>IF(EXACT(MAIN!$F372, ""), "", MAIN!$E372)</f>
         <v>47000000000369</v>
       </c>
-      <c r="C372" s="20" t="str">
+      <c r="C372" s="23" t="str">
         <f>IF(EXACT(MAIN!$F372, ""), "", MAIN!$B372)</f>
         <v>urbanus</v>
       </c>
-      <c r="D372" s="20" t="str">
+      <c r="D372" s="23" t="str">
         <f>IF(EXACT(MAIN!$F372, ""), "", ""&amp;MAIN!$C372)</f>
         <v>Urbanus</v>
       </c>
@@ -19589,11 +19680,11 @@
         <f>IF(EXACT(MAIN!$F373, ""), "", MAIN!$E373)</f>
         <v>47000000000370</v>
       </c>
-      <c r="C373" s="20" t="str">
+      <c r="C373" s="23" t="str">
         <f>IF(EXACT(MAIN!$F373, ""), "", MAIN!$B373)</f>
         <v>siswanto</v>
       </c>
-      <c r="D373" s="20" t="str">
+      <c r="D373" s="23" t="str">
         <f>IF(EXACT(MAIN!$F373, ""), "", ""&amp;MAIN!$C373)</f>
         <v>Siswanto</v>
       </c>
@@ -19603,11 +19694,11 @@
         <f>IF(EXACT(MAIN!$F374, ""), "", MAIN!$E374)</f>
         <v>47000000000371</v>
       </c>
-      <c r="C374" s="20" t="str">
+      <c r="C374" s="23" t="str">
         <f>IF(EXACT(MAIN!$F374, ""), "", MAIN!$B374)</f>
         <v>prayati</v>
       </c>
-      <c r="D374" s="20" t="str">
+      <c r="D374" s="23" t="str">
         <f>IF(EXACT(MAIN!$F374, ""), "", ""&amp;MAIN!$C374)</f>
         <v>Prayati Zai</v>
       </c>
@@ -19617,11 +19708,11 @@
         <f>IF(EXACT(MAIN!$F375, ""), "", MAIN!$E375)</f>
         <v>47000000000372</v>
       </c>
-      <c r="C375" s="20" t="str">
+      <c r="C375" s="23" t="str">
         <f>IF(EXACT(MAIN!$F375, ""), "", MAIN!$B375)</f>
         <v>willy</v>
       </c>
-      <c r="D375" s="20" t="str">
+      <c r="D375" s="23" t="str">
         <f>IF(EXACT(MAIN!$F375, ""), "", ""&amp;MAIN!$C375)</f>
         <v>Willy Indarto</v>
       </c>
@@ -19631,11 +19722,11 @@
         <f>IF(EXACT(MAIN!$F376, ""), "", MAIN!$E376)</f>
         <v>47000000000373</v>
       </c>
-      <c r="C376" s="20" t="str">
+      <c r="C376" s="23" t="str">
         <f>IF(EXACT(MAIN!$F376, ""), "", MAIN!$B376)</f>
         <v>junaedi</v>
       </c>
-      <c r="D376" s="20" t="str">
+      <c r="D376" s="23" t="str">
         <f>IF(EXACT(MAIN!$F376, ""), "", ""&amp;MAIN!$C376)</f>
         <v>Junaedi</v>
       </c>
@@ -19645,11 +19736,11 @@
         <f>IF(EXACT(MAIN!$F377, ""), "", MAIN!$E377)</f>
         <v>47000000000374</v>
       </c>
-      <c r="C377" s="20" t="str">
+      <c r="C377" s="23" t="str">
         <f>IF(EXACT(MAIN!$F377, ""), "", MAIN!$B377)</f>
         <v>caesarandi</v>
       </c>
-      <c r="D377" s="20" t="str">
+      <c r="D377" s="23" t="str">
         <f>IF(EXACT(MAIN!$F377, ""), "", ""&amp;MAIN!$C377)</f>
         <v>Fikri Caesarandi</v>
       </c>
@@ -19659,11 +19750,11 @@
         <f>IF(EXACT(MAIN!$F378, ""), "", MAIN!$E378)</f>
         <v>47000000000375</v>
       </c>
-      <c r="C378" s="20" t="str">
+      <c r="C378" s="23" t="str">
         <f>IF(EXACT(MAIN!$F378, ""), "", MAIN!$B378)</f>
         <v>tantriani</v>
       </c>
-      <c r="D378" s="20" t="str">
+      <c r="D378" s="23" t="str">
         <f>IF(EXACT(MAIN!$F378, ""), "", ""&amp;MAIN!$C378)</f>
         <v>Sakinah Tantriani</v>
       </c>
@@ -19673,11 +19764,11 @@
         <f>IF(EXACT(MAIN!$F379, ""), "", MAIN!$E379)</f>
         <v>47000000000376</v>
       </c>
-      <c r="C379" s="20" t="str">
+      <c r="C379" s="23" t="str">
         <f>IF(EXACT(MAIN!$F379, ""), "", MAIN!$B379)</f>
         <v>dianf</v>
       </c>
-      <c r="D379" s="20" t="str">
+      <c r="D379" s="23" t="str">
         <f>IF(EXACT(MAIN!$F379, ""), "", ""&amp;MAIN!$C379)</f>
         <v>Dian Firdaus</v>
       </c>
@@ -19687,11 +19778,11 @@
         <f>IF(EXACT(MAIN!$F380, ""), "", MAIN!$E380)</f>
         <v>47000000000377</v>
       </c>
-      <c r="C380" s="20" t="str">
+      <c r="C380" s="23" t="str">
         <f>IF(EXACT(MAIN!$F380, ""), "", MAIN!$B380)</f>
         <v>uswatunh</v>
       </c>
-      <c r="D380" s="20" t="str">
+      <c r="D380" s="23" t="str">
         <f>IF(EXACT(MAIN!$F380, ""), "", ""&amp;MAIN!$C380)</f>
         <v>uswatun hasamah</v>
       </c>
@@ -19701,11 +19792,11 @@
         <f>IF(EXACT(MAIN!$F381, ""), "", MAIN!$E381)</f>
         <v>47000000000378</v>
       </c>
-      <c r="C381" s="20" t="str">
+      <c r="C381" s="23" t="str">
         <f>IF(EXACT(MAIN!$F381, ""), "", MAIN!$B381)</f>
         <v>hidayatul</v>
       </c>
-      <c r="D381" s="20" t="str">
+      <c r="D381" s="23" t="str">
         <f>IF(EXACT(MAIN!$F381, ""), "", ""&amp;MAIN!$C381)</f>
         <v>sarif hidayatul umah</v>
       </c>
@@ -19715,11 +19806,11 @@
         <f>IF(EXACT(MAIN!$F382, ""), "", MAIN!$E382)</f>
         <v>47000000000379</v>
       </c>
-      <c r="C382" s="20" t="str">
+      <c r="C382" s="23" t="str">
         <f>IF(EXACT(MAIN!$F382, ""), "", MAIN!$B382)</f>
         <v>abdul</v>
       </c>
-      <c r="D382" s="20" t="str">
+      <c r="D382" s="23" t="str">
         <f>IF(EXACT(MAIN!$F382, ""), "", ""&amp;MAIN!$C382)</f>
         <v>Abdul Rahman Sitompul</v>
       </c>
@@ -19729,11 +19820,11 @@
         <f>IF(EXACT(MAIN!$F383, ""), "", MAIN!$E383)</f>
         <v>47000000000380</v>
       </c>
-      <c r="C383" s="20" t="str">
+      <c r="C383" s="23" t="str">
         <f>IF(EXACT(MAIN!$F383, ""), "", MAIN!$B383)</f>
         <v>Abdollah</v>
       </c>
-      <c r="D383" s="20" t="str">
+      <c r="D383" s="23" t="str">
         <f>IF(EXACT(MAIN!$F383, ""), "", ""&amp;MAIN!$C383)</f>
         <v>Abdollah Syani Siregar</v>
       </c>
@@ -19743,11 +19834,11 @@
         <f>IF(EXACT(MAIN!$F384, ""), "", MAIN!$E384)</f>
         <v>47000000000381</v>
       </c>
-      <c r="C384" s="20" t="str">
+      <c r="C384" s="23" t="str">
         <f>IF(EXACT(MAIN!$F384, ""), "", MAIN!$B384)</f>
         <v>ervan</v>
       </c>
-      <c r="D384" s="20" t="str">
+      <c r="D384" s="23" t="str">
         <f>IF(EXACT(MAIN!$F384, ""), "", ""&amp;MAIN!$C384)</f>
         <v>M. Ervan Isyawal Akbar</v>
       </c>
@@ -19757,11 +19848,11 @@
         <f>IF(EXACT(MAIN!$F385, ""), "", MAIN!$E385)</f>
         <v>47000000000382</v>
       </c>
-      <c r="C385" s="20" t="str">
+      <c r="C385" s="23" t="str">
         <f>IF(EXACT(MAIN!$F385, ""), "", MAIN!$B385)</f>
         <v>erfananda</v>
       </c>
-      <c r="D385" s="20" t="str">
+      <c r="D385" s="23" t="str">
         <f>IF(EXACT(MAIN!$F385, ""), "", ""&amp;MAIN!$C385)</f>
         <v>Erfananda Rasyid</v>
       </c>
@@ -19771,11 +19862,11 @@
         <f>IF(EXACT(MAIN!$F386, ""), "", MAIN!$E386)</f>
         <v>47000000000383</v>
       </c>
-      <c r="C386" s="20" t="str">
+      <c r="C386" s="23" t="str">
         <f>IF(EXACT(MAIN!$F386, ""), "", MAIN!$B386)</f>
         <v>arif</v>
       </c>
-      <c r="D386" s="20" t="str">
+      <c r="D386" s="23" t="str">
         <f>IF(EXACT(MAIN!$F386, ""), "", ""&amp;MAIN!$C386)</f>
         <v>Arif Gunawan</v>
       </c>
@@ -19785,11 +19876,11 @@
         <f>IF(EXACT(MAIN!$F387, ""), "", MAIN!$E387)</f>
         <v>47000000000384</v>
       </c>
-      <c r="C387" s="20" t="str">
+      <c r="C387" s="23" t="str">
         <f>IF(EXACT(MAIN!$F387, ""), "", MAIN!$B387)</f>
         <v>elsa</v>
       </c>
-      <c r="D387" s="20" t="str">
+      <c r="D387" s="23" t="str">
         <f>IF(EXACT(MAIN!$F387, ""), "", ""&amp;MAIN!$C387)</f>
         <v>Elsa Jayanti</v>
       </c>
@@ -19799,11 +19890,11 @@
         <f>IF(EXACT(MAIN!$F388, ""), "", MAIN!$E388)</f>
         <v>47000000000385</v>
       </c>
-      <c r="C388" s="20" t="str">
+      <c r="C388" s="23" t="str">
         <f>IF(EXACT(MAIN!$F388, ""), "", MAIN!$B388)</f>
         <v>hamdanz</v>
       </c>
-      <c r="D388" s="20" t="str">
+      <c r="D388" s="23" t="str">
         <f>IF(EXACT(MAIN!$F388, ""), "", ""&amp;MAIN!$C388)</f>
         <v>Muhamad Hamdan Rifai</v>
       </c>
@@ -19813,11 +19904,11 @@
         <f>IF(EXACT(MAIN!$F389, ""), "", MAIN!$E389)</f>
         <v>47000000000386</v>
       </c>
-      <c r="C389" s="20" t="str">
+      <c r="C389" s="23" t="str">
         <f>IF(EXACT(MAIN!$F389, ""), "", MAIN!$B389)</f>
         <v>rizkyr</v>
       </c>
-      <c r="D389" s="20" t="str">
+      <c r="D389" s="23" t="str">
         <f>IF(EXACT(MAIN!$F389, ""), "", ""&amp;MAIN!$C389)</f>
         <v>Rizky Reza Pradipta</v>
       </c>
@@ -19827,11 +19918,11 @@
         <f>IF(EXACT(MAIN!$F390, ""), "", MAIN!$E390)</f>
         <v>47000000000387</v>
       </c>
-      <c r="C390" s="20" t="str">
+      <c r="C390" s="23" t="str">
         <f>IF(EXACT(MAIN!$F390, ""), "", MAIN!$B390)</f>
         <v>nora</v>
       </c>
-      <c r="D390" s="20" t="str">
+      <c r="D390" s="23" t="str">
         <f>IF(EXACT(MAIN!$F390, ""), "", ""&amp;MAIN!$C390)</f>
         <v>nora meilissa</v>
       </c>
@@ -19841,11 +19932,11 @@
         <f>IF(EXACT(MAIN!$F391, ""), "", MAIN!$E391)</f>
         <v>47000000000388</v>
       </c>
-      <c r="C391" s="20" t="str">
+      <c r="C391" s="23" t="str">
         <f>IF(EXACT(MAIN!$F391, ""), "", MAIN!$B391)</f>
         <v>rahmatsirfano</v>
       </c>
-      <c r="D391" s="20" t="str">
+      <c r="D391" s="23" t="str">
         <f>IF(EXACT(MAIN!$F391, ""), "", ""&amp;MAIN!$C391)</f>
         <v>Rahmat Sirfano</v>
       </c>
@@ -19855,11 +19946,11 @@
         <f>IF(EXACT(MAIN!$F392, ""), "", MAIN!$E392)</f>
         <v>47000000000389</v>
       </c>
-      <c r="C392" s="20" t="str">
+      <c r="C392" s="23" t="str">
         <f>IF(EXACT(MAIN!$F392, ""), "", MAIN!$B392)</f>
         <v>wahyupra</v>
       </c>
-      <c r="D392" s="20" t="str">
+      <c r="D392" s="23" t="str">
         <f>IF(EXACT(MAIN!$F392, ""), "", ""&amp;MAIN!$C392)</f>
         <v>Wahyu</v>
       </c>
@@ -19869,11 +19960,11 @@
         <f>IF(EXACT(MAIN!$F393, ""), "", MAIN!$E393)</f>
         <v>47000000000390</v>
       </c>
-      <c r="C393" s="20" t="str">
+      <c r="C393" s="23" t="str">
         <f>IF(EXACT(MAIN!$F393, ""), "", MAIN!$B393)</f>
         <v>ariosg</v>
       </c>
-      <c r="D393" s="20" t="str">
+      <c r="D393" s="23" t="str">
         <f>IF(EXACT(MAIN!$F393, ""), "", ""&amp;MAIN!$C393)</f>
         <v>Ario Setyo Gunawan</v>
       </c>
@@ -19883,11 +19974,11 @@
         <f>IF(EXACT(MAIN!$F394, ""), "", MAIN!$E394)</f>
         <v>47000000000391</v>
       </c>
-      <c r="C394" s="20" t="str">
+      <c r="C394" s="23" t="str">
         <f>IF(EXACT(MAIN!$F394, ""), "", MAIN!$B394)</f>
         <v>yosefh</v>
       </c>
-      <c r="D394" s="20" t="str">
+      <c r="D394" s="23" t="str">
         <f>IF(EXACT(MAIN!$F394, ""), "", ""&amp;MAIN!$C394)</f>
         <v>Yosef Hang Wan</v>
       </c>
@@ -19897,11 +19988,11 @@
         <f>IF(EXACT(MAIN!$F395, ""), "", MAIN!$E395)</f>
         <v>47000000000392</v>
       </c>
-      <c r="C395" s="20" t="str">
+      <c r="C395" s="23" t="str">
         <f>IF(EXACT(MAIN!$F395, ""), "", MAIN!$B395)</f>
         <v>maradona</v>
       </c>
-      <c r="D395" s="20" t="str">
+      <c r="D395" s="23" t="str">
         <f>IF(EXACT(MAIN!$F395, ""), "", ""&amp;MAIN!$C395)</f>
         <v>Maradona Manurung</v>
       </c>
@@ -19911,11 +20002,11 @@
         <f>IF(EXACT(MAIN!$F396, ""), "", MAIN!$E396)</f>
         <v>47000000000393</v>
       </c>
-      <c r="C396" s="20" t="str">
+      <c r="C396" s="23" t="str">
         <f>IF(EXACT(MAIN!$F396, ""), "", MAIN!$B396)</f>
         <v>hervian</v>
       </c>
-      <c r="D396" s="20" t="str">
+      <c r="D396" s="23" t="str">
         <f>IF(EXACT(MAIN!$F396, ""), "", ""&amp;MAIN!$C396)</f>
         <v>Hervian Bagus Saputra</v>
       </c>
@@ -19925,11 +20016,11 @@
         <f>IF(EXACT(MAIN!$F397, ""), "", MAIN!$E397)</f>
         <v>47000000000394</v>
       </c>
-      <c r="C397" s="20" t="str">
+      <c r="C397" s="23" t="str">
         <f>IF(EXACT(MAIN!$F397, ""), "", MAIN!$B397)</f>
         <v>arfah</v>
       </c>
-      <c r="D397" s="20" t="str">
+      <c r="D397" s="23" t="str">
         <f>IF(EXACT(MAIN!$F397, ""), "", ""&amp;MAIN!$C397)</f>
         <v>Arfah Hanum</v>
       </c>
@@ -19939,11 +20030,11 @@
         <f>IF(EXACT(MAIN!$F398, ""), "", MAIN!$E398)</f>
         <v>47000000000395</v>
       </c>
-      <c r="C398" s="20" t="str">
+      <c r="C398" s="23" t="str">
         <f>IF(EXACT(MAIN!$F398, ""), "", MAIN!$B398)</f>
         <v>sugeng</v>
       </c>
-      <c r="D398" s="20" t="str">
+      <c r="D398" s="23" t="str">
         <f>IF(EXACT(MAIN!$F398, ""), "", ""&amp;MAIN!$C398)</f>
         <v>Sugeng Ismanto</v>
       </c>
@@ -19953,11 +20044,11 @@
         <f>IF(EXACT(MAIN!$F399, ""), "", MAIN!$E399)</f>
         <v>47000000000396</v>
       </c>
-      <c r="C399" s="20" t="str">
+      <c r="C399" s="23" t="str">
         <f>IF(EXACT(MAIN!$F399, ""), "", MAIN!$B399)</f>
         <v>mia.puspitasari</v>
       </c>
-      <c r="D399" s="20" t="str">
+      <c r="D399" s="23" t="str">
         <f>IF(EXACT(MAIN!$F399, ""), "", ""&amp;MAIN!$C399)</f>
         <v>Mia Puspitasari</v>
       </c>
@@ -19967,11 +20058,11 @@
         <f>IF(EXACT(MAIN!$F400, ""), "", MAIN!$E400)</f>
         <v>47000000000397</v>
       </c>
-      <c r="C400" s="20" t="str">
+      <c r="C400" s="23" t="str">
         <f>IF(EXACT(MAIN!$F400, ""), "", MAIN!$B400)</f>
         <v>panca.yudi</v>
       </c>
-      <c r="D400" s="20" t="str">
+      <c r="D400" s="23" t="str">
         <f>IF(EXACT(MAIN!$F400, ""), "", ""&amp;MAIN!$C400)</f>
         <v>Panca Yudi Baskoro</v>
       </c>
@@ -19981,11 +20072,11 @@
         <f>IF(EXACT(MAIN!$F401, ""), "", MAIN!$E401)</f>
         <v>47000000000398</v>
       </c>
-      <c r="C401" s="20" t="str">
+      <c r="C401" s="23" t="str">
         <f>IF(EXACT(MAIN!$F401, ""), "", MAIN!$B401)</f>
         <v>ilham.arisyandy</v>
       </c>
-      <c r="D401" s="20" t="str">
+      <c r="D401" s="23" t="str">
         <f>IF(EXACT(MAIN!$F401, ""), "", ""&amp;MAIN!$C401)</f>
         <v>Ilham Arisyandy</v>
       </c>
@@ -19995,11 +20086,11 @@
         <f>IF(EXACT(MAIN!$F402, ""), "", MAIN!$E402)</f>
         <v>47000000000399</v>
       </c>
-      <c r="C402" s="20" t="str">
+      <c r="C402" s="23" t="str">
         <f>IF(EXACT(MAIN!$F402, ""), "", MAIN!$B402)</f>
         <v>ilham</v>
       </c>
-      <c r="D402" s="20" t="str">
+      <c r="D402" s="23" t="str">
         <f>IF(EXACT(MAIN!$F402, ""), "", ""&amp;MAIN!$C402)</f>
         <v>Ilham Ilham</v>
       </c>
@@ -20009,11 +20100,11 @@
         <f>IF(EXACT(MAIN!$F403, ""), "", MAIN!$E403)</f>
         <v>47000000000400</v>
       </c>
-      <c r="C403" s="20" t="str">
+      <c r="C403" s="23" t="str">
         <f>IF(EXACT(MAIN!$F403, ""), "", MAIN!$B403)</f>
         <v>rohendi</v>
       </c>
-      <c r="D403" s="20" t="str">
+      <c r="D403" s="23" t="str">
         <f>IF(EXACT(MAIN!$F403, ""), "", ""&amp;MAIN!$C403)</f>
         <v>Rohendi Rohendi</v>
       </c>
@@ -20023,11 +20114,11 @@
         <f>IF(EXACT(MAIN!$F404, ""), "", MAIN!$E404)</f>
         <v>47000000000401</v>
       </c>
-      <c r="C404" s="20" t="str">
+      <c r="C404" s="23" t="str">
         <f>IF(EXACT(MAIN!$F404, ""), "", MAIN!$B404)</f>
         <v>ulman</v>
       </c>
-      <c r="D404" s="20" t="str">
+      <c r="D404" s="23" t="str">
         <f>IF(EXACT(MAIN!$F404, ""), "", ""&amp;MAIN!$C404)</f>
         <v>Ulman Juanda</v>
       </c>
@@ -20037,11 +20128,11 @@
         <f>IF(EXACT(MAIN!$F405, ""), "", MAIN!$E405)</f>
         <v>47000000000402</v>
       </c>
-      <c r="C405" s="20" t="str">
+      <c r="C405" s="23" t="str">
         <f>IF(EXACT(MAIN!$F405, ""), "", MAIN!$B405)</f>
         <v>Deddy</v>
       </c>
-      <c r="D405" s="20" t="str">
+      <c r="D405" s="23" t="str">
         <f>IF(EXACT(MAIN!$F405, ""), "", ""&amp;MAIN!$C405)</f>
         <v>Deddy Rochman</v>
       </c>
@@ -20051,11 +20142,11 @@
         <f>IF(EXACT(MAIN!$F406, ""), "", MAIN!$E406)</f>
         <v>47000000000403</v>
       </c>
-      <c r="C406" s="20" t="str">
+      <c r="C406" s="23" t="str">
         <f>IF(EXACT(MAIN!$F406, ""), "", MAIN!$B406)</f>
         <v>adli</v>
       </c>
-      <c r="D406" s="20" t="str">
+      <c r="D406" s="23" t="str">
         <f>IF(EXACT(MAIN!$F406, ""), "", ""&amp;MAIN!$C406)</f>
         <v>Adli Margie</v>
       </c>
@@ -20065,11 +20156,11 @@
         <f>IF(EXACT(MAIN!$F407, ""), "", MAIN!$E407)</f>
         <v>47000000000404</v>
       </c>
-      <c r="C407" s="20" t="str">
+      <c r="C407" s="23" t="str">
         <f>IF(EXACT(MAIN!$F407, ""), "", MAIN!$B407)</f>
         <v>pristu</v>
       </c>
-      <c r="D407" s="20" t="str">
+      <c r="D407" s="23" t="str">
         <f>IF(EXACT(MAIN!$F407, ""), "", ""&amp;MAIN!$C407)</f>
         <v>Pristu Andonoto</v>
       </c>
@@ -20079,11 +20170,11 @@
         <f>IF(EXACT(MAIN!$F408, ""), "", MAIN!$E408)</f>
         <v>47000000000405</v>
       </c>
-      <c r="C408" s="20" t="str">
+      <c r="C408" s="23" t="str">
         <f>IF(EXACT(MAIN!$F408, ""), "", MAIN!$B408)</f>
         <v>dwijoko</v>
       </c>
-      <c r="D408" s="20" t="str">
+      <c r="D408" s="23" t="str">
         <f>IF(EXACT(MAIN!$F408, ""), "", ""&amp;MAIN!$C408)</f>
         <v>Dwi Joko</v>
       </c>
@@ -20093,11 +20184,11 @@
         <f>IF(EXACT(MAIN!$F409, ""), "", MAIN!$E409)</f>
         <v>47000000000406</v>
       </c>
-      <c r="C409" s="20" t="str">
+      <c r="C409" s="23" t="str">
         <f>IF(EXACT(MAIN!$F409, ""), "", MAIN!$B409)</f>
         <v>teguh.pratama</v>
       </c>
-      <c r="D409" s="20" t="str">
+      <c r="D409" s="23" t="str">
         <f>IF(EXACT(MAIN!$F409, ""), "", ""&amp;MAIN!$C409)</f>
         <v>Teguh Pratama</v>
       </c>
@@ -20107,11 +20198,11 @@
         <f>IF(EXACT(MAIN!$F410, ""), "", MAIN!$E410)</f>
         <v>47000000000407</v>
       </c>
-      <c r="C410" s="20" t="str">
+      <c r="C410" s="23" t="str">
         <f>IF(EXACT(MAIN!$F410, ""), "", MAIN!$B410)</f>
         <v>uthmaniah</v>
       </c>
-      <c r="D410" s="20" t="str">
+      <c r="D410" s="23" t="str">
         <f>IF(EXACT(MAIN!$F410, ""), "", ""&amp;MAIN!$C410)</f>
         <v>Maharani Uthmaniah</v>
       </c>
@@ -20121,11 +20212,11 @@
         <f>IF(EXACT(MAIN!$F411, ""), "", MAIN!$E411)</f>
         <v>47000000000408</v>
       </c>
-      <c r="C411" s="20" t="str">
+      <c r="C411" s="23" t="str">
         <f>IF(EXACT(MAIN!$F411, ""), "", MAIN!$B411)</f>
         <v>sena.andi</v>
       </c>
-      <c r="D411" s="20" t="str">
+      <c r="D411" s="23" t="str">
         <f>IF(EXACT(MAIN!$F411, ""), "", ""&amp;MAIN!$C411)</f>
         <v>Sena Andi Satria</v>
       </c>
@@ -20135,11 +20226,11 @@
         <f>IF(EXACT(MAIN!$F412, ""), "", MAIN!$E412)</f>
         <v>47000000000409</v>
       </c>
-      <c r="C412" s="20" t="str">
+      <c r="C412" s="23" t="str">
         <f>IF(EXACT(MAIN!$F412, ""), "", MAIN!$B412)</f>
         <v>mulia.rohanson</v>
       </c>
-      <c r="D412" s="20" t="str">
+      <c r="D412" s="23" t="str">
         <f>IF(EXACT(MAIN!$F412, ""), "", ""&amp;MAIN!$C412)</f>
         <v>Mulia Rohanson Harahap</v>
       </c>
@@ -20149,11 +20240,11 @@
         <f>IF(EXACT(MAIN!$F413, ""), "", MAIN!$E413)</f>
         <v>47000000000410</v>
       </c>
-      <c r="C413" s="20" t="str">
+      <c r="C413" s="23" t="str">
         <f>IF(EXACT(MAIN!$F413, ""), "", MAIN!$B413)</f>
         <v>riki.evindra</v>
       </c>
-      <c r="D413" s="20" t="str">
+      <c r="D413" s="23" t="str">
         <f>IF(EXACT(MAIN!$F413, ""), "", ""&amp;MAIN!$C413)</f>
         <v>Riki Evindra</v>
       </c>
@@ -20163,11 +20254,11 @@
         <f>IF(EXACT(MAIN!$F414, ""), "", MAIN!$E414)</f>
         <v>47000000000411</v>
       </c>
-      <c r="C414" s="20" t="str">
+      <c r="C414" s="23" t="str">
         <f>IF(EXACT(MAIN!$F414, ""), "", MAIN!$B414)</f>
         <v>nurhamsach</v>
       </c>
-      <c r="D414" s="20" t="str">
+      <c r="D414" s="23" t="str">
         <f>IF(EXACT(MAIN!$F414, ""), "", ""&amp;MAIN!$C414)</f>
         <v>Muhamad Nurhamsach</v>
       </c>
@@ -20177,11 +20268,11 @@
         <f>IF(EXACT(MAIN!$F415, ""), "", MAIN!$E415)</f>
         <v>47000000000412</v>
       </c>
-      <c r="C415" s="20" t="str">
+      <c r="C415" s="23" t="str">
         <f>IF(EXACT(MAIN!$F415, ""), "", MAIN!$B415)</f>
         <v>veradita.yulanda</v>
       </c>
-      <c r="D415" s="20" t="str">
+      <c r="D415" s="23" t="str">
         <f>IF(EXACT(MAIN!$F415, ""), "", ""&amp;MAIN!$C415)</f>
         <v>Veradita Yulanda</v>
       </c>
@@ -20191,11 +20282,11 @@
         <f>IF(EXACT(MAIN!$F416, ""), "", MAIN!$E416)</f>
         <v>47000000000413</v>
       </c>
-      <c r="C416" s="20" t="str">
+      <c r="C416" s="23" t="str">
         <f>IF(EXACT(MAIN!$F416, ""), "", MAIN!$B416)</f>
         <v>kevin.tambunan</v>
       </c>
-      <c r="D416" s="20" t="str">
+      <c r="D416" s="23" t="str">
         <f>IF(EXACT(MAIN!$F416, ""), "", ""&amp;MAIN!$C416)</f>
         <v>Kevin Henokh Tambunan</v>
       </c>
@@ -20205,11 +20296,11 @@
         <f>IF(EXACT(MAIN!$F417, ""), "", MAIN!$E417)</f>
         <v>47000000000414</v>
       </c>
-      <c r="C417" s="20" t="str">
+      <c r="C417" s="23" t="str">
         <f>IF(EXACT(MAIN!$F417, ""), "", MAIN!$B417)</f>
         <v>suci.rachma</v>
       </c>
-      <c r="D417" s="20" t="str">
+      <c r="D417" s="23" t="str">
         <f>IF(EXACT(MAIN!$F417, ""), "", ""&amp;MAIN!$C417)</f>
         <v>Suci Rachma Sari</v>
       </c>
@@ -20219,11 +20310,11 @@
         <f>IF(EXACT(MAIN!$F418, ""), "", MAIN!$E418)</f>
         <v>47000000000415</v>
       </c>
-      <c r="C418" s="20" t="str">
+      <c r="C418" s="23" t="str">
         <f>IF(EXACT(MAIN!$F418, ""), "", MAIN!$B418)</f>
         <v>kumalaning</v>
       </c>
-      <c r="D418" s="20" t="str">
+      <c r="D418" s="23" t="str">
         <f>IF(EXACT(MAIN!$F418, ""), "", ""&amp;MAIN!$C418)</f>
         <v>R.Lar Kumalaning Tresno</v>
       </c>
@@ -20233,11 +20324,11 @@
         <f>IF(EXACT(MAIN!$F419, ""), "", MAIN!$E419)</f>
         <v>47000000000416</v>
       </c>
-      <c r="C419" s="20" t="str">
+      <c r="C419" s="23" t="str">
         <f>IF(EXACT(MAIN!$F419, ""), "", MAIN!$B419)</f>
         <v>budi.raharja</v>
       </c>
-      <c r="D419" s="20" t="str">
+      <c r="D419" s="23" t="str">
         <f>IF(EXACT(MAIN!$F419, ""), "", ""&amp;MAIN!$C419)</f>
         <v>Budi Raharja</v>
       </c>
@@ -20247,11 +20338,11 @@
         <f>IF(EXACT(MAIN!$F420, ""), "", MAIN!$E420)</f>
         <v>47000000000417</v>
       </c>
-      <c r="C420" s="20" t="str">
+      <c r="C420" s="23" t="str">
         <f>IF(EXACT(MAIN!$F420, ""), "", MAIN!$B420)</f>
         <v>anggit.ismiyanto</v>
       </c>
-      <c r="D420" s="20" t="str">
+      <c r="D420" s="23" t="str">
         <f>IF(EXACT(MAIN!$F420, ""), "", ""&amp;MAIN!$C420)</f>
         <v>Anggit Ismiyanto</v>
       </c>
@@ -20261,11 +20352,11 @@
         <f>IF(EXACT(MAIN!$F421, ""), "", MAIN!$E421)</f>
         <v>47000000000418</v>
       </c>
-      <c r="C421" s="20" t="str">
+      <c r="C421" s="23" t="str">
         <f>IF(EXACT(MAIN!$F421, ""), "", MAIN!$B421)</f>
         <v>ali.wahono</v>
       </c>
-      <c r="D421" s="20" t="str">
+      <c r="D421" s="23" t="str">
         <f>IF(EXACT(MAIN!$F421, ""), "", ""&amp;MAIN!$C421)</f>
         <v>Ali Wahono</v>
       </c>
@@ -20275,11 +20366,11 @@
         <f>IF(EXACT(MAIN!$F422, ""), "", MAIN!$E422)</f>
         <v>47000000000419</v>
       </c>
-      <c r="C422" s="20" t="str">
+      <c r="C422" s="23" t="str">
         <f>IF(EXACT(MAIN!$F422, ""), "", MAIN!$B422)</f>
         <v>silvia.putri</v>
       </c>
-      <c r="D422" s="20" t="str">
+      <c r="D422" s="23" t="str">
         <f>IF(EXACT(MAIN!$F422, ""), "", ""&amp;MAIN!$C422)</f>
         <v>Silvia Putri</v>
       </c>
@@ -20289,11 +20380,11 @@
         <f>IF(EXACT(MAIN!$F423, ""), "", MAIN!$E423)</f>
         <v>47000000000420</v>
       </c>
-      <c r="C423" s="20" t="str">
+      <c r="C423" s="23" t="str">
         <f>IF(EXACT(MAIN!$F423, ""), "", MAIN!$B423)</f>
         <v>paryanto</v>
       </c>
-      <c r="D423" s="20" t="str">
+      <c r="D423" s="23" t="str">
         <f>IF(EXACT(MAIN!$F423, ""), "", ""&amp;MAIN!$C423)</f>
         <v>Paryanto</v>
       </c>
@@ -20303,11 +20394,11 @@
         <f>IF(EXACT(MAIN!$F424, ""), "", MAIN!$E424)</f>
         <v>47000000000421</v>
       </c>
-      <c r="C424" s="20" t="str">
+      <c r="C424" s="23" t="str">
         <f>IF(EXACT(MAIN!$F424, ""), "", MAIN!$B424)</f>
         <v>muklis</v>
       </c>
-      <c r="D424" s="20" t="str">
+      <c r="D424" s="23" t="str">
         <f>IF(EXACT(MAIN!$F424, ""), "", ""&amp;MAIN!$C424)</f>
         <v>Muklis</v>
       </c>
@@ -20317,11 +20408,11 @@
         <f>IF(EXACT(MAIN!$F425, ""), "", MAIN!$E425)</f>
         <v>47000000000422</v>
       </c>
-      <c r="C425" s="20" t="str">
+      <c r="C425" s="23" t="str">
         <f>IF(EXACT(MAIN!$F425, ""), "", MAIN!$B425)</f>
         <v>zalfi.yandri</v>
       </c>
-      <c r="D425" s="20" t="str">
+      <c r="D425" s="23" t="str">
         <f>IF(EXACT(MAIN!$F425, ""), "", ""&amp;MAIN!$C425)</f>
         <v>Zalfi Yandri</v>
       </c>
@@ -20331,11 +20422,11 @@
         <f>IF(EXACT(MAIN!$F426, ""), "", MAIN!$E426)</f>
         <v>47000000000423</v>
       </c>
-      <c r="C426" s="20" t="str">
+      <c r="C426" s="23" t="str">
         <f>IF(EXACT(MAIN!$F426, ""), "", MAIN!$B426)</f>
         <v>grace.kurniawan</v>
       </c>
-      <c r="D426" s="20" t="str">
+      <c r="D426" s="23" t="str">
         <f>IF(EXACT(MAIN!$F426, ""), "", ""&amp;MAIN!$C426)</f>
         <v>Grace Kurniawan</v>
       </c>
@@ -20345,11 +20436,11 @@
         <f>IF(EXACT(MAIN!$F427, ""), "", MAIN!$E427)</f>
         <v>47000000000424</v>
       </c>
-      <c r="C427" s="20" t="str">
+      <c r="C427" s="23" t="str">
         <f>IF(EXACT(MAIN!$F427, ""), "", MAIN!$B427)</f>
         <v>farekh.huzair</v>
       </c>
-      <c r="D427" s="20" t="str">
+      <c r="D427" s="23" t="str">
         <f>IF(EXACT(MAIN!$F427, ""), "", ""&amp;MAIN!$C427)</f>
         <v>Farekh Huzair</v>
       </c>
@@ -20359,11 +20450,11 @@
         <f>IF(EXACT(MAIN!$F428, ""), "", MAIN!$E428)</f>
         <v>47000000000425</v>
       </c>
-      <c r="C428" s="20" t="str">
+      <c r="C428" s="23" t="str">
         <f>IF(EXACT(MAIN!$F428, ""), "", MAIN!$B428)</f>
         <v>saarah.andriani</v>
       </c>
-      <c r="D428" s="20" t="str">
+      <c r="D428" s="23" t="str">
         <f>IF(EXACT(MAIN!$F428, ""), "", ""&amp;MAIN!$C428)</f>
         <v>Saarah Andriani</v>
       </c>
@@ -20373,11 +20464,11 @@
         <f>IF(EXACT(MAIN!$F429, ""), "", MAIN!$E429)</f>
         <v>47000000000426</v>
       </c>
-      <c r="C429" s="20" t="str">
+      <c r="C429" s="23" t="str">
         <f>IF(EXACT(MAIN!$F429, ""), "", MAIN!$B429)</f>
         <v>anisah</v>
       </c>
-      <c r="D429" s="20" t="str">
+      <c r="D429" s="23" t="str">
         <f>IF(EXACT(MAIN!$F429, ""), "", ""&amp;MAIN!$C429)</f>
         <v>Anisah</v>
       </c>
@@ -20387,11 +20478,11 @@
         <f>IF(EXACT(MAIN!$F430, ""), "", MAIN!$E430)</f>
         <v>47000000000427</v>
       </c>
-      <c r="C430" s="20" t="str">
+      <c r="C430" s="23" t="str">
         <f>IF(EXACT(MAIN!$F430, ""), "", MAIN!$B430)</f>
         <v>elfan.pratama</v>
       </c>
-      <c r="D430" s="20" t="str">
+      <c r="D430" s="23" t="str">
         <f>IF(EXACT(MAIN!$F430, ""), "", ""&amp;MAIN!$C430)</f>
         <v>Mohd. Elfan Pratama</v>
       </c>
@@ -20401,11 +20492,11 @@
         <f>IF(EXACT(MAIN!$F431, ""), "", MAIN!$E431)</f>
         <v>47000000000428</v>
       </c>
-      <c r="C431" s="20" t="str">
+      <c r="C431" s="23" t="str">
         <f>IF(EXACT(MAIN!$F431, ""), "", MAIN!$B431)</f>
         <v>deny.adi</v>
       </c>
-      <c r="D431" s="20" t="str">
+      <c r="D431" s="23" t="str">
         <f>IF(EXACT(MAIN!$F431, ""), "", ""&amp;MAIN!$C431)</f>
         <v>Deny Adi</v>
       </c>
@@ -20415,11 +20506,11 @@
         <f>IF(EXACT(MAIN!$F432, ""), "", MAIN!$E432)</f>
         <v>47000000000429</v>
       </c>
-      <c r="C432" s="20" t="str">
+      <c r="C432" s="23" t="str">
         <f>IF(EXACT(MAIN!$F432, ""), "", MAIN!$B432)</f>
         <v>heru.sugiri</v>
       </c>
-      <c r="D432" s="20" t="str">
+      <c r="D432" s="23" t="str">
         <f>IF(EXACT(MAIN!$F432, ""), "", ""&amp;MAIN!$C432)</f>
         <v>Heru Sugiri</v>
       </c>
@@ -20429,11 +20520,11 @@
         <f>IF(EXACT(MAIN!$F433, ""), "", MAIN!$E433)</f>
         <v>47000000000430</v>
       </c>
-      <c r="C433" s="20" t="str">
+      <c r="C433" s="23" t="str">
         <f>IF(EXACT(MAIN!$F433, ""), "", MAIN!$B433)</f>
         <v>teguh.joko</v>
       </c>
-      <c r="D433" s="20" t="str">
+      <c r="D433" s="23" t="str">
         <f>IF(EXACT(MAIN!$F433, ""), "", ""&amp;MAIN!$C433)</f>
         <v>Teguh Joko Pamuji</v>
       </c>
@@ -20443,11 +20534,11 @@
         <f>IF(EXACT(MAIN!$F434, ""), "", MAIN!$E434)</f>
         <v>47000000000431</v>
       </c>
-      <c r="C434" s="20" t="str">
+      <c r="C434" s="23" t="str">
         <f>IF(EXACT(MAIN!$F434, ""), "", MAIN!$B434)</f>
         <v>nopitasari</v>
       </c>
-      <c r="D434" s="20" t="str">
+      <c r="D434" s="23" t="str">
         <f>IF(EXACT(MAIN!$F434, ""), "", ""&amp;MAIN!$C434)</f>
         <v>Nopitasari</v>
       </c>
@@ -20457,11 +20548,11 @@
         <f>IF(EXACT(MAIN!$F435, ""), "", MAIN!$E435)</f>
         <v>47000000000432</v>
       </c>
-      <c r="C435" s="20" t="str">
+      <c r="C435" s="23" t="str">
         <f>IF(EXACT(MAIN!$F435, ""), "", MAIN!$B435)</f>
         <v>fani.dwi</v>
       </c>
-      <c r="D435" s="20" t="str">
+      <c r="D435" s="23" t="str">
         <f>IF(EXACT(MAIN!$F435, ""), "", ""&amp;MAIN!$C435)</f>
         <v>Fani Dwi Astutik</v>
       </c>
@@ -20471,11 +20562,11 @@
         <f>IF(EXACT(MAIN!$F436, ""), "", MAIN!$E436)</f>
         <v>47000000000433</v>
       </c>
-      <c r="C436" s="20" t="str">
+      <c r="C436" s="23" t="str">
         <f>IF(EXACT(MAIN!$F436, ""), "", MAIN!$B436)</f>
         <v>sholehah</v>
       </c>
-      <c r="D436" s="20" t="str">
+      <c r="D436" s="23" t="str">
         <f>IF(EXACT(MAIN!$F436, ""), "", ""&amp;MAIN!$C436)</f>
         <v>Sholehah</v>
       </c>
@@ -20485,11 +20576,11 @@
         <f>IF(EXACT(MAIN!$F437, ""), "", MAIN!$E437)</f>
         <v>47000000000434</v>
       </c>
-      <c r="C437" s="20" t="str">
+      <c r="C437" s="23" t="str">
         <f>IF(EXACT(MAIN!$F437, ""), "", MAIN!$B437)</f>
         <v>wisnu.ardian</v>
       </c>
-      <c r="D437" s="20" t="str">
+      <c r="D437" s="23" t="str">
         <f>IF(EXACT(MAIN!$F437, ""), "", ""&amp;MAIN!$C437)</f>
         <v>Wisnu Ardian</v>
       </c>
@@ -20499,11 +20590,11 @@
         <f>IF(EXACT(MAIN!$F438, ""), "", MAIN!$E438)</f>
         <v>47000000000435</v>
       </c>
-      <c r="C438" s="20" t="str">
+      <c r="C438" s="23" t="str">
         <f>IF(EXACT(MAIN!$F438, ""), "", MAIN!$B438)</f>
         <v>wisnu</v>
       </c>
-      <c r="D438" s="20" t="str">
+      <c r="D438" s="23" t="str">
         <f>IF(EXACT(MAIN!$F438, ""), "", ""&amp;MAIN!$C438)</f>
         <v>Wisnu Ardian</v>
       </c>
@@ -20513,11 +20604,11 @@
         <f>IF(EXACT(MAIN!$F439, ""), "", MAIN!$E439)</f>
         <v>47000000000436</v>
       </c>
-      <c r="C439" s="20" t="str">
+      <c r="C439" s="23" t="str">
         <f>IF(EXACT(MAIN!$F439, ""), "", MAIN!$B439)</f>
         <v>putra.perdana</v>
       </c>
-      <c r="D439" s="20" t="str">
+      <c r="D439" s="23" t="str">
         <f>IF(EXACT(MAIN!$F439, ""), "", ""&amp;MAIN!$C439)</f>
         <v>Putra Perdana Tirtomoyo</v>
       </c>
@@ -20527,11 +20618,11 @@
         <f>IF(EXACT(MAIN!$F440, ""), "", MAIN!$E440)</f>
         <v>47000000000437</v>
       </c>
-      <c r="C440" s="20" t="str">
+      <c r="C440" s="23" t="str">
         <f>IF(EXACT(MAIN!$F440, ""), "", MAIN!$B440)</f>
         <v>jaenudin</v>
       </c>
-      <c r="D440" s="20" t="str">
+      <c r="D440" s="23" t="str">
         <f>IF(EXACT(MAIN!$F440, ""), "", ""&amp;MAIN!$C440)</f>
         <v>Jaenudin</v>
       </c>
@@ -20541,11 +20632,11 @@
         <f>IF(EXACT(MAIN!$F441, ""), "", MAIN!$E441)</f>
         <v>47000000000438</v>
       </c>
-      <c r="C441" s="20" t="str">
+      <c r="C441" s="23" t="str">
         <f>IF(EXACT(MAIN!$F441, ""), "", MAIN!$B441)</f>
         <v>jusuf.gandi</v>
       </c>
-      <c r="D441" s="20" t="str">
+      <c r="D441" s="23" t="str">
         <f>IF(EXACT(MAIN!$F441, ""), "", ""&amp;MAIN!$C441)</f>
         <v>Jusuf Gandi</v>
       </c>
@@ -20555,11 +20646,11 @@
         <f>IF(EXACT(MAIN!$F442, ""), "", MAIN!$E442)</f>
         <v>47000000000439</v>
       </c>
-      <c r="C442" s="20" t="str">
+      <c r="C442" s="23" t="str">
         <f>IF(EXACT(MAIN!$F442, ""), "", MAIN!$B442)</f>
         <v>jodie.satria</v>
       </c>
-      <c r="D442" s="20" t="str">
+      <c r="D442" s="23" t="str">
         <f>IF(EXACT(MAIN!$F442, ""), "", ""&amp;MAIN!$C442)</f>
         <v>Jodie Satria</v>
       </c>
@@ -20569,11 +20660,11 @@
         <f>IF(EXACT(MAIN!$F443, ""), "", MAIN!$E443)</f>
         <v>47000000000440</v>
       </c>
-      <c r="C443" s="20" t="str">
+      <c r="C443" s="23" t="str">
         <f>IF(EXACT(MAIN!$F443, ""), "", MAIN!$B443)</f>
         <v>Ujangb</v>
       </c>
-      <c r="D443" s="20" t="str">
+      <c r="D443" s="23" t="str">
         <f>IF(EXACT(MAIN!$F443, ""), "", ""&amp;MAIN!$C443)</f>
         <v>Ujang Barma</v>
       </c>
@@ -20583,11 +20674,11 @@
         <f>IF(EXACT(MAIN!$F444, ""), "", MAIN!$E444)</f>
         <v>47000000000441</v>
       </c>
-      <c r="C444" s="20" t="str">
+      <c r="C444" s="23" t="str">
         <f>IF(EXACT(MAIN!$F444, ""), "", MAIN!$B444)</f>
         <v>Ajan</v>
       </c>
-      <c r="D444" s="20" t="str">
+      <c r="D444" s="23" t="str">
         <f>IF(EXACT(MAIN!$F444, ""), "", ""&amp;MAIN!$C444)</f>
         <v>Ajan</v>
       </c>
@@ -20597,11 +20688,11 @@
         <f>IF(EXACT(MAIN!$F445, ""), "", MAIN!$E445)</f>
         <v>47000000000442</v>
       </c>
-      <c r="C445" s="20" t="str">
+      <c r="C445" s="23" t="str">
         <f>IF(EXACT(MAIN!$F445, ""), "", MAIN!$B445)</f>
         <v>Mista</v>
       </c>
-      <c r="D445" s="20" t="str">
+      <c r="D445" s="23" t="str">
         <f>IF(EXACT(MAIN!$F445, ""), "", ""&amp;MAIN!$C445)</f>
         <v>Mista</v>
       </c>
@@ -20611,11 +20702,11 @@
         <f>IF(EXACT(MAIN!$F446, ""), "", MAIN!$E446)</f>
         <v>47000000000443</v>
       </c>
-      <c r="C446" s="20" t="str">
+      <c r="C446" s="23" t="str">
         <f>IF(EXACT(MAIN!$F446, ""), "", MAIN!$B446)</f>
         <v>Encengh</v>
       </c>
-      <c r="D446" s="20" t="str">
+      <c r="D446" s="23" t="str">
         <f>IF(EXACT(MAIN!$F446, ""), "", ""&amp;MAIN!$C446)</f>
         <v>Enceng Hemawan</v>
       </c>
@@ -20625,11 +20716,11 @@
         <f>IF(EXACT(MAIN!$F447, ""), "", MAIN!$E447)</f>
         <v>47000000000444</v>
       </c>
-      <c r="C447" s="20" t="str">
+      <c r="C447" s="23" t="str">
         <f>IF(EXACT(MAIN!$F447, ""), "", MAIN!$B447)</f>
         <v>Kosasih</v>
       </c>
-      <c r="D447" s="20" t="str">
+      <c r="D447" s="23" t="str">
         <f>IF(EXACT(MAIN!$F447, ""), "", ""&amp;MAIN!$C447)</f>
         <v>Kosasih</v>
       </c>
@@ -20639,11 +20730,11 @@
         <f>IF(EXACT(MAIN!$F448, ""), "", MAIN!$E448)</f>
         <v>47000000000445</v>
       </c>
-      <c r="C448" s="20" t="str">
+      <c r="C448" s="23" t="str">
         <f>IF(EXACT(MAIN!$F448, ""), "", MAIN!$B448)</f>
         <v>habib.abdullah</v>
       </c>
-      <c r="D448" s="20" t="str">
+      <c r="D448" s="23" t="str">
         <f>IF(EXACT(MAIN!$F448, ""), "", ""&amp;MAIN!$C448)</f>
         <v>habib</v>
       </c>
@@ -20653,11 +20744,11 @@
         <f>IF(EXACT(MAIN!$F449, ""), "", MAIN!$E449)</f>
         <v>47000000000446</v>
       </c>
-      <c r="C449" s="20" t="str">
+      <c r="C449" s="23" t="str">
         <f>IF(EXACT(MAIN!$F449, ""), "", MAIN!$B449)</f>
         <v>EndangEndang</v>
       </c>
-      <c r="D449" s="20" t="str">
+      <c r="D449" s="23" t="str">
         <f>IF(EXACT(MAIN!$F449, ""), "", ""&amp;MAIN!$C449)</f>
         <v>Endang Endang</v>
       </c>
@@ -20667,11 +20758,11 @@
         <f>IF(EXACT(MAIN!$F450, ""), "", MAIN!$E450)</f>
         <v>47000000000447</v>
       </c>
-      <c r="C450" s="20" t="str">
+      <c r="C450" s="23" t="str">
         <f>IF(EXACT(MAIN!$F450, ""), "", MAIN!$B450)</f>
         <v>narno</v>
       </c>
-      <c r="D450" s="20" t="str">
+      <c r="D450" s="23" t="str">
         <f>IF(EXACT(MAIN!$F450, ""), "", ""&amp;MAIN!$C450)</f>
         <v>Narno Narno</v>
       </c>
@@ -20681,11 +20772,11 @@
         <f>IF(EXACT(MAIN!$F451, ""), "", MAIN!$E451)</f>
         <v>47000000000448</v>
       </c>
-      <c r="C451" s="20" t="str">
+      <c r="C451" s="23" t="str">
         <f>IF(EXACT(MAIN!$F451, ""), "", MAIN!$B451)</f>
         <v>rizak.triseptian</v>
       </c>
-      <c r="D451" s="20" t="str">
+      <c r="D451" s="23" t="str">
         <f>IF(EXACT(MAIN!$F451, ""), "", ""&amp;MAIN!$C451)</f>
         <v>Rizak Tri Septian</v>
       </c>
@@ -20695,11 +20786,11 @@
         <f>IF(EXACT(MAIN!$F452, ""), "", MAIN!$E452)</f>
         <v>47000000000449</v>
       </c>
-      <c r="C452" s="20" t="str">
+      <c r="C452" s="23" t="str">
         <f>IF(EXACT(MAIN!$F452, ""), "", MAIN!$B452)</f>
         <v>rian.yushak</v>
       </c>
-      <c r="D452" s="20" t="str">
+      <c r="D452" s="23" t="str">
         <f>IF(EXACT(MAIN!$F452, ""), "", ""&amp;MAIN!$C452)</f>
         <v>Rian Yushak</v>
       </c>
@@ -20709,11 +20800,11 @@
         <f>IF(EXACT(MAIN!$F453, ""), "", MAIN!$E453)</f>
         <v>47000000000450</v>
       </c>
-      <c r="C453" s="20" t="str">
+      <c r="C453" s="23" t="str">
         <f>IF(EXACT(MAIN!$F453, ""), "", MAIN!$B453)</f>
         <v>lisma.natalia</v>
       </c>
-      <c r="D453" s="20" t="str">
+      <c r="D453" s="23" t="str">
         <f>IF(EXACT(MAIN!$F453, ""), "", ""&amp;MAIN!$C453)</f>
         <v>Lisma Natalia</v>
       </c>
@@ -20723,11 +20814,11 @@
         <f>IF(EXACT(MAIN!$F454, ""), "", MAIN!$E454)</f>
         <v>47000000000451</v>
       </c>
-      <c r="C454" s="20" t="str">
+      <c r="C454" s="23" t="str">
         <f>IF(EXACT(MAIN!$F454, ""), "", MAIN!$B454)</f>
         <v>david.lumban</v>
       </c>
-      <c r="D454" s="20" t="str">
+      <c r="D454" s="23" t="str">
         <f>IF(EXACT(MAIN!$F454, ""), "", ""&amp;MAIN!$C454)</f>
         <v>David Lumban Gaol</v>
       </c>
@@ -20737,11 +20828,11 @@
         <f>IF(EXACT(MAIN!$F455, ""), "", MAIN!$E455)</f>
         <v>47000000000452</v>
       </c>
-      <c r="C455" s="20" t="str">
+      <c r="C455" s="23" t="str">
         <f>IF(EXACT(MAIN!$F455, ""), "", MAIN!$B455)</f>
         <v>vidhy</v>
       </c>
-      <c r="D455" s="20" t="str">
+      <c r="D455" s="23" t="str">
         <f>IF(EXACT(MAIN!$F455, ""), "", ""&amp;MAIN!$C455)</f>
         <v>Vidhy Kartika Putri</v>
       </c>
@@ -20751,11 +20842,11 @@
         <f>IF(EXACT(MAIN!$F456, ""), "", MAIN!$E456)</f>
         <v>47000000000453</v>
       </c>
-      <c r="C456" s="20" t="str">
+      <c r="C456" s="23" t="str">
         <f>IF(EXACT(MAIN!$F456, ""), "", MAIN!$B456)</f>
         <v>arjiyanto</v>
       </c>
-      <c r="D456" s="20" t="str">
+      <c r="D456" s="23" t="str">
         <f>IF(EXACT(MAIN!$F456, ""), "", ""&amp;MAIN!$C456)</f>
         <v>Arjiyanto</v>
       </c>
@@ -20765,11 +20856,11 @@
         <f>IF(EXACT(MAIN!$F457, ""), "", MAIN!$E457)</f>
         <v>47000000000454</v>
       </c>
-      <c r="C457" s="20" t="str">
+      <c r="C457" s="23" t="str">
         <f>IF(EXACT(MAIN!$F457, ""), "", MAIN!$B457)</f>
         <v>muhammad.ardiansyah</v>
       </c>
-      <c r="D457" s="20" t="str">
+      <c r="D457" s="23" t="str">
         <f>IF(EXACT(MAIN!$F457, ""), "", ""&amp;MAIN!$C457)</f>
         <v>Muhammad Ardiansyah</v>
       </c>
@@ -20779,11 +20870,11 @@
         <f>IF(EXACT(MAIN!$F458, ""), "", MAIN!$E458)</f>
         <v>47000000000455</v>
       </c>
-      <c r="C458" s="20" t="str">
+      <c r="C458" s="23" t="str">
         <f>IF(EXACT(MAIN!$F458, ""), "", MAIN!$B458)</f>
         <v>turita.pramuning</v>
       </c>
-      <c r="D458" s="20" t="str">
+      <c r="D458" s="23" t="str">
         <f>IF(EXACT(MAIN!$F458, ""), "", ""&amp;MAIN!$C458)</f>
         <v>Turita Pramuning</v>
       </c>
@@ -20793,11 +20884,11 @@
         <f>IF(EXACT(MAIN!$F459, ""), "", MAIN!$E459)</f>
         <v>47000000000456</v>
       </c>
-      <c r="C459" s="20" t="str">
+      <c r="C459" s="23" t="str">
         <f>IF(EXACT(MAIN!$F459, ""), "", MAIN!$B459)</f>
         <v>external.audit</v>
       </c>
-      <c r="D459" s="20" t="str">
+      <c r="D459" s="23" t="str">
         <f>IF(EXACT(MAIN!$F459, ""), "", ""&amp;MAIN!$C459)</f>
         <v>External Audit</v>
       </c>
@@ -20807,11 +20898,11 @@
         <f>IF(EXACT(MAIN!$F460, ""), "", MAIN!$E460)</f>
         <v>47000000000457</v>
       </c>
-      <c r="C460" s="20" t="str">
+      <c r="C460" s="23" t="str">
         <f>IF(EXACT(MAIN!$F460, ""), "", MAIN!$B460)</f>
         <v>seftiyan.hadi</v>
       </c>
-      <c r="D460" s="20" t="str">
+      <c r="D460" s="23" t="str">
         <f>IF(EXACT(MAIN!$F460, ""), "", ""&amp;MAIN!$C460)</f>
         <v>Seftiyan Hadi Maulana</v>
       </c>
@@ -20821,11 +20912,11 @@
         <f>IF(EXACT(MAIN!$F461, ""), "", MAIN!$E461)</f>
         <v>47000000000458</v>
       </c>
-      <c r="C461" s="20" t="str">
+      <c r="C461" s="23" t="str">
         <f>IF(EXACT(MAIN!$F461, ""), "", MAIN!$B461)</f>
         <v>edy.situmeang</v>
       </c>
-      <c r="D461" s="20" t="str">
+      <c r="D461" s="23" t="str">
         <f>IF(EXACT(MAIN!$F461, ""), "", ""&amp;MAIN!$C461)</f>
         <v>Edy Situmeang</v>
       </c>
@@ -20835,11 +20926,11 @@
         <f>IF(EXACT(MAIN!$F462, ""), "", MAIN!$E462)</f>
         <v>47000000000459</v>
       </c>
-      <c r="C462" s="20" t="str">
+      <c r="C462" s="23" t="str">
         <f>IF(EXACT(MAIN!$F462, ""), "", MAIN!$B462)</f>
         <v>ridho.pramudia</v>
       </c>
-      <c r="D462" s="20" t="str">
+      <c r="D462" s="23" t="str">
         <f>IF(EXACT(MAIN!$F462, ""), "", ""&amp;MAIN!$C462)</f>
         <v>M Ridho Pramudia</v>
       </c>
@@ -20849,11 +20940,11 @@
         <f>IF(EXACT(MAIN!$F463, ""), "", MAIN!$E463)</f>
         <v>47000000000460</v>
       </c>
-      <c r="C463" s="20" t="str">
+      <c r="C463" s="23" t="str">
         <f>IF(EXACT(MAIN!$F463, ""), "", MAIN!$B463)</f>
         <v>mhd.syahputra</v>
       </c>
-      <c r="D463" s="20" t="str">
+      <c r="D463" s="23" t="str">
         <f>IF(EXACT(MAIN!$F463, ""), "", ""&amp;MAIN!$C463)</f>
         <v>Mhd Syahputra</v>
       </c>
@@ -20863,11 +20954,11 @@
         <f>IF(EXACT(MAIN!$F464, ""), "", MAIN!$E464)</f>
         <v>47000000000461</v>
       </c>
-      <c r="C464" s="20" t="str">
+      <c r="C464" s="23" t="str">
         <f>IF(EXACT(MAIN!$F464, ""), "", MAIN!$B464)</f>
         <v>jeefrianda</v>
       </c>
-      <c r="D464" s="20" t="str">
+      <c r="D464" s="23" t="str">
         <f>IF(EXACT(MAIN!$F464, ""), "", ""&amp;MAIN!$C464)</f>
         <v>Jeefrianda HP Sigalingging</v>
       </c>
@@ -20877,11 +20968,11 @@
         <f>IF(EXACT(MAIN!$F465, ""), "", MAIN!$E465)</f>
         <v>47000000000462</v>
       </c>
-      <c r="C465" s="20" t="str">
+      <c r="C465" s="23" t="str">
         <f>IF(EXACT(MAIN!$F465, ""), "", MAIN!$B465)</f>
         <v>amir.sofyan</v>
       </c>
-      <c r="D465" s="20" t="str">
+      <c r="D465" s="23" t="str">
         <f>IF(EXACT(MAIN!$F465, ""), "", ""&amp;MAIN!$C465)</f>
         <v>Amir Sofyan Hadi</v>
       </c>
@@ -20891,11 +20982,11 @@
         <f>IF(EXACT(MAIN!$F466, ""), "", MAIN!$E466)</f>
         <v>47000000000463</v>
       </c>
-      <c r="C466" s="20" t="str">
+      <c r="C466" s="23" t="str">
         <f>IF(EXACT(MAIN!$F466, ""), "", MAIN!$B466)</f>
         <v>jusuf.bobby</v>
       </c>
-      <c r="D466" s="20" t="str">
+      <c r="D466" s="23" t="str">
         <f>IF(EXACT(MAIN!$F466, ""), "", ""&amp;MAIN!$C466)</f>
         <v>Jusuf Bobby Putra</v>
       </c>
@@ -20905,11 +20996,11 @@
         <f>IF(EXACT(MAIN!$F467, ""), "", MAIN!$E467)</f>
         <v>47000000000464</v>
       </c>
-      <c r="C467" s="20" t="str">
+      <c r="C467" s="23" t="str">
         <f>IF(EXACT(MAIN!$F467, ""), "", MAIN!$B467)</f>
         <v>muhammad.khadafy</v>
       </c>
-      <c r="D467" s="20" t="str">
+      <c r="D467" s="23" t="str">
         <f>IF(EXACT(MAIN!$F467, ""), "", ""&amp;MAIN!$C467)</f>
         <v>Muhammad Khadafy</v>
       </c>
@@ -20919,11 +21010,11 @@
         <f>IF(EXACT(MAIN!$F468, ""), "", MAIN!$E468)</f>
         <v>47000000000465</v>
       </c>
-      <c r="C468" s="20" t="str">
+      <c r="C468" s="23" t="str">
         <f>IF(EXACT(MAIN!$F468, ""), "", MAIN!$B468)</f>
         <v>desi.herawati</v>
       </c>
-      <c r="D468" s="20" t="str">
+      <c r="D468" s="23" t="str">
         <f>IF(EXACT(MAIN!$F468, ""), "", ""&amp;MAIN!$C468)</f>
         <v>Desi Herawati</v>
       </c>
@@ -20933,11 +21024,11 @@
         <f>IF(EXACT(MAIN!$F469, ""), "", MAIN!$E469)</f>
         <v>47000000000466</v>
       </c>
-      <c r="C469" s="20" t="str">
+      <c r="C469" s="23" t="str">
         <f>IF(EXACT(MAIN!$F469, ""), "", MAIN!$B469)</f>
         <v>zam.roji</v>
       </c>
-      <c r="D469" s="20" t="str">
+      <c r="D469" s="23" t="str">
         <f>IF(EXACT(MAIN!$F469, ""), "", ""&amp;MAIN!$C469)</f>
         <v>Zam Roji</v>
       </c>
@@ -20947,11 +21038,11 @@
         <f>IF(EXACT(MAIN!$F470, ""), "", MAIN!$E470)</f>
         <v>47000000000467</v>
       </c>
-      <c r="C470" s="20" t="str">
+      <c r="C470" s="23" t="str">
         <f>IF(EXACT(MAIN!$F470, ""), "", MAIN!$B470)</f>
         <v>idian</v>
       </c>
-      <c r="D470" s="20" t="str">
+      <c r="D470" s="23" t="str">
         <f>IF(EXACT(MAIN!$F470, ""), "", ""&amp;MAIN!$C470)</f>
         <v>Idian</v>
       </c>
@@ -20961,11 +21052,11 @@
         <f>IF(EXACT(MAIN!$F471, ""), "", MAIN!$E471)</f>
         <v>47000000000468</v>
       </c>
-      <c r="C471" s="20" t="str">
+      <c r="C471" s="23" t="str">
         <f>IF(EXACT(MAIN!$F471, ""), "", MAIN!$B471)</f>
         <v>atmo.sastro</v>
       </c>
-      <c r="D471" s="20" t="str">
+      <c r="D471" s="23" t="str">
         <f>IF(EXACT(MAIN!$F471, ""), "", ""&amp;MAIN!$C471)</f>
         <v>Atmo Sastro Dinoto</v>
       </c>
@@ -20975,11 +21066,11 @@
         <f>IF(EXACT(MAIN!$F472, ""), "", MAIN!$E472)</f>
         <v>47000000000469</v>
       </c>
-      <c r="C472" s="20" t="str">
+      <c r="C472" s="23" t="str">
         <f>IF(EXACT(MAIN!$F472, ""), "", MAIN!$B472)</f>
         <v>finance.taketaker</v>
       </c>
-      <c r="D472" s="20" t="str">
+      <c r="D472" s="23" t="str">
         <f>IF(EXACT(MAIN!$F472, ""), "", ""&amp;MAIN!$C472)</f>
         <v>Finance Taketaker</v>
       </c>
@@ -20989,11 +21080,11 @@
         <f>IF(EXACT(MAIN!$F473, ""), "", MAIN!$E473)</f>
         <v>47000000000470</v>
       </c>
-      <c r="C473" s="20" t="str">
+      <c r="C473" s="23" t="str">
         <f>IF(EXACT(MAIN!$F473, ""), "", MAIN!$B473)</f>
         <v>herlin.juli</v>
       </c>
-      <c r="D473" s="20" t="str">
+      <c r="D473" s="23" t="str">
         <f>IF(EXACT(MAIN!$F473, ""), "", ""&amp;MAIN!$C473)</f>
         <v>Herlin Juli Asri</v>
       </c>
@@ -21003,11 +21094,11 @@
         <f>IF(EXACT(MAIN!$F474, ""), "", MAIN!$E474)</f>
         <v>47000000000471</v>
       </c>
-      <c r="C474" s="20" t="str">
+      <c r="C474" s="23" t="str">
         <f>IF(EXACT(MAIN!$F474, ""), "", MAIN!$B474)</f>
         <v>wahyu.ramadhani</v>
       </c>
-      <c r="D474" s="20" t="str">
+      <c r="D474" s="23" t="str">
         <f>IF(EXACT(MAIN!$F474, ""), "", ""&amp;MAIN!$C474)</f>
         <v>Wahyu Ramadhani</v>
       </c>
@@ -21017,11 +21108,11 @@
         <f>IF(EXACT(MAIN!$F475, ""), "", MAIN!$E475)</f>
         <v>47000000000472</v>
       </c>
-      <c r="C475" s="20" t="str">
+      <c r="C475" s="23" t="str">
         <f>IF(EXACT(MAIN!$F475, ""), "", MAIN!$B475)</f>
         <v>bani.mustazeni</v>
       </c>
-      <c r="D475" s="20" t="str">
+      <c r="D475" s="23" t="str">
         <f>IF(EXACT(MAIN!$F475, ""), "", ""&amp;MAIN!$C475)</f>
         <v>Bani Mustazeni</v>
       </c>
@@ -21031,11 +21122,11 @@
         <f>IF(EXACT(MAIN!$F476, ""), "", MAIN!$E476)</f>
         <v>47000000000473</v>
       </c>
-      <c r="C476" s="20" t="str">
+      <c r="C476" s="23" t="str">
         <f>IF(EXACT(MAIN!$F476, ""), "", MAIN!$B476)</f>
         <v>elsa.mardian</v>
       </c>
-      <c r="D476" s="20" t="str">
+      <c r="D476" s="23" t="str">
         <f>IF(EXACT(MAIN!$F476, ""), "", ""&amp;MAIN!$C476)</f>
         <v>Elsa Mardian</v>
       </c>
@@ -21045,11 +21136,11 @@
         <f>IF(EXACT(MAIN!$F477, ""), "", MAIN!$E477)</f>
         <v>47000000000474</v>
       </c>
-      <c r="C477" s="20" t="str">
+      <c r="C477" s="23" t="str">
         <f>IF(EXACT(MAIN!$F477, ""), "", MAIN!$B477)</f>
         <v>ujang.suryana</v>
       </c>
-      <c r="D477" s="20" t="str">
+      <c r="D477" s="23" t="str">
         <f>IF(EXACT(MAIN!$F477, ""), "", ""&amp;MAIN!$C477)</f>
         <v>Ujang Suryana</v>
       </c>
@@ -21059,11 +21150,11 @@
         <f>IF(EXACT(MAIN!$F478, ""), "", MAIN!$E478)</f>
         <v>47000000000475</v>
       </c>
-      <c r="C478" s="20" t="str">
+      <c r="C478" s="23" t="str">
         <f>IF(EXACT(MAIN!$F478, ""), "", MAIN!$B478)</f>
         <v>panji.bima</v>
       </c>
-      <c r="D478" s="20" t="str">
+      <c r="D478" s="23" t="str">
         <f>IF(EXACT(MAIN!$F478, ""), "", ""&amp;MAIN!$C478)</f>
         <v>Panji Bima Santri</v>
       </c>
@@ -21073,11 +21164,11 @@
         <f>IF(EXACT(MAIN!$F479, ""), "", MAIN!$E479)</f>
         <v>47000000000476</v>
       </c>
-      <c r="C479" s="20" t="str">
+      <c r="C479" s="23" t="str">
         <f>IF(EXACT(MAIN!$F479, ""), "", MAIN!$B479)</f>
         <v>annisa.dewi</v>
       </c>
-      <c r="D479" s="20" t="str">
+      <c r="D479" s="23" t="str">
         <f>IF(EXACT(MAIN!$F479, ""), "", ""&amp;MAIN!$C479)</f>
         <v>Annisa Dewi Arumsari</v>
       </c>
@@ -21087,11 +21178,11 @@
         <f>IF(EXACT(MAIN!$F480, ""), "", MAIN!$E480)</f>
         <v>47000000000477</v>
       </c>
-      <c r="C480" s="20" t="str">
+      <c r="C480" s="23" t="str">
         <f>IF(EXACT(MAIN!$F480, ""), "", MAIN!$B480)</f>
         <v>khafid.fahrurrozi</v>
       </c>
-      <c r="D480" s="20" t="str">
+      <c r="D480" s="23" t="str">
         <f>IF(EXACT(MAIN!$F480, ""), "", ""&amp;MAIN!$C480)</f>
         <v>Khafid Fahrurrozi</v>
       </c>
@@ -21101,11 +21192,11 @@
         <f>IF(EXACT(MAIN!$F481, ""), "", MAIN!$E481)</f>
         <v>47000000000478</v>
       </c>
-      <c r="C481" s="20" t="str">
+      <c r="C481" s="23" t="str">
         <f>IF(EXACT(MAIN!$F481, ""), "", MAIN!$B481)</f>
         <v>rayanz</v>
       </c>
-      <c r="D481" s="20" t="str">
+      <c r="D481" s="23" t="str">
         <f>IF(EXACT(MAIN!$F481, ""), "", ""&amp;MAIN!$C481)</f>
         <v>Rayan Suryadikara</v>
       </c>
@@ -21115,11 +21206,11 @@
         <f>IF(EXACT(MAIN!$F482, ""), "", MAIN!$E482)</f>
         <v>47000000000479</v>
       </c>
-      <c r="C482" s="20" t="str">
+      <c r="C482" s="23" t="str">
         <f>IF(EXACT(MAIN!$F482, ""), "", MAIN!$B482)</f>
         <v>joko.wiyono</v>
       </c>
-      <c r="D482" s="20" t="str">
+      <c r="D482" s="23" t="str">
         <f>IF(EXACT(MAIN!$F482, ""), "", ""&amp;MAIN!$C482)</f>
         <v>Joko Wiyono</v>
       </c>
@@ -21129,11 +21220,11 @@
         <f>IF(EXACT(MAIN!$F483, ""), "", MAIN!$E483)</f>
         <v>47000000000480</v>
       </c>
-      <c r="C483" s="20" t="str">
+      <c r="C483" s="23" t="str">
         <f>IF(EXACT(MAIN!$F483, ""), "", MAIN!$B483)</f>
         <v>sri.maristi</v>
       </c>
-      <c r="D483" s="20" t="str">
+      <c r="D483" s="23" t="str">
         <f>IF(EXACT(MAIN!$F483, ""), "", ""&amp;MAIN!$C483)</f>
         <v>Annyess Sri Maristi</v>
       </c>
@@ -21143,11 +21234,11 @@
         <f>IF(EXACT(MAIN!$F484, ""), "", MAIN!$E484)</f>
         <v>47000000000481</v>
       </c>
-      <c r="C484" s="20" t="str">
+      <c r="C484" s="23" t="str">
         <f>IF(EXACT(MAIN!$F484, ""), "", MAIN!$B484)</f>
         <v>annyes.maristi</v>
       </c>
-      <c r="D484" s="20" t="str">
+      <c r="D484" s="23" t="str">
         <f>IF(EXACT(MAIN!$F484, ""), "", ""&amp;MAIN!$C484)</f>
         <v>Annyes Sri Maristi</v>
       </c>
@@ -21157,11 +21248,11 @@
         <f>IF(EXACT(MAIN!$F485, ""), "", MAIN!$E485)</f>
         <v>47000000000482</v>
       </c>
-      <c r="C485" s="20" t="str">
+      <c r="C485" s="23" t="str">
         <f>IF(EXACT(MAIN!$F485, ""), "", MAIN!$B485)</f>
         <v>fuzi.mafhrozi</v>
       </c>
-      <c r="D485" s="20" t="str">
+      <c r="D485" s="23" t="str">
         <f>IF(EXACT(MAIN!$F485, ""), "", ""&amp;MAIN!$C485)</f>
         <v>Fuzi Mafhrozi</v>
       </c>
@@ -21171,11 +21262,11 @@
         <f>IF(EXACT(MAIN!$F486, ""), "", MAIN!$E486)</f>
         <v>47000000000483</v>
       </c>
-      <c r="C486" s="20" t="str">
+      <c r="C486" s="23" t="str">
         <f>IF(EXACT(MAIN!$F486, ""), "", MAIN!$B486)</f>
         <v>roy.aditya</v>
       </c>
-      <c r="D486" s="20" t="str">
+      <c r="D486" s="23" t="str">
         <f>IF(EXACT(MAIN!$F486, ""), "", ""&amp;MAIN!$C486)</f>
         <v>Roy Aditya</v>
       </c>
@@ -21185,11 +21276,11 @@
         <f>IF(EXACT(MAIN!$F487, ""), "", MAIN!$E487)</f>
         <v>47000000000484</v>
       </c>
-      <c r="C487" s="20" t="str">
+      <c r="C487" s="23" t="str">
         <f>IF(EXACT(MAIN!$F487, ""), "", MAIN!$B487)</f>
         <v>shihab.amir</v>
       </c>
-      <c r="D487" s="20" t="str">
+      <c r="D487" s="23" t="str">
         <f>IF(EXACT(MAIN!$F487, ""), "", ""&amp;MAIN!$C487)</f>
         <v>Shihab</v>
       </c>
@@ -21199,11 +21290,11 @@
         <f>IF(EXACT(MAIN!$F488, ""), "", MAIN!$E488)</f>
         <v>47000000000485</v>
       </c>
-      <c r="C488" s="20" t="str">
+      <c r="C488" s="23" t="str">
         <f>IF(EXACT(MAIN!$F488, ""), "", MAIN!$B488)</f>
         <v>dony.setiawan</v>
       </c>
-      <c r="D488" s="20" t="str">
+      <c r="D488" s="23" t="str">
         <f>IF(EXACT(MAIN!$F488, ""), "", ""&amp;MAIN!$C488)</f>
         <v>Dony Setiawan</v>
       </c>
@@ -21213,11 +21304,11 @@
         <f>IF(EXACT(MAIN!$F489, ""), "", MAIN!$E489)</f>
         <v>47000000000486</v>
       </c>
-      <c r="C489" s="20" t="str">
+      <c r="C489" s="23" t="str">
         <f>IF(EXACT(MAIN!$F489, ""), "", MAIN!$B489)</f>
         <v xml:space="preserve"> arioyulianto</v>
       </c>
-      <c r="D489" s="20" t="str">
+      <c r="D489" s="23" t="str">
         <f>IF(EXACT(MAIN!$F489, ""), "", ""&amp;MAIN!$C489)</f>
         <v>Ario Yulianto Wibowo</v>
       </c>
@@ -21227,11 +21318,11 @@
         <f>IF(EXACT(MAIN!$F490, ""), "", MAIN!$E490)</f>
         <v>47000000000487</v>
       </c>
-      <c r="C490" s="20" t="str">
+      <c r="C490" s="23" t="str">
         <f>IF(EXACT(MAIN!$F490, ""), "", MAIN!$B490)</f>
         <v>zainudin.anwar</v>
       </c>
-      <c r="D490" s="20" t="str">
+      <c r="D490" s="23" t="str">
         <f>IF(EXACT(MAIN!$F490, ""), "", ""&amp;MAIN!$C490)</f>
         <v>Zainudin Anwar</v>
       </c>
@@ -21241,11 +21332,11 @@
         <f>IF(EXACT(MAIN!$F491, ""), "", MAIN!$E491)</f>
         <v>47000000000488</v>
       </c>
-      <c r="C491" s="20" t="str">
+      <c r="C491" s="23" t="str">
         <f>IF(EXACT(MAIN!$F491, ""), "", MAIN!$B491)</f>
         <v>sulih</v>
       </c>
-      <c r="D491" s="20" t="str">
+      <c r="D491" s="23" t="str">
         <f>IF(EXACT(MAIN!$F491, ""), "", ""&amp;MAIN!$C491)</f>
         <v>Sulih</v>
       </c>
@@ -21255,11 +21346,11 @@
         <f>IF(EXACT(MAIN!$F492, ""), "", MAIN!$E492)</f>
         <v>47000000000489</v>
       </c>
-      <c r="C492" s="20" t="str">
+      <c r="C492" s="23" t="str">
         <f>IF(EXACT(MAIN!$F492, ""), "", MAIN!$B492)</f>
         <v>ario.yulianto</v>
       </c>
-      <c r="D492" s="20" t="str">
+      <c r="D492" s="23" t="str">
         <f>IF(EXACT(MAIN!$F492, ""), "", ""&amp;MAIN!$C492)</f>
         <v>Ario Yulianto Wibowo</v>
       </c>
@@ -21269,11 +21360,11 @@
         <f>IF(EXACT(MAIN!$F493, ""), "", MAIN!$E493)</f>
         <v>47000000000490</v>
       </c>
-      <c r="C493" s="20" t="str">
+      <c r="C493" s="23" t="str">
         <f>IF(EXACT(MAIN!$F493, ""), "", MAIN!$B493)</f>
         <v>anugerah.januariansyah</v>
       </c>
-      <c r="D493" s="20" t="str">
+      <c r="D493" s="23" t="str">
         <f>IF(EXACT(MAIN!$F493, ""), "", ""&amp;MAIN!$C493)</f>
         <v>anugerah Januariansyah</v>
       </c>
@@ -21283,11 +21374,11 @@
         <f>IF(EXACT(MAIN!$F494, ""), "", MAIN!$E494)</f>
         <v>47000000000491</v>
       </c>
-      <c r="C494" s="20" t="str">
+      <c r="C494" s="23" t="str">
         <f>IF(EXACT(MAIN!$F494, ""), "", MAIN!$B494)</f>
         <v>anugerah</v>
       </c>
-      <c r="D494" s="20" t="str">
+      <c r="D494" s="23" t="str">
         <f>IF(EXACT(MAIN!$F494, ""), "", ""&amp;MAIN!$C494)</f>
         <v>Anugerah Januariansyah</v>
       </c>
@@ -21297,11 +21388,11 @@
         <f>IF(EXACT(MAIN!$F495, ""), "", MAIN!$E495)</f>
         <v>47000000000492</v>
       </c>
-      <c r="C495" s="20" t="str">
+      <c r="C495" s="23" t="str">
         <f>IF(EXACT(MAIN!$F495, ""), "", MAIN!$B495)</f>
         <v>agus.salim</v>
       </c>
-      <c r="D495" s="20" t="str">
+      <c r="D495" s="23" t="str">
         <f>IF(EXACT(MAIN!$F495, ""), "", ""&amp;MAIN!$C495)</f>
         <v>agus salim</v>
       </c>
@@ -21311,11 +21402,11 @@
         <f>IF(EXACT(MAIN!$F496, ""), "", MAIN!$E496)</f>
         <v>47000000000493</v>
       </c>
-      <c r="C496" s="20" t="str">
+      <c r="C496" s="23" t="str">
         <f>IF(EXACT(MAIN!$F496, ""), "", MAIN!$B496)</f>
         <v>rangga.darmawan</v>
       </c>
-      <c r="D496" s="20" t="str">
+      <c r="D496" s="23" t="str">
         <f>IF(EXACT(MAIN!$F496, ""), "", ""&amp;MAIN!$C496)</f>
         <v>rangga darmawan</v>
       </c>
@@ -21325,11 +21416,11 @@
         <f>IF(EXACT(MAIN!$F497, ""), "", MAIN!$E497)</f>
         <v>47000000000494</v>
       </c>
-      <c r="C497" s="20" t="str">
+      <c r="C497" s="23" t="str">
         <f>IF(EXACT(MAIN!$F497, ""), "", MAIN!$B497)</f>
         <v>hernita</v>
       </c>
-      <c r="D497" s="20" t="str">
+      <c r="D497" s="23" t="str">
         <f>IF(EXACT(MAIN!$F497, ""), "", ""&amp;MAIN!$C497)</f>
         <v>Hernita Dwi</v>
       </c>
@@ -21339,11 +21430,11 @@
         <f>IF(EXACT(MAIN!$F498, ""), "", MAIN!$E498)</f>
         <v>47000000000495</v>
       </c>
-      <c r="C498" s="20" t="str">
+      <c r="C498" s="23" t="str">
         <f>IF(EXACT(MAIN!$F498, ""), "", MAIN!$B498)</f>
         <v>faiz.horifal</v>
       </c>
-      <c r="D498" s="20" t="str">
+      <c r="D498" s="23" t="str">
         <f>IF(EXACT(MAIN!$F498, ""), "", ""&amp;MAIN!$C498)</f>
         <v>Faiz Horifal</v>
       </c>
@@ -21353,11 +21444,11 @@
         <f>IF(EXACT(MAIN!$F499, ""), "", MAIN!$E499)</f>
         <v>47000000000496</v>
       </c>
-      <c r="C499" s="20" t="str">
+      <c r="C499" s="23" t="str">
         <f>IF(EXACT(MAIN!$F499, ""), "", MAIN!$B499)</f>
         <v>rendy.pranata</v>
       </c>
-      <c r="D499" s="20" t="str">
+      <c r="D499" s="23" t="str">
         <f>IF(EXACT(MAIN!$F499, ""), "", ""&amp;MAIN!$C499)</f>
         <v>Rendy Prananta Purba</v>
       </c>
@@ -21367,11 +21458,11 @@
         <f>IF(EXACT(MAIN!$F500, ""), "", MAIN!$E500)</f>
         <v>47000000000497</v>
       </c>
-      <c r="C500" s="20" t="str">
+      <c r="C500" s="23" t="str">
         <f>IF(EXACT(MAIN!$F500, ""), "", MAIN!$B500)</f>
         <v>Mochamad.Samman</v>
       </c>
-      <c r="D500" s="20" t="str">
+      <c r="D500" s="23" t="str">
         <f>IF(EXACT(MAIN!$F500, ""), "", ""&amp;MAIN!$C500)</f>
         <v>Mochamad Samman</v>
       </c>
@@ -21381,11 +21472,11 @@
         <f>IF(EXACT(MAIN!$F501, ""), "", MAIN!$E501)</f>
         <v>47000000000498</v>
       </c>
-      <c r="C501" s="20" t="str">
+      <c r="C501" s="23" t="str">
         <f>IF(EXACT(MAIN!$F501, ""), "", MAIN!$B501)</f>
         <v>fuad.febrian</v>
       </c>
-      <c r="D501" s="20" t="str">
+      <c r="D501" s="23" t="str">
         <f>IF(EXACT(MAIN!$F501, ""), "", ""&amp;MAIN!$C501)</f>
         <v>Fuad Febrian</v>
       </c>
@@ -21395,11 +21486,11 @@
         <f>IF(EXACT(MAIN!$F502, ""), "", MAIN!$E502)</f>
         <v>47000000000499</v>
       </c>
-      <c r="C502" s="20" t="str">
+      <c r="C502" s="23" t="str">
         <f>IF(EXACT(MAIN!$F502, ""), "", MAIN!$B502)</f>
         <v>suyanto</v>
       </c>
-      <c r="D502" s="20" t="str">
+      <c r="D502" s="23" t="str">
         <f>IF(EXACT(MAIN!$F502, ""), "", ""&amp;MAIN!$C502)</f>
         <v>suyanto</v>
       </c>
@@ -21409,11 +21500,11 @@
         <f>IF(EXACT(MAIN!$F503, ""), "", MAIN!$E503)</f>
         <v>47000000000500</v>
       </c>
-      <c r="C503" s="20" t="str">
+      <c r="C503" s="23" t="str">
         <f>IF(EXACT(MAIN!$F503, ""), "", MAIN!$B503)</f>
         <v>ruswandi</v>
       </c>
-      <c r="D503" s="20" t="str">
+      <c r="D503" s="23" t="str">
         <f>IF(EXACT(MAIN!$F503, ""), "", ""&amp;MAIN!$C503)</f>
         <v>ruswandi</v>
       </c>
@@ -21423,11 +21514,11 @@
         <f>IF(EXACT(MAIN!$F504, ""), "", MAIN!$E504)</f>
         <v>47000000000501</v>
       </c>
-      <c r="C504" s="20" t="str">
+      <c r="C504" s="23" t="str">
         <f>IF(EXACT(MAIN!$F504, ""), "", MAIN!$B504)</f>
         <v>sang.toga</v>
       </c>
-      <c r="D504" s="20" t="str">
+      <c r="D504" s="23" t="str">
         <f>IF(EXACT(MAIN!$F504, ""), "", ""&amp;MAIN!$C504)</f>
         <v>Sang Toga Sitompul</v>
       </c>
@@ -21437,11 +21528,11 @@
         <f>IF(EXACT(MAIN!$F505, ""), "", MAIN!$E505)</f>
         <v>47000000000502</v>
       </c>
-      <c r="C505" s="20" t="str">
+      <c r="C505" s="23" t="str">
         <f>IF(EXACT(MAIN!$F505, ""), "", MAIN!$B505)</f>
         <v>eka.purwanti</v>
       </c>
-      <c r="D505" s="20" t="str">
+      <c r="D505" s="23" t="str">
         <f>IF(EXACT(MAIN!$F505, ""), "", ""&amp;MAIN!$C505)</f>
         <v>eka purwanti</v>
       </c>
@@ -21451,11 +21542,11 @@
         <f>IF(EXACT(MAIN!$F506, ""), "", MAIN!$E506)</f>
         <v>47000000000503</v>
       </c>
-      <c r="C506" s="20" t="str">
+      <c r="C506" s="23" t="str">
         <f>IF(EXACT(MAIN!$F506, ""), "", MAIN!$B506)</f>
         <v>magang.bhy2020</v>
       </c>
-      <c r="D506" s="20" t="str">
+      <c r="D506" s="23" t="str">
         <f>IF(EXACT(MAIN!$F506, ""), "", ""&amp;MAIN!$C506)</f>
         <v>Magang Bhayangkari</v>
       </c>
@@ -21465,11 +21556,11 @@
         <f>IF(EXACT(MAIN!$F507, ""), "", MAIN!$E507)</f>
         <v>47000000000504</v>
       </c>
-      <c r="C507" s="20" t="str">
+      <c r="C507" s="23" t="str">
         <f>IF(EXACT(MAIN!$F507, ""), "", MAIN!$B507)</f>
         <v>harlen</v>
       </c>
-      <c r="D507" s="20" t="str">
+      <c r="D507" s="23" t="str">
         <f>IF(EXACT(MAIN!$F507, ""), "", ""&amp;MAIN!$C507)</f>
         <v>Harlen Amudi Purba</v>
       </c>
@@ -21479,11 +21570,11 @@
         <f>IF(EXACT(MAIN!$F508, ""), "", MAIN!$E508)</f>
         <v>47000000000505</v>
       </c>
-      <c r="C508" s="20" t="str">
+      <c r="C508" s="23" t="str">
         <f>IF(EXACT(MAIN!$F508, ""), "", MAIN!$B508)</f>
         <v>rafi.firman</v>
       </c>
-      <c r="D508" s="20" t="str">
+      <c r="D508" s="23" t="str">
         <f>IF(EXACT(MAIN!$F508, ""), "", ""&amp;MAIN!$C508)</f>
         <v>Rafi Firman Saputra</v>
       </c>
@@ -21493,11 +21584,11 @@
         <f>IF(EXACT(MAIN!$F509, ""), "", MAIN!$E509)</f>
         <v>47000000000506</v>
       </c>
-      <c r="C509" s="20" t="str">
+      <c r="C509" s="23" t="str">
         <f>IF(EXACT(MAIN!$F509, ""), "", MAIN!$B509)</f>
         <v>eko.kurniawan</v>
       </c>
-      <c r="D509" s="20" t="str">
+      <c r="D509" s="23" t="str">
         <f>IF(EXACT(MAIN!$F509, ""), "", ""&amp;MAIN!$C509)</f>
         <v>eko kurniawan</v>
       </c>
@@ -21507,11 +21598,11 @@
         <f>IF(EXACT(MAIN!$F510, ""), "", MAIN!$E510)</f>
         <v>47000000000507</v>
       </c>
-      <c r="C510" s="20" t="str">
+      <c r="C510" s="23" t="str">
         <f>IF(EXACT(MAIN!$F510, ""), "", MAIN!$B510)</f>
         <v>krisnawan</v>
       </c>
-      <c r="D510" s="20" t="str">
+      <c r="D510" s="23" t="str">
         <f>IF(EXACT(MAIN!$F510, ""), "", ""&amp;MAIN!$C510)</f>
         <v>krisnawan</v>
       </c>
@@ -21521,11 +21612,11 @@
         <f>IF(EXACT(MAIN!$F511, ""), "", MAIN!$E511)</f>
         <v>47000000000508</v>
       </c>
-      <c r="C511" s="20" t="str">
+      <c r="C511" s="23" t="str">
         <f>IF(EXACT(MAIN!$F511, ""), "", MAIN!$B511)</f>
         <v>riom</v>
       </c>
-      <c r="D511" s="20" t="str">
+      <c r="D511" s="23" t="str">
         <f>IF(EXACT(MAIN!$F511, ""), "", ""&amp;MAIN!$C511)</f>
         <v>Rio Martha</v>
       </c>
@@ -21535,11 +21626,11 @@
         <f>IF(EXACT(MAIN!$F512, ""), "", MAIN!$E512)</f>
         <v>47000000000509</v>
       </c>
-      <c r="C512" s="20" t="str">
+      <c r="C512" s="23" t="str">
         <f>IF(EXACT(MAIN!$F512, ""), "", MAIN!$B512)</f>
         <v>painos</v>
       </c>
-      <c r="D512" s="20" t="str">
+      <c r="D512" s="23" t="str">
         <f>IF(EXACT(MAIN!$F512, ""), "", ""&amp;MAIN!$C512)</f>
         <v>Paino Suprayinto</v>
       </c>
@@ -21549,11 +21640,11 @@
         <f>IF(EXACT(MAIN!$F513, ""), "", MAIN!$E513)</f>
         <v>47000000000510</v>
       </c>
-      <c r="C513" s="20" t="str">
+      <c r="C513" s="23" t="str">
         <f>IF(EXACT(MAIN!$F513, ""), "", MAIN!$B513)</f>
         <v>eka.bagus</v>
       </c>
-      <c r="D513" s="20" t="str">
+      <c r="D513" s="23" t="str">
         <f>IF(EXACT(MAIN!$F513, ""), "", ""&amp;MAIN!$C513)</f>
         <v>eka bagus</v>
       </c>
@@ -21563,11 +21654,11 @@
         <f>IF(EXACT(MAIN!$F514, ""), "", MAIN!$E514)</f>
         <v>47000000000511</v>
       </c>
-      <c r="C514" s="20" t="str">
+      <c r="C514" s="23" t="str">
         <f>IF(EXACT(MAIN!$F514, ""), "", MAIN!$B514)</f>
         <v>belina.lindarwani</v>
       </c>
-      <c r="D514" s="20" t="str">
+      <c r="D514" s="23" t="str">
         <f>IF(EXACT(MAIN!$F514, ""), "", ""&amp;MAIN!$C514)</f>
         <v>Belina Lindarwani</v>
       </c>
@@ -21577,11 +21668,11 @@
         <f>IF(EXACT(MAIN!$F515, ""), "", MAIN!$E515)</f>
         <v>47000000000512</v>
       </c>
-      <c r="C515" s="20" t="str">
+      <c r="C515" s="23" t="str">
         <f>IF(EXACT(MAIN!$F515, ""), "", MAIN!$B515)</f>
         <v>mrahman</v>
       </c>
-      <c r="D515" s="20" t="str">
+      <c r="D515" s="23" t="str">
         <f>IF(EXACT(MAIN!$F515, ""), "", ""&amp;MAIN!$C515)</f>
         <v>Martimbul Rahman</v>
       </c>
@@ -21591,11 +21682,11 @@
         <f>IF(EXACT(MAIN!$F516, ""), "", MAIN!$E516)</f>
         <v>47000000000513</v>
       </c>
-      <c r="C516" s="20" t="str">
+      <c r="C516" s="23" t="str">
         <f>IF(EXACT(MAIN!$F516, ""), "", MAIN!$B516)</f>
         <v>aldi.mulyadi</v>
       </c>
-      <c r="D516" s="20" t="str">
+      <c r="D516" s="23" t="str">
         <f>IF(EXACT(MAIN!$F516, ""), "", ""&amp;MAIN!$C516)</f>
         <v>Aldi Mulyadi</v>
       </c>
@@ -21605,11 +21696,11 @@
         <f>IF(EXACT(MAIN!$F517, ""), "", MAIN!$E517)</f>
         <v>47000000000514</v>
       </c>
-      <c r="C517" s="20" t="str">
+      <c r="C517" s="23" t="str">
         <f>IF(EXACT(MAIN!$F517, ""), "", MAIN!$B517)</f>
         <v>rommel.hutapea</v>
       </c>
-      <c r="D517" s="20" t="str">
+      <c r="D517" s="23" t="str">
         <f>IF(EXACT(MAIN!$F517, ""), "", ""&amp;MAIN!$C517)</f>
         <v>Rommel Hutapea</v>
       </c>
@@ -21619,11 +21710,11 @@
         <f>IF(EXACT(MAIN!$F518, ""), "", MAIN!$E518)</f>
         <v>47000000000515</v>
       </c>
-      <c r="C518" s="20" t="str">
+      <c r="C518" s="23" t="str">
         <f>IF(EXACT(MAIN!$F518, ""), "", MAIN!$B518)</f>
         <v>wendy.septiyan</v>
       </c>
-      <c r="D518" s="20" t="str">
+      <c r="D518" s="23" t="str">
         <f>IF(EXACT(MAIN!$F518, ""), "", ""&amp;MAIN!$C518)</f>
         <v>Wendy Septiyan</v>
       </c>
@@ -21633,11 +21724,11 @@
         <f>IF(EXACT(MAIN!$F519, ""), "", MAIN!$E519)</f>
         <v>47000000000516</v>
       </c>
-      <c r="C519" s="20" t="str">
+      <c r="C519" s="23" t="str">
         <f>IF(EXACT(MAIN!$F519, ""), "", MAIN!$B519)</f>
         <v>febryan.mahsyar</v>
       </c>
-      <c r="D519" s="20" t="str">
+      <c r="D519" s="23" t="str">
         <f>IF(EXACT(MAIN!$F519, ""), "", ""&amp;MAIN!$C519)</f>
         <v>Febryan Mahsyar</v>
       </c>
@@ -21647,11 +21738,11 @@
         <f>IF(EXACT(MAIN!$F520, ""), "", MAIN!$E520)</f>
         <v>47000000000517</v>
       </c>
-      <c r="C520" s="20" t="str">
+      <c r="C520" s="23" t="str">
         <f>IF(EXACT(MAIN!$F520, ""), "", MAIN!$B520)</f>
         <v>Sherly.tamira</v>
       </c>
-      <c r="D520" s="20" t="str">
+      <c r="D520" s="23" t="str">
         <f>IF(EXACT(MAIN!$F520, ""), "", ""&amp;MAIN!$C520)</f>
         <v>Sherly Tamira</v>
       </c>
@@ -21661,11 +21752,11 @@
         <f>IF(EXACT(MAIN!$F521, ""), "", MAIN!$E521)</f>
         <v>47000000000518</v>
       </c>
-      <c r="C521" s="20" t="str">
+      <c r="C521" s="23" t="str">
         <f>IF(EXACT(MAIN!$F521, ""), "", MAIN!$B521)</f>
         <v>taufik.mulia</v>
       </c>
-      <c r="D521" s="20" t="str">
+      <c r="D521" s="23" t="str">
         <f>IF(EXACT(MAIN!$F521, ""), "", ""&amp;MAIN!$C521)</f>
         <v>Taufik Mulia Pane</v>
       </c>
@@ -21675,11 +21766,11 @@
         <f>IF(EXACT(MAIN!$F522, ""), "", MAIN!$E522)</f>
         <v>47000000000519</v>
       </c>
-      <c r="C522" s="20" t="str">
+      <c r="C522" s="23" t="str">
         <f>IF(EXACT(MAIN!$F522, ""), "", MAIN!$B522)</f>
         <v>eka.wanti</v>
       </c>
-      <c r="D522" s="20" t="str">
+      <c r="D522" s="23" t="str">
         <f>IF(EXACT(MAIN!$F522, ""), "", ""&amp;MAIN!$C522)</f>
         <v>Eka Purwanti</v>
       </c>
@@ -21689,11 +21780,11 @@
         <f>IF(EXACT(MAIN!$F523, ""), "", MAIN!$E523)</f>
         <v>47000000000520</v>
       </c>
-      <c r="C523" s="20" t="str">
+      <c r="C523" s="23" t="str">
         <f>IF(EXACT(MAIN!$F523, ""), "", MAIN!$B523)</f>
         <v>safira.nurbaiti</v>
       </c>
-      <c r="D523" s="20" t="str">
+      <c r="D523" s="23" t="str">
         <f>IF(EXACT(MAIN!$F523, ""), "", ""&amp;MAIN!$C523)</f>
         <v>Safira Nurbaiti</v>
       </c>
@@ -21703,11 +21794,11 @@
         <f>IF(EXACT(MAIN!$F524, ""), "", MAIN!$E524)</f>
         <v>47000000000521</v>
       </c>
-      <c r="C524" s="20" t="str">
+      <c r="C524" s="23" t="str">
         <f>IF(EXACT(MAIN!$F524, ""), "", MAIN!$B524)</f>
         <v>irvan.agus</v>
       </c>
-      <c r="D524" s="20" t="str">
+      <c r="D524" s="23" t="str">
         <f>IF(EXACT(MAIN!$F524, ""), "", ""&amp;MAIN!$C524)</f>
         <v>Irvan Agus Dharma</v>
       </c>
@@ -21717,11 +21808,11 @@
         <f>IF(EXACT(MAIN!$F525, ""), "", MAIN!$E525)</f>
         <v>47000000000522</v>
       </c>
-      <c r="C525" s="20" t="str">
+      <c r="C525" s="23" t="str">
         <f>IF(EXACT(MAIN!$F525, ""), "", MAIN!$B525)</f>
         <v>adietya.dharmawan</v>
       </c>
-      <c r="D525" s="20" t="str">
+      <c r="D525" s="23" t="str">
         <f>IF(EXACT(MAIN!$F525, ""), "", ""&amp;MAIN!$C525)</f>
         <v>Adietya Dharmawan</v>
       </c>
@@ -21731,11 +21822,11 @@
         <f>IF(EXACT(MAIN!$F526, ""), "", MAIN!$E526)</f>
         <v>47000000000523</v>
       </c>
-      <c r="C526" s="20" t="str">
+      <c r="C526" s="23" t="str">
         <f>IF(EXACT(MAIN!$F526, ""), "", MAIN!$B526)</f>
         <v>abdul.risan</v>
       </c>
-      <c r="D526" s="20" t="str">
+      <c r="D526" s="23" t="str">
         <f>IF(EXACT(MAIN!$F526, ""), "", ""&amp;MAIN!$C526)</f>
         <v>Abdul Risan</v>
       </c>
@@ -21745,11 +21836,11 @@
         <f>IF(EXACT(MAIN!$F527, ""), "", MAIN!$E527)</f>
         <v>47000000000524</v>
       </c>
-      <c r="C527" s="20" t="str">
+      <c r="C527" s="23" t="str">
         <f>IF(EXACT(MAIN!$F527, ""), "", MAIN!$B527)</f>
         <v>sufie.amalia</v>
       </c>
-      <c r="D527" s="20" t="str">
+      <c r="D527" s="23" t="str">
         <f>IF(EXACT(MAIN!$F527, ""), "", ""&amp;MAIN!$C527)</f>
         <v>Sufie Amalia</v>
       </c>
@@ -21759,11 +21850,11 @@
         <f>IF(EXACT(MAIN!$F528, ""), "", MAIN!$E528)</f>
         <v>47000000000525</v>
       </c>
-      <c r="C528" s="20" t="str">
+      <c r="C528" s="23" t="str">
         <f>IF(EXACT(MAIN!$F528, ""), "", MAIN!$B528)</f>
         <v>wisnu.andra</v>
       </c>
-      <c r="D528" s="20" t="str">
+      <c r="D528" s="23" t="str">
         <f>IF(EXACT(MAIN!$F528, ""), "", ""&amp;MAIN!$C528)</f>
         <v>Wisnu Andra</v>
       </c>
@@ -21773,11 +21864,11 @@
         <f>IF(EXACT(MAIN!$F529, ""), "", MAIN!$E529)</f>
         <v>47000000000526</v>
       </c>
-      <c r="C529" s="20" t="str">
+      <c r="C529" s="23" t="str">
         <f>IF(EXACT(MAIN!$F529, ""), "", MAIN!$B529)</f>
         <v>khamim</v>
       </c>
-      <c r="D529" s="20" t="str">
+      <c r="D529" s="23" t="str">
         <f>IF(EXACT(MAIN!$F529, ""), "", ""&amp;MAIN!$C529)</f>
         <v>Khamim</v>
       </c>
@@ -21787,11 +21878,11 @@
         <f>IF(EXACT(MAIN!$F530, ""), "", MAIN!$E530)</f>
         <v>47000000000527</v>
       </c>
-      <c r="C530" s="20" t="str">
+      <c r="C530" s="23" t="str">
         <f>IF(EXACT(MAIN!$F530, ""), "", MAIN!$B530)</f>
         <v>slametr</v>
       </c>
-      <c r="D530" s="20" t="str">
+      <c r="D530" s="23" t="str">
         <f>IF(EXACT(MAIN!$F530, ""), "", ""&amp;MAIN!$C530)</f>
         <v>Slamet R</v>
       </c>
@@ -21801,11 +21892,11 @@
         <f>IF(EXACT(MAIN!$F531, ""), "", MAIN!$E531)</f>
         <v>47000000000528</v>
       </c>
-      <c r="C531" s="20" t="str">
+      <c r="C531" s="23" t="str">
         <f>IF(EXACT(MAIN!$F531, ""), "", MAIN!$B531)</f>
         <v>adythiaa</v>
       </c>
-      <c r="D531" s="20" t="str">
+      <c r="D531" s="23" t="str">
         <f>IF(EXACT(MAIN!$F531, ""), "", ""&amp;MAIN!$C531)</f>
         <v>Adythia A</v>
       </c>
@@ -21815,11 +21906,11 @@
         <f>IF(EXACT(MAIN!$F532, ""), "", MAIN!$E532)</f>
         <v>47000000000529</v>
       </c>
-      <c r="C532" s="20" t="str">
+      <c r="C532" s="23" t="str">
         <f>IF(EXACT(MAIN!$F532, ""), "", MAIN!$B532)</f>
         <v>aguss</v>
       </c>
-      <c r="D532" s="20" t="str">
+      <c r="D532" s="23" t="str">
         <f>IF(EXACT(MAIN!$F532, ""), "", ""&amp;MAIN!$C532)</f>
         <v>User_Aguss</v>
       </c>
@@ -21829,11 +21920,11 @@
         <f>IF(EXACT(MAIN!$F533, ""), "", MAIN!$E533)</f>
         <v>47000000000530</v>
       </c>
-      <c r="C533" s="20" t="str">
+      <c r="C533" s="23" t="str">
         <f>IF(EXACT(MAIN!$F533, ""), "", MAIN!$B533)</f>
         <v>rafi.artman</v>
       </c>
-      <c r="D533" s="20" t="str">
+      <c r="D533" s="23" t="str">
         <f>IF(EXACT(MAIN!$F533, ""), "", ""&amp;MAIN!$C533)</f>
         <v>User_RafiArtman</v>
       </c>
@@ -21843,11 +21934,11 @@
         <f>IF(EXACT(MAIN!$F534, ""), "", MAIN!$E534)</f>
         <v>47000000000531</v>
       </c>
-      <c r="C534" s="20" t="str">
+      <c r="C534" s="23" t="str">
         <f>IF(EXACT(MAIN!$F534, ""), "", MAIN!$B534)</f>
         <v>azisp</v>
       </c>
-      <c r="D534" s="20" t="str">
+      <c r="D534" s="23" t="str">
         <f>IF(EXACT(MAIN!$F534, ""), "", ""&amp;MAIN!$C534)</f>
         <v>User_Azisp</v>
       </c>
@@ -21857,11 +21948,11 @@
         <f>IF(EXACT(MAIN!$F535, ""), "", MAIN!$E535)</f>
         <v>47000000000532</v>
       </c>
-      <c r="C535" s="20" t="str">
+      <c r="C535" s="23" t="str">
         <f>IF(EXACT(MAIN!$F535, ""), "", MAIN!$B535)</f>
         <v>heryanto</v>
       </c>
-      <c r="D535" s="20" t="str">
+      <c r="D535" s="23" t="str">
         <f>IF(EXACT(MAIN!$F535, ""), "", ""&amp;MAIN!$C535)</f>
         <v>User_Heryanto</v>
       </c>
@@ -21871,11 +21962,11 @@
         <f>IF(EXACT(MAIN!$F536, ""), "", MAIN!$E536)</f>
         <v>47000000000533</v>
       </c>
-      <c r="C536" s="20" t="str">
+      <c r="C536" s="23" t="str">
         <f>IF(EXACT(MAIN!$F536, ""), "", MAIN!$B536)</f>
         <v>imran</v>
       </c>
-      <c r="D536" s="20" t="str">
+      <c r="D536" s="23" t="str">
         <f>IF(EXACT(MAIN!$F536, ""), "", ""&amp;MAIN!$C536)</f>
         <v>User_Imran</v>
       </c>
@@ -21885,11 +21976,11 @@
         <f>IF(EXACT(MAIN!$F537, ""), "", MAIN!$E537)</f>
         <v>47000000000534</v>
       </c>
-      <c r="C537" s="20" t="str">
+      <c r="C537" s="23" t="str">
         <f>IF(EXACT(MAIN!$F537, ""), "", MAIN!$B537)</f>
         <v>riza</v>
       </c>
-      <c r="D537" s="20" t="str">
+      <c r="D537" s="23" t="str">
         <f>IF(EXACT(MAIN!$F537, ""), "", ""&amp;MAIN!$C537)</f>
         <v>User_Riza</v>
       </c>
@@ -21899,11 +21990,11 @@
         <f>IF(EXACT(MAIN!$F538, ""), "", MAIN!$E538)</f>
         <v>47000000000535</v>
       </c>
-      <c r="C538" s="20" t="str">
+      <c r="C538" s="23" t="str">
         <f>IF(EXACT(MAIN!$F538, ""), "", MAIN!$B538)</f>
         <v>ronny.anindika</v>
       </c>
-      <c r="D538" s="20" t="str">
+      <c r="D538" s="23" t="str">
         <f>IF(EXACT(MAIN!$F538, ""), "", ""&amp;MAIN!$C538)</f>
         <v>User_RonnyAnindika</v>
       </c>
@@ -21913,11 +22004,11 @@
         <f>IF(EXACT(MAIN!$F539, ""), "", MAIN!$E539)</f>
         <v>47000000000536</v>
       </c>
-      <c r="C539" s="20" t="str">
+      <c r="C539" s="23" t="str">
         <f>IF(EXACT(MAIN!$F539, ""), "", MAIN!$B539)</f>
         <v>wawan.kusworo</v>
       </c>
-      <c r="D539" s="20" t="str">
+      <c r="D539" s="23" t="str">
         <f>IF(EXACT(MAIN!$F539, ""), "", ""&amp;MAIN!$C539)</f>
         <v>User_WawanKusworo</v>
       </c>
@@ -21927,11 +22018,11 @@
         <f>IF(EXACT(MAIN!$F540, ""), "", MAIN!$E540)</f>
         <v>47000000000537</v>
       </c>
-      <c r="C540" s="20" t="str">
+      <c r="C540" s="23" t="str">
         <f>IF(EXACT(MAIN!$F540, ""), "", MAIN!$B540)</f>
         <v>agus.budi</v>
       </c>
-      <c r="D540" s="20" t="str">
+      <c r="D540" s="23" t="str">
         <f>IF(EXACT(MAIN!$F540, ""), "", ""&amp;MAIN!$C540)</f>
         <v>User_AgusBudi</v>
       </c>
@@ -21941,11 +22032,11 @@
         <f>IF(EXACT(MAIN!$F541, ""), "", MAIN!$E541)</f>
         <v>47000000000538</v>
       </c>
-      <c r="C541" s="20" t="str">
+      <c r="C541" s="23" t="str">
         <f>IF(EXACT(MAIN!$F541, ""), "", MAIN!$B541)</f>
         <v>samta.harahap</v>
       </c>
-      <c r="D541" s="20" t="str">
+      <c r="D541" s="23" t="str">
         <f>IF(EXACT(MAIN!$F541, ""), "", ""&amp;MAIN!$C541)</f>
         <v>User_SamtaHarahap</v>
       </c>
@@ -21955,11 +22046,11 @@
         <f>IF(EXACT(MAIN!$F542, ""), "", MAIN!$E542)</f>
         <v>47000000000539</v>
       </c>
-      <c r="C542" s="20" t="str">
+      <c r="C542" s="23" t="str">
         <f>IF(EXACT(MAIN!$F542, ""), "", MAIN!$B542)</f>
         <v>fuzi.mafrozi</v>
       </c>
-      <c r="D542" s="20" t="str">
+      <c r="D542" s="23" t="str">
         <f>IF(EXACT(MAIN!$F542, ""), "", ""&amp;MAIN!$C542)</f>
         <v>User_FuziMafrozi</v>
       </c>
@@ -21969,11 +22060,11 @@
         <f>IF(EXACT(MAIN!$F543, ""), "", MAIN!$E543)</f>
         <v>47000000000540</v>
       </c>
-      <c r="C543" s="20" t="str">
+      <c r="C543" s="23" t="str">
         <f>IF(EXACT(MAIN!$F543, ""), "", MAIN!$B543)</f>
         <v>novizan</v>
       </c>
-      <c r="D543" s="20" t="str">
+      <c r="D543" s="23" t="str">
         <f>IF(EXACT(MAIN!$F543, ""), "", ""&amp;MAIN!$C543)</f>
         <v>User_Novizan</v>
       </c>
@@ -21983,11 +22074,11 @@
         <f>IF(EXACT(MAIN!$F544, ""), "", MAIN!$E544)</f>
         <v>47000000000541</v>
       </c>
-      <c r="C544" s="20" t="str">
+      <c r="C544" s="23" t="str">
         <f>IF(EXACT(MAIN!$F544, ""), "", MAIN!$B544)</f>
         <v>yusuf.fathurahman</v>
       </c>
-      <c r="D544" s="20" t="str">
+      <c r="D544" s="23" t="str">
         <f>IF(EXACT(MAIN!$F544, ""), "", ""&amp;MAIN!$C544)</f>
         <v>User_YusufFathurahman</v>
       </c>
@@ -21997,11 +22088,11 @@
         <f>IF(EXACT(MAIN!$F545, ""), "", MAIN!$E545)</f>
         <v>47000000000542</v>
       </c>
-      <c r="C545" s="20" t="str">
+      <c r="C545" s="23" t="str">
         <f>IF(EXACT(MAIN!$F545, ""), "", MAIN!$B545)</f>
         <v>muhammad.sholikhun</v>
       </c>
-      <c r="D545" s="20" t="str">
+      <c r="D545" s="23" t="str">
         <f>IF(EXACT(MAIN!$F545, ""), "", ""&amp;MAIN!$C545)</f>
         <v>User_MuhammadSholikhun</v>
       </c>
@@ -22011,11 +22102,11 @@
         <f>IF(EXACT(MAIN!$F546, ""), "", MAIN!$E546)</f>
         <v>47000000000543</v>
       </c>
-      <c r="C546" s="20" t="str">
+      <c r="C546" s="23" t="str">
         <f>IF(EXACT(MAIN!$F546, ""), "", MAIN!$B546)</f>
         <v>vingky</v>
       </c>
-      <c r="D546" s="20" t="str">
+      <c r="D546" s="23" t="str">
         <f>IF(EXACT(MAIN!$F546, ""), "", ""&amp;MAIN!$C546)</f>
         <v>User_Vingky</v>
       </c>
@@ -22025,11 +22116,11 @@
         <f>IF(EXACT(MAIN!$F547, ""), "", MAIN!$E547)</f>
         <v>47000000000544</v>
       </c>
-      <c r="C547" s="20" t="str">
+      <c r="C547" s="23" t="str">
         <f>IF(EXACT(MAIN!$F547, ""), "", MAIN!$B547)</f>
         <v>admin.q180</v>
       </c>
-      <c r="D547" s="20" t="str">
+      <c r="D547" s="23" t="str">
         <f>IF(EXACT(MAIN!$F547, ""), "", ""&amp;MAIN!$C547)</f>
         <v>User_AdminQ180</v>
       </c>
@@ -22039,11 +22130,11 @@
         <f>IF(EXACT(MAIN!$F548, ""), "", MAIN!$E548)</f>
         <v>47000000000545</v>
       </c>
-      <c r="C548" s="20" t="str">
+      <c r="C548" s="23" t="str">
         <f>IF(EXACT(MAIN!$F548, ""), "", MAIN!$B548)</f>
         <v>restu.dwi</v>
       </c>
-      <c r="D548" s="20" t="str">
+      <c r="D548" s="23" t="str">
         <f>IF(EXACT(MAIN!$F548, ""), "", ""&amp;MAIN!$C548)</f>
         <v>User_RestuDwi</v>
       </c>
@@ -22053,11 +22144,11 @@
         <f>IF(EXACT(MAIN!$F549, ""), "", MAIN!$E549)</f>
         <v>47000000000546</v>
       </c>
-      <c r="C549" s="20" t="str">
+      <c r="C549" s="23" t="str">
         <f>IF(EXACT(MAIN!$F549, ""), "", MAIN!$B549)</f>
         <v>nikkon.septian</v>
       </c>
-      <c r="D549" s="20" t="str">
+      <c r="D549" s="23" t="str">
         <f>IF(EXACT(MAIN!$F549, ""), "", ""&amp;MAIN!$C549)</f>
         <v>User_NikkonSeptian</v>
       </c>
@@ -22067,11 +22158,11 @@
         <f>IF(EXACT(MAIN!$F550, ""), "", MAIN!$E550)</f>
         <v>47000000000547</v>
       </c>
-      <c r="C550" s="20" t="str">
+      <c r="C550" s="23" t="str">
         <f>IF(EXACT(MAIN!$F550, ""), "", MAIN!$B550)</f>
         <v>dian.setiawan</v>
       </c>
-      <c r="D550" s="20" t="str">
+      <c r="D550" s="23" t="str">
         <f>IF(EXACT(MAIN!$F550, ""), "", ""&amp;MAIN!$C550)</f>
         <v>User_DianSetiawan</v>
       </c>
@@ -22081,11 +22172,11 @@
         <f>IF(EXACT(MAIN!$F551, ""), "", MAIN!$E551)</f>
         <v>47000000000548</v>
       </c>
-      <c r="C551" s="20" t="str">
+      <c r="C551" s="23" t="str">
         <f>IF(EXACT(MAIN!$F551, ""), "", MAIN!$B551)</f>
         <v>muhammad.syarifudin</v>
       </c>
-      <c r="D551" s="20" t="str">
+      <c r="D551" s="23" t="str">
         <f>IF(EXACT(MAIN!$F551, ""), "", ""&amp;MAIN!$C551)</f>
         <v>User_MuhammadSyarifudin</v>
       </c>
@@ -22095,11 +22186,11 @@
         <f>IF(EXACT(MAIN!$F552, ""), "", MAIN!$E552)</f>
         <v>47000000000549</v>
       </c>
-      <c r="C552" s="20" t="str">
+      <c r="C552" s="23" t="str">
         <f>IF(EXACT(MAIN!$F552, ""), "", MAIN!$B552)</f>
         <v>oqi.suhaqi</v>
       </c>
-      <c r="D552" s="20" t="str">
+      <c r="D552" s="23" t="str">
         <f>IF(EXACT(MAIN!$F552, ""), "", ""&amp;MAIN!$C552)</f>
         <v>User_OqiSuhaqi</v>
       </c>
@@ -22109,11 +22200,11 @@
         <f>IF(EXACT(MAIN!$F553, ""), "", MAIN!$E553)</f>
         <v>47000000000550</v>
       </c>
-      <c r="C553" s="20" t="str">
+      <c r="C553" s="23" t="str">
         <f>IF(EXACT(MAIN!$F553, ""), "", MAIN!$B553)</f>
         <v>Idris.affandi</v>
       </c>
-      <c r="D553" s="20" t="str">
+      <c r="D553" s="23" t="str">
         <f>IF(EXACT(MAIN!$F553, ""), "", ""&amp;MAIN!$C553)</f>
         <v/>
       </c>
@@ -22123,11 +22214,11 @@
         <f>IF(EXACT(MAIN!$F554, ""), "", MAIN!$E554)</f>
         <v>47000000000551</v>
       </c>
-      <c r="C554" s="20" t="str">
+      <c r="C554" s="23" t="str">
         <f>IF(EXACT(MAIN!$F554, ""), "", MAIN!$B554)</f>
         <v>wardah</v>
       </c>
-      <c r="D554" s="20" t="str">
+      <c r="D554" s="23" t="str">
         <f>IF(EXACT(MAIN!$F554, ""), "", ""&amp;MAIN!$C554)</f>
         <v>User_Wardah</v>
       </c>
@@ -22137,11 +22228,11 @@
         <f>IF(EXACT(MAIN!$F555, ""), "", MAIN!$E555)</f>
         <v>47000000000552</v>
       </c>
-      <c r="C555" s="20" t="str">
+      <c r="C555" s="23" t="str">
         <f>IF(EXACT(MAIN!$F555, ""), "", MAIN!$B555)</f>
         <v>indra.wijaya</v>
       </c>
-      <c r="D555" s="20" t="str">
+      <c r="D555" s="23" t="str">
         <f>IF(EXACT(MAIN!$F555, ""), "", ""&amp;MAIN!$C555)</f>
         <v>User_IndraWijaya</v>
       </c>
@@ -22151,11 +22242,11 @@
         <f>IF(EXACT(MAIN!$F556, ""), "", MAIN!$E556)</f>
         <v>47000000000553</v>
       </c>
-      <c r="C556" s="20" t="str">
+      <c r="C556" s="23" t="str">
         <f>IF(EXACT(MAIN!$F556, ""), "", MAIN!$B556)</f>
         <v>nadiah.rizkiah</v>
       </c>
-      <c r="D556" s="20" t="str">
+      <c r="D556" s="23" t="str">
         <f>IF(EXACT(MAIN!$F556, ""), "", ""&amp;MAIN!$C556)</f>
         <v>User_NadiahRizkiah</v>
       </c>
@@ -22165,11 +22256,11 @@
         <f>IF(EXACT(MAIN!$F557, ""), "", MAIN!$E557)</f>
         <v>47000000000554</v>
       </c>
-      <c r="C557" s="20" t="str">
+      <c r="C557" s="23" t="str">
         <f>IF(EXACT(MAIN!$F557, ""), "", MAIN!$B557)</f>
         <v>istikaro.fauziah</v>
       </c>
-      <c r="D557" s="20" t="str">
+      <c r="D557" s="23" t="str">
         <f>IF(EXACT(MAIN!$F557, ""), "", ""&amp;MAIN!$C557)</f>
         <v>User_IstikaroFauziah</v>
       </c>
@@ -22179,11 +22270,11 @@
         <f>IF(EXACT(MAIN!$F558, ""), "", MAIN!$E558)</f>
         <v>47000000000555</v>
       </c>
-      <c r="C558" s="20" t="str">
+      <c r="C558" s="23" t="str">
         <f>IF(EXACT(MAIN!$F558, ""), "", MAIN!$B558)</f>
         <v>bagus.isdiantara</v>
       </c>
-      <c r="D558" s="20" t="str">
+      <c r="D558" s="23" t="str">
         <f>IF(EXACT(MAIN!$F558, ""), "", ""&amp;MAIN!$C558)</f>
         <v>User_BagusIsdiantara</v>
       </c>
@@ -22193,11 +22284,11 @@
         <f>IF(EXACT(MAIN!$F559, ""), "", MAIN!$E559)</f>
         <v>47000000000556</v>
       </c>
-      <c r="C559" s="20" t="str">
+      <c r="C559" s="23" t="str">
         <f>IF(EXACT(MAIN!$F559, ""), "", MAIN!$B559)</f>
         <v>cahyana</v>
       </c>
-      <c r="D559" s="20" t="str">
+      <c r="D559" s="23" t="str">
         <f>IF(EXACT(MAIN!$F559, ""), "", ""&amp;MAIN!$C559)</f>
         <v>User_Cahyana</v>
       </c>
@@ -22207,11 +22298,11 @@
         <f>IF(EXACT(MAIN!$F560, ""), "", MAIN!$E560)</f>
         <v>47000000000557</v>
       </c>
-      <c r="C560" s="20" t="str">
+      <c r="C560" s="23" t="str">
         <f>IF(EXACT(MAIN!$F560, ""), "", MAIN!$B560)</f>
         <v>ahmad.yunadi</v>
       </c>
-      <c r="D560" s="20" t="str">
+      <c r="D560" s="23" t="str">
         <f>IF(EXACT(MAIN!$F560, ""), "", ""&amp;MAIN!$C560)</f>
         <v>User_AhmadYunadi</v>
       </c>
@@ -22221,11 +22312,11 @@
         <f>IF(EXACT(MAIN!$F561, ""), "", MAIN!$E561)</f>
         <v>47000000000558</v>
       </c>
-      <c r="C561" s="20" t="str">
+      <c r="C561" s="23" t="str">
         <f>IF(EXACT(MAIN!$F561, ""), "", MAIN!$B561)</f>
         <v>muhammad.lukbani</v>
       </c>
-      <c r="D561" s="20" t="str">
+      <c r="D561" s="23" t="str">
         <f>IF(EXACT(MAIN!$F561, ""), "", ""&amp;MAIN!$C561)</f>
         <v>User_MuhammadLukbani</v>
       </c>
@@ -22235,11 +22326,11 @@
         <f>IF(EXACT(MAIN!$F562, ""), "", MAIN!$E562)</f>
         <v>47000000000559</v>
       </c>
-      <c r="C562" s="20" t="str">
+      <c r="C562" s="23" t="str">
         <f>IF(EXACT(MAIN!$F562, ""), "", MAIN!$B562)</f>
         <v>wahyu.teluk</v>
       </c>
-      <c r="D562" s="20" t="str">
+      <c r="D562" s="23" t="str">
         <f>IF(EXACT(MAIN!$F562, ""), "", ""&amp;MAIN!$C562)</f>
         <v>User_WahyuTeluk</v>
       </c>
@@ -22249,11 +22340,11 @@
         <f>IF(EXACT(MAIN!$F563, ""), "", MAIN!$E563)</f>
         <v>47000000000560</v>
       </c>
-      <c r="C563" s="20" t="str">
+      <c r="C563" s="23" t="str">
         <f>IF(EXACT(MAIN!$F563, ""), "", MAIN!$B563)</f>
         <v>denny.achmad</v>
       </c>
-      <c r="D563" s="20" t="str">
+      <c r="D563" s="23" t="str">
         <f>IF(EXACT(MAIN!$F563, ""), "", ""&amp;MAIN!$C563)</f>
         <v>User_DennyAchmad</v>
       </c>
@@ -22263,11 +22354,11 @@
         <f>IF(EXACT(MAIN!$F564, ""), "", MAIN!$E564)</f>
         <v>47000000000561</v>
       </c>
-      <c r="C564" s="20" t="str">
+      <c r="C564" s="23" t="str">
         <f>IF(EXACT(MAIN!$F564, ""), "", MAIN!$B564)</f>
         <v>irma.maulidawati</v>
       </c>
-      <c r="D564" s="20" t="str">
+      <c r="D564" s="23" t="str">
         <f>IF(EXACT(MAIN!$F564, ""), "", ""&amp;MAIN!$C564)</f>
         <v>User_IrmaMaulidawati</v>
       </c>
@@ -22277,11 +22368,11 @@
         <f>IF(EXACT(MAIN!$F565, ""), "", MAIN!$E565)</f>
         <v>47000000000562</v>
       </c>
-      <c r="C565" s="20" t="str">
+      <c r="C565" s="23" t="str">
         <f>IF(EXACT(MAIN!$F565, ""), "", MAIN!$B565)</f>
         <v>wulanraniasih</v>
       </c>
-      <c r="D565" s="20" t="str">
+      <c r="D565" s="23" t="str">
         <f>IF(EXACT(MAIN!$F565, ""), "", ""&amp;MAIN!$C565)</f>
         <v>User_Wulanraniasih</v>
       </c>
@@ -22291,11 +22382,11 @@
         <f>IF(EXACT(MAIN!$F566, ""), "", MAIN!$E566)</f>
         <v>47000000000563</v>
       </c>
-      <c r="C566" s="20" t="str">
+      <c r="C566" s="23" t="str">
         <f>IF(EXACT(MAIN!$F566, ""), "", MAIN!$B566)</f>
         <v>procurement.admin</v>
       </c>
-      <c r="D566" s="20" t="str">
+      <c r="D566" s="23" t="str">
         <f>IF(EXACT(MAIN!$F566, ""), "", ""&amp;MAIN!$C566)</f>
         <v>User_ProcurementAdmin</v>
       </c>
@@ -22305,11 +22396,11 @@
         <f>IF(EXACT(MAIN!$F567, ""), "", MAIN!$E567)</f>
         <v>47000000000564</v>
       </c>
-      <c r="C567" s="20" t="str">
+      <c r="C567" s="23" t="str">
         <f>IF(EXACT(MAIN!$F567, ""), "", MAIN!$B567)</f>
         <v>ahmad.choerul</v>
       </c>
-      <c r="D567" s="20" t="str">
+      <c r="D567" s="23" t="str">
         <f>IF(EXACT(MAIN!$F567, ""), "", ""&amp;MAIN!$C567)</f>
         <v>User_AhmadChoerul</v>
       </c>
@@ -22319,11 +22410,11 @@
         <f>IF(EXACT(MAIN!$F568, ""), "", MAIN!$E568)</f>
         <v>47000000000565</v>
       </c>
-      <c r="C568" s="20" t="str">
+      <c r="C568" s="23" t="str">
         <f>IF(EXACT(MAIN!$F568, ""), "", MAIN!$B568)</f>
         <v>ferdian.kriswantoro</v>
       </c>
-      <c r="D568" s="20" t="str">
+      <c r="D568" s="23" t="str">
         <f>IF(EXACT(MAIN!$F568, ""), "", ""&amp;MAIN!$C568)</f>
         <v>User_FerdianKriswantoro</v>
       </c>
@@ -22333,11 +22424,11 @@
         <f>IF(EXACT(MAIN!$F569, ""), "", MAIN!$E569)</f>
         <v>47000000000566</v>
       </c>
-      <c r="C569" s="20" t="str">
+      <c r="C569" s="23" t="str">
         <f>IF(EXACT(MAIN!$F569, ""), "", MAIN!$B569)</f>
         <v>zeinurani</v>
       </c>
-      <c r="D569" s="20" t="str">
+      <c r="D569" s="23" t="str">
         <f>IF(EXACT(MAIN!$F569, ""), "", ""&amp;MAIN!$C569)</f>
         <v>User_Zeinurani</v>
       </c>
@@ -22347,11 +22438,11 @@
         <f>IF(EXACT(MAIN!$F570, ""), "", MAIN!$E570)</f>
         <v>47000000000567</v>
       </c>
-      <c r="C570" s="20" t="str">
+      <c r="C570" s="23" t="str">
         <f>IF(EXACT(MAIN!$F570, ""), "", MAIN!$B570)</f>
         <v>yogi.perbangkara</v>
       </c>
-      <c r="D570" s="20" t="str">
+      <c r="D570" s="23" t="str">
         <f>IF(EXACT(MAIN!$F570, ""), "", ""&amp;MAIN!$C570)</f>
         <v>User_YogiPerbangkara</v>
       </c>
@@ -22361,11 +22452,11 @@
         <f>IF(EXACT(MAIN!$F571, ""), "", MAIN!$E571)</f>
         <v>47000000000568</v>
       </c>
-      <c r="C571" s="20" t="str">
+      <c r="C571" s="23" t="str">
         <f>IF(EXACT(MAIN!$F571, ""), "", MAIN!$B571)</f>
         <v>teluknaga</v>
       </c>
-      <c r="D571" s="20" t="str">
+      <c r="D571" s="23" t="str">
         <f>IF(EXACT(MAIN!$F571, ""), "", ""&amp;MAIN!$C571)</f>
         <v>User_Teluknaga</v>
       </c>
@@ -22375,11 +22466,11 @@
         <f>IF(EXACT(MAIN!$F572, ""), "", MAIN!$E572)</f>
         <v>47000000000569</v>
       </c>
-      <c r="C572" s="20" t="str">
+      <c r="C572" s="23" t="str">
         <f>IF(EXACT(MAIN!$F572, ""), "", MAIN!$B572)</f>
         <v>rizal.amri</v>
       </c>
-      <c r="D572" s="20" t="str">
+      <c r="D572" s="23" t="str">
         <f>IF(EXACT(MAIN!$F572, ""), "", ""&amp;MAIN!$C572)</f>
         <v>User_RizalAmri</v>
       </c>
@@ -22389,11 +22480,11 @@
         <f>IF(EXACT(MAIN!$F573, ""), "", MAIN!$E573)</f>
         <v>47000000000570</v>
       </c>
-      <c r="C573" s="20" t="str">
+      <c r="C573" s="23" t="str">
         <f>IF(EXACT(MAIN!$F573, ""), "", MAIN!$B573)</f>
         <v>gilang.setiawan</v>
       </c>
-      <c r="D573" s="20" t="str">
+      <c r="D573" s="23" t="str">
         <f>IF(EXACT(MAIN!$F573, ""), "", ""&amp;MAIN!$C573)</f>
         <v>User_GilangSetiawan</v>
       </c>
@@ -22403,11 +22494,11 @@
         <f>IF(EXACT(MAIN!$F574, ""), "", MAIN!$E574)</f>
         <v>47000000000571</v>
       </c>
-      <c r="C574" s="20" t="str">
+      <c r="C574" s="23" t="str">
         <f>IF(EXACT(MAIN!$F574, ""), "", MAIN!$B574)</f>
         <v>fabrian.danang</v>
       </c>
-      <c r="D574" s="20" t="str">
+      <c r="D574" s="23" t="str">
         <f>IF(EXACT(MAIN!$F574, ""), "", ""&amp;MAIN!$C574)</f>
         <v>User_FabrianDanang</v>
       </c>
@@ -22417,11 +22508,11 @@
         <f>IF(EXACT(MAIN!$F575, ""), "", MAIN!$E575)</f>
         <v>47000000000572</v>
       </c>
-      <c r="C575" s="20" t="str">
+      <c r="C575" s="23" t="str">
         <f>IF(EXACT(MAIN!$F575, ""), "", MAIN!$B575)</f>
         <v>asep.mulyana</v>
       </c>
-      <c r="D575" s="20" t="str">
+      <c r="D575" s="23" t="str">
         <f>IF(EXACT(MAIN!$F575, ""), "", ""&amp;MAIN!$C575)</f>
         <v>User_AsepMulyana</v>
       </c>
@@ -22431,11 +22522,11 @@
         <f>IF(EXACT(MAIN!$F576, ""), "", MAIN!$E576)</f>
         <v>47000000000573</v>
       </c>
-      <c r="C576" s="20" t="str">
+      <c r="C576" s="23" t="str">
         <f>IF(EXACT(MAIN!$F576, ""), "", MAIN!$B576)</f>
         <v>dede.hartanto</v>
       </c>
-      <c r="D576" s="20" t="str">
+      <c r="D576" s="23" t="str">
         <f>IF(EXACT(MAIN!$F576, ""), "", ""&amp;MAIN!$C576)</f>
         <v>User_DedeHartanto</v>
       </c>
@@ -22445,11 +22536,11 @@
         <f>IF(EXACT(MAIN!$F577, ""), "", MAIN!$E577)</f>
         <v>47000000000574</v>
       </c>
-      <c r="C577" s="20" t="str">
+      <c r="C577" s="23" t="str">
         <f>IF(EXACT(MAIN!$F577, ""), "", MAIN!$B577)</f>
         <v>yogo</v>
       </c>
-      <c r="D577" s="20" t="str">
+      <c r="D577" s="23" t="str">
         <f>IF(EXACT(MAIN!$F577, ""), "", ""&amp;MAIN!$C577)</f>
         <v>User_Yogo</v>
       </c>
@@ -22459,11 +22550,11 @@
         <f>IF(EXACT(MAIN!$F578, ""), "", MAIN!$E578)</f>
         <v>47000000000575</v>
       </c>
-      <c r="C578" s="20" t="str">
+      <c r="C578" s="23" t="str">
         <f>IF(EXACT(MAIN!$F578, ""), "", MAIN!$B578)</f>
         <v>suparji</v>
       </c>
-      <c r="D578" s="20" t="str">
+      <c r="D578" s="23" t="str">
         <f>IF(EXACT(MAIN!$F578, ""), "", ""&amp;MAIN!$C578)</f>
         <v>User_Suparji</v>
       </c>
@@ -22473,11 +22564,11 @@
         <f>IF(EXACT(MAIN!$F579, ""), "", MAIN!$E579)</f>
         <v>47000000000576</v>
       </c>
-      <c r="C579" s="20" t="str">
+      <c r="C579" s="23" t="str">
         <f>IF(EXACT(MAIN!$F579, ""), "", MAIN!$B579)</f>
         <v>zainal.abidin</v>
       </c>
-      <c r="D579" s="20" t="str">
+      <c r="D579" s="23" t="str">
         <f>IF(EXACT(MAIN!$F579, ""), "", ""&amp;MAIN!$C579)</f>
         <v>User_ZainalAbidin</v>
       </c>
@@ -22487,11 +22578,11 @@
         <f>IF(EXACT(MAIN!$F580, ""), "", MAIN!$E580)</f>
         <v>47000000000577</v>
       </c>
-      <c r="C580" s="20" t="str">
+      <c r="C580" s="23" t="str">
         <f>IF(EXACT(MAIN!$F580, ""), "", MAIN!$B580)</f>
         <v>togar.sihombing</v>
       </c>
-      <c r="D580" s="20" t="str">
+      <c r="D580" s="23" t="str">
         <f>IF(EXACT(MAIN!$F580, ""), "", ""&amp;MAIN!$C580)</f>
         <v>User_TogarSihombing</v>
       </c>
@@ -22501,11 +22592,11 @@
         <f>IF(EXACT(MAIN!$F581, ""), "", MAIN!$E581)</f>
         <v>47000000000578</v>
       </c>
-      <c r="C581" s="20" t="str">
+      <c r="C581" s="23" t="str">
         <f>IF(EXACT(MAIN!$F581, ""), "", MAIN!$B581)</f>
         <v>khaidir</v>
       </c>
-      <c r="D581" s="20" t="str">
+      <c r="D581" s="23" t="str">
         <f>IF(EXACT(MAIN!$F581, ""), "", ""&amp;MAIN!$C581)</f>
         <v>User_Khaidir</v>
       </c>
@@ -22515,11 +22606,11 @@
         <f>IF(EXACT(MAIN!$F582, ""), "", MAIN!$E582)</f>
         <v>47000000000579</v>
       </c>
-      <c r="C582" s="20" t="str">
+      <c r="C582" s="23" t="str">
         <f>IF(EXACT(MAIN!$F582, ""), "", MAIN!$B582)</f>
         <v>latip.muhlanto</v>
       </c>
-      <c r="D582" s="20" t="str">
+      <c r="D582" s="23" t="str">
         <f>IF(EXACT(MAIN!$F582, ""), "", ""&amp;MAIN!$C582)</f>
         <v>User_LatipMuhlanto</v>
       </c>
@@ -22529,11 +22620,11 @@
         <f>IF(EXACT(MAIN!$F583, ""), "", MAIN!$E583)</f>
         <v>47000000000580</v>
       </c>
-      <c r="C583" s="20" t="str">
+      <c r="C583" s="23" t="str">
         <f>IF(EXACT(MAIN!$F583, ""), "", MAIN!$B583)</f>
         <v>budi.sulistianto</v>
       </c>
-      <c r="D583" s="20" t="str">
+      <c r="D583" s="23" t="str">
         <f>IF(EXACT(MAIN!$F583, ""), "", ""&amp;MAIN!$C583)</f>
         <v>User_BudiSulistianto</v>
       </c>
@@ -22543,11 +22634,11 @@
         <f>IF(EXACT(MAIN!$F584, ""), "", MAIN!$E584)</f>
         <v>47000000000581</v>
       </c>
-      <c r="C584" s="20" t="str">
+      <c r="C584" s="23" t="str">
         <f>IF(EXACT(MAIN!$F584, ""), "", MAIN!$B584)</f>
         <v>sudirman</v>
       </c>
-      <c r="D584" s="20" t="str">
+      <c r="D584" s="23" t="str">
         <f>IF(EXACT(MAIN!$F584, ""), "", ""&amp;MAIN!$C584)</f>
         <v>User_Sudirman</v>
       </c>
@@ -22557,11 +22648,11 @@
         <f>IF(EXACT(MAIN!$F585, ""), "", MAIN!$E585)</f>
         <v>47000000000582</v>
       </c>
-      <c r="C585" s="20" t="str">
+      <c r="C585" s="23" t="str">
         <f>IF(EXACT(MAIN!$F585, ""), "", MAIN!$B585)</f>
         <v>haerul.gunawan</v>
       </c>
-      <c r="D585" s="20" t="str">
+      <c r="D585" s="23" t="str">
         <f>IF(EXACT(MAIN!$F585, ""), "", ""&amp;MAIN!$C585)</f>
         <v>User_HaerulGunawan</v>
       </c>
@@ -22571,11 +22662,11 @@
         <f>IF(EXACT(MAIN!$F586, ""), "", MAIN!$E586)</f>
         <v>47000000000583</v>
       </c>
-      <c r="C586" s="20" t="str">
+      <c r="C586" s="23" t="str">
         <f>IF(EXACT(MAIN!$F586, ""), "", MAIN!$B586)</f>
         <v>ahmad.gunawan</v>
       </c>
-      <c r="D586" s="20" t="str">
+      <c r="D586" s="23" t="str">
         <f>IF(EXACT(MAIN!$F586, ""), "", ""&amp;MAIN!$C586)</f>
         <v>User_AhmadGunawan</v>
       </c>
@@ -22585,11 +22676,11 @@
         <f>IF(EXACT(MAIN!$F587, ""), "", MAIN!$E587)</f>
         <v>47000000000584</v>
       </c>
-      <c r="C587" s="20" t="str">
+      <c r="C587" s="23" t="str">
         <f>IF(EXACT(MAIN!$F587, ""), "", MAIN!$B587)</f>
         <v>taufik.iskandar</v>
       </c>
-      <c r="D587" s="20" t="str">
+      <c r="D587" s="23" t="str">
         <f>IF(EXACT(MAIN!$F587, ""), "", ""&amp;MAIN!$C587)</f>
         <v>User_TaufikIskandar</v>
       </c>
@@ -22599,11 +22690,11 @@
         <f>IF(EXACT(MAIN!$F588, ""), "", MAIN!$E588)</f>
         <v>47000000000585</v>
       </c>
-      <c r="C588" s="20" t="str">
+      <c r="C588" s="23" t="str">
         <f>IF(EXACT(MAIN!$F588, ""), "", MAIN!$B588)</f>
         <v>musdalipa</v>
       </c>
-      <c r="D588" s="20" t="str">
+      <c r="D588" s="23" t="str">
         <f>IF(EXACT(MAIN!$F588, ""), "", ""&amp;MAIN!$C588)</f>
         <v>User_Musdalipa</v>
       </c>
@@ -22613,11 +22704,11 @@
         <f>IF(EXACT(MAIN!$F589, ""), "", MAIN!$E589)</f>
         <v>47000000000586</v>
       </c>
-      <c r="C589" s="20" t="str">
+      <c r="C589" s="23" t="str">
         <f>IF(EXACT(MAIN!$F589, ""), "", MAIN!$B589)</f>
         <v>leonardo.putra</v>
       </c>
-      <c r="D589" s="20" t="str">
+      <c r="D589" s="23" t="str">
         <f>IF(EXACT(MAIN!$F589, ""), "", ""&amp;MAIN!$C589)</f>
         <v>User_LeonardoPutra</v>
       </c>
@@ -22627,11 +22718,11 @@
         <f>IF(EXACT(MAIN!$F590, ""), "", MAIN!$E590)</f>
         <v>47000000000587</v>
       </c>
-      <c r="C590" s="20" t="str">
+      <c r="C590" s="23" t="str">
         <f>IF(EXACT(MAIN!$F590, ""), "", MAIN!$B590)</f>
         <v>andri.andriyan</v>
       </c>
-      <c r="D590" s="20" t="str">
+      <c r="D590" s="23" t="str">
         <f>IF(EXACT(MAIN!$F590, ""), "", ""&amp;MAIN!$C590)</f>
         <v>User_AndriAndriyan</v>
       </c>
@@ -22641,11 +22732,11 @@
         <f>IF(EXACT(MAIN!$F591, ""), "", MAIN!$E591)</f>
         <v>47000000000588</v>
       </c>
-      <c r="C591" s="20" t="str">
+      <c r="C591" s="23" t="str">
         <f>IF(EXACT(MAIN!$F591, ""), "", MAIN!$B591)</f>
         <v>eka.budi</v>
       </c>
-      <c r="D591" s="20" t="str">
+      <c r="D591" s="23" t="str">
         <f>IF(EXACT(MAIN!$F591, ""), "", ""&amp;MAIN!$C591)</f>
         <v>User_EkaBudi</v>
       </c>
@@ -22655,11 +22746,11 @@
         <f>IF(EXACT(MAIN!$F592, ""), "", MAIN!$E592)</f>
         <v>47000000000589</v>
       </c>
-      <c r="C592" s="20" t="str">
+      <c r="C592" s="23" t="str">
         <f>IF(EXACT(MAIN!$F592, ""), "", MAIN!$B592)</f>
         <v>yustiana.firda</v>
       </c>
-      <c r="D592" s="20" t="str">
+      <c r="D592" s="23" t="str">
         <f>IF(EXACT(MAIN!$F592, ""), "", ""&amp;MAIN!$C592)</f>
         <v>User_YustianaFirda</v>
       </c>
@@ -22669,11 +22760,11 @@
         <f>IF(EXACT(MAIN!$F593, ""), "", MAIN!$E593)</f>
         <v>47000000000590</v>
       </c>
-      <c r="C593" s="20" t="str">
+      <c r="C593" s="23" t="str">
         <f>IF(EXACT(MAIN!$F593, ""), "", MAIN!$B593)</f>
         <v>nico.melky</v>
       </c>
-      <c r="D593" s="20" t="str">
+      <c r="D593" s="23" t="str">
         <f>IF(EXACT(MAIN!$F593, ""), "", ""&amp;MAIN!$C593)</f>
         <v>User_NicoMelky</v>
       </c>
@@ -22683,11 +22774,11 @@
         <f>IF(EXACT(MAIN!$F594, ""), "", MAIN!$E594)</f>
         <v>47000000000591</v>
       </c>
-      <c r="C594" s="20" t="str">
+      <c r="C594" s="23" t="str">
         <f>IF(EXACT(MAIN!$F594, ""), "", MAIN!$B594)</f>
         <v>aden.bagus</v>
       </c>
-      <c r="D594" s="20" t="str">
+      <c r="D594" s="23" t="str">
         <f>IF(EXACT(MAIN!$F594, ""), "", ""&amp;MAIN!$C594)</f>
         <v>User_AdenBagus</v>
       </c>
@@ -22697,11 +22788,11 @@
         <f>IF(EXACT(MAIN!$F595, ""), "", MAIN!$E595)</f>
         <v>47000000000592</v>
       </c>
-      <c r="C595" s="20" t="str">
+      <c r="C595" s="23" t="str">
         <f>IF(EXACT(MAIN!$F595, ""), "", MAIN!$B595)</f>
         <v>abdul.rachman</v>
       </c>
-      <c r="D595" s="20" t="str">
+      <c r="D595" s="23" t="str">
         <f>IF(EXACT(MAIN!$F595, ""), "", ""&amp;MAIN!$C595)</f>
         <v>User_AbdulRachman</v>
       </c>
@@ -22711,11 +22802,11 @@
         <f>IF(EXACT(MAIN!$F596, ""), "", MAIN!$E596)</f>
         <v>47000000000593</v>
       </c>
-      <c r="C596" s="20" t="str">
+      <c r="C596" s="23" t="str">
         <f>IF(EXACT(MAIN!$F596, ""), "", MAIN!$B596)</f>
         <v>adhe.kurniawan</v>
       </c>
-      <c r="D596" s="20" t="str">
+      <c r="D596" s="23" t="str">
         <f>IF(EXACT(MAIN!$F596, ""), "", ""&amp;MAIN!$C596)</f>
         <v>User_AdheKurniawan</v>
       </c>
@@ -22725,11 +22816,11 @@
         <f>IF(EXACT(MAIN!$F597, ""), "", MAIN!$E597)</f>
         <v>47000000000594</v>
       </c>
-      <c r="C597" s="20" t="str">
+      <c r="C597" s="23" t="str">
         <f>IF(EXACT(MAIN!$F597, ""), "", MAIN!$B597)</f>
         <v>eka.kurniawan</v>
       </c>
-      <c r="D597" s="20" t="str">
+      <c r="D597" s="23" t="str">
         <f>IF(EXACT(MAIN!$F597, ""), "", ""&amp;MAIN!$C597)</f>
         <v>User_EkaKurniawan</v>
       </c>
@@ -22739,11 +22830,11 @@
         <f>IF(EXACT(MAIN!$F598, ""), "", MAIN!$E598)</f>
         <v>47000000000595</v>
       </c>
-      <c r="C598" s="20" t="str">
+      <c r="C598" s="23" t="str">
         <f>IF(EXACT(MAIN!$F598, ""), "", MAIN!$B598)</f>
         <v>irvan.agus</v>
       </c>
-      <c r="D598" s="20" t="str">
+      <c r="D598" s="23" t="str">
         <f>IF(EXACT(MAIN!$F598, ""), "", ""&amp;MAIN!$C598)</f>
         <v>User_IrvanAgus</v>
       </c>
@@ -22753,11 +22844,11 @@
         <f>IF(EXACT(MAIN!$F599, ""), "", MAIN!$E599)</f>
         <v>47000000000596</v>
       </c>
-      <c r="C599" s="20" t="str">
+      <c r="C599" s="23" t="str">
         <f>IF(EXACT(MAIN!$F599, ""), "", MAIN!$B599)</f>
         <v>satrio.dhiaputra</v>
       </c>
-      <c r="D599" s="20" t="str">
+      <c r="D599" s="23" t="str">
         <f>IF(EXACT(MAIN!$F599, ""), "", ""&amp;MAIN!$C599)</f>
         <v>User_SatrioDhiaputra</v>
       </c>
@@ -22767,11 +22858,11 @@
         <f>IF(EXACT(MAIN!$F600, ""), "", MAIN!$E600)</f>
         <v>47000000000597</v>
       </c>
-      <c r="C600" s="20" t="str">
+      <c r="C600" s="23" t="str">
         <f>IF(EXACT(MAIN!$F600, ""), "", MAIN!$B600)</f>
         <v>tegar.hersaputra</v>
       </c>
-      <c r="D600" s="20" t="str">
+      <c r="D600" s="23" t="str">
         <f>IF(EXACT(MAIN!$F600, ""), "", ""&amp;MAIN!$C600)</f>
         <v>User_TegarHersaputra</v>
       </c>
@@ -22781,11 +22872,11 @@
         <f>IF(EXACT(MAIN!$F601, ""), "", MAIN!$E601)</f>
         <v>47000000000598</v>
       </c>
-      <c r="C601" s="20" t="str">
+      <c r="C601" s="23" t="str">
         <f>IF(EXACT(MAIN!$F601, ""), "", MAIN!$B601)</f>
         <v>joshika.pradirga</v>
       </c>
-      <c r="D601" s="20" t="str">
+      <c r="D601" s="23" t="str">
         <f>IF(EXACT(MAIN!$F601, ""), "", ""&amp;MAIN!$C601)</f>
         <v>User_JoshikaPradirga</v>
       </c>
@@ -22795,11 +22886,11 @@
         <f>IF(EXACT(MAIN!$F602, ""), "", MAIN!$E602)</f>
         <v>47000000000599</v>
       </c>
-      <c r="C602" s="20" t="str">
+      <c r="C602" s="23" t="str">
         <f>IF(EXACT(MAIN!$F602, ""), "", MAIN!$B602)</f>
         <v>wisnu.trenggono</v>
       </c>
-      <c r="D602" s="20" t="str">
+      <c r="D602" s="23" t="str">
         <f>IF(EXACT(MAIN!$F602, ""), "", ""&amp;MAIN!$C602)</f>
         <v>User_WisnuTrenggono</v>
       </c>
@@ -22809,11 +22900,11 @@
         <f>IF(EXACT(MAIN!$F603, ""), "", MAIN!$E603)</f>
         <v>47000000000600</v>
       </c>
-      <c r="C603" s="20" t="str">
+      <c r="C603" s="23" t="str">
         <f>IF(EXACT(MAIN!$F603, ""), "", MAIN!$B603)</f>
         <v>ahmad.fauzi</v>
       </c>
-      <c r="D603" s="20" t="str">
+      <c r="D603" s="23" t="str">
         <f>IF(EXACT(MAIN!$F603, ""), "", ""&amp;MAIN!$C603)</f>
         <v>User_AhmadFauzi</v>
       </c>
@@ -22823,11 +22914,11 @@
         <f>IF(EXACT(MAIN!$F604, ""), "", MAIN!$E604)</f>
         <v>47000000000601</v>
       </c>
-      <c r="C604" s="20" t="str">
+      <c r="C604" s="23" t="str">
         <f>IF(EXACT(MAIN!$F604, ""), "", MAIN!$B604)</f>
         <v>muhammad.ramadani</v>
       </c>
-      <c r="D604" s="20" t="str">
+      <c r="D604" s="23" t="str">
         <f>IF(EXACT(MAIN!$F604, ""), "", ""&amp;MAIN!$C604)</f>
         <v>User_MuhammadRamadani</v>
       </c>
@@ -22837,11 +22928,11 @@
         <f>IF(EXACT(MAIN!$F605, ""), "", MAIN!$E605)</f>
         <v>47000000000602</v>
       </c>
-      <c r="C605" s="20" t="str">
+      <c r="C605" s="23" t="str">
         <f>IF(EXACT(MAIN!$F605, ""), "", MAIN!$B605)</f>
         <v>rahmata.novanisa</v>
       </c>
-      <c r="D605" s="20" t="str">
+      <c r="D605" s="23" t="str">
         <f>IF(EXACT(MAIN!$F605, ""), "", ""&amp;MAIN!$C605)</f>
         <v>User_RahmataNovanisa</v>
       </c>
@@ -22851,11 +22942,11 @@
         <f>IF(EXACT(MAIN!$F606, ""), "", MAIN!$E606)</f>
         <v>47000000000603</v>
       </c>
-      <c r="C606" s="20" t="str">
+      <c r="C606" s="23" t="str">
         <f>IF(EXACT(MAIN!$F606, ""), "", MAIN!$B606)</f>
         <v>budi.sandika</v>
       </c>
-      <c r="D606" s="20" t="str">
+      <c r="D606" s="23" t="str">
         <f>IF(EXACT(MAIN!$F606, ""), "", ""&amp;MAIN!$C606)</f>
         <v>User_BudiSandika</v>
       </c>
@@ -22865,11 +22956,11 @@
         <f>IF(EXACT(MAIN!$F607, ""), "", MAIN!$E607)</f>
         <v>47000000000604</v>
       </c>
-      <c r="C607" s="20" t="str">
+      <c r="C607" s="23" t="str">
         <f>IF(EXACT(MAIN!$F607, ""), "", MAIN!$B607)</f>
         <v>fachri.azhar</v>
       </c>
-      <c r="D607" s="20" t="str">
+      <c r="D607" s="23" t="str">
         <f>IF(EXACT(MAIN!$F607, ""), "", ""&amp;MAIN!$C607)</f>
         <v>User_FachriAzhar</v>
       </c>
@@ -22879,11 +22970,11 @@
         <f>IF(EXACT(MAIN!$F608, ""), "", MAIN!$E608)</f>
         <v>47000000000605</v>
       </c>
-      <c r="C608" s="20" t="str">
+      <c r="C608" s="23" t="str">
         <f>IF(EXACT(MAIN!$F608, ""), "", MAIN!$B608)</f>
         <v>firmansyah.awaludin</v>
       </c>
-      <c r="D608" s="20" t="str">
+      <c r="D608" s="23" t="str">
         <f>IF(EXACT(MAIN!$F608, ""), "", ""&amp;MAIN!$C608)</f>
         <v>User_FirmansyahAwaludin</v>
       </c>
@@ -22893,11 +22984,11 @@
         <f>IF(EXACT(MAIN!$F609, ""), "", MAIN!$E609)</f>
         <v>47000000000606</v>
       </c>
-      <c r="C609" s="20" t="str">
+      <c r="C609" s="23" t="str">
         <f>IF(EXACT(MAIN!$F609, ""), "", MAIN!$B609)</f>
         <v>iman.faisal</v>
       </c>
-      <c r="D609" s="20" t="str">
+      <c r="D609" s="23" t="str">
         <f>IF(EXACT(MAIN!$F609, ""), "", ""&amp;MAIN!$C609)</f>
         <v>User_ImanFaisalAbdurahman</v>
       </c>
@@ -22907,11 +22998,11 @@
         <f>IF(EXACT(MAIN!$F610, ""), "", MAIN!$E610)</f>
         <v>47000000000607</v>
       </c>
-      <c r="C610" s="20" t="str">
+      <c r="C610" s="23" t="str">
         <f>IF(EXACT(MAIN!$F610, ""), "", MAIN!$B610)</f>
         <v>muhammad.irfan</v>
       </c>
-      <c r="D610" s="20" t="str">
+      <c r="D610" s="23" t="str">
         <f>IF(EXACT(MAIN!$F610, ""), "", ""&amp;MAIN!$C610)</f>
         <v>User_MuhammadIrfanAlfikri</v>
       </c>
@@ -22921,11 +23012,11 @@
         <f>IF(EXACT(MAIN!$F611, ""), "", MAIN!$E611)</f>
         <v>47000000000608</v>
       </c>
-      <c r="C611" s="20" t="str">
+      <c r="C611" s="23" t="str">
         <f>IF(EXACT(MAIN!$F611, ""), "", MAIN!$B611)</f>
         <v>syafri.johansah</v>
       </c>
-      <c r="D611" s="20" t="str">
+      <c r="D611" s="23" t="str">
         <f>IF(EXACT(MAIN!$F611, ""), "", ""&amp;MAIN!$C611)</f>
         <v>User_SyafriJohansah</v>
       </c>
@@ -22935,11 +23026,11 @@
         <f>IF(EXACT(MAIN!$F612, ""), "", MAIN!$E612)</f>
         <v>47000000000609</v>
       </c>
-      <c r="C612" s="20" t="str">
+      <c r="C612" s="23" t="str">
         <f>IF(EXACT(MAIN!$F612, ""), "", MAIN!$B612)</f>
         <v>agus.sobar</v>
       </c>
-      <c r="D612" s="20" t="str">
+      <c r="D612" s="23" t="str">
         <f>IF(EXACT(MAIN!$F612, ""), "", ""&amp;MAIN!$C612)</f>
         <v>User_AgusSobar</v>
       </c>
@@ -22949,11 +23040,11 @@
         <f>IF(EXACT(MAIN!$F613, ""), "", MAIN!$E613)</f>
         <v>47000000000610</v>
       </c>
-      <c r="C613" s="20" t="str">
+      <c r="C613" s="23" t="str">
         <f>IF(EXACT(MAIN!$F613, ""), "", MAIN!$B613)</f>
         <v>andi.mapasoro</v>
       </c>
-      <c r="D613" s="20" t="str">
+      <c r="D613" s="23" t="str">
         <f>IF(EXACT(MAIN!$F613, ""), "", ""&amp;MAIN!$C613)</f>
         <v>User_AndiMapasoro</v>
       </c>
@@ -22963,11 +23054,11 @@
         <f>IF(EXACT(MAIN!$F614, ""), "", MAIN!$E614)</f>
         <v>47000000000611</v>
       </c>
-      <c r="C614" s="20" t="str">
+      <c r="C614" s="23" t="str">
         <f>IF(EXACT(MAIN!$F614, ""), "", MAIN!$B614)</f>
         <v>arie.gustaman</v>
       </c>
-      <c r="D614" s="20" t="str">
+      <c r="D614" s="23" t="str">
         <f>IF(EXACT(MAIN!$F614, ""), "", ""&amp;MAIN!$C614)</f>
         <v>User_ArieGustaman</v>
       </c>
@@ -22977,11 +23068,11 @@
         <f>IF(EXACT(MAIN!$F615, ""), "", MAIN!$E615)</f>
         <v>47000000000612</v>
       </c>
-      <c r="C615" s="20" t="str">
+      <c r="C615" s="23" t="str">
         <f>IF(EXACT(MAIN!$F615, ""), "", MAIN!$B615)</f>
         <v>deby.syahputra</v>
       </c>
-      <c r="D615" s="20" t="str">
+      <c r="D615" s="23" t="str">
         <f>IF(EXACT(MAIN!$F615, ""), "", ""&amp;MAIN!$C615)</f>
         <v>User_DebySyahputa</v>
       </c>
@@ -22991,11 +23082,11 @@
         <f>IF(EXACT(MAIN!$F616, ""), "", MAIN!$E616)</f>
         <v>47000000000613</v>
       </c>
-      <c r="C616" s="20" t="str">
+      <c r="C616" s="23" t="str">
         <f>IF(EXACT(MAIN!$F616, ""), "", MAIN!$B616)</f>
         <v>ibrahim.arya</v>
       </c>
-      <c r="D616" s="20" t="str">
+      <c r="D616" s="23" t="str">
         <f>IF(EXACT(MAIN!$F616, ""), "", ""&amp;MAIN!$C616)</f>
         <v>User_IbrahimAryaYuda</v>
       </c>
@@ -23005,11 +23096,11 @@
         <f>IF(EXACT(MAIN!$F617, ""), "", MAIN!$E617)</f>
         <v>47000000000614</v>
       </c>
-      <c r="C617" s="20" t="str">
+      <c r="C617" s="23" t="str">
         <f>IF(EXACT(MAIN!$F617, ""), "", MAIN!$B617)</f>
         <v>jamil</v>
       </c>
-      <c r="D617" s="20" t="str">
+      <c r="D617" s="23" t="str">
         <f>IF(EXACT(MAIN!$F617, ""), "", ""&amp;MAIN!$C617)</f>
         <v>User_Jamil</v>
       </c>
@@ -23019,11 +23110,11 @@
         <f>IF(EXACT(MAIN!$F618, ""), "", MAIN!$E618)</f>
         <v>47000000000615</v>
       </c>
-      <c r="C618" s="20" t="str">
+      <c r="C618" s="23" t="str">
         <f>IF(EXACT(MAIN!$F618, ""), "", MAIN!$B618)</f>
         <v>kiki.prasetyo</v>
       </c>
-      <c r="D618" s="20" t="str">
+      <c r="D618" s="23" t="str">
         <f>IF(EXACT(MAIN!$F618, ""), "", ""&amp;MAIN!$C618)</f>
         <v>User_KikiPrasetyo</v>
       </c>
@@ -23033,11 +23124,11 @@
         <f>IF(EXACT(MAIN!$F619, ""), "", MAIN!$E619)</f>
         <v>47000000000616</v>
       </c>
-      <c r="C619" s="20" t="str">
+      <c r="C619" s="23" t="str">
         <f>IF(EXACT(MAIN!$F619, ""), "", MAIN!$B619)</f>
         <v>m.bilal</v>
       </c>
-      <c r="D619" s="20" t="str">
+      <c r="D619" s="23" t="str">
         <f>IF(EXACT(MAIN!$F619, ""), "", ""&amp;MAIN!$C619)</f>
         <v>User_MuhammadBilalSharony</v>
       </c>
@@ -23047,11 +23138,11 @@
         <f>IF(EXACT(MAIN!$F620, ""), "", MAIN!$E620)</f>
         <v>47000000000617</v>
       </c>
-      <c r="C620" s="20" t="str">
+      <c r="C620" s="23" t="str">
         <f>IF(EXACT(MAIN!$F620, ""), "", MAIN!$B620)</f>
         <v>muhammad.hairul</v>
       </c>
-      <c r="D620" s="20" t="str">
+      <c r="D620" s="23" t="str">
         <f>IF(EXACT(MAIN!$F620, ""), "", ""&amp;MAIN!$C620)</f>
         <v>User_MuhammadHairul</v>
       </c>
@@ -23061,11 +23152,11 @@
         <f>IF(EXACT(MAIN!$F621, ""), "", MAIN!$E621)</f>
         <v>47000000000618</v>
       </c>
-      <c r="C621" s="20" t="str">
+      <c r="C621" s="23" t="str">
         <f>IF(EXACT(MAIN!$F621, ""), "", MAIN!$B621)</f>
         <v>muhammad.rizal</v>
       </c>
-      <c r="D621" s="20" t="str">
+      <c r="D621" s="23" t="str">
         <f>IF(EXACT(MAIN!$F621, ""), "", ""&amp;MAIN!$C621)</f>
         <v>User_MuhammadRizal</v>
       </c>
@@ -23075,11 +23166,11 @@
         <f>IF(EXACT(MAIN!$F622, ""), "", MAIN!$E622)</f>
         <v>47000000000619</v>
       </c>
-      <c r="C622" s="20" t="str">
+      <c r="C622" s="23" t="str">
         <f>IF(EXACT(MAIN!$F622, ""), "", MAIN!$B622)</f>
         <v>rahmad.dwifar</v>
       </c>
-      <c r="D622" s="20" t="str">
+      <c r="D622" s="23" t="str">
         <f>IF(EXACT(MAIN!$F622, ""), "", ""&amp;MAIN!$C622)</f>
         <v>User_RahmadDwifar</v>
       </c>
@@ -23089,11 +23180,11 @@
         <f>IF(EXACT(MAIN!$F623, ""), "", MAIN!$E623)</f>
         <v>47000000000620</v>
       </c>
-      <c r="C623" s="20" t="str">
+      <c r="C623" s="23" t="str">
         <f>IF(EXACT(MAIN!$F623, ""), "", MAIN!$B623)</f>
         <v>reza.sanjaya</v>
       </c>
-      <c r="D623" s="20" t="str">
+      <c r="D623" s="23" t="str">
         <f>IF(EXACT(MAIN!$F623, ""), "", ""&amp;MAIN!$C623)</f>
         <v>User_RezaSanjaya</v>
       </c>
@@ -23103,11 +23194,11 @@
         <f>IF(EXACT(MAIN!$F624, ""), "", MAIN!$E624)</f>
         <v>47000000000621</v>
       </c>
-      <c r="C624" s="20" t="str">
+      <c r="C624" s="23" t="str">
         <f>IF(EXACT(MAIN!$F624, ""), "", MAIN!$B624)</f>
         <v>ridwan.nur</v>
       </c>
-      <c r="D624" s="20" t="str">
+      <c r="D624" s="23" t="str">
         <f>IF(EXACT(MAIN!$F624, ""), "", ""&amp;MAIN!$C624)</f>
         <v>User_RidwanNurMutaqqin</v>
       </c>
@@ -23117,11 +23208,11 @@
         <f>IF(EXACT(MAIN!$F625, ""), "", MAIN!$E625)</f>
         <v>47000000000622</v>
       </c>
-      <c r="C625" s="20" t="str">
+      <c r="C625" s="23" t="str">
         <f>IF(EXACT(MAIN!$F625, ""), "", MAIN!$B625)</f>
         <v>Risaldi</v>
       </c>
-      <c r="D625" s="20" t="str">
+      <c r="D625" s="23" t="str">
         <f>IF(EXACT(MAIN!$F625, ""), "", ""&amp;MAIN!$C625)</f>
         <v>User_Risaldi</v>
       </c>
@@ -23131,11 +23222,11 @@
         <f>IF(EXACT(MAIN!$F626, ""), "", MAIN!$E626)</f>
         <v>47000000000623</v>
       </c>
-      <c r="C626" s="20" t="str">
+      <c r="C626" s="23" t="str">
         <f>IF(EXACT(MAIN!$F626, ""), "", MAIN!$B626)</f>
         <v>risty.alawiyah</v>
       </c>
-      <c r="D626" s="20" t="str">
+      <c r="D626" s="23" t="str">
         <f>IF(EXACT(MAIN!$F626, ""), "", ""&amp;MAIN!$C626)</f>
         <v>User_RistyAlawiyah</v>
       </c>
@@ -23145,11 +23236,11 @@
         <f>IF(EXACT(MAIN!$F627, ""), "", MAIN!$E627)</f>
         <v>47000000000624</v>
       </c>
-      <c r="C627" s="20" t="str">
+      <c r="C627" s="23" t="str">
         <f>IF(EXACT(MAIN!$F627, ""), "", MAIN!$B627)</f>
         <v>taufik.aminudin</v>
       </c>
-      <c r="D627" s="20" t="str">
+      <c r="D627" s="23" t="str">
         <f>IF(EXACT(MAIN!$F627, ""), "", ""&amp;MAIN!$C627)</f>
         <v>User_TaufikAminudin</v>
       </c>
@@ -23159,11 +23250,11 @@
         <f>IF(EXACT(MAIN!$F628, ""), "", MAIN!$E628)</f>
         <v>47000000000625</v>
       </c>
-      <c r="C628" s="20" t="str">
+      <c r="C628" s="23" t="str">
         <f>IF(EXACT(MAIN!$F628, ""), "", MAIN!$B628)</f>
         <v>ulul.azmi</v>
       </c>
-      <c r="D628" s="20" t="str">
+      <c r="D628" s="23" t="str">
         <f>IF(EXACT(MAIN!$F628, ""), "", ""&amp;MAIN!$C628)</f>
         <v>User_MochamadUlulAzmiWiraUtama</v>
       </c>
@@ -23173,11 +23264,11 @@
         <f>IF(EXACT(MAIN!$F629, ""), "", MAIN!$E629)</f>
         <v>47000000000626</v>
       </c>
-      <c r="C629" s="20" t="str">
+      <c r="C629" s="23" t="str">
         <f>IF(EXACT(MAIN!$F629, ""), "", MAIN!$B629)</f>
         <v>wiyadianto</v>
       </c>
-      <c r="D629" s="20" t="str">
+      <c r="D629" s="23" t="str">
         <f>IF(EXACT(MAIN!$F629, ""), "", ""&amp;MAIN!$C629)</f>
         <v>User_Wiyadianto</v>
       </c>
@@ -23187,26 +23278,68 @@
         <f>IF(EXACT(MAIN!$F630, ""), "", MAIN!$E630)</f>
         <v>47000000000627</v>
       </c>
-      <c r="C630" s="20" t="str">
+      <c r="C630" s="23" t="str">
         <f>IF(EXACT(MAIN!$F630, ""), "", MAIN!$B630)</f>
         <v>zulfikar.siregar</v>
       </c>
-      <c r="D630" s="20" t="str">
+      <c r="D630" s="23" t="str">
         <f>IF(EXACT(MAIN!$F630, ""), "", ""&amp;MAIN!$C630)</f>
         <v>User_ZulfikarKSiregarIR</v>
       </c>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B631" s="19" t="str">
+      <c r="B631" s="19">
         <f>IF(EXACT(MAIN!$F631, ""), "", MAIN!$E631)</f>
-        <v/>
+        <v>47000000000628</v>
       </c>
       <c r="C631" s="23" t="str">
         <f>IF(EXACT(MAIN!$F631, ""), "", MAIN!$B631)</f>
-        <v/>
+        <v>achmad.sandi</v>
       </c>
       <c r="D631" s="23" t="str">
         <f>IF(EXACT(MAIN!$F631, ""), "", ""&amp;MAIN!$C631)</f>
+        <v>User_AhmadSandi</v>
+      </c>
+    </row>
+    <row r="632" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B632" s="19">
+        <f>IF(EXACT(MAIN!$F632, ""), "", MAIN!$E632)</f>
+        <v>47000000000629</v>
+      </c>
+      <c r="C632" s="23" t="str">
+        <f>IF(EXACT(MAIN!$F632, ""), "", MAIN!$B632)</f>
+        <v>andrean.fahrizi</v>
+      </c>
+      <c r="D632" s="23" t="str">
+        <f>IF(EXACT(MAIN!$F632, ""), "", ""&amp;MAIN!$C632)</f>
+        <v>User_AndreanFahrizi</v>
+      </c>
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B633" s="19">
+        <f>IF(EXACT(MAIN!$F633, ""), "", MAIN!$E633)</f>
+        <v>47000000000630</v>
+      </c>
+      <c r="C633" s="23" t="str">
+        <f>IF(EXACT(MAIN!$F633, ""), "", MAIN!$B633)</f>
+        <v>amar.abdilah</v>
+      </c>
+      <c r="D633" s="23" t="str">
+        <f>IF(EXACT(MAIN!$F633, ""), "", ""&amp;MAIN!$C633)</f>
+        <v>User_AmarAbdilah</v>
+      </c>
+    </row>
+    <row r="634" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B634" s="19" t="str">
+        <f>IF(EXACT(MAIN!$F634, ""), "", MAIN!$E634)</f>
+        <v/>
+      </c>
+      <c r="C634" s="22" t="str">
+        <f>IF(EXACT(MAIN!$F634, ""), "", MAIN!$B634)</f>
+        <v/>
+      </c>
+      <c r="D634" s="22" t="str">
+        <f>IF(EXACT(MAIN!$F634, ""), "", ""&amp;MAIN!$C634)</f>
         <v/>
       </c>
     </row>
